--- a/Project_python/out/LDA/test_lda_abstracts.xlsx
+++ b/Project_python/out/LDA/test_lda_abstracts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/out/Global/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/out/LDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A1D20CE854BB20E62355476585DCE3A8742B79A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084470D4-13AC-4167-8F9C-B1EBAB4AD3DD}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7451B689414C180F62355476585DCE3A87428D89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180AACE8-8BCE-437D-8DD4-8E0013F5AEA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="525">
   <si>
     <t>text</t>
   </si>
@@ -46,1675 +46,1555 @@
     <t>any_valid</t>
   </si>
   <si>
-    <t>['artificial', 'intelligence', 'displacing', 'jobs', 'creating', 'upheaval', 'world', 'change', 'work', 'live', 'governance', 'policies', 'regulations', 'governance', 'policies', 'regulations', 'mitigate', 'alleviate', 'negative', 'aspects', 'advancement', 'governance', 'policies', 'regulations', 'impact', 'future', 'work', 'future', 'humanity', 'longitudinal', 'multiple', 'studies', 'research', 'study', 'evolution', 'revolution', 'governance', 'policies', 'regulations', 'governance', 'policies', 'regulations', 'impact', 'advancement', 'impacted', 'advancement', 'research', 'plans', 'study', 'leading', 'countries', 'research', 'china']</t>
+    <t>['artificial', 'intelligence', 'displacing', 'creating', 'upheaval', 'world', 'change', 'work', 'live', 'governance', 'policy', 'regulation', 'governance', 'policy', 'regulation', 'mitigate', 'alleviate', 'negative', 'aspect', 'advancement', 'governance', 'policy', 'regulation', 'impact', 'future', 'work', 'future', 'humanity', 'longitudinal', 'multiple', 'study', 'research', 'study', 'evolution', 'revolution', 'governance', 'policy', 'regulation', 'governance', 'policy', 'regulation', 'impact', 'advancement', 'impacted', 'advancement', 'research', 'plan', 'study', 'leading', 'country', 'research', 'china']</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>x1: 0.00|x2: 0.46|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.42|x9: 0.53|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.41|x17: 0.00</t>
+    <t>x1: 0.22|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.00|x10: 0.36|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.46|x15: 0.00|x16: 0.11|x17: 0.00</t>
   </si>
   <si>
     <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
   </si>
   <si>
-    <t>[0.00, 0.12, 0.53]</t>
-  </si>
-  <si>
-    <t>[2, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['deep', 'learning', 'recent', 'years', 'brought', 'breakthroughs', 'domains', 'notably', 'voice', 'image', 'recognition', 'work', 'extend', 'deep', 'learning', 'application', 'domain', 'classification', 'mobile', 'phone', 'datasets', 'classic', 'machine', 'learning', 'methods', 'produced', 'good', 'results', 'telecom', 'prediction', 'tasks', 'underutilized', 'resource', 'intensive', 'domain', 'specific', 'feature', 'engineering', 'traditional', 'machine', 'learning', 'algorithms', 'require', 'separate', 'feature', 'engineering', 'different', 'countries', 'work', 'socio', 'economic', 'status', 'large', 'identified', 'mobile', 'phone', 'datasets', 'accurately', 'classified', 'deep', 'learning', 'avoiding', 'cumbersome', 'manual', 'feature', 'engineering', 'process', 'implement', 'simple', 'deep', 'learning', 'architecture', 'compare', 'traditional', 'mining', 'models', 'benchmarks', 'model', 'achieves', 'test', 'location', 'traces', 'sole', 'input', 'contrast', 'benchmarked', 'state', 'mining', 'models', 'include', 'feature', 'categories', 'basic', 'phone', 'usage', 'pattern', 'handset', 'type', 'social', 'network', 'structure', 'individual', 'mobility', 'traditional', 'machine', 'learning', 'models', 'achieve', 'best', 'scenario', 'believe', 'results', 'encouraging', 'regional', 'household', 'income', 'important', 'input', 'wide', 'range', 'economic', 'policies', 'underdeveloped', 'countries', 'reliable', 'statistics', 'income', 'lacking', 'frequently', 'updated', 'rarely', 'fine', 'grained', 'regions', 'country', 'making', 'income', 'prediction', 'simpler', 'efficient', 'great', 'help', 'policy', 'makers', 'charity', 'organizations', 'ultimately', 'benefit', 'poor']</t>
-  </si>
-  <si>
-    <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.28|x7: 0.16|x8: 0.19|x9: 0.25|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.38]</t>
-  </si>
-  <si>
-    <t>[1, 4, 6, 9]</t>
-  </si>
-  <si>
-    <t>['drought', 'period', 'threatens', 'water', 'resources', 'agriculture', 'socioeconomic', 'activities', 'crucial', 'decision', 'makers', 'realistic', 'anticipation', 'drought', 'events', 'mitigate', 'impacts', 'research', 'aims', 'standardized', 'precipitation', 'predict', 'drought', 'time', 'series', 'analysis', 'techniques', 'adopted', 'techniques', 'autoregressive', 'integrating', 'moving', 'arima', 'feed', 'forward', 'backpropagation', 'neural', 'network', 'fbnn', 'different', 'activation', 'functions', 'sigmoid', 'bipolar', 'sigmoid', 'hyperbolic', 'tangent', 'adequacy', 'techniques', 'predicting', 'drought', 'conditions', 'examined', 'arid', 'ecosystems', 'monthly', 'precipitation', 'calculating', 'time', 'series', 'timescales', 'obtained', 'tropical', 'rainfall', 'measuring', 'mission', 'trmm', 'prediction', 'carried', 'compared', 'lead', 'times', 'model', 'performance', 'statistics', 'coefficient', 'correlation', 'mean', 'absolute', 'error', 'root', 'mean', 'square', 'error', 'rmse', 'overall', 'results', 'prove', 'excellent', 'performance', 'predicting', 'models', 'anticipating', 'drought', 'conditions', 'concerning', 'model', 'accuracy', 'measures', 'despite', 'fbnn', 'models', 'remain', 'somewhat', 'better', 'arima', 'models', 'rmse', 'additionally', 'fbnn', 'based', 'hyperbolic', 'tangent', 'activation', 'function', 'demonstrated', 'best', 'similarity', 'actual', 'predicted', 'eventually', 'activation', 'function', 'fbnn', 'models', 'good', 'results', 'respecting', 'prediction', 'degree', 'variation', 'timescales', 'activation', 'functions', 'equally', 'sigmoid', 'bipolar', 'sigmoid', 'functions', 'manifesting', 'adjusted', 'higher', 'errors', 'rmse', 'conclusion', 'fbnn', 'considered', 'promising', 'technique', 'predicting', 'drought', 'monitoring', 'arid', 'ecosystems']</t>
+    <t>[0.00, 0.09, 0.46]</t>
+  </si>
+  <si>
+    <t>[1, 8, 10, 14]</t>
+  </si>
+  <si>
+    <t>['deep', 'learning', 'recent', 'brought', 'breakthrough', 'domain', 'notably', 'voice', 'image', 'recognition', 'work', 'extend', 'deep', 'learning', 'application', 'domain', 'classification', 'mobile', 'phone', 'datasets', 'classic', 'machine', 'learning', 'method', 'produced', 'good', 'result', 'telecom', 'prediction', 'task', 'underutilized', 'resource', 'intensive', 'domain', 'specific', 'feature', 'engineering', 'traditional', 'machine', 'learning', 'algorithm', 'require', 'separate', 'feature', 'engineering', 'different', 'country', 'work', 'socio', 'economic', 'status', 'large', 'identified', 'mobile', 'phone', 'datasets', 'accurately', 'classified', 'deep', 'learning', 'avoiding', 'cumbersome', 'manual', 'feature', 'engineering', 'process', 'implement', 'simple', 'deep', 'learning', 'architecture', 'compare', 'traditional', 'mining', 'model', 'benchmark', 'model', 'achieves', 'test', 'location', 'trace', 'sole', 'input', 'contrast', 'benchmarked', 'state', 'mining', 'model', 'include', 'feature', 'category', 'basic', 'phone', 'usage', 'pattern', 'handset', 'type', 'social', 'network', 'structure', 'individual', 'mobility', 'traditional', 'machine', 'learning', 'model', 'achieve', 'best', 'scenario', 'believe', 'result', 'encouraging', 'regional', 'household', 'income', 'important', 'input', 'wide', 'range', 'economic', 'policy', 'underdeveloped', 'country', 'reliable', 'statistic', 'income', 'lacking', 'frequently', 'updated', 'rarely', 'fine', 'grained', 'region', 'country', 'making', 'income', 'prediction', 'simpler', 'efficient', 'great', 'help', 'policy', 'maker', 'charity', 'organization', 'ultimately', 'benefit', 'poor']</t>
+  </si>
+  <si>
+    <t>x1: 0.24|x2: 0.00|x3: 0.09|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.21|x10: 0.10|x11: 0.00|x12: 0.20|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.30]</t>
+  </si>
+  <si>
+    <t>[1, 4, 9, 14]</t>
+  </si>
+  <si>
+    <t>['drought', 'period', 'threatens', 'water', 'resource', 'agriculture', 'socioeconomic', 'activity', 'crucial', 'decision', 'maker', 'realistic', 'anticipation', 'drought', 'event', 'mitigate', 'impact', 'research', 'standardized', 'precipitation', 'predict', 'drought', 'time', 'series', 'analysis', 'technique', 'adopted', 'technique', 'autoregressive', 'integrating', 'moving', 'arima', 'feed', 'forward', 'backpropagation', 'neural', 'network', 'fbnn', 'different', 'activation', 'function', 'sigmoid', 'bipolar', 'sigmoid', 'hyperbolic', 'tangent', 'adequacy', 'technique', 'predicting', 'drought', 'condition', 'examined', 'arid', 'ecosystem', 'monthly', 'precipitation', 'calculating', 'time', 'series', 'timescales', 'obtained', 'tropical', 'rainfall', 'measuring', 'mission', 'trmm', 'prediction', 'carried', 'compared', 'lead', 'time', 'model', 'performance', 'statistic', 'coefficient', 'correlation', 'mean', 'absolute', 'error', 'root', 'mean', 'square', 'error', 'rmse', 'overall', 'result', 'prove', 'excellent', 'performance', 'predicting', 'model', 'anticipating', 'drought', 'condition', 'concerning', 'model', 'accuracy', 'measure', 'despite', 'fbnn', 'model', 'remain', 'somewhat', 'better', 'arima', 'model', 'rmse', 'additionally', 'fbnn', 'based', 'hyperbolic', 'tangent', 'activation', 'function', 'demonstrated', 'best', 'similarity', 'actual', 'predicted', 'eventually', 'activation', 'function', 'fbnn', 'model', 'good', 'result', 'respecting', 'prediction', 'degree', 'variation', 'timescales', 'activation', 'function', 'equally', 'sigmoid', 'bipolar', 'sigmoid', 'function', 'manifesting', 'adjusted', 'higher', 'error', 'rmse', 'conclusion', 'fbnn', 'considered', 'promising', 'technique', 'predicting', 'drought', 'monitoring', 'arid', 'ecosystem']</t>
   </si>
   <si>
     <t>[1, 2]</t>
   </si>
   <si>
-    <t>x1: 0.43|x2: 0.53|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.23|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.29|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 6, 14]</t>
-  </si>
-  <si>
-    <t>['paper', 'aimed', 'making', 'recommendations', 'establish', 'stewardship', 'embody', 'morality', 'prevent', 'automation', 'risks', 'faced', 'development', 'countries', 'ldcs', 'transition', 'digital', 'modernity', 'recent', 'studies', 'reveal', 'qualified', 'individuals', 'developed', 'countries', 'face', 'risks', 'jobs', 'highly', 'subject', 'automation', 'indicates', 'corresponding', 'risks', 'seen', 'ldcs', 'rise', 'digitalization', 'override', 'developing', 'country', 'opportunities', 'elevate', 'income', 'country', 'middle', 'income', 'country', 'aftermath', 'world', 'western', 'society', 'tried', 'support', 'ldcs', 'maintain', 'principles', 'free', 'world', 'contribute', 'reducing', 'poverty', 'market', 'oriented', 'development', 'cold', 'defense', 'free', 'world', 'lost', 'significance', 'economy', 'getting', 'important', 'political', 'instrument', 'advancement', 'automation', 'technologies', 'aggravate', 'opportunities', 'developing', 'country', 'economic', 'growth', 'international', 'society', 'needs', 'alternative', 'principles']</t>
-  </si>
-  <si>
-    <t>x1: 0.28|x2: 0.29|x3: 0.00|x4: 0.20|x5: 0.15|x6: 0.00|x7: 0.33|x8: 0.00|x9: 0.00|x10: 0.39|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.12|x16: 0.24|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.39]</t>
-  </si>
-  <si>
-    <t>[1, 2, 7, 10, 16]</t>
-  </si>
-  <si>
-    <t>['smart', 'farming', 'development', 'emphasizes', 'information', 'communication', 'technology', 'cyber', 'physical', 'farm', 'management', 'cycle', 'technologies', 'internet', 'things', 'cloud', 'computing', 'expected', 'leverage', 'development', 'introduce', 'robots', 'artificial', 'intelligence', 'farming', 'encompassed', 'phenomenon', 'massive', 'volumes', 'wide', 'variety', 'captured', 'analysed', 'decision', 'making', 'review', 'aims', 'gain', 'insight', 'state', 'applications', 'smart', 'farming', 'identify', 'related', 'socio', 'economic', 'challenges', 'addressed', 'following', 'structured', 'approach', 'conceptual', 'framework', 'analysis', 'developed', 'future', 'studies', 'topic', 'review', 'shows', 'scope', 'applications', 'smart', 'farming', 'goes', 'primary', 'production', 'influencing', 'entire', 'food', 'supply', 'chain', 'provide', 'predictive', 'insights', 'farming', 'operations', 'drive', 'time', 'operational', 'decisions', 'redesign', 'business', 'processes', 'game', 'changing', 'business', 'models', 'authors', 'suggest', 'cause', 'major', 'shifts', 'roles', 'power', 'relations', 'different', 'players', 'current', 'food', 'supply', 'chain', 'networks', 'landscape', 'stakeholders', 'exhibits', 'interesting', 'game', 'powerful', 'tech', 'companies', 'venture', 'capitalists', 'startups', 'entrants', 'time', 'public', 'institutions', 'publish', 'open', 'condition', 'privacy', 'persons', 'guaranteed', 'future', 'smart', 'farming', 'unravel', 'continuum', 'extreme', 'scenarios', 'closed', 'proprietary', 'systems', 'farmer', 'highly', 'integrated', 'food', 'supply', 'chain', 'open', 'collaborative', 'systems', 'farmer', 'stakeholder', 'chain', 'network', 'flexible', 'choosing', 'business', 'partners', 'technology', 'food', 'production', 'development', 'application', 'infrastructures', 'platforms', 'standards', 'institutional', 'embedment', 'play', 'crucial', 'role', 'battle', 'scenarios', 'socio', 'economic', 'perspective', 'authors', 'propose', 'research', 'priority', 'organizational', 'issues', 'concerning', 'governance', 'issues', 'suitable', 'business', 'models', 'sharing', 'different', 'supply', 'chain', 'scenarios']</t>
+    <t>x1: 0.11|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.26|x6: 0.11|x7: 0.00|x8: 0.17|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.19|x14: 0.22|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.28]</t>
+  </si>
+  <si>
+    <t>[5, 12, 14]</t>
+  </si>
+  <si>
+    <t>['paper', 'aimed', 'making', 'recommendation', 'establish', 'stewardship', 'embody', 'morality', 'prevent', 'automation', 'risk', 'faced', 'development', 'country', 'ldcs', 'transition', 'digital', 'modernity', 'recent', 'study', 'reveal', 'qualified', 'individual', 'developed', 'country', 'face', 'risk', 'highly', 'subject', 'automation', 'indicates', 'corresponding', 'risk', 'seen', 'ldcs', 'rise', 'digitalization', 'override', 'developing', 'country', 'opportunity', 'elevate', 'income', 'country', 'middle', 'income', 'country', 'aftermath', 'world', 'western', 'society', 'tried', 'support', 'ldcs', 'maintain', 'principle', 'free', 'world', 'contribute', 'reducing', 'poverty', 'market', 'oriented', 'development', 'cold', 'defense', 'free', 'world', 'lost', 'significance', 'economy', 'getting', 'important', 'political', 'instrument', 'advancement', 'automation', 'technology', 'aggravate', 'opportunity', 'developing', 'country', 'economic', 'growth', 'international', 'society', 'need', 'alternative', 'principle']</t>
+  </si>
+  <si>
+    <t>x1: 0.20|x2: 0.00|x3: 0.34|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.11|x8: 0.51|x9: 0.00|x10: 0.23|x11: 0.00|x12: 0.00|x13: 0.10|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.51]</t>
+  </si>
+  <si>
+    <t>[1, 3, 8, 10]</t>
+  </si>
+  <si>
+    <t>['smart', 'farming', 'development', 'emphasizes', 'information', 'communication', 'technology', 'cyber', 'physical', 'farm', 'management', 'cycle', 'technology', 'internet', 'thing', 'cloud', 'computing', 'expected', 'leverage', 'development', 'introduce', 'robot', 'artificial', 'intelligence', 'farming', 'encompassed', 'phenomenon', 'massive', 'volume', 'wide', 'variety', 'captured', 'analysed', 'decision', 'making', 'review', 'gain', 'insight', 'state', 'application', 'smart', 'farming', 'identify', 'related', 'socio', 'economic', 'challenge', 'addressed', 'following', 'structured', 'approach', 'conceptual', 'framework', 'analysis', 'developed', 'future', 'study', 'topic', 'review', 'scope', 'application', 'smart', 'farming', 'primary', 'production', 'influencing', 'entire', 'food', 'supply', 'chain', 'provide', 'predictive', 'insight', 'farming', 'operation', 'drive', 'time', 'operational', 'decision', 'redesign', 'business', 'process', 'game', 'changing', 'business', 'model', 'author', 'suggest', 'cause', 'major', 'shift', 'role', 'power', 'relation', 'different', 'player', 'current', 'food', 'supply', 'chain', 'network', 'landscape', 'stakeholder', 'exhibit', 'interesting', 'game', 'powerful', 'tech', 'company', 'venture', 'capitalist', 'startup', 'entrant', 'time', 'public', 'institution', 'publish', 'open', 'condition', 'privacy', 'guaranteed', 'future', 'smart', 'farming', 'unravel', 'continuum', 'extreme', 'scenario', 'closed', 'proprietary', 'farmer', 'highly', 'integrated', 'food', 'supply', 'chain', 'open', 'collaborative', 'farmer', 'stakeholder', 'chain', 'network', 'flexible', 'choosing', 'business', 'partner', 'technology', 'food', 'production', 'development', 'application', 'infrastructure', 'platform', 'standard', 'institutional', 'embedment', 'play', 'crucial', 'role', 'battle', 'scenario', 'socio', 'economic', 'perspective', 'author', 'propose', 'research', 'priority', 'organizational', 'issue', 'concerning', 'governance', 'issue', 'suitable', 'business', 'model', 'sharing', 'different', 'supply', 'chain', 'scenario']</t>
   </si>
   <si>
     <t>[2]</t>
   </si>
   <si>
-    <t>x1: 0.14|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.30|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.35|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.35]</t>
-  </si>
-  <si>
-    <t>[2, 6, 8, 9, 12, 13]</t>
-  </si>
-  <si>
-    <t>['paper', 'describes', 'fruit', 'counting', 'pipeline', 'based', 'deep', 'learning', 'accurately', 'counts', 'fruit', 'unstructured', 'environments', 'obtaining', 'reliable', 'fruit', 'counts', 'challenging', 'variations', 'appearance', 'illumination', 'changes', 'occlusions', 'foliage', 'neighboring', 'fruits', 'propose', 'novel', 'approach', 'uses', 'deep', 'learning', 'input', 'images', 'fruit', 'counts', 'pipeline', 'utilizes', 'custom', 'crowd', 'sourcing', 'platform', 'quickly', 'label', 'large', 'sets', 'blob', 'detector', 'based', 'fully', 'convolutional', 'network', 'extracts', 'candidate', 'regions', 'images', 'counting', 'algorithm', 'based', 'second', 'convolutional', 'network', 'estimates', 'number', 'fruit', 'region', 'finally', 'linear', 'regression', 'model', 'maps', 'fruit', 'count', 'estimate', 'fruit', 'count', 'analyze', 'performance', 'pipeline', 'distinct', 'sets', 'oranges', 'daylight', 'green', 'apples', 'night', 'utilizing', 'human', 'generated', 'labels', 'ground', 'truth', 'pipeline', 'short', 'training', 'time', 'performs', 'limited', 'size', 'method', 'generalizes', 'sets', 'able', 'perform', 'highly', 'occluded', 'fruits', 'challenging', 'human', 'labelers', 'annotate']</t>
-  </si>
-  <si>
-    <t>x1: 0.30|x2: 0.15|x3: 0.00|x4: 0.46|x5: 0.19|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.30|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.15|x16: 0.20|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.46]</t>
-  </si>
-  <si>
-    <t>[1, 4, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['recent', 'years', 'deep', 'learning', 'algorithms', 'convolutional', 'neural', 'networks', 'recurrent', 'neural', 'networks', 'generative', 'adversarial', 'networks', 'widely', 'studied', 'applied', 'fields', 'including', 'agriculture', 'researchers', 'fields', 'agriculture', 'software', 'frameworks', 'sufficiently', 'examining', 'ideas', 'mechanisms', 'technique', 'article', 'provides', 'concise', 'summary', 'major', 'algorithms', 'including', 'concepts', 'limitations', 'implementation', 'training', 'processes', 'example', 'codes', 'help', 'researchers', 'agriculture', 'gain', 'holistic', 'picture', 'major', 'techniques', 'quickly', 'research', 'applications', 'agriculture', 'summarized', 'analyzed', 'future', 'opportunities', 'discussed', 'paper', 'expected', 'help', 'researchers', 'agriculture', 'better', 'understand', 'algorithms', 'learn', 'major', 'techniques', 'quickly', 'facilitate', 'analysis', 'enhance', 'related', 'research', 'agriculture', 'promote', 'applications', 'effectively']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.34|x3: 0.00|x4: 0.12|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.31|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.15|x15: 0.23|x16: 0.12|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 6, 8, 9, 15]</t>
-  </si>
-  <si>
-    <t>['detection', 'identification', 'extreme', 'weather', 'events', 'large', 'scale', 'climate', 'simulations', 'important', 'problem', 'risk', 'management', 'informing', 'governmental', 'policy', 'decisions', 'advancing', 'basic', 'understanding', 'climate', 'recent', 'work', 'shown', 'fully', 'supervised', 'convolutional', 'neural', 'networks', 'cnns', 'yield', 'acceptable', 'accuracy', 'classifying', 'known', 'types', 'extreme', 'weather', 'events', 'large', 'amounts', 'labeled', 'available', 'different', 'types', 'spatially', 'localized', 'climate', 'patterns', 'including', 'hurricanes', 'extra', 'tropical', 'cyclones', 'weather', 'fronts', 'blocking', 'events', 'existing', 'labeled', 'patterns', 'incomplete', 'ways', 'covering', 'certain', 'years', 'geographic', 'areas', 'having', 'false', 'negatives', 'type', 'climate', 'poses', 'number', 'interesting', 'machine', 'learning', 'challenges', 'present', 'multichannel', 'spatiotemporal', 'architecture', 'semi', 'supervised', 'bounding', 'prediction', 'exploratory', 'analysis', 'demonstrate', 'approach', 'able', 'leverage', 'temporal', 'information', 'unlabeled', 'improve', 'localization', 'extreme', 'weather', 'events', 'explore', 'representations', 'learned', 'model', 'order', 'better', 'understand', 'important', 'present', 'dataset', 'extremeweather', 'encourage', 'machine', 'learning', 'research', 'area', 'help', 'facilitate', 'work', 'understanding', 'mitigating', 'effects', 'climate', 'change', 'dataset', 'available', 'github', 'code', 'available', 'https', 'github', 'eracah', 'detect']</t>
-  </si>
-  <si>
-    <t>x1: 0.41|x2: 0.00|x3: 0.00|x4: 0.12|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.48|x14: 0.19|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.48]</t>
-  </si>
-  <si>
-    <t>[1, 5, 9, 13, 16]</t>
-  </si>
-  <si>
-    <t>['study', 'aims', 'project', 'future', 'variability', 'reference', 'artificial', 'intelligence', 'methods', 'constructed', 'extreme', 'learning', 'machine', 'support', 'vector', 'regression', 'mountainous', 'inland', 'watershed', 'north', 'west', 'china', 'global', 'climate', 'model', 'outputs', 'retrieved', 'coupled', 'model', 'inter', 'comparison', 'project', 'phase', 'cmip', 'employed', 'downscale', 'monthly', 'historical', 'period', 'validation', 'approach', 'future', 'period', 'projection', 'representative', 'concentration', 'pathway', 'scenarios', 'following', 'conclusions', 'drawn', 'methods', 'demonstrate', 'good', 'performance', 'estimating', 'food', 'agriculture', 'organization', 'penman', 'monteith', 'variation', 'future', 'mainly', 'occurs', 'spring', 'autumn', 'seasons', 'summer', 'winter', 'changes', 'moderately', 'annually', 'values', 'shown', 'increase', 'rate', 'approximately', 'decade', 'respectively', 'near', 'term', 'projection', 'term', 'projection', 'long', 'term', 'projection', 'scenario', 'compared', 'historical', 'period', 'relative', 'changes', 'approximately', 'near', 'long', 'term', 'periods', 'respectively', 'warming', 'scenarios', 'accordance', 'analyses', 'aver', 'opportunity', 'downscale', 'monthly', 'artificial', 'intelligence', 'useful', 'practice', 'water', 'management', 'policies']</t>
-  </si>
-  <si>
-    <t>x1: 0.38|x2: 0.26|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.25|x9: 0.34|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.25|x15: 0.18|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 6, 8, 9, 14]</t>
-  </si>
-  <si>
-    <t>['paper', 'examines', 'remote', 'sensing', 'satellite', 'predict', 'food', 'shortages', 'different', 'categories', 'households', 'famine', 'prone', 'areas', 'normalized', 'difference', 'vegetation', 'ndvi', 'rainfall', 'estimate', 'derived', 'multi', 'spectral', 'satellite', 'radiometer', 'images', 'long', 'predict', 'crop', 'yields', 'famine', 'gives', 'overall', 'prediction', 'food', 'insecurity', 'area', 'heterogeneous', 'population', 'directly', 'predict', 'sectors', 'society', 'households', 'risk', 'work', 'information', 'households', 'uganda', 'collected', 'method', 'clustering', 'households', 'cluster', 'decision', 'boundaries', 'relevant', 'improved', 'specificity', 'famine', 'prediction', 'easily', 'classification', 'results', 'predicting', 'food', 'security', 'status', 'household', 'level', 'given', 'different', 'combinations', 'satellite', 'demographic', 'household', 'category', 'indices', 'clustering', 'method', 'food', 'security', 'classification', 'performance', 'model', 'demonstrates', 'potential', 'approach', 'making', 'predictions', 'famine', 'specific', 'areas', 'demographic', 'groups']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.56|x3: 0.24|x4: 0.20|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.19|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.22|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.56]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 15]</t>
-  </si>
-  <si>
-    <t>['inadequacy', 'spatial', 'soil', 'information', 'limiting', 'factors', 'making', 'evidence', 'based', 'decisions', 'improve', 'food', 'security', 'land', 'management', 'developing', 'countries', 'digital', 'soil', 'mapping', 'techniques', 'applied', 'parts', 'world', 'improve', 'availability', 'usability', 'soil', 'africa', 'particularly', 'tanzania', 'scale', 'necessary', 'farm', 'management', 'decisions', 'kilombero', 'valley', 'identified', 'intensified', 'rice', 'production', 'valley', 'lacks', 'detailed', 'todate', 'soil', 'information', 'decision', 'making', 'overall', 'objective', 'study', 'develop', 'predictive', 'soil', 'portion', 'kilombero', 'valley', 'techniques', 'widely', 'decision', 'tree', 'algorithms', 'sources', 'digital', 'elevation', 'models', 'dems', 'evaluated', 'predictive', 'ability', 'firstly', 'numerical', 'classification', 'performed', 'collected', 'soil', 'profile', 'arrive', 'soil', 'taxa', 'secondly', 'derived', 'taxa', 'spatially', 'predicted', 'mapped', 'following', 'scorpan', 'framework', 'random', 'forest', 'machine', 'learning', 'algorithms', 'datasets', 'train', 'model', 'derived', 'legacy', 'soil', 'rapideye', 'satellite', 'image', 'dems', 'srtm', 'aster', 'worlddem', 'separate', 'predictive', 'models', 'built', 'source', 'mapping', 'showed', 'sensitive', 'training', 'sampling', 'results', 'showed', 'predictions', 'soil', 'taxa', 'srtm', 'worddem', 'identical', 'suggest', 'algorithm', 'freely', 'available', 'srtm', 'combination', 'mapping', 'soils', 'kilombero', 'valley', 'combination', 'tested', 'applied', 'areas', 'relatively', 'flat', 'terrain', 'like', 'kilombero', 'valley']</t>
-  </si>
-  <si>
-    <t>x1: 0.14|x2: 0.44|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.13|x8: 0.17|x9: 0.18|x10: 0.15|x11: 0.15|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.24|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.44]</t>
-  </si>
-  <si>
-    <t>[2, 4, 15]</t>
-  </si>
-  <si>
-    <t>['smallholder', 'production', 'russia', 'decline', 'decade', 'likelihood', 'continued', 'marginalization', 'smallholders', 'confront', 'obstacles', 'path', 'dependencies', 'includes', 'fact', 'smallholders', 'production', 'remains', 'traditional', 'subsistence', 'oriented', 'second', 'institutions', 'state', 'policy', 'restrict', 'land', 'animals', 'russia', 'role', 'food', 'regime', 'means', 'smallholders', 'unable', 'help', 'russia', 'emergence', 'global', 'food', 'superpower', 'fourth', 'smallholders', 'left', 'ongoing', 'technological', 'revolution', 'agroholdings', 'technological', 'advancement', 'expands', 'scope', 'large', 'farms', 'smallholders', 'widen']</t>
-  </si>
-  <si>
-    <t>x1: 0.21|x2: 0.43|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.43|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.43]</t>
-  </si>
-  <si>
-    <t>[1, 2, 8, 12, 14]</t>
-  </si>
-  <si>
-    <t>['crop', 'diseases', 'major', 'threat', 'food', 'security', 'rapid', 'identification', 'remains', 'difficult', 'parts', 'world', 'lack', 'necessary', 'infrastructure', 'combination', 'increasing', 'global', 'smartphone', 'penetration', 'recent', 'advances', 'vision', 'possible', 'deep', 'learning', 'paved', 'smartphone', 'assisted', 'disease', 'diagnosis', 'public', 'dataset', 'images', 'diseased', 'healthy', 'plant', 'leaves', 'collected', 'controlled', 'conditions', 'train', 'deep', 'convolutional', 'neural', 'network', 'identify', 'crop', 'species', 'diseases', 'absence', 'thereof', 'trained', 'model', 'achieves', 'accuracy', 'held', 'test', 'demonstrating', 'feasibility', 'approach', 'overall', 'approach', 'training', 'deep', 'learning', 'models', 'increasingly', 'large', 'publicly', 'available', 'image', 'datasets', 'presents', 'clear', 'path', 'smartphone', 'assisted', 'crop', 'disease', 'diagnosis', 'massive', 'global', 'scale']</t>
-  </si>
-  <si>
-    <t>x1: 0.29|x2: 0.32|x3: 0.29|x4: 0.49|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.49]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 8, 9]</t>
-  </si>
-  <si>
-    <t>['paper', 'presents', 'automatic', 'traffic', 'surveillance', 'estimate', 'important', 'traffic', 'parameters', 'video', 'sequences', 'camera', 'different', 'traditional', 'methods', 'classify', 'vehicles', 'cars', 'cars', 'proposed', 'method', 'good', 'capability', 'categorize', 'cars', 'specific', 'classes', 'linearity', 'feature', 'addition', 'order', 'reduce', 'occlusions', 'vehicles', 'automatic', 'scheme', 'detecting', 'lane', 'dividing', 'lines', 'proposed', 'lane', 'dividing', 'lines', 'occlusions', 'vehicles', 'reduced', 'normalization', 'scheme', 'developed', 'tackling', 'problems', 'feature', 'size', 'variations', 'vehicle', 'features', 'extracted', 'optimal', 'classifier', 'designed', 'robustly', 'categorize', 'vehicles', 'different', 'classes', 'shadows', 'occlusions', 'noise', 'exist', 'designed', 'classifier', 'collect', 'different', 'evidences', 'database', 'verified', 'vehicle', 'better', 'decisions', 'enhance', 'robustness', 'accuracy', 'classification', 'experimental', 'results', 'proposed', 'method', 'robust', 'powerful', 'traditional', 'methods']</t>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.14|x6: 0.18|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.00|x12: 0.39|x13: 0.16|x14: 0.22|x15: 0.00|x16: 0.13|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.39]</t>
+  </si>
+  <si>
+    <t>[9, 12, 14]</t>
+  </si>
+  <si>
+    <t>['paper', 'describes', 'fruit', 'counting', 'pipeline', 'based', 'deep', 'learning', 'accurately', 'count', 'fruit', 'unstructured', 'environment', 'obtaining', 'reliable', 'fruit', 'count', 'challenging', 'variation', 'appearance', 'illumination', 'change', 'occlusion', 'foliage', 'neighboring', 'fruit', 'propose', 'novel', 'approach', 'deep', 'learning', 'input', 'image', 'fruit', 'count', 'pipeline', 'utilizes', 'custom', 'crowd', 'sourcing', 'platform', 'quickly', 'label', 'large', 'blob', 'detector', 'based', 'fully', 'convolutional', 'network', 'extract', 'candidate', 'region', 'image', 'counting', 'algorithm', 'based', 'second', 'convolutional', 'network', 'estimate', 'number', 'fruit', 'region', 'finally', 'linear', 'regression', 'model', 'fruit', 'count', 'estimate', 'fruit', 'count', 'analyze', 'performance', 'pipeline', 'distinct', 'orange', 'daylight', 'green', 'apple', 'night', 'utilizing', 'human', 'generated', 'label', 'ground', 'truth', 'pipeline', 'short', 'training', 'time', 'performs', 'limited', 'size', 'method', 'generalizes', 'able', 'perform', 'highly', 'occluded', 'fruit', 'challenging', 'human', 'labelers', 'annotate']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.10|x4: 0.12|x5: 0.09|x6: 0.00|x7: 0.11|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.34|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.34]</t>
+  </si>
+  <si>
+    <t>[11, 12]</t>
+  </si>
+  <si>
+    <t>['recent', 'deep', 'learning', 'algorithm', 'convolutional', 'neural', 'network', 'recurrent', 'neural', 'network', 'generative', 'adversarial', 'network', 'widely', 'studied', 'applied', 'field', 'including', 'agriculture', 'researcher', 'field', 'agriculture', 'software', 'framework', 'sufficiently', 'examining', 'idea', 'mechanism', 'technique', 'article', 'provides', 'concise', 'summary', 'major', 'algorithm', 'including', 'concept', 'limitation', 'implementation', 'training', 'process', 'example', 'code', 'help', 'researcher', 'agriculture', 'gain', 'holistic', 'picture', 'major', 'technique', 'quickly', 'research', 'application', 'agriculture', 'summarized', 'analyzed', 'future', 'opportunity', 'discussed', 'paper', 'expected', 'help', 'researcher', 'agriculture', 'better', 'understand', 'algorithm', 'learn', 'major', 'technique', 'quickly', 'facilitate', 'analysis', 'enhance', 'related', 'research', 'agriculture', 'promote', 'application', 'effectively']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.20|x3: 0.00|x4: 0.12|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.34|x10: 0.10|x11: 0.00|x12: 0.17|x13: 0.34|x14: 0.23|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 13, 14]</t>
+  </si>
+  <si>
+    <t>['detection', 'identification', 'extreme', 'weather', 'event', 'large', 'scale', 'climate', 'simulation', 'important', 'problem', 'risk', 'management', 'informing', 'governmental', 'policy', 'decision', 'advancing', 'basic', 'understanding', 'climate', 'recent', 'work', 'shown', 'fully', 'supervised', 'convolutional', 'neural', 'network', 'cnns', 'yield', 'acceptable', 'accuracy', 'classifying', 'known', 'type', 'extreme', 'weather', 'event', 'large', 'labeled', 'available', 'different', 'type', 'spatially', 'localized', 'climate', 'pattern', 'including', 'hurricane', 'extra', 'tropical', 'cyclone', 'weather', 'blocking', 'event', 'existing', 'labeled', 'pattern', 'incomplete', 'covering', 'certain', 'geographic', 'area', 'having', 'false', 'negative', 'type', 'climate', 'pose', 'number', 'interesting', 'machine', 'learning', 'challenge', 'present', 'multichannel', 'spatiotemporal', 'architecture', 'semi', 'supervised', 'bounding', 'prediction', 'exploratory', 'analysis', 'demonstrate', 'approach', 'able', 'leverage', 'temporal', 'information', 'unlabeled', 'improve', 'localization', 'extreme', 'weather', 'event', 'explore', 'representation', 'learned', 'model', 'order', 'better', 'understand', 'important', 'present', 'dataset', 'extremeweather', 'encourage', 'machine', 'learning', 'research', 'area', 'help', 'facilitate', 'work', 'understanding', 'mitigating', 'effect', 'climate', 'change', 'dataset', 'available', 'github', 'code', 'available', 'http', 'github', 'eracah', 'detect']</t>
+  </si>
+  <si>
+    <t>x1: 0.37|x2: 0.00|x3: 0.09|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.43|x14: 0.00|x15: 0.10|x16: 0.12|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.43]</t>
+  </si>
+  <si>
+    <t>[1, 13]</t>
+  </si>
+  <si>
+    <t>['study', 'project', 'future', 'variability', 'reference', 'artificial', 'intelligence', 'method', 'constructed', 'extreme', 'learning', 'machine', 'support', 'vector', 'regression', 'mountainous', 'inland', 'watershed', 'north', 'west', 'china', 'global', 'climate', 'model', 'output', 'retrieved', 'coupled', 'model', 'inter', 'comparison', 'project', 'phase', 'cmip', 'employed', 'downscale', 'monthly', 'historical', 'period', 'validation', 'approach', 'future', 'period', 'projection', 'representative', 'concentration', 'pathway', 'scenario', 'following', 'conclusion', 'drawn', 'method', 'demonstrate', 'good', 'performance', 'estimating', 'food', 'agriculture', 'organization', 'penman', 'monteith', 'variation', 'future', 'mainly', 'occurs', 'spring', 'autumn', 'season', 'summer', 'winter', 'change', 'moderately', 'annually', 'value', 'shown', 'increase', 'rate', 'approximately', 'decade', 'respectively', 'near', 'term', 'projection', 'term', 'projection', 'long', 'term', 'projection', 'scenario', 'compared', 'historical', 'period', 'relative', 'change', 'approximately', 'near', 'long', 'term', 'period', 'respectively', 'warming', 'scenario', 'accordance', 'analysis', 'aver', 'opportunity', 'downscale', 'monthly', 'artificial', 'intelligence', 'useful', 'practice', 'water', 'management', 'policy']</t>
+  </si>
+  <si>
+    <t>x1: 0.34|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.34|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 6, 8, 13]</t>
+  </si>
+  <si>
+    <t>['paper', 'examines', 'remote', 'sensing', 'satellite', 'predict', 'food', 'shortage', 'different', 'category', 'household', 'famine', 'prone', 'area', 'normalized', 'difference', 'vegetation', 'ndvi', 'rainfall', 'estimate', 'derived', 'multi', 'spectral', 'satellite', 'radiometer', 'image', 'long', 'predict', 'crop', 'yield', 'famine', 'overall', 'prediction', 'food', 'insecurity', 'area', 'heterogeneous', 'population', 'directly', 'predict', 'sector', 'society', 'household', 'risk', 'work', 'information', 'household', 'uganda', 'collected', 'method', 'clustering', 'household', 'cluster', 'decision', 'boundary', 'relevant', 'improved', 'specificity', 'famine', 'prediction', 'easily', 'classification', 'result', 'predicting', 'food', 'security', 'status', 'household', 'level', 'given', 'different', 'combination', 'satellite', 'demographic', 'household', 'category', 'clustering', 'method', 'food', 'security', 'classification', 'performance', 'model', 'demonstrates', 'potential', 'approach', 'making', 'prediction', 'famine', 'specific', 'area', 'demographic', 'group']</t>
+  </si>
+  <si>
+    <t>x1: 0.30|x2: 0.21|x3: 0.17|x4: 0.13|x5: 0.00|x6: 0.00|x7: 0.18|x8: 0.26|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.12|x15: 0.13|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 2, 8]</t>
+  </si>
+  <si>
+    <t>['inadequacy', 'spatial', 'soil', 'information', 'limiting', 'factor', 'making', 'evidence', 'based', 'decision', 'improve', 'food', 'security', 'land', 'management', 'developing', 'country', 'digital', 'soil', 'mapping', 'technique', 'applied', 'world', 'improve', 'availability', 'usability', 'soil', 'africa', 'particularly', 'tanzania', 'scale', 'necessary', 'farm', 'management', 'decision', 'kilombero', 'valley', 'identified', 'intensified', 'rice', 'production', 'valley', 'lack', 'detailed', 'todate', 'soil', 'information', 'decision', 'making', 'overall', 'objective', 'study', 'develop', 'predictive', 'soil', 'portion', 'kilombero', 'valley', 'technique', 'widely', 'decision', 'tree', 'algorithm', 'source', 'digital', 'elevation', 'model', 'dems', 'evaluated', 'predictive', 'ability', 'firstly', 'numerical', 'classification', 'performed', 'collected', 'soil', 'profile', 'arrive', 'soil', 'taxon', 'secondly', 'derived', 'taxon', 'spatially', 'predicted', 'mapped', 'following', 'scorpan', 'framework', 'random', 'forest', 'machine', 'learning', 'algorithm', 'datasets', 'train', 'model', 'derived', 'legacy', 'soil', 'rapideye', 'satellite', 'image', 'dems', 'srtm', 'aster', 'worlddem', 'separate', 'predictive', 'model', 'built', 'source', 'mapping', 'showed', 'sensitive', 'training', 'sampling', 'result', 'showed', 'prediction', 'soil', 'taxon', 'srtm', 'worddem', 'identical', 'suggest', 'algorithm', 'freely', 'available', 'srtm', 'combination', 'mapping', 'soil', 'kilombero', 'valley', 'combination', 'tested', 'applied', 'area', 'relatively', 'flat', 'terrain', 'like', 'kilombero', 'valley']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.10|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.19|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.34|x15: 0.14|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.38]</t>
+  </si>
+  <si>
+    <t>[12, 14]</t>
+  </si>
+  <si>
+    <t>['smallholder', 'production', 'russia', 'decline', 'decade', 'likelihood', 'continued', 'marginalization', 'smallholder', 'confront', 'obstacle', 'path', 'dependency', 'includes', 'fact', 'smallholder', 'production', 'remains', 'traditional', 'subsistence', 'oriented', 'second', 'institution', 'state', 'policy', 'restrict', 'land', 'animal', 'russia', 'role', 'food', 'regime', 'mean', 'smallholder', 'unable', 'help', 'russia', 'emergence', 'global', 'food', 'superpower', 'fourth', 'smallholder', 'left', 'ongoing', 'technological', 'revolution', 'agroholdings', 'technological', 'advancement', 'expands', 'scope', 'large', 'farm', 'smallholder', 'widen']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.09|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.13|x8: 0.19|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.41|x15: 0.09|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.41]</t>
+  </si>
+  <si>
+    <t>['crop', 'disease', 'major', 'threat', 'food', 'security', 'rapid', 'identification', 'remains', 'difficult', 'world', 'lack', 'necessary', 'infrastructure', 'combination', 'increasing', 'global', 'smartphone', 'penetration', 'recent', 'advance', 'vision', 'possible', 'deep', 'learning', 'paved', 'smartphone', 'assisted', 'disease', 'diagnosis', 'public', 'dataset', 'image', 'diseased', 'healthy', 'plant', 'leaf', 'collected', 'controlled', 'condition', 'train', 'deep', 'convolutional', 'neural', 'network', 'identify', 'crop', 'specie', 'disease', 'absence', 'thereof', 'trained', 'model', 'achieves', 'accuracy', 'held', 'test', 'demonstrating', 'feasibility', 'approach', 'overall', 'approach', 'training', 'deep', 'learning', 'model', 'increasingly', 'large', 'publicly', 'available', 'image', 'datasets', 'present', 'clear', 'path', 'smartphone', 'assisted', 'crop', 'disease', 'diagnosis', 'massive', 'global', 'scale']</t>
+  </si>
+  <si>
+    <t>x1: 0.11|x2: 0.00|x3: 0.21|x4: 0.10|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.12|x9: 0.08|x10: 0.00|x11: 0.12|x12: 0.23|x13: 0.00|x14: 0.30|x15: 0.09|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 12, 14]</t>
+  </si>
+  <si>
+    <t>['paper', 'present', 'automatic', 'traffic', 'surveillance', 'estimate', 'important', 'traffic', 'parameter', 'video', 'sequence', 'camera', 'different', 'traditional', 'method', 'classify', 'vehicle', 'proposed', 'method', 'good', 'capability', 'categorize', 'specific', 'class', 'linearity', 'feature', 'addition', 'order', 'reduce', 'occlusion', 'vehicle', 'automatic', 'scheme', 'detecting', 'lane', 'dividing', 'proposed', 'lane', 'dividing', 'occlusion', 'vehicle', 'reduced', 'normalization', 'scheme', 'developed', 'tackling', 'problem', 'feature', 'size', 'variation', 'vehicle', 'feature', 'extracted', 'optimal', 'classifier', 'designed', 'robustly', 'categorize', 'vehicle', 'different', 'class', 'shadow', 'occlusion', 'noise', 'exist', 'designed', 'classifier', 'collect', 'different', 'evidence', 'database', 'verified', 'vehicle', 'better', 'decision', 'enhance', 'robustness', 'accuracy', 'classification', 'experimental', 'result', 'proposed', 'method', 'robust', 'powerful', 'traditional', 'method']</t>
   </si>
   <si>
     <t>[3, 11]</t>
   </si>
   <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.72|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.16|x8: 0.35|x9: 0.42|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.72]</t>
+    <t>x1: 0.00|x2: 0.00|x3: 0.51|x4: 0.00|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.23|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 8, 12, 14]</t>
+  </si>
+  <si>
+    <t>['significant', 'advance', 'smart', 'decision', 'support', 'development', 'influenced', 'important', 'result', 'pregnancy', 'care', 'considering', 'effort', 'reduce', 'number', 'woman', 'death', 'problem', 'related', 'pregnancy', 'decrease', 'presented', 'impact', 'area', 'human', 'development', 'hypertensive', 'disorder', 'pregnancy', 'particularly', 'eclampsia', 'eclampsia', 'account', 'significant', 'proportion', 'perinatal', 'morbidity', 'maternal', 'mortality', 'context', 'paper', 'proposes', 'inference', 'model', 'mining', 'technique', 'capable', 'operating', 'extract', 'pattern', 'assist', 'knowledge', 'discovery', 'identifying', 'hypertensive', 'crisis', 'complicate', 'pregnancy', 'impact', 'meaningful', 'reduction', 'incidence', 'sequela', 'death', 'pregnant', 'woman', 'comparison', 'bayesian', 'classifier', 'performed', 'work', 'better', 'classify', 'hypertensive', 'disorder', 'severity', 'result', 'showed', 'naive', 'bayes', 'classifier', 'excellent', 'performance', 'presenting', 'better', 'precision', 'measure', 'compared', 'experimented', 'classifier', 'finding', 'good', 'performance', 'predict', 'hypertensive', 'disorder', 'bayesian', 'method', 'need', 'evaluated', 'technique', 'based', 'artificial', 'intelligence', 'tree', 'based', 'method']</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.46|x4: 0.00|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.14|x13: 0.23|x14: 0.11|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 8, 13]</t>
+  </si>
+  <si>
+    <t>['increase', 'throughput', 'installed', 'base', 'biomedical', 'research', 'equipment', 'massive', 'accumulation', 'omics', 'known', 'highly', 'variable', 'dimensional', 'sourced', 'multiple', 'incompatible', 'platform', 'useful', 'biomarker', 'identification', 'drug', 'discovery', 'bulk', 'remains', 'underutilized', 'deep', 'neural', 'network', 'dnns', 'efficient', 'algorithm', 'based', 'compositional', 'layer', 'neuron', 'advantage', 'matched', 'challenge', 'omics', 'present', 'achieving', 'state', 'result', 'surpassing', 'human', 'accuracy', 'challenging', 'task', 'adoption', 'deep', 'learning', 'biomedicine', 'comparatively', 'slow', 'discus', 'feature', 'deep', 'learning', 'approach', 'edge', 'machine', 'learning', 'method', 'consider', 'limitation', 'review', 'number', 'application', 'deep', 'learning', 'biomedical', 'study', 'demonstrating', 'proof', 'concept', 'practical', 'utility']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.14|x4: 0.23|x5: 0.16|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.20|x13: 0.25|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.25]</t>
+  </si>
+  <si>
+    <t>[4, 8, 13]</t>
+  </si>
+  <si>
+    <t>['fuzzy', 'logic', 'control', 'developed', 'hamburg', 'university', 'applied', 'science', 'hamburg', 'operation', 'biogas', 'reactor', 'running', 'energy', 'crop', 'commercially', 'available', 'measuring', 'parameter', 'methane', 'content', 'specific', 'production', 'rate', 'spec', 'included', 'objective', 'avoid', 'stabilization', 'buffering', 'supplement', 'like', 'lime', 'manure', 'developed', 'cover', 'application', 'careful', 'start', 'process', 'gentle', 'recovery', 'strategy', 'severe', 'reactor', 'failure', 'enabling', 'process', 'organic', 'loading', 'rate', 'hydraulic', 'retention', 'time', 'throughput', 'anaerobic', 'digestion', 'process', 'stable', 'content', 'precondition', 'load', 'process', 'concept', 'interval', 'feeding', 'example', 'interval', 'proved', 'reliable', 'long', 'term', 'fermentation', 'study', 'stage', 'completely', 'stirred', 'tank', 'reactor', 'cstr', 'acidic', 'beet', 'silage', 'mono', 'input', 'fermentation', 'fodder', 'beet', 'silage', 'stable', 'volumetric', 'reached', 'enabled', 'automatic', 'recovery', 'digester', 'induced', 'severe', 'reactor', 'failure', 'attempt', 'prove', 'feasibility', 'substrate', 'changed', 'sugar', 'beet', 'silage', 'substantially', 'buffering', 'capacity', 'accomplished', 'stable', 'fermentation', 'level', 'volatile', 'fatty', 'acid', 'level', 'interact', 'change', 'substrate', 'dosage', 'permanently', 'experiment', 'reactor', 'temperature', 'concomitantly', 'specific', 'dropped', 'finally', 'automatically', 'enabled', 'complete', 'recovery']</t>
+  </si>
+  <si>
+    <t>x1: 0.12|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.21|x8: 0.00|x9: 0.10|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.35|x14: 0.22|x15: 0.13|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.35]</t>
+  </si>
+  <si>
+    <t>[7, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>['intuitionistic', 'fuzzy', 'ifss', 'generalization', 'fuzzy', 'adding', 'additional', 'attribute', 'parameter', 'called', 'membership', 'degree', 'paper', 'intuitionistic', 'fuzzy', 'hopfield', 'neural', 'network', 'ifhnn', 'proposed', 'combining', 'ifss', 'hopfield', 'neural', 'network', 'stability', 'ifhnn', 'investigated', 'shown', 'given', 'weight', 'matrix', 'given', 'initial', 'intuitionistic', 'fuzzy', 'pattern', 'iteration', 'process', 'ifhnn', 'converges', 'limit', 'cycle', 'furthermore', 'suitable', 'extra', 'condition', 'converges', 'stable', 'point', 'finite', 'iteration', 'finally', 'kind', 'lyapunov', 'stability', 'stable', 'point', 'ifhnn', 'proved', 'mean', 'initial', 'state', 'network', 'close', 'stable', 'point', 'network', 'state', 'remain', 'neighborhood', 'stable', 'point', 'stability', 'result', 'indicate', 'convergence', 'memory', 'process', 'ifhnn', 'numerical', 'example', 'provided', 'effectiveness', 'lyapunov', 'stability', 'ifhnn']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.09|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.33|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.34|x14: 0.00|x15: 0.13|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 12, 13]</t>
+  </si>
+  <si>
+    <t>['reduction', 'environmental', 'pollution', 'conservation', 'recycling', 'natural', 'resource', 'significant', 'social', 'environmental', 'concern', 'valuable', 'mean', 'pollution', 'control', 'minimization', 'mitigation', 'remain', 'attractive', 'approach', 'interactive', 'dynamic', 'uncertain', 'feature', 'associated', 'process', 'resulting', 'difficulty', 'management', 'control', 'artificial', 'intelligence', 'effective', 'approach', 'tackling', 'complexity', 'study', 'recent', 'advancement', 'based', 'technology', 'management', 'control', 'pollution', 'minimization', 'mitigation', 'process', 'examined', 'literature', 'relevant', 'area', 'application', 'control', 'management', 'pollution', 'minimization', 'mitigation', 'process', 'investigated', 'especially', 'technology', 'expert', 'fuzzy', 'logic', 'neural', 'network', 'emerge', 'frequently', 'employed', 'approach', 'realizing', 'process', 'control', 'highlighted', 'result', 'provide', 'overview', 'updated', 'progress', 'study', 'field', 'importantly', 'reveal', 'perspective', 'research', 'effective', 'environmental', 'process', 'control', 'aided', 'measure', 'demanding', 'area', 'enhanced', 'research', 'effort', 'discussed', 'including', 'issue', 'availability', 'reliability', 'methodology', 'validity', 'complexity']</t>
+  </si>
+  <si>
+    <t>x1: 0.37|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.16|x13: 0.20|x14: 0.31|x15: 0.12|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.37]</t>
+  </si>
+  <si>
+    <t>[1, 13, 14]</t>
+  </si>
+  <si>
+    <t>['work', 'aided', 'tool', 'detection', 'developed', 'segment', 'breast', 'mass', 'clinical', 'ultrasound', 'scan', 'underlying', 'multi', 'algorithm', 'based', 'convolutional', 'neural', 'network', 'mayo', 'clinic', 'institutional', 'review', 'board', 'protocol', 'prospective', 'study', 'automatic', 'segmentation', 'suspicious', 'breast', 'mass', 'performed', 'cohort', 'consisted', 'female', 'patient', 'clinically', 'identified', 'suspicious', 'breast', 'mass', 'underwent', 'clinical', 'scan', 'breast', 'biopsy', 'aided', 'detection', 'tool', 'effectively', 'segmented', 'breast', 'mass', 'achieving', 'mean', 'dice', 'coefficient', 'true', 'positive', 'fraction', 'false', 'positive', 'fraction', 'avoiding', 'positioning', 'initial', 'seed', 'algorithm', 'able', 'segment', 'image', 'time', 'image', 'potential', 'clinical', 'application', 'algorithm', 'conventional', 'seeded', 'algorithm', 'mean', 'dice', 'coefficient', 'performs', 'significantly', 'better', 'original', 'algorithm']</t>
+  </si>
+  <si>
+    <t>x1: 0.20|x2: 0.00|x3: 0.24|x4: 0.11|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.50|x14: 0.00|x15: 0.11|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.50]</t>
+  </si>
+  <si>
+    <t>[3, 5, 13]</t>
+  </si>
+  <si>
+    <t>['coronary', 'artery', 'calcification', 'strong', 'independent', 'predictor', 'cardiovascular', 'event', 'clinically', 'quantified', 'cardiac', 'calcium', 'scoring', 'csct', 'shown', 'cardiac', 'angiography', 'ccta', 'purpose', 'present', 'method', 'automatic', 'quantification', 'ccta', 'method', 'supervised', 'learning', 'directly', 'identify', 'quantify', 'need', 'coronary', 'artery', 'extraction', 'commonly', 'existing', 'method']</t>
+  </si>
+  <si>
+    <t>x1: 0.19|x2: 0.00|x3: 0.29|x4: 0.20|x5: 0.00|x6: 0.19|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.23|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.29]</t>
+  </si>
+  <si>
+    <t>[3, 4, 8, 12]</t>
+  </si>
+  <si>
+    <t>['automatic', 'license', 'plate', 'recognition', 'play', 'important', 'role', 'numerous', 'application', 'number', 'technique', 'proposed', 'worked', 'restricted', 'condition', 'fixed', 'illumination', 'limited', 'vehicle', 'speed', 'designated', 'route', 'stationary', 'background', 'study', 'constraint', 'possible', 'working', 'environment', 'considered', 'proposed', 'technique', 'consists', 'main', 'module', 'license', 'plate', 'locating', 'module', 'license', 'number', 'identification', 'module', 'characterized', 'fuzzy', 'discipline', 'attempt', 'extract', 'license', 'plate', 'input', 'image', 'conceptualized', 'term', 'neural', 'subject', 'identify', 'number', 'present', 'license', 'plate', 'experiment', 'conducted', 'respective', 'module', 'experiment', 'locating', 'license', 'plate', 'image', 'taken', 'scene', 'different', 'condition', 'employed', 'image', 'failed', 'locate', 'license', 'plate', 'present', 'image', 'license', 'plate', 'location', 'rate', 'success', 'experiment', 'identifying', 'license', 'number', 'image', 'license', 'plate', 'successfully', 'located', 'image', 'failed', 'identify', 'number', 'license', 'plate', 'located', 'image', 'identification', 'rate', 'success', 'combining', 'rate', 'overall', 'rate', 'success', 'algorithm']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.36|x4: 0.13|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.36|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.36]</t>
+  </si>
+  <si>
+    <t>[3, 8, 13, 14]</t>
+  </si>
+  <si>
+    <t>['perception', 'design', 'vital', 'step', 'development', 'autonomous', 'vehicle', 'vast', 'selection', 'available', 'shelf', 'scheme', 'seemingly', 'endless', 'option', 'sensor', 'implemented', 'research', 'commercial', 'vehicle', 'difficult', 'identify', 'optimal', 'application', 'article', 'present', 'comprehensive', 'review', 'state', 'perception', 'technology', 'available', 'today', 'provides', 'date', 'information', 'advantage', 'disadvantage', 'limit', 'ideal', 'application', 'specific', 'sensor', 'prevalent', 'sensor', 'current', 'research', 'commercial', 'autonomous', 'feature', 'currently', 'market', 'localization', 'mapping', 'method', 'currently', 'implemented', 'research', 'information', 'useful', 'newcomer', 'field', 'gain', 'greater', 'understanding', 'current', 'solution', 'landscape', 'guide', 'experienced', 'researcher', 'research', 'area', 'requiring', 'development', 'furthermore', 'paper', 'highlight', 'future', 'research', 'area', 'draw', 'conclusion', 'effective', 'method', 'perception', 'effect', 'localization', 'mapping', 'topic', 'discussed', 'perception', 'automotive', 'sensor', 'section', 'focus', 'sensor', 'topic', 'discussed', 'localization', 'mapping', 'section', 'focus', 'vehicle', 'perceives', 'road', 'providing', 'context', 'automotive', 'sensor', 'improving', 'current', 'state', 'perception', 'robust', 'reliable', 'safe', 'accessible', 'ultimately', 'providing', 'greater', 'efficiency', 'mobility', 'safety', 'benefit', 'public']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.33|x10: 0.12|x11: 0.09|x12: 0.00|x13: 0.12|x14: 0.25|x15: 0.10|x16: 0.20|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.33]</t>
+  </si>
+  <si>
+    <t>[9, 14]</t>
+  </si>
+  <si>
+    <t>['life', 'depression', 'seventh', 'competition', 'event', 'aimed', 'comparison', 'multimedia', 'processing', 'machine', 'learning', 'method', 'automatic', 'audiovisual', 'depression', 'emotion', 'analysis', 'participant', 'competing', 'strictly', 'condition', 'goal', 'challenge', 'provide', 'common', 'benchmark', 'test', 'multimodal', 'information', 'processing', 'bring', 'depression', 'emotion', 'recognition', 'community', 'audiovisual', 'processing', 'community', 'compare', 'relative', 'merit', 'approach', 'depression', 'emotion', 'recognition', 'life', 'paper', 'present', 'novelty', 'introduced', 'challenge', 'guideline', 'performance', 'baseline', 'proposed', 'task', 'dimensional', 'emotion', 'recognition', 'time', 'value', 'continuous', 'dimensional', 'depression', 'estimation', 'value', 'continuous']</t>
+  </si>
+  <si>
+    <t>x1: 0.22|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.10|x7: 0.00|x8: 0.28|x9: 0.23|x10: 0.00|x11: 0.13|x12: 0.00|x13: 0.00|x14: 0.15|x15: 0.00|x16: 0.17|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 8, 9]</t>
+  </si>
+  <si>
+    <t>['mimo', 'multiple', 'input', 'multiple', 'output', 'fuzzy', 'logic', 'based', 'model', 'developed', 'predict', 'biogas', 'methane', 'production', 'rate', 'pilot', 'scale', 'mesophilic', 'flow', 'anaerobic', 'sludge', 'blanket', 'uasb', 'reactor', 'treating', 'molasses', 'wastewater', 'input', 'variable', 'volumetric', 'organic', 'loading', 'rate', 'volumetric', 'chemical', 'oxygen', 'demand', 'tcod', 'removal', 'rate', 'influent', 'alkalinity', 'influent', 'effluent', 'fuzzified', 'artificial', 'intelligence', 'based', 'approach', 'trapezoidal', 'membership', 'function', 'level', 'conducted', 'fuzzy', 'subset', 'mamdani', 'type', 'fuzzy', 'inference', 'implement', 'rule', 'format', 'product', 'prod', 'centre', 'gravity', 'centroid', 'method', 'employed', 'inference', 'operator', 'defuzzification', 'method', 'respectively', 'fuzzy', 'logic', 'predicted', 'result', 'compared', 'output', 'exponential', 'linear', 'regression', 'model', 'derived', 'study', 'uasb', 'reactor', 'showed', 'remarkable', 'performance', 'treatment', 'molasses', 'wastewater', 'tcod', 'removal', 'efficiency', 'volumetric', 'tcod', 'removal', 'rate', 'tcod', 'removed', 'respectively', 'finding', 'study', 'clearly', 'indicated', 'compared', 'linear', 'regression', 'model', 'proposed', 'mimo', 'fuzzy', 'logic', 'based', 'model', 'produced', 'smaller', 'deviation', 'exhibited', 'superior', 'predictive', 'performance', 'forecasting', 'biogas', 'methane', 'production', 'rate', 'satisfactory', 'determination', 'coefficient']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.12|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.50|x13: 0.15|x14: 0.18|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[8, 12]</t>
+  </si>
+  <si>
+    <t>['fuzzy', 'logic', 'model', 'developed', 'simulate', 'effect', 'leachate', 'recirculation', 'sludge', 'addition', 'biogas', 'generation', 'anaerobic', 'bioreactor', 'landfill', 'model', 'designed', 'fuzzy', 'logic', 'incorporated', 'input', 'variable', 'time', 'leachate', 'recirculation', 'sludge', 'addition', 'single', 'manipulated', 'output', 'biogas', 'generation', 'rate', 'biogas', 'production', 'rate', 'measured', 'experiment', 'increasing', 'proportionally', 'rate', 'leachate', 'recirculation', 'sludge', 'addition', 'experimental', 'work', 'involved', 'operation', 'simulated', 'laboratory', 'scale', 'bioreactors', 'different', 'operating', 'scheme', 'experimental', 'result', 'employed', 'formulating', 'fuzzy', 'rule', 'base', 'calibrating', 'model', 'verifying', 'prediction', 'model', 'validated', 'measured', 'compiled', 'published', 'study', 'model', 'simulation', 'demonstrated', 'correlation', 'experimental', 'observation']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.21|x8: 0.24|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.54|x13: 0.13|x14: 0.11|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.54]</t>
+  </si>
+  <si>
+    <t>[3, 7, 8, 12]</t>
+  </si>
+  <si>
+    <t>['hypertension', 'main', 'cause', 'maternal', 'death', 'preeclampsia', 'affect', 'pregnant', 'woman', 'pregnancy', 'identification', 'patient', 'higher', 'risk', 'preeclampsia', 'allows', 'precaution', 'taken', 'prevent', 'severe', 'disease', 'subsequent', 'complication', 'medicine', 'different', 'situation', 'deal', 'large', 'range', 'information', 'need', 'thorough', 'assessment', 'able', 'help', 'expert', 'decision', 'making', 'process', 'smart', 'decision', 'support', 'allow', 'grouping', 'existing', 'information', 'finding', 'pertinent', 'information', 'bayesian', 'network', 'offer', 'model', 'allow', 'information', 'capture', 'handle', 'situation', 'uncertainty', 'paper', 'proposes', 'construction', 'support', 'intelligent', 'decision', 'applied', 'diagnosis', 'preeclampsia', 'bayesian', 'network', 'help', 'expert', 'pregnant', 'care', 'process', 'qualitative', 'quantitative', 'modeling', 'construction', 'network', 'presented', 'main', 'contribution', 'work', 'includes', 'presentation', 'bayesian', 'network', 'built', 'help', 'decision', 'maker', 'moment', 'uncertainty', 'care', 'pregnant', 'woman']</t>
+  </si>
+  <si>
+    <t>x1: 0.28|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.40|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.40]</t>
+  </si>
+  <si>
+    <t>[1, 9, 12]</t>
+  </si>
+  <si>
+    <t>['pregnancy', 'delicate', 'stage', 'woman', 'life', 'cycle', 'change', 'health', 'period', 'lead', 'risk', 'pregnancy', 'risk', 'pregnancy', 'endangers', 'woman', 'baby', 'health', 'life', 'hypertensive', 'disorder', 'common', 'cause', 'pregnancy', 'related', 'complication', 'present', 'major', 'challenge', 'health', 'care', 'result', 'increasing', 'maternal', 'fetal', 'death', 'exist', 'technique', 'widely', 'mining', 'early', 'identification', 'health', 'disease', 'better', 'treatment', 'provided', 'early', 'stage', 'early', 'identification', 'hypertensive', 'disorder', 'main', 'intent', 'paper', 'pinpoint', 'present', 'complication', 'pregnant', 'woman', 'applying', 'boosted', 'random', 'forest', 'approach', 'predicting', 'hypertensive', 'disorder', 'classification', 'method', 'help', 'predict', 'risk', 'diagnose', 'decrease', 'maternal', 'fetal', 'mortality', 'remains', 'large', 'problem', 'developing']</t>
+  </si>
+  <si>
+    <t>x1: 0.14|x2: 0.00|x3: 0.65|x4: 0.10|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.65]</t>
+  </si>
+  <si>
+    <t>[3, 8]</t>
+  </si>
+  <si>
+    <t>['national', 'motor', 'vehicle', 'crash', 'causation', 'survey', 'nmvccs', 'conducted', 'aimed', 'collecting', 'scene', 'information', 'event', 'associated', 'factor', 'leading', 'crash', 'involving', 'light', 'vehicle', 'facet', 'crash', 'occurrence', 'investigated', 'collection', 'precrash', 'movement', 'critical', 'crash', 'event', 'critical', 'reason', 'associated', 'factor', 'weighted', 'sample', 'crash', 'investigated', 'period', 'represents', 'estimated', 'crash', 'nationwide', 'vehicle', 'driver', 'passenger', 'estimated', 'involved', 'crash', 'critical', 'reason', 'event', 'crash', 'causal', 'chain', 'assigned', 'driver', 'percent', 'crash', 'percent', 'crash', 'critical', 'reason', 'assigned', 'vehicle', 'component', 'failure', 'degradation', 'percent', 'crash', 'attributed', 'environment', 'slick', 'road', 'weather', 'estimated', 'driver', 'assigned', 'critical', 'reason', 'recognition', 'error', 'accounted', 'percent', 'decision', 'error', 'percent', 'performance', 'error', 'percent', 'crash']</t>
+  </si>
+  <si>
+    <t>x1: 0.19|x2: 0.00|x3: 0.41|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.36|x9: 0.13|x10: 0.00|x11: 0.23|x12: 0.17|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 8, 11]</t>
+  </si>
+  <si>
+    <t>['paper', 'survey', 'discus', 'application', 'derived', 'soft', 'sensing', 'technique', 'biological', 'wastewater', 'treatment', 'plant', 'emphasis', 'given', 'extensive', 'overview', 'current', 'status', 'specific', 'challenge', 'potential', 'allow', 'effective', 'application', 'soft', 'sensor', 'scale', 'scenario', 'soft', 'sensor', 'presented', 'study', 'effective', 'inexpensive', 'technology', 'extracting', 'modelling', 'relevant', 'process', 'information', 'directly', 'process', 'laboratory', 'routinely', 'acquired', 'biological', 'wastewater', 'treatment', 'facility', 'extracted', 'information', 'timely', 'analysis', 'hard', 'measure', 'primary', 'process', 'variable', 'process', 'diagnostics', 'characterize', 'operation', 'plant', 'instrumentation', 'information', 'invaluable', 'effective', 'utilization', 'advanced', 'control', 'optimization', 'strategy']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.11|x9: 0.09|x10: 0.22|x11: 0.00|x12: 0.20|x13: 0.00|x14: 0.39|x15: 0.20|x16: 0.13|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[10, 12, 14]</t>
+  </si>
+  <si>
+    <t>['paper', 'provide', 'survey', 'application', 'deep', 'learning', 'cancer', 'detection', 'diagnosis', 'hope', 'provide', 'overview', 'progress', 'field', 'survey', 'firstly', 'provide', 'overview', 'deep', 'learning', 'popular', 'architecture', 'cancer', 'detection', 'diagnosis', 'especially', 'present', 'popular', 'deep', 'learning', 'architecture', 'including', 'convolutional', 'neural', 'network', 'fully', 'convolutional', 'network', 'auto', 'encoders', 'deep', 'belief', 'network', 'survey', 'secondly', 'provide', 'survey', 'study', 'exploiting', 'deep', 'learning', 'cancer', 'detection', 'diagnosis', 'survey', 'organized', 'based', 'type', 'cancer', 'thirdly', 'provide', 'summary', 'comment', 'recent', 'work', 'application', 'deep', 'learning', 'cancer', 'detection', 'diagnosis', 'propose', 'future', 'research', 'direction']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.37|x4: 0.24|x5: 0.38|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.21|x12: 0.00|x13: 0.00|x14: 0.12|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 11]</t>
+  </si>
+  <si>
+    <t>['social', 'twitter', 'provide', 'urgently', 'needed', 'drug', 'abuse', 'intelligence', 'support', 'campaign', 'fighting', 'national', 'drug', 'abuse', 'crisis', 'employed', 'targeted', 'tweet', 'collection', 'approach', 'staged', 'annotation', 'strategy', 'combine', 'conventional', 'annotation', 'crowdsourced', 'annotation', 'produce', 'annotated', 'training', 'dataset', 'demo', 'deep', 'learning', 'model', 'trained', 'boosting', 'manner', 'staged', 'annotation', 'method', 'unlabeled', 'collection', 'detect', 'drug', 'abuse', 'risk', 'behavior', 'tweet']</t>
+  </si>
+  <si>
+    <t>x1: 0.12|x2: 0.00|x3: 0.45|x4: 0.21|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.11|x9: 0.00|x10: 0.00|x11: 0.25|x12: 0.00|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.45]</t>
+  </si>
+  <si>
+    <t>[3, 4, 11]</t>
+  </si>
+  <si>
+    <t>['goal', 'research', 'project', 'combine', 'intelligent', 'decision', 'patient', 'decisionsupport', 'tool', 'provide', 'information', 'physician', 'nurse', 'parent', 'facing', 'difficult', 'ethical', 'decision', 'care', 'management', 'neonatal', 'intensive', 'care', 'nicu', 'patient', 'artificial', 'intelligence', 'approach', 'based', 'reasoning', 'artificial', 'neural', 'network', 'provide', 'critical', 'information', 'estimate', 'likelihood', 'survival', 'duration', 'artificial', 'ventilation', 'estimate', 'addition', 'factor', 'weight', 'gestational', 'presence', 'major', 'complication', 'provide', 'eritical', 'information', 'health', 'care', 'giver', 'parent', 'decide', 'initiate', 'intensive', 'care', 'infant', 'terminate', 'initiated']</t>
+  </si>
+  <si>
+    <t>x1: 0.18|x2: 0.22|x3: 0.37|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.16|x10: 0.00|x11: 0.09|x12: 0.21|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[2, 3, 12]</t>
+  </si>
+  <si>
+    <t>['severe', 'maternal', 'morbidity', 'public', 'health', 'issue', 'occur', 'pregnancy', 'delivery', 'puerperium', 'condition', 'hypertensive', 'disorder', 'hemorrhage', 'infection', 'risk', 'woman', 'baby', 'life', 'condition', 'difficult', 'detect', 'early', 'stage', 'response', 'work', 'proposes', 'machine', 'learning', 'technique', 'considered', 'relevant', 'medical', 'setting', 'order', 'predict', 'risk', 'level', 'severe', 'maternal', 'morbidity', 'patient', 'pregnancy', 'population', 'studied', 'correspond', 'pregnant', 'woman', 'receiving', 'prenatal', 'care', 'attention', 'clinica', 'maternidad', 'rafael', 'calvo', 'cartagena', 'colombia', 'paper', 'present', 'preliminary', 'result', 'ongoing', 'project', 'method', 'material', 'considered', 'construction', 'learning', 'model']</t>
+  </si>
+  <si>
+    <t>x1: 0.22|x2: 0.00|x3: 0.36|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.25|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 8, 12, 13]</t>
+  </si>
+  <si>
+    <t>['background', 'misuse', 'prescription', 'opioids', 'mupo', 'leading', 'public', 'health', 'concern', 'social', 'playing', 'expanded', 'role', 'public', 'health', 'research', 'method', 'estimating', 'established', 'epidemiological', 'metric', 'social', 'purpose', 'study', 'demonstrate', 'geographic', 'variation', 'social', 'post', 'mentioning', 'prescription', 'opioid', 'misuse', 'strongly', 'correlate', 'government', 'estimate', 'mupo', 'month', 'method', 'wrote', 'software', 'acquire', 'publicly', 'available', 'tweet', 'twitter', 'contained', 'keyword', 'related', 'prescription', 'opioid', 'medical', 'toxicologist', 'emergency', 'physician', 'curated', 'list', 'keywords', 'semantic', 'distance', 'semd', 'automatically', 'quantify', 'similarity', 'meaning', 'tweet', 'identify', 'tweet', 'mentioned', 'mupo', 'defined', 'semd', 'word', 'shortest', 'distance', 'corresponding', 'word', 'centroid', 'word', 'centroid', 'represented', 'recognized', 'meaning', 'word', 'validated', 'automatic', 'identification', 'manual', 'curation', 'twitter', 'metadata', 'estimate', 'location', 'tweet', 'compared', 'estimated', 'geographic', 'distribution', 'national', 'survey', 'drug', 'usage', 'health', 'nsduh', 'result', 'tweet', 'mentioned', 'mupo', 'formed', 'distinct', 'cluster', 'away', 'semantically', 'unrelated', 'tweet', 'state', 'bystate', 'correlation', 'twitter', 'nsduh', 'highly', 'significant', 'nsduh', 'survey', 'correlation', 'strongest', 'twitter', 'nsduh', 'aged', 'correlation', 'driven', 'discussion', 'opioid', 'controlling', 'geographic', 'variation', 'twitter', 'usage', 'conclusion', 'mention', 'mupo', 'twitter', 'correlate', 'strongly', 'state', 'state', 'nsduh', 'estimate', 'mupo', 'demonstrated', 'natural', 'language', 'processing', 'analyze', 'social', 'provide', 'insight', 'syndromic']</t>
+  </si>
+  <si>
+    <t>x1: 0.32|x2: 0.00|x3: 0.28|x4: 0.09|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.00|x10: 0.00|x11: 0.13|x12: 0.10|x13: 0.20|x14: 0.00|x15: 0.12|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.32]</t>
+  </si>
+  <si>
+    <t>[1, 3, 13]</t>
+  </si>
+  <si>
+    <t>['generating', 'novel', 'graph', 'structure', 'optimize', 'given', 'objective', 'obeying', 'given', 'underlying', 'rule', 'fundamental', 'chemistry', 'biology', 'social', 'science', 'research', 'especially', 'important', 'task', 'molecular', 'graph', 'generation', 'goal', 'discover', 'novel', 'molecule', 'desired', 'property', 'drug', 'likeness', 'synthetic', 'accessibility', 'obeying', 'physical', 'chemical', 'valency', 'designing', 'model', 'molecule', 'optimize', 'desired', 'property', 'incorporating', 'highly', 'complex', 'differentiable', 'rule', 'remains', 'challenging', 'task', 'propose', 'graph', 'convolutional', 'policy', 'network', 'gcpn', 'general', 'graph', 'convolutional', 'network', 'based', 'model', 'goaldirected', 'graph', 'generation', 'reinforcement', 'learning', 'model', 'trained', 'optimize', 'domain', 'specific', 'reward', 'adversarial', 'loss', 'policy', 'gradient', 'environment', 'incorporates', 'domain', 'specific', 'rule', 'experimental', 'result', 'gcpn', 'achieve', 'improvement', 'chemical', 'property', 'optimization', 'state', 'baseline', 'resembling', 'known', 'molecule', 'achieve', 'improvement', 'constrained', 'property', 'optimization', 'task']</t>
+  </si>
+  <si>
+    <t>x1: 0.17|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.12|x8: 0.16|x9: 0.38|x10: 0.00|x11: 0.00|x12: 0.35|x13: 0.00|x14: 0.08|x15: 0.00|x16: 0.10|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 12]</t>
+  </si>
+  <si>
+    <t>['discrete', 'hidden', 'markov', 'model', 'hmms', 'applied', 'classify', 'pregnancy', 'disorder', 'observation', 'sequence', 'generated', 'transforming', 'systolic', 'blood', 'pressure', 'time', 'series', 'symbolic', 'dynamic', 'time', 'series', 'recorded', 'woman', 'pregnancy', 'induced', 'hypertension', 'preeclampsia', 'control', 'gestational', 'week', 'hmms', 'hidden', 'state', 'sufficient', 'characterize', 'different', 'blood', 'pressure', 'variability', 'significant', 'classification', 'based', 'hmms', 'hidden', 'state', 'pregnancy', 'disorder', 'preeclampsia', 'pregnancy', 'induced', 'hypertension', 'revealed', 'different', 'patho', 'physiological', 'autonomous', 'regulation', 'supposing', 'different', 'etiology', 'disorder']</t>
+  </si>
+  <si>
+    <t>x1: 0.23|x2: 0.00|x3: 0.37|x4: 0.00|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.23|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.08|x14: 0.08|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 8]</t>
+  </si>
+  <si>
+    <t>['substance', 'abuse', 'significant', 'public', 'health', 'problem', 'united', 'state', 'group', 'based', 'intervention', 'program', 'offer', 'promising', 'mean', 'reducing', 'substance', 'abuse', 'effective', 'inappropriate', 'intervention', 'group', 'result', 'increase', 'deviant', 'behavior', 'participant', 'process', 'known', 'deviancy', 'training', 'paper', 'present', 'guide', 'based', 'decision', 'leverage', 'social', 'network', 'information', 'optimize', 'structure', 'intervention', 'group']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.11|x5: 0.00|x6: 0.10|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.22|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.10|x15: 0.00|x16: 0.11|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.31]</t>
+  </si>
+  <si>
+    <t>[3, 9, 10, 12]</t>
+  </si>
+  <si>
+    <t>['seek', 'automate', 'design', 'molecule', 'based', 'specific', 'chemical', 'property', 'computational', 'term', 'task', 'involves', 'continuous', 'embedding', 'generation', 'molecular', 'graph', 'primary', 'contribution', 'direct', 'realization', 'molecular', 'graph', 'task', 'previously', 'approached', 'generating', 'linear', 'smile', 'string', 'instead', 'graph', 'junction', 'tree', 'variational', 'autoencoder', 'generates', 'molecular', 'graph', 'phase', 'generating', 'tree', 'structured', 'scaffold', 'chemical', 'substructure', 'combining', 'molecule', 'graph', 'message', 'passing', 'network', 'approach', 'allows', 'incrementally', 'expand', 'molecule', 'maintaining', 'chemical', 'validity', 'step', 'evaluate', 'model', 'multiple', 'task', 'ranging', 'molecular', 'generation', 'optimization', 'task', 'model', 'outperforms', 'previous', 'state', 'baseline', 'significant', 'margin']</t>
+  </si>
+  <si>
+    <t>x1: 0.21|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.30|x6: 0.00|x7: 0.23|x8: 0.09|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 5, 7, 12]</t>
+  </si>
+  <si>
+    <t>['cancer', 'characterized', 'heterogeneous', 'disease', 'consisting', 'different', 'subtypes', 'early', 'diag', 'nosis', 'prognosis', 'cancer', 'type', 'necessity', 'cancer', 'research', 'facilitate', 'subsequent', 'clinical', 'management', 'patient', 'importance', 'classifying', 'cancer', 'patient', 'risk', 'group', 'research', 'team', 'biomedical', 'bioinformatics', 'field', 'study', 'application', 'machine', 'learning', 'method', 'technique', 'utilized', 'model', 'progression', 'treatment', 'cancerous', 'condition', 'addition', 'ability', 'tool', 'detect', 'feature', 'complex', 'datasets', 'reveals', 'importance', 'variety', 'technique', 'including', 'artificial', 'neural', 'network', 'anns', 'bayesian', 'network', 'support', 'vector', 'machine', 'svms', 'decision', 'tree', 'widely', 'applied', 'cancer', 'research', 'development', 'predictive', 'model', 'resulting', 'effective', 'accurate', 'decision', 'making', 'evident', 'method', 'improve', 'understanding', 'cancer', 'progression', 'appropriate', 'level', 'validation', 'needed', 'order', 'method', 'considered', 'everyday', 'clinical', 'prac', 'tice', 'work', 'present', 'review', 'recent', 'approach', 'employed', 'modeling', 'cancer', 'progression', 'predictive', 'model', 'discussed', 'based', 'supervised', 'technique', 'different', 'input', 'feature', 'sample', 'given', 'growing', 'trend', 'application', 'method', 'cancer', 'research', 'present', 'recent', 'publication', 'employ', 'technique', 'model', 'cancer', 'risk', 'patient', 'outcome']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.36|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.15|x10: 0.11|x11: 0.00|x12: 0.24|x13: 0.09|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 8, 12]</t>
+  </si>
+  <si>
+    <t>['eclampsia', 'multi', 'disorder', 'pregnancy', 'major', 'maternal', 'perinatal', 'implication', 'emerging', 'therapeutic', 'strategy', 'maximally', 'effective', 'commenced', 'week', 'month', 'prior', 'clinical', 'presentation', 'disease', 'widespread', 'plasma', 'alteration', 'precede', 'clinical', 'onset', 'eclampsia', 'single', 'plasma', 'constituent', 'emerged', 'sensitive', 'specific', 'predictor', 'risk', 'consequently', 'currently', 'available', 'method', 'identifying', 'condition', 'prior', 'clinical', 'presentation', 'limited', 'clinical', 'exploited', 'genetic', 'programming', 'powerful', 'mining', 'method', 'identify', 'pattern', 'metabolite', 'distinguish', 'plasma', 'patient', 'eclampsia', 'taken', 'healthy', 'matched', 'control', 'resolution', 'chromatography', 'time', 'flight', 'mass', 'spectrometry', 'performed', 'plasma', 'sample', 'woman', 'eclampsia', 'matched', 'control', 'normalised', 'peak', 'genetic', 'programming', 'produce', 'model', 'gave', 'output', 'patient', 'control', 'model', 'trained', 'generated', 'tested', 'separate', 'hold', 'model', 'generated', 'identified', 'metabolomic', 'pattern', 'produce', 'simple', 'rule', 'discriminate', 'eclampsia', 'normal', 'pregnant', 'control', 'metabolite', 'peak', 'variable', 'sensitivity', 'specificity', 'preeclampsia', 'diagnosed', 'level', 'molecule', 'metabolism', 'blood', 'plasma', 'finding', 'justify', 'prospective', 'assessment', 'metabolomic', 'technology', 'screening', 'tool', 'eclampsia', 'identification', 'metabolite', 'involved', 'lead', 'improved', 'understanding', 'aetiological', 'basis', 'eclampsia', 'development', 'targeted', 'therapy']</t>
+  </si>
+  <si>
+    <t>x1: 0.22|x2: 0.10|x3: 0.33|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.35|x13: 0.16|x14: 0.09|x15: 0.00|x16: 0.09|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 12]</t>
+  </si>
+  <si>
+    <t>['hypertensive', 'disorder', 'leading', 'cause', 'death', 'pregnancy', 'risk', 'pregnancy', 'accompaniment', 'essential', 'reduce', 'complication', 'decision', 'support', 'important', 'tool', 'patient', 'accompaniment', 'provide', 'relevant', 'information', 'health', 'expert', 'clinical', 'condition', 'patient', 'anytime', 'paper', 'model', 'naive', 'bayesian', 'classifier', 'introduced', 'performance', 'evaluated', 'comparison', 'mining', 'classifier', 'named', 'decision', 'tree', 'study', 'includes', 'modeling', 'performance', 'evaluation', 'comparison', 'model', 'pregnancy', 'complication', 'evaluation', 'analysis', 'result', 'performed', 'confusion', 'matrix', 'indicator', 'founded', 'result', 'decision', 'tree', 'classifier', 'performs', 'better', 'indicator', 'confirming', 'promising', 'accuracy', 'identifying', 'hypertensive', 'disorder', 'pregnancy']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.18|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.14|x10: 0.00|x11: 0.12|x12: 0.25|x13: 0.00|x14: 0.26|x15: 0.08|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['dysplasia', 'necrotizing', 'enterocolitis', 'retinopathy', 'prematurity', 'severe', 'complication', 'affecting', 'weight', 'vlbw', 'infant', 'finding', 'gathered', 'intensive', 'care', 'unit', 'hour', 'care', 'predict', 'vlbw', 'infant', 'risk', 'developing', 'gaussian', 'process', 'classification', 'achieved', 'classification', 'result', 'area', 'receiver', 'operator', 'characteristic', 'curve', 'standard', 'error', 'compare', 'favourably', 'result', 'achieved', 'clinical', 'standard', 'snap', 'snappe', 'score', 'sensitivity', 'sensitivity', 'close', 'zero', 'suggesting', 'reliably', 'predicted', 'approach']</t>
+  </si>
+  <si>
+    <t>x1: 0.27|x2: 0.15|x3: 0.09|x4: 0.11|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.49|x14: 0.00|x15: 0.11|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.49]</t>
+  </si>
+  <si>
+    <t>['cardiac', 'magnetic', 'resonance', 'imaging', 'fully', 'automatic', 'segmentation', 'heart', 'enables', 'precise', 'structural', 'functional', 'measurement', 'taken', 'short', 'axis', 'image', 'left', 'ventricle', 'work', 'propose', 'recurrent', 'fully', 'convolutional', 'network', 'rfcn', 'learns', 'image', 'representation', 'stack', 'slice', 'ability', 'leverage', 'inter', 'slice', 'spatial', 'dependence', 'internal', 'memory', 'unit', 'rfcn', 'combine', 'anatomical', 'detection', 'segmentation', 'single', 'architecture', 'trained', 'significantly', 'reducing', 'computational', 'time', 'simplifying', 'segmentation', 'pipeline', 'potentially', 'enabling', 'time', 'application', 'report', 'investigation', 'rfcn', 'datasets', 'including', 'publicly', 'available', 'miccai', 'challenge', 'dataset', 'comparison', 'carried', 'fully', 'convolutional', 'network', 'deep', 'restricted', 'boltzmann', 'machine', 'including', 'recurrent', 'version', 'leverage', 'inter', 'slice', 'spatial', 'correlation', 'study', 'suggest', 'rfcn', 'produce', 'state', 'result', 'substantially', 'improve', 'delineation', 'contour', 'near', 'apex', 'heart']</t>
+  </si>
+  <si>
+    <t>x1: 0.11|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.44|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.17|x10: 0.13|x11: 0.00|x12: 0.30|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.44]</t>
+  </si>
+  <si>
+    <t>[5, 12]</t>
+  </si>
+  <si>
+    <t>['anticipating', 'future', 'action', 'human', 'widely', 'studied', 'problem', 'robotics', 'requires', 'spatiotemporal', 'reasoning', 'work', 'propose', 'deep', 'learning', 'approach', 'anticipation', 'sensory', 'rich', 'robotics', 'application', 'introduce', 'sensory', 'fusion', 'architecture', 'jointly', 'learns', 'anticipate', 'fuse', 'information', 'multiple', 'sensory', 'stream', 'architecture', 'consists', 'recurrent', 'neural', 'network', 'rnns', 'long', 'short', 'term', 'memory', 'lstm', 'unit', 'capture', 'long', 'temporal', 'dependency', 'train', 'architecture', 'sequence', 'sequence', 'prediction', 'manner', 'explicitly', 'learns', 'predict', 'future', 'given', 'partial', 'temporal', 'context', 'introduce', 'novel', 'loss', 'layer', 'anticipation', 'prevents', 'fitting', 'encourages', 'early', 'anticipation', 'architecture', 'anticipate', 'driving', 'maneuver', 'second', 'happen', 'natural', 'driving', 'mile', 'context', 'maneuver', 'anticipation', 'come', 'multiple', 'sensor', 'installed', 'vehicle', 'approach', 'significant', 'improvement', 'state', 'maneuver', 'anticipation', 'increasing', 'precision', 'recall']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.14|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.11|x12: 0.23|x13: 0.31|x14: 0.21|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[8, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>['criterion', 'suggested', 'help', 'design', 'clinical', 'decision', 'support', 'better', 'chance', 'successfully', 'deployed', 'clinical', 'environment', 'criterion', 'successfully', 'applied', 'designed', 'estimate', 'outcome', 'neonatal', 'intensive', 'care', 'unit', 'nicu', 'patient', 'deployed', 'pilot', 'study', 'child', 'hospital', 'eastern', 'ontario', 'cheo', 'nicu', 'result', 'study', 'showed', 'accuracy', 'deemed', 'acceptable', 'physician', 'meet', 'expectation', 'ready', 'deployment', 'clinical', 'environment']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.52|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.34|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.52]</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 13]</t>
+  </si>
+  <si>
+    <t>['driver', 'fatigue', 'major', 'cause', 'traffic', 'accident', 'particularly', 'driver', 'large', 'vehicle', 'heavy', 'truck', 'prolonged', 'driving', 'period', 'boredom', 'working', 'condition', 'paper', 'propose', 'vision', 'based', 'fatigue', 'detection', 'driver', 'monitoring', 'easy', 'flexible', 'deployment', 'large', 'vehicle', 'consists', 'module', 'head', 'shoulder', 'detection', 'face', 'detection', 'detection', 'openness', 'estimation', 'fusion', 'drowsiness', 'measure', 'percentage', 'eyelid', 'closure', 'perclos', 'estimation', 'fatigue', 'level', 'classification', 'core', 'innovative', 'technique', 'follows', 'approach', 'estimate', 'continuous', 'level', 'openness', 'based', 'spectral', 'regression', 'fusion', 'algorithm', 'estimate', 'state', 'based', 'adaptive', 'integration', 'multimodel', 'detection', 'robust', 'measure', 'perclos', 'continuous', 'level', 'openness', 'defined', 'driver', 'state', 'classified', 'experiment', 'systematic', 'evaluation', 'analysis', 'proposed', 'algorithm', 'comparison', 'ground', 'truth', 'perclos', 'measurement', 'performed', 'experimental', 'result', 'advantage', 'accuracy', 'robustness', 'challenging', 'situation', 'camera', 'oblique', 'viewing', 'angle', 'driver', 'face', 'driving', 'state', 'monitoring']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.44|x4: 0.00|x5: 0.00|x6: 0.11|x7: 0.16|x8: 0.15|x9: 0.12|x10: 0.12|x11: 0.16|x12: 0.00|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 13]</t>
+  </si>
+  <si>
+    <t>['rate', 'depression', 'growing', 'alarming', 'rate', 'study', 'open', 'talking', 'human', 'paper', 'motivate', 'going', 'phase', 'life', 'avoid', 'effect', 'depression', 'propose', 'chatbot', 'enable', 'positivity', 'boosting', 'conversation', 'user', 'chatbot', 'personalize', 'reply', 'user', 'conversation', 'engaging', 'emotionally', 'supportive', 'training', 'motivating', 'dialogue', 'corpus', 'corpus', 'extended', 'user', 'historical', 'chat', 'social', 'platform', 'tensorflow', 'framework', 'power', 'required', 'server', 'training', 'advantage', 'instead', 'reaching', 'phase', 'requiring', 'visit', 'psychiatrist', 'online', 'free', 'service', 'reach', 'mediate', 'effect', 'depression', 'contribute', 'betterment', 'society']</t>
+  </si>
+  <si>
+    <t>x1: 0.21|x2: 0.00|x3: 0.30|x4: 0.14|x5: 0.00|x6: 0.13|x7: 0.00|x8: 0.39|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['paper', 'process', 'constructing', 'proxy', 'variable', 'represent', 'adult', 'learner', 'time', 'management', 'strategy', 'online', 'course', 'based', 'previous', 'research', 'value', 'selected', 'according', 'result', 'empirical', 'validation', 'regularity', 'learning', 'interval', 'proven', 'correlative', 'predict', 'learning', 'performance', 'indicated', 'previous', 'research', 'regularity', 'learning', 'strong', 'indicator', 'explain', 'learner', 'consistent', 'endeavor', 'study', 'demonstrates', 'possibility', 'learning', 'analytics', 'address', 'learner', 'specific', 'competence', 'basis', 'theoretical', 'background', 'implication', 'learning', 'analytics', 'field', 'seeking', 'pedagogical', 'theory', 'driven', 'approach', 'discussed']</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>x1: 0.13|x2: 0.00|x3: 0.00|x4: 0.53|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.16|x12: 0.00|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.53]</t>
+  </si>
+  <si>
+    <t>[4, 9]</t>
+  </si>
+  <si>
+    <t>['standard', 'behavioral', 'intervention', 'autism', 'spectrum', 'disorder', 'effective', 'therapy', 'social', 'deficit', 'face', 'criticism', 'time', 'intensive', 'overdependent', 'specialist', 'earlier', 'starting', 'therapy', 'strong', 'predictor', 'later', 'success', 'waitlists', 'therapy', 'month', 'long', 'address', 'complication', 'developed', 'superpower', 'glass', 'machine', 'learning', 'assisted', 'software', 'google', 'glass', 'android', 'smartphone', 'designed', 'social', 'interaction', 'pilot', 'exploratory', 'study', 'examines', 'prototype', 'tool', 'potential', 'social', 'affective', 'learning', 'child', 'autism', 'sent', 'tool', 'home', 'family', 'assessed', 'change', 'intake', 'conclusion', 'social', 'responsiveness', 'scale', 'facial', 'affect', 'recognition', 'task', 'qualitative', 'parent', 'report', 'repeated', 'measure', 'anova', 'demonstrated', 'decrease', 'score', 'point', 'higher', 'score', 'indicate', 'higher', 'severity', 'score', 'correct', 'response', 'parent', 'reported', 'contact', 'greater', 'social', 'acuity', 'feasibility', 'study', 'support', 'mobile', 'technology', 'potential', 'therapeutic', 'purpose']</t>
+  </si>
+  <si>
+    <t>x1: 0.28|x2: 0.00|x3: 0.28|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.22|x15: 0.00|x16: 0.13|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 8, 14]</t>
+  </si>
+  <si>
+    <t>['paper', 'explores', 'phenomenon', 'emergence', 'artificial', 'intelligence', 'teaching', 'learning', 'higher', 'education', 'investigates', 'educational', 'implication', 'emerging', 'technology', 'student', 'learn', 'institution', 'teach', 'evolve', 'recent', 'technological', 'advancement', 'increasing', 'speed', 'adopting', 'technology', 'higher', 'education', 'explored', 'order', 'predict', 'future', 'nature', 'higher', 'education', 'world', 'artificial', 'intelligence', 'fabric', 'university', 'pinpoint', 'challenge', 'institution', 'higher', 'education', 'student', 'learning', 'adoption', 'technology', 'teaching', 'learning', 'student', 'support', 'administration', 'explore', 'direction', 'research']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.50|x5: 0.00|x6: 0.00|x7: 0.28|x8: 0.09|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[4, 7, 9]</t>
+  </si>
+  <si>
+    <t>['social', 'robot', 'offer', 'tremendous', 'possibility', 'autism', 'spectrum', 'disorder', 'intervention', 'date', 'study', 'population', 'short', 'isolated', 'encounter', 'controlled', 'laboratory', 'setting', 'study', 'focused', 'month', 'home', 'based', 'intervention', 'increasing', 'social', 'communication', 'skill', 'child', 'autonomous', 'social', 'robot', 'child', 'engaged', 'triadic', 'interaction', 'caregiver', 'robot', 'complete', 'activity', 'emotional', 'storytelling', 'perspective', 'taking', 'sequencing', 'robot', 'encouraged', 'engagement', 'adapted', 'difficulty', 'activity', 'child', 'past', 'performance', 'modeled', 'positive', 'social', 'skill', 'maintained', 'engagement', 'month', 'deployment', 'child', 'showed', 'improvement', 'joint', 'attention', 'skill', 'adult', 'presence', 'robot', 'result', 'consistent', 'caregiver', 'questionnaire', 'caregiver', 'reported', 'prompting', 'time', 'overall', 'communication']</t>
+  </si>
+  <si>
+    <t>x1: 0.35|x2: 0.00|x3: 0.31|x4: 0.28|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.00|x11: 0.09|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 8]</t>
+  </si>
+  <si>
+    <t>['achieved', 'paper', 'present', 'artefact', 'named', 'ambient', 'learning', 'knowledge', 'service', 'model', 'describing', 'actionable', 'knowledge', 'extracted', 'ambient', 'learning', 'support', 'improvement', 'consequently', 'facilitate', 'achievement', 'sustainable', 'development', 'goal', 'creative', 'process', 'adopted', 'guide', 'development', 'model', 'process', 'involved', 'carrying', 'problem', 'analysis', 'literature', 'review', 'designing', 'model', 'combining', 'ambient', 'learning', 'knowledge', 'service', 'concept', 'demonstrating', 'application', 'developing', 'prototype', 'evaluation', 'result', 'revealed', 'algorithm', 'implemented', 'waikato', 'environment', 'knowledge', 'analysis', 'weka', 'software', 'suitable', 'extracting', 'knowledge', 'ambient', 'learning', 'prolog', 'software', 'applied', 'create', 'tool', 'knowledge', 'delivery']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.37|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.27|x10: 0.20|x11: 0.00|x12: 0.35|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[4, 9, 10, 12]</t>
+  </si>
+  <si>
+    <t>['multiple', 'study', 'conducted', 'project', 'listen', 'intelligent', 'tutoring', 'analyze', 'educational', 'learning', 'analysis', 'student', 'interaction', 'study', 'defined', 'phenomenon', 'exploring', 'happens', 'question', 'analyzing', 'context', 'specified', 'phenomenon', 'occurrence', 'focus', 'student', 'decision', 'resource', 'suggest', 'analysis', 'monitoring', 'needed', 'best', 'result', 'study', 'argue', 'interact', 'differently', 'girl', 'finding', 'evident', 'result', 'bayesian', 'knowledge', 'tracing', 'learning', 'curve', 'analysis', 'model']</t>
+  </si>
+  <si>
+    <t>x1: 0.09|x2: 0.00|x3: 0.00|x4: 0.46|x5: 0.00|x6: 0.23|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.10|x12: 0.21|x13: 0.31|x14: 0.09|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[4, 6, 12, 13]</t>
+  </si>
+  <si>
+    <t>['paper', 'review', 'contribution', 'original', 'work', 'titled', 'bsimulating', 'instructional', 'role', 'pedagogical', 'agent', 'published', 'international', 'journal', 'artificial', 'intelligence', 'education', 'baylor', 'human', 'behavior', 'original', 'work', 'operationalized', 'instructional', 'role', 'simulated', 'pedagogical', 'agent', 'demonstrated', 'effectiveness', 'agent', 'role', 'learning', 'motivation', 'publication', 'work', 'pedagogical', 'agent', 'research', 'expanded', 'scope', 'provision', 'intelligent', 'guidance', 'broad', 'agent', 'social', 'affective', 'support', 'learner', 'discus', 'current', 'progress', 'pedagogical', 'agent', 'role', 'capability', 'speculate', 'future', 'agent', 'role', 'design', 'expect', 'optimizing', 'role', 'artificial', 'including', 'screen', 'agent', 'robot', 'continue', 'educational', 'technology', 'community', 'technology', 'continue', 'evolve', 'pedagogical', 'agent', 'experimental', 'research', 'virtual', 'human', 'interface', 'design', 'overview', 'original', 'paper', 'motivation', 'early', 'empirical', 'support', 'presence', 'pedagogical', 'agent', 'facilitated', 'deeper', 'learning', 'enhanced', 'motivation', 'atkinson', 'moreno']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.31|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.32|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.15|x15: 0.00|x16: 0.31|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[4, 5, 9, 16]</t>
+  </si>
+  <si>
+    <t>['domain', 'objective', 'reached', 'order', 'opportunity', 'equality', 'defined', 'digital', 'equity', 'different', 'international', 'organization', 'working', 'reach', 'goal', 'analysis', 'point', 'reaching', 'objective', 'international', 'organization', 'international', 'union', 'united', 'international', 'federation', 'information', 'processing', 'working', 'goal', 'presented', 'paper']</t>
+  </si>
+  <si>
+    <t>x1: 0.09|x2: 0.00|x3: 0.18|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.28|x11: 0.00|x12: 0.00|x13: 0.42|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.42]</t>
+  </si>
+  <si>
+    <t>[8, 10, 13]</t>
+  </si>
+  <si>
+    <t>['mixed', 'method', 'study', 'examined', 'design', 'potential', 'impact', 'mixed', 'reality', 'integrated', 'learning', 'environment', 'mile', 'providing', 'simulated', 'immersive', 'teaching', 'practice', 'university', 'teaching', 'assistant', 'virtual', 'reality', 'based', 'learning', 'platform', 'integrating', 'kinect', 'enabled', 'sensorimotor', 'interface', 'developed', 'university', 'teaching', 'assistant', 'qualitative', 'quantitative', 'participant', 'participation', 'behavior', 'engagement', 'perception', 'collected', 'video', 'screen', 'recording', 'interview', 'survey', 'teaching', 'self', 'efficacy', 'sense', 'presence', 'tracking', 'result', 'indicated', 'mile', 'reinforced', 'sense', 'presence', 'supported', 'performance', 'ample', 'range', 'virtual', 'teaching', 'task', 'action', 'avatar', 'embodied', 'live', 'gesturing', 'environmental', 'fidelity', 'mixed', 'reality', 'learning', 'space', 'design', 'arrangement', 'virtual', 'agent', 'avatar', 'affordance', 'embodied', 'gesturing', 'walking', 'salient', 'mile', 'design', 'feature', 'affected', 'participant', 'sense', 'presence', 'virtual', 'teaching', 'performance']</t>
+  </si>
+  <si>
+    <t>x1: 0.09|x2: 0.00|x3: 0.10|x4: 0.16|x5: 0.16|x6: 0.13|x7: 0.16|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.16|x12: 0.16|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.24]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>['help', 'investigator', 'efficiently', 'connect', 'uncover', 'network', 'individual', 'involved', 'criminal', 'activity', 'based', 'evidence', 'connection', 'visiting', 'address', 'transacting', 'bank', 'account', 'formulate', 'problem', 'active', 'search', 'connection', 'target', 'entity', 'evidence', 'different', 'type', 'given', 'lead', 'relevance', 'queried', 'interactively', 'investigator', 'present', 'redthread', 'efficient', 'solution', 'inferring', 'related', 'relevant', 'node', 'incorporating', 'user', 'feedback', 'guide', 'inference', 'experiment', 'focus', 'building', 'combating', 'human', 'trafficking', 'investigator', 'follows', 'lead', 'expose', 'organized', 'activity', 'different', 'escort', 'advertisement', 'connected', 'possibly', 'orchestrated', 'redthread', 'local', 'algorithm', 'enables', 'online', 'building', 'mining', 'posted', 'largest', 'classified', 'advertising', 'website', 'result', 'redthread', 'interpretable', 'explain', 'result', 'connected', 'initial', 'lead', 'experimentally', 'redthread', 'learns', 'importance', 'different', 'type', 'different', 'piece', 'evidence', 'transferred']</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.11|x10: 0.10|x11: 0.00|x12: 0.25|x13: 0.21|x14: 0.16|x15: 0.00|x16: 0.16|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[12, 13]</t>
+  </si>
+  <si>
+    <t>['increasingly', 'decision', 'significant', 'impact', 'life', 'prediction', 'affect', 'different', 'population', 'subgroup', 'result', 'issue', 'fairness', 'received', 'recent', 'number', 'fairness', 'enhanced', 'classifier', 'appeared', 'literature', 'paper', 'seek', 'study', 'following', 'question', 'different', 'technique', 'fundamentally', 'compare', 'account', 'difference', 'specifically', 'seek', 'bring', 'attention', 'appreciated', 'aspect', 'fairness', 'enhancing', 'intervention', 'require', 'investigation', 'algorithm', 'receive', 'broad', 'adoption', 'present', 'result', 'open', 'benchmark', 'developed', 'compare', 'number', 'different', 'algorithm', 'variety', 'fairness', 'measure', 'existing', 'datasets', 'different', 'algorithm', 'tend', 'prefer', 'specific', 'formulation', 'fairness', 'preservation', 'measure', 'strongly', 'correlate', 'addition', 'fairness', 'preserving', 'algorithm', 'tend', 'sensitive', 'fluctuation', 'dataset', 'composition', 'simulated', 'benchmark', 'varying', 'training', 'test', 'split', 'different', 'preprocessing', 'indicating', 'fairness', 'intervention', 'brittle', 'previously', 'thought', 'computing', 'methodology', 'machine', 'learning', 'software', 'engineering', 'software', 'library', 'repository']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.00|x6: 0.33|x7: 0.00|x8: 0.14|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.24|x15: 0.09|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 13, 14]</t>
+  </si>
+  <si>
+    <t>['human', 'trafficking', 'challenging', 'enforcement', 'problem', 'demand', 'persistent', 'fight', 'globe', 'study', 'leverage', 'readily', 'available', 'website', 'backpage', 'classified', 'advertisement', 'discern', 'potential', 'pattern', 'human', 'trafficking', 'activity', 'manifest', 'online', 'identify', 'trafficking', 'related', 'advertisement', 'lack', 'ground', 'truth', 'rely', 'human', 'analyst', 'human', 'trafficking', 'victim', 'survivor', 'enforcement', 'hand', 'labeling', 'portion', 'crawled', 'present', 'semisupervised', 'learning', 'approach', 'trained', 'available', 'labeled', 'unlabeled', 'evaluated', 'unseen', 'verification', 'expert']</t>
+  </si>
+  <si>
+    <t>x1: 0.08|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.19|x13: 0.22|x14: 0.30|x15: 0.00|x16: 0.52|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[13, 14, 16]</t>
+  </si>
+  <si>
+    <t>['appreciate', 'help', 'michael', 'gallagher', 'retired', 'police', 'officer', 'currently', 'work', 'domestic', 'violence', 'agency', 'jurisdiction', 'studied', 'provided', 'important', 'information', 'meaning', 'variable', 'related', 'enforcement', 'procedure', 'received', 'important', 'assistance', 'prosecutorial', 'context', 'domestic', 'violence', 'marian', 'braccia', 'deputy', 'district', 'attorney', 'district', 'attorney', 'office', 'jurisdiction', 'thanks', 'anonymous', 'reviewer', 'article']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.38|x6: 0.17|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.33|x15: 0.00|x16: 0.27|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 14, 16]</t>
+  </si>
+  <si>
+    <t>['work', 'investigate', 'gender', 'based', 'inequality', 'context', 'resume', 'search', 'engine', 'tool', 'allow', 'recruiter', 'proactively', 'search', 'candidate', 'based', 'keywords', 'filter', 'ranking', 'algorithm', 'demographic', 'feature', 'account', 'directly', 'indirectly', 'produce', 'ranking', 'disadvantage', 'candidate', 'collect', 'search', 'result', 'monster', 'careerbuilder', 'based', 'title', 'city', 'resulting', 'candidate', 'statistical', 'test', 'examine', 'search', 'engine', 'produce', 'ranking', 'exhibit', 'type', 'indirect', 'discrimination', 'individual', 'group', 'unfairness', 'furthermore', 'controlled', 'experiment', 'website', 'inferred', 'gender', 'candidate', 'explicit', 'feature', 'ranking', 'algorithm']</t>
+  </si>
+  <si>
+    <t>x1: 0.48|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.41|x6: 0.00|x7: 0.18|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.48]</t>
+  </si>
+  <si>
+    <t>[1, 5, 12]</t>
+  </si>
+  <si>
+    <t>['blind', 'application', 'machine', 'learning', 'risk', 'amplifying', 'bias', 'present', 'danger', 'facing', 'word', 'embedding', 'popular', 'framework', 'represent', 'text', 'vector', 'machine', 'learning', 'natural', 'language', 'processing', 'task', 'word', 'embeddings', 'trained', 'google', 'news', 'article', 'exhibit', 'female', 'male', 'gender', 'stereotype', 'disturbing', 'extent', 'raise', 'concern', 'widespread', 'tends', 'amplify', 'bias', 'geometrically', 'gender', 'bias', 'shown', 'captured', 'direction', 'word', 'embedding', 'second', 'gender', 'neutral', 'word', 'shown', 'linearly', 'separable', 'gender', 'definition', 'word', 'word', 'embedding', 'property', 'provide', 'methodology', 'modifying', 'embedding', 'remove', 'gender', 'stereotype', 'association', 'word', 'receptionist', 'female', 'maintaining', 'desired', 'association', 'word', 'queen', 'female', 'crowd', 'worker', 'evaluation', 'standard', 'benchmark', 'empirically', 'demonstrate', 'algorithm', 'significantly', 'reduce', 'gender', 'bias', 'embeddings', 'preserving', 'useful', 'property', 'ability', 'cluster', 'related', 'concept', 'solve', 'analogy', 'task', 'resulting', 'embeddings', 'application', 'amplifying', 'gender', 'bias']</t>
+  </si>
+  <si>
+    <t>x1: 0.23|x2: 0.00|x3: 0.19|x4: 0.11|x5: 0.44|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.10|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 5, 8]</t>
+  </si>
+  <si>
+    <t>['technology', 'facilitated', 'sexual', 'violence', 'tfsv', 'refers', 'range', 'behavior', 'digital', 'technology', 'facilitate', 'virtual', 'face', 'face', 'sexually', 'based', 'harm', 'behavior', 'include', 'online', 'sexual', 'harassment', 'gender', 'sexuality', 'based', 'harassment', 'cyberstalking', 'image', 'based', 'sexual', 'exploitation', 'carriage', 'service', 'coerce', 'victim', 'unwanted', 'sexual', 'article', 'review', 'current', 'state', 'knowledge', 'different', 'dimension', 'drawing', 'existing', 'empirical', 'study', 'growing', 'body', 'research', 'technology', 'facilitated', 'harm', 'perpetrated', 'child', 'adolescent', 'dearth', 'qualitative', 'quantitative', 'research', 'tfsv', 'adult', 'existing', 'study', 'provide', 'reliable', 'nature', 'scope', 'impact', 'tfsv', 'preliminary', 'study', 'indicate', 'harm', 'like', 'sexual', 'violence', 'broadly', 'predominantly', 'gender', 'sexuality', 'based', 'young', 'woman', 'overrepresented', 'victim', 'category', 'review', 'collect', 'empirical', 'evidence', 'date', 'prevalence', 'gender', 'based', 'nature', 'tfsv', 'adult', 'discus', 'implication', 'policy', 'program', 'suggestion', 'future', 'research']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.08|x4: 0.11|x5: 0.32|x6: 0.10|x7: 0.00|x8: 0.12|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.15|x15: 0.00|x16: 0.15|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 9]</t>
+  </si>
+  <si>
+    <t>['study', 'analyzes', 'digital', 'game', 'development', 'africa', 'examining', 'individual', 'text', 'operate', 'broader', 'international', 'development', 'discourse', 'political', 'economic', 'product', 'implication', 'international', 'development', 'gaming', 'industry', 'conceptual', 'framework', 'proposed', 'process', 'looking', 'individual', 'game', 'alongside', 'organization', 'funding', 'structure', 'argue', 'digital', 'game', 'technological', 'platform', 'present', 'revolutionary', 'approach', 'development', 'africa', 'reinforce', 'subvert', 'dominant', 'approach', 'play']</t>
+  </si>
+  <si>
+    <t>x1: 0.46|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.46|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 9]</t>
+  </si>
+  <si>
+    <t>['improved', 'understanding', 'geographical', 'variation', 'inequity', 'health', 'status', 'wealth', 'access', 'resource', 'country', 'increasingly', 'recognized', 'central', 'meeting', 'development', 'goal', 'development', 'health', 'indicator', 'assessed', 'national', 'subnational', 'scale', 'conceal', 'important', 'inequity', 'rural', 'poor', 'represented', 'ability', 'target', 'limited', 'resource', 'fundamental', 'especially', 'international', 'context', 'funding', 'health', 'development', 'come', 'pressure', 'recently', 'prompted', 'exploration', 'potential', 'spatial', 'interpolation', 'method', 'based', 'geolocated', 'cluster', 'national', 'household', 'survey', 'resolution', 'mapping', 'feature', 'population', 'structure', 'vaccination', 'coverage', 'access', 'sanitation', 'remains', 'unclear', 'predictable', 'different', 'factor', 'different', 'setting', 'variable', 'demographic', 'group', 'test', 'accuracy', 'spatial', 'interpolation', 'method', 'producing', 'gender', 'disaggregated', 'resolution', 'rate', 'literacy', 'stunting', 'modern', 'contraceptive', 'method', 'combination', 'geolocated', 'demographic', 'health', 'survey', 'cluster', 'geospatial', 'covariates', 'bayesian', 'geostatistical', 'machine', 'learning', 'modelling', 'method', 'tested', 'income', 'country', 'varying', 'gridded', 'environmental', 'socio', 'economic', 'covariate', 'datasets', 'build', 'spatial', 'resolution', 'uncertainty', 'estimate', 'result', 'potential', 'approach', 'producing', 'resolution', 'gender', 'disaggregated', 'socio', 'economic', 'indicator', 'explained', 'variance', 'cross', 'validation', 'female', 'literacy', 'nigeria', 'kenya', 'range', 'variable', 'substantial', 'variation', 'country', 'variable', 'seen', 'variable', 'showing', 'poor', 'mapping', 'accuracy', 'range', 'explained', 'variance', 'geostatistical', 'machine', 'learning', 'approach', 'analysis', 'offer', 'robust', 'basis', 'construction', 'timely', 'level', 'support', 'geographically', 'stratified', 'decision', 'making', 'monitoring', 'progress', 'development', 'goal', 'great', 'variability', 'result', 'country', 'variable', 'highlight', 'challenge', 'applying', 'interpolation', 'method', 'universally', 'multiple', 'country', 'importance', 'validation', 'quantifying', 'uncertainty', 'undertaken']</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>x1: 0.19|x2: 0.00|x3: 0.31|x4: 0.12|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.30|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['compactness', 'landscape', 'connectivity', 'essential', 'property', 'effective', 'functioning', 'conservation', 'reserve', 'article', 'introduce', 'linear', 'integer', 'programming', 'model', 'determine', 'optimal', 'configuration', 'conservation', 'reserve', 'property', 'connectivity', 'defined', 'structural', 'physical', 'connectivity', 'functional', 'connectivity', 'model', 'developed', 'address', 'property', 'apply', 'model', 'identify', 'optimal', 'conservation', 'management', 'area', 'protection', 'gopher', 'tortoise', 'military', 'installation', 'benning', 'georgia', 'serf', 'safe', 'refuge', 'risk', 'specie', 'recent', 'expansion', 'military', 'mission', 'installation', 'increase', 'pressure', 'scarce', 'habitat', 'area', 'requires', 'moving', 'existent', 'population', 'area', 'suitably', 'chosen', 'conservation', 'management', 'area', 'boundary', 'installation', 'model', 'suitable', 'spatially', 'coherent', 'management', 'area', 'outside', 'heavily', 'training', 'area']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.39|x10: 0.00|x11: 0.10|x12: 0.15|x13: 0.00|x14: 0.00|x15: 0.59|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.59]</t>
+  </si>
+  <si>
+    <t>[9, 15]</t>
+  </si>
+  <si>
+    <t>['negotiation', 'active', 'involvement', 'participation', 'water', 'manager', 'expert', 'stakeholder', 'representative', 'general', 'public', 'requires', 'decision', 'support', 'tool', 'environmental', 'decision', 'support', 'build', 'transparency', 'flexibility', 'order', 'reach', 'sound', 'action', 'plan', 'management', 'instrument', 'possible', 'active', 'involvement', 'stakeholder', 'application', 'bayesian', 'network', 'paper', 'example', 'study', 'danish', 'farmer', 'hydrologist', 'disputed', 'degree', 'pesticide', 'application', 'affected', 'quality', 'deep', 'groundwater', 'instead', 'selecting', 'opinion', 'decision', 'include', 'adopting', 'approach', 'possible', 'view', 'result', 'point', 'view', 'accepting', 'reality', 'situation', 'mired', 'insoluble', 'conflict', 'laying', 'foundation', 'future', 'compromise', 'paper', 'explores', 'tool', 'acting', 'dealing', 'management', 'groundwater', 'protection', 'allow', 'stakeholder', 'divergent', 'value', 'belief', 'surfaced', 'negotiated', 'participatory', 'process', 'area', 'conventional', 'physically', 'based', 'groundwater', 'model', 'insufficient', 'lack', 'physical', 'understanding', 'flexibility', 'lack', 'integration', 'capability', 'agency', 'able', 'address', 'institutional', 'arrangement', 'influencing', 'groundwater', 'protection', 'complexity']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.19|x7: 0.00|x8: 0.12|x9: 0.24|x10: 0.21|x11: 0.00|x12: 0.32|x13: 0.14|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 10, 12]</t>
+  </si>
+  <si>
+    <t>['produced', 'artificial', 'intelligence', 'ecosystem', 'service', 'aries', 'platform', 'supply', 'defined', 'carbon', 'storage', 'flood', 'regulation', 'demand', 'specified', 'recreation', 'water', 'joint', 'spatial', 'prioritisation', 'biodiversity', 'employing', 'marxan', 'zone', 'laying', 'spatial', 'representation', 'multiple', 'management', 'zone', 'given', 'transboundary', 'setting', 'danube', 'river', 'comparative', 'analysis', 'including', 'country', 'level', 'purchasing', 'power', 'parity', 'adjusted', 'gross', 'domestic', 'product', 'country', 'percent', 'cover', 'area', 'potential', 'cost', 'factor', 'illustrating', 'scheme', 'balancing', 'establishing', 'specific', 'zone', 'country', 'demonstrate', 'emphasizing', 'biodiversity', 'target', 'model', 'coupling', 'framework', 'cost', 'effectively', 'test', 'spatially', 'explicit', 'management', 'option', 'multi', 'national', 'study', 'discus', 'possible', 'limitation', 'future', 'development', 'requirement', 'effectively', 'managing', 'balance', 'biodiversity', 'supply', 'demand', 'freshwater', 'ecosystem']</t>
+  </si>
+  <si>
+    <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.10|x6: 0.31|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.45|x15: 0.32|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 14, 15]</t>
+  </si>
+  <si>
+    <t>['deciding', 'implement', 'conservation', 'action', 'order', 'meet', 'conservation', 'target', 'efficiently', 'important', 'component', 'systematic', 'conservation', 'planning', 'mathematical', 'optimisation', 'quantitative', 'transparent', 'framework', 'solving', 'problem', 'despite', 'advantage', 'exact', 'method', 'integer', 'linear', 'programming', 'conservation', 'planning', 'problem', 'date', 'solved', 'heuristic', 'approach', 'simulated', 'annealing', 'explain', 'implement', 'common', 'conservation', 'planning', 'problem', 'marxan', 'marxan', 'zone', 'framework', 'formulation', 'extended', 'account', 'spatial', 'dependency', 'planning', 'unit', 'arising', 'environmental', 'flow', 'river', 'simulated', 'datasets', 'demonstrate', 'outperforms', 'respect', 'solution', 'quality', 'close', 'optimality', 'processing', 'time', 'range', 'problem', 'size', 'modestly', 'sized', 'quadratic', 'problem', 'spatial', 'unit', 'specie', 'example', 'processing', 'time', 'approximately', 'required', 'achieve', 'solution', 'optimality', 'achieved', 'solution', 'optimality', 'largest', 'quadratic', 'problem', 'evaluated', 'processing', 'time', 'exceeding', 'required', 'achieve', 'solution', 'optimality', 'achieved', 'solution', 'optimality', 'approximately', 'hour', 'heuristic', 'conceptually', 'simple', 'applied', 'large', 'linear', 'objective', 'function', 'unlike', 'produce', 'solution', 'unknown', 'quality', 'discus', 'approach', 'facilitate', 'quantification', 'trade', 'curve', 'sensitivity', 'analysis', 'solving', 'linear', 'quadratic', 'conservation', 'planning', 'problem', 'recommend', 'heuristic', 'approach', 'possible']</t>
+  </si>
+  <si>
+    <t>[6, 14]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.13|x6: 0.15|x7: 0.00|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.19|x13: 0.47|x14: 0.12|x15: 0.18|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.47]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>['emerged', 'metaheuristic', 'optimization', 'technique', 'colony', 'optimization', 'received', 'considerable', 'attention', 'water', 'resource', 'environmental', 'planning', 'management', 'decade', 'different', 'version', 'proved', 'flexible', 'powerful', 'solving', 'number', 'spatially', 'temporally', 'complex', 'water', 'resource', 'problem', 'discrete', 'continuous', 'domain', 'single', 'multiple', 'objective', 'reviewing', 'large', 'number', 'peer', 'reviewed', 'journal', 'paper', 'valuable', 'conference', 'paper', 'intend', 'touch', 'characteristic', 'algorithm', 'critically', 'review', 'state', 'application', 'water', 'resource', 'environmental', 'management', 'problem', 'discrete', 'continuous', 'domain', 'paper', 'seek', 'promote', 'opportunity', 'advantage', 'disadvantage', 'algorithm', 'applied', 'different', 'area', 'water', 'resource', 'problem', 'research', 'practice', 'intends', 'identify', 'present', 'major', 'seminal', 'contribution', 'algorithm', 'finding', 'organized', 'area', 'reservoir', 'operation', 'surface', 'water', 'management', 'water', 'distribution', 'urban', 'drainage', 'sewer', 'groundwater', 'management', 'environmental', 'watershed', 'management', 'current', 'trend', 'challenge', 'algorithm', 'discussed', 'called', 'attempt', 'carry', 'convergence', 'analysis', 'active', 'area']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.13|x12: 0.00|x13: 0.45|x14: 0.34|x15: 0.13|x16: 0.10|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['increasing', 'incorporation', 'artificial', 'intelligence', 'automated', 'decision', 'making', 'procedure', 'highlight', 'importance', 'decision', 'theory', 'automated', 'need', 'decision', 'procedure', 'explainable', 'involved', 'traditional', 'realist', 'account', 'explanation', 'explanation', 'relation', 'hold', 'hold', 'eternally', 'explanans', 'explanandum', 'adequate', 'account', 'notion', 'explanation', 'required', 'artificial', 'decision', 'procedure', 'offer', 'alternative', 'account', 'explanation', 'context', 'automated', 'decision', 'making', 'explanation', 'epistemic', 'phenomenon', 'dependent', 'context', 'account', 'explanation', 'better', 'account', 'talk', 'explanation', 'derived', 'concept', 'explanatory', 'power', 'allows', 'differentiate', 'reason', 'cause', 'hand', 'need', 'epistemic', 'aspect', 'explanation', 'aspect', 'theoretical', 'backdrop', 'review', 'existing', 'approach', 'explanation', 'artificial', 'intelligence', 'machine', 'learning', 'suggest', 'desideratum', 'truly', 'explainable', 'decision', 'fulfill', 'good', 'constructing', 'post', 'decision', 'especially', 'clearly', 'exclusively', 'intuitive', 'spontaneous', 'unconscious', 'decision', 'generally', 'count', 'adequate', 'explanation']</t>
+  </si>
+  <si>
+    <t>x1: 0.14|x2: 0.09|x3: 0.10|x4: 0.11|x5: 0.41|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.23|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 12, 13]</t>
+  </si>
+  <si>
+    <t>['live', 'paradox', 'artificial', 'intelligence', 'match', 'surpass', 'human', 'level', 'performance', 'domain', 'leveraging', 'rapid', 'advance', 'technology', 'driving', 'soaring', 'stock', 'price', 'measured', 'productivity', 'growth', 'declined', 'past', 'decade', 'income', 'stagnated', 'late', 'majority', 'american', 'potential', 'explanation', 'clash', 'expectation', 'statistic', 'false', 'hope', 'mismeasurement', 'redistribution', 'implementation', 'argue', 'biggest', 'contributor', 'paradox', 'impressive', 'capability', 'particularly', 'based', 'machine', 'learning', 'diffused', 'widely', 'importantly', 'like', 'general', 'purpose', 'technology', 'effect', 'realized', 'wave', 'complementary', 'innovation', 'developed', 'implemented', 'required', 'adjustment', 'cost', 'organizational', 'change', 'skill', 'modeled', 'kind', 'intangible', 'capital', 'portion', 'value', 'intangible', 'capital', 'reflected', 'market', 'value', 'firm', 'going', 'forward', 'national', 'statistic', 'fail', 'measure', 'benefit', 'technology', 'wrong', 'sign']</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.16|x3: 0.11|x4: 0.12|x5: 0.09|x6: 0.00|x7: 0.15|x8: 0.16|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.00|x15: 0.15|x16: 0.12|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.23]</t>
+  </si>
+  <si>
+    <t>[9, 13]</t>
+  </si>
+  <si>
+    <t>['summarize', 'framework', 'study', 'implication', 'automation', 'demand', 'labor', 'wage', 'employment', 'task', 'based', 'framework', 'emphasizes', 'displacement', 'effect', 'automation', 'creates', 'machine', 'replace', 'labor', 'task', 'perform', 'displacement', 'effect', 'tends', 'reduce', 'demand', 'labor', 'wage', 'counteracted', 'productivity', 'effect', 'resulting', 'cost', 'saving', 'generated', 'automation', 'increase', 'demand', 'labor', 'automated', 'task', 'productivity', 'effect', 'complemented', 'additional', 'capital', 'accumulation', 'deepening', 'automation', 'improvement', 'existing', 'machinery', 'increase', 'demand', 'labor', 'countervailing', 'effect', 'incomplete', 'strong', 'automation', 'crease', 'output', 'worker', 'wage', 'reduce', 'labor', 'national', 'income', 'powerful', 'countervailing', 'force', 'automation', 'creation', 'labor', 'intensive', 'task', 'reinstates', 'labor', 'activity', 'tends', 'increase', 'labor', 'counterbalance', 'impact', 'automation', 'framework', 'highlight', 'constraint', 'imperfection', 'slow', 'adjustment', 'economy', 'labor', 'market', 'automation', 'weaken', 'resulting', 'productivity', 'gain', 'transformation', 'mismatch', 'skill', 'requirement', 'technology', 'possibility', 'automation', 'introduced', 'excessive', 'rate', 'possibly', 'expense', 'productivity', 'enhancing', 'technology']</t>
+  </si>
+  <si>
+    <t>[8, 9]</t>
+  </si>
+  <si>
+    <t>x1: 0.13|x2: 0.13|x3: 0.31|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.41|x9: 0.00|x10: 0.10|x11: 0.00|x12: 0.18|x13: 0.00|x14: 0.15|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['combination', 'availability', 'large', 'finegrained', 'human', 'behavioral', 'advance', 'machine', 'learning', 'presiding', 'growing', 'reliance', 'algorithm', 'address', 'complex', 'societal', 'problem', 'algorithmic', 'decision', 'making', 'process', 'lead', 'objective', 'potentially', 'fairer', 'decision', 'human', 'influenced', 'greed', 'prejudice', 'fatigue', 'hunger', 'algorithmic', 'decision', 'making', 'criticized', 'potential', 'enhance', 'discrimination', 'information', 'power', 'asymmetry', 'opacity', 'paper', 'provide', 'overview', 'available', 'technical', 'solution', 'enhance', 'fairness', 'accountability', 'transparency', 'algorithmic', 'decision', 'making', 'highlight', 'criticality', 'urgency', 'engage', 'multi', 'disciplinary', 'team', 'researcher', 'practitioner', 'policy', 'maker', 'citizen', 'develop', 'deploy', 'evaluate', 'world', 'algorithmic', 'decision', 'making', 'process', 'designed', 'maximize', 'fairness', 'transparency', 'open', 'algortihms', 'opal', 'project', 'step']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.49|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.49|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 8, 9]</t>
+  </si>
+  <si>
+    <t>['examine', 'susceptible', 'computerisation', 'begin', 'implementing', 'novel', 'methodology', 'estimate', 'probability', 'computerisation', 'detailed', 'occupation', 'gaussian', 'process', 'classifier', 'based', 'estimate', 'examine', 'expected', 'impact', 'future', 'computerisation', 'labour', 'market', 'outcome', 'primary', 'objective', 'analysing', 'number', 'risk', 'relationship', 'occupation', 'probability', 'computerisation', 'wage', 'educational', 'attainment', 'according', 'estimate', 'percent', 'employment', 'risk', 'provide', 'evidence', 'wage', 'educational', 'attainment', 'exhibit', 'strong', 'negative', 'relationship', 'occupation', 'probability', 'computerisation']</t>
+  </si>
+  <si>
+    <t>x1: 0.12|x2: 0.00|x3: 0.48|x4: 0.17|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.36|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['paper', 'present', 'comprehensive', 'review', 'study', 'employ', 'operational', 'research', 'artificial', 'intelligence', 'technique', 'assessment', 'bank', 'performance', 'discus', 'numerous', 'application', 'envelopment', 'analysis', 'widely', 'applied', 'technique', 'field', 'discus', 'application', 'technique', 'neural', 'network', 'support', 'vector', 'machine', 'multicriteria', 'decision', 'recent', 'bank', 'failure', 'prediction', 'study', 'assessment', 'bank']</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>x1: 0.11|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.15|x9: 0.17|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.49|x15: 0.09|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 10, 14]</t>
+  </si>
+  <si>
+    <t>['reliable', 'water', 'level', 'forecasting', 'reservoir', 'inflow', 'essential', 'reservoir', 'operation', 'objective', 'paper', 'develop', 'apply', 'hybrid', 'model', 'daily', 'water', 'level', 'forecasting', 'investigate', 'accuracy', 'hybrid', 'model', 'wavelet', 'based', 'artificial', 'neural', 'network', 'wann', 'wavelet', 'based', 'adaptive', 'neuro', 'fuzzy', 'inference', 'wanfis', 'wavelet', 'decomposition', 'employed', 'decompose', 'input', 'time', 'series', 'approximation', 'component', 'decomposed', 'time', 'series', 'input', 'artificial', 'neural', 'network', 'adaptive', 'neuro', 'fuzzy', 'inference', 'anfis', 'wann', 'wanfis', 'model', 'respectively', 'based', 'statistical', 'performance', 'wann', 'wanfis', 'model', 'produce', 'better', 'efficiency', 'anfis', 'model', 'wanfis', 'yield', 'best', 'performance', 'model', 'wavelet', 'decomposition', 'improves', 'accuracy', 'anfis', 'study', 'evaluates', 'accuracy', 'wann', 'wanfis', 'model', 'different', 'mother', 'wavelet', 'including', 'daubechies', 'symmlet', 'coiflet', 'wavelet', 'model', 'performance', 'dependent', 'input', 'mother', 'wavelet', 'wavelet', 'decomposition', 'mother', 'wavelet', 'improve', 'efficiency', 'anfis', 'model', 'result', 'obtained', 'study', 'indicate', 'conjunction', 'wavelet', 'decomposition', 'artificial', 'intelligence', 'model', 'useful', 'tool', 'accurate', 'forecasting', 'daily', 'water', 'level', 'yield', 'better', 'efficiency', 'conventional', 'forecasting', 'model']</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.18|x9: 0.12|x10: 0.00|x11: 0.13|x12: 0.52|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 12]</t>
+  </si>
+  <si>
+    <t>['electricity', 'important', 'asset', 'influence', 'economy', 'political', 'social', 'security', 'country', 'reliable', 'accurate', 'planning', 'prediction', 'electricity', 'demand', 'country', 'vital', 'paper', 'electricity', 'demand', 'ontario', 'province', 'canada', 'modeled', 'adaptive', 'neuro', 'fuzzy', 'inference', 'anfis', 'neuro', 'fuzzy', 'structure', 'defined', 'artificial', 'neural', 'network', 'trained', 'experimental', 'parameter', 'fuzzy', 'inference', 'input', 'model', 'include', 'number', 'employment', 'gross', 'domestic', 'product', 'population', 'dwelling', 'count', 'meteorological', 'parameter', 'related', 'annual', 'weather', 'temperature', 'collected', 'screened', 'statistical', 'method', 'based', 'neuro', 'fuzzy', 'model', 'electricity', 'demand', 'built', 'electricity', 'demand', 'sensitive', 'employment']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.36|x8: 0.19|x9: 0.19|x10: 0.00|x11: 0.11|x12: 0.33|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[7, 12]</t>
+  </si>
+  <si>
+    <t>['city', 'region', 'twentieth', 'century', 'radical', 'turn', 'taking', 'place', 'information', 'communication', 'technology', 'converging', 'innovation', 'regional', 'economy', 'innovative', 'cluster', 'agglomeration', 'intelligent', 'city', 'orientation', 'creation', 'environment', 'improve', 'cognitive', 'skill', 'ability', 'learn', 'foresee', 'innovate', 'paper', 'discus', 'driving', 'force', 'sustaining', 'rise', 'intelligent', 'city', 'globalization', 'innovation', 'cluster', 'network', 'open', 'innovation', 'based', 'collaborative', 'environment', 'look', 'movement', 'shaping', 'local', 'initiative', 'world', 'european', 'living', 'application', 'developed', 'large', 'company', 'like', 'cisco', 'paper', 'focus', 'planning', 'challenge', 'building', 'intelligent', 'city', 'interactive', 'innovation', 'discus', 'problem', 'integration', 'physical', 'institutional', 'digital', 'dimension', 'intelligent', 'city', 'bridge', 'connect', 'spatiality']</t>
+  </si>
+  <si>
+    <t>[9, 11]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.49|x10: 0.00|x11: 0.48|x12: 0.29|x13: 0.00|x14: 0.13|x15: 0.11|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 11, 12]</t>
+  </si>
+  <si>
+    <t>['problem', 'statement', 'recent', 'commercial', 'residential', 'development', 'substantially', 'impacted', 'flux', 'quality', 'water', 'recharge', 'aquifer', 'discharge', 'stream', 'lake', 'wetland', 'ultimately', 'recycled', 'potable', 'contaminant', 'source', 'varied', 'scope', 'composition', 'issue', 'urban', 'water', 'sustainability', 'public', 'health', 'concern', 'level', 'economic', 'development', 'worldwide', 'require', 'cheap', 'innovative', 'environmental', 'sensing', 'capability', 'interactive', 'monitoring', 'network', 'tailored', 'distributed', 'water', 'treatment', 'technology', 'address', 'need', 'roundtable', 'organized', 'explore', 'potential', 'role', 'advance', 'biotechnology', 'bioengineering', 'developing', 'causative', 'relationship', 'spatial', 'temporal', 'change', 'urbanization', 'pattern', 'groundwater', 'surface', 'water', 'quality', 'parameter', 'address', 'aspect', 'socioeconomic', 'constraint', 'implementing', 'sustainable', 'exploitation', 'water', 'resource', 'workshop', 'outcome', 'interactive', 'framework', 'quantitative', 'analysis', 'coupling', 'human', 'natural', 'requires', 'integrating', 'information', 'derived', 'online', 'offline', 'point', 'measurement', 'geographic', 'information', 'based', 'remote', 'sensing', 'imagery', 'analysis', 'groundwater']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.12|x6: 0.34|x7: 0.00|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.22|x12: 0.25|x13: 0.11|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 11, 12]</t>
+  </si>
+  <si>
+    <t>['chapter', 'present', 'methodology', 'maintenance', 'optimization', 'heterogeneous', 'infrastructure', 'composed', 'multiple', 'facility', 'different', 'characteristic', 'environment', 'material', 'deterioration', 'process', 'present', 'stage', 'approach', 'step', 'optimal', 'near', 'optimal', 'maintenance', 'policy', 'facility', 'input', 'level', 'optimization', 'second', 'step', 'problem', 'formulated', 'constrained', 'combinatorial', 'optimization', 'problem', 'best', 'combination', 'facility', 'level', 'optimal', 'near', 'optimal', 'solution', 'identified', 'evolutionary', 'algorithm', 'adopted', 'solve', 'combinatorial', 'optimization', 'problem', 'performance', 'evaluated', 'hypothetical', 'pavement', 'section', 'near', 'optimal', 'solution', 'difference', 'optimal', 'solution', 'obtained', 'numerical', 'experiment', 'potential', 'proposed', 'algorithm', 'solve', 'maintenance', 'optimization', 'problem', 'realistic', 'heterogeneous']</t>
+  </si>
+  <si>
+    <t>x1: 0.22|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.00|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.10|x13: 0.46|x14: 0.21|x15: 0.11|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['impact', 'industrial', 'digital', 'information', 'revolution', 'undoubtedly', 'substantial', 'practically', 'aspect', 'society', 'life', 'firm', 'employment', 'forthcoming', 'revolution', 'produce', 'similar', 'farreaching', 'effect', 'examining', 'analogous', 'invention', 'industrial', 'digital', 'revolution', 'article', 'claim', 'target', 'bring', 'extensive', 'change', 'affect', 'aspect', 'society', 'life', 'addition', 'impact', 'firm', 'employment', 'considerable', 'resulting', 'richly', 'interconnected', 'organization', 'decision', 'making', 'based', 'analysis', 'exploitation', 'intensified', 'global', 'competition', 'firm', 'capable', 'buying', 'good', 'obtaining', 'service', 'world', 'internet', 'exploiting', 'unlimited', 'additional', 'benefit', 'open', 'widespread', 'usage', 'invention', 'paper', 'concludes', 'significant', 'competitive', 'advantage', 'continue', 'accrue', 'utilizing', 'internet', 'widely', 'willing', 'entrepreneurial', 'risk', 'order', 'turn', 'innovative', 'worldwide', 'commercial', 'success', 'story', 'greatest', 'challenge', 'facing', 'society', 'firm', 'utilising', 'benefit', 'availing', 'technology', 'providing', 'vast', 'opportunity', 'immense', 'productivity', 'improvement', 'avoiding', 'danger', 'disadvantage', 'term', 'unemployment', 'greater', 'wealth', 'inequality']</t>
+  </si>
+  <si>
+    <t>[10, 11]</t>
+  </si>
+  <si>
+    <t>x1: 0.16|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.09|x8: 0.25|x9: 0.39|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.18|x14: 0.10|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['market', 'abuse', 'attracted', 'attention', 'financial', 'regulator', 'world', 'difficult', 'fully', 'prevent', 'reason', 'lack', 'thoroughly', 'study', 'market', 'abuse', 'strategy', 'corresponding', 'effective', 'market', 'abuse', 'approach', 'paper', 'strategy', 'reported', 'price', 'manipulation', 'analysed', 'related', 'empirical', 'study', 'transformation', 'defined', 'convert', 'time', 'varying', 'financial', 'trading', 'time', 'series', 'machine', 'learning', 'algorithm', 'easily', 'applied', 'detection', 'price', 'manipulation', 'evaluation', 'experiment', 'conducted', 'stock', 'nasdaq', 'promising', 'improved', 'performance', 'effectively', 'detecting', 'manipulation']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.12|x3: 0.24|x4: 0.27|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.10|x9: 0.13|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.10|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.27]</t>
+  </si>
+  <si>
+    <t>[3, 4, 13]</t>
+  </si>
+  <si>
+    <t>['society', 'increasingly', 'relying', 'driven', 'predictive', 'model', 'automated', 'decision', 'making', 'design', 'nature', 'noisiness', 'observational', 'model', 'systematically', 'disadvantage', 'belonging', 'certain', 'category', 'group', 'instead', 'relying', 'solely', 'individual', 'merit', 'happen', 'computing', 'process', 'fair', 'intentioned', 'mining', 'study', 'predictive', 'model', 'free', 'discrimination', 'historical', 'built', 'biased', 'incomplete', 'contain', 'past', 'discriminatory', 'decision', 'discrimination', 'aware', 'mining', 'emerging', 'research', 'discipline', 'firm', 'consensus', 'measure', 'performance', 'algorithm', 'goal', 'survey', 'review', 'discrimination', 'measure', 'analytically', 'computationally', 'analyze', 'performance', 'highlight', 'implication', 'measure', 'measure', 'discipline', 'measuring', 'discrimination', 'potentially', 'suitable', 'purpose', 'survey', 'primarily', 'intended', 'researcher', 'mining', 'machine', 'learning', 'step', 'producing', 'unifying', 'view', 'performance', 'criterion', 'developing', 'algorithm', 'discriminatory', 'predictive', 'modeling', 'addition', 'practitioner', 'policy', 'maker', 'study', 'diagnosing', 'potential', 'discrimination', 'predictive', 'model']</t>
+  </si>
+  <si>
+    <t>x1: 0.13|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.18|x10: 0.20|x11: 0.00|x12: 0.28|x13: 0.00|x14: 0.13|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 10, 12]</t>
+  </si>
+  <si>
+    <t>['background', 'increasing', 'discriminatory', 'challenge', 'facing', 'artificial', 'intelligence', 'application', 'paper', 'examines', 'requirement', 'needed', 'comply', 'european', 'discrimination', 'prevent', 'discrimination', 'automated', 'online', 'advertising', 'business', 'paper', 'explains', 'circumstance', 'automated', 'targeting', 'advertisement', 'direct', 'indirect', 'discrimination', 'paper', 'concludes', 'technical', 'recommendation', 'dismantle', 'danger', 'automated', 'advertising', 'option', 'like', 'influencing', 'processing', 'altering', 'algorithmic', 'model', 'evaluated', 'paper', 'examines', 'possibility', 'technique', 'like', 'mining', 'machine', 'learning', 'actively', 'battle', 'direct', 'indirect', 'discrimination', 'european', 'discrimination', 'directive', 'prohibit', 'direct', 'indirect', 'discrimination', 'field', 'employment', 'ground', 'race', 'ethnic', 'origin', 'sexual', 'orientation', 'religious', 'belief', 'disability', 'legal', 'framework']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.12|x5: 0.32|x6: 0.00|x7: 0.10|x8: 0.09|x9: 0.14|x10: 0.26|x11: 0.00|x12: 0.18|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.11|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 10]</t>
+  </si>
+  <si>
+    <t>['long', 'cartographic', 'tradition', 'describing', 'city', 'focus', 'characteristic', 'resident', 'review', 'history', 'type', 'urban', 'social', 'analysis', 'highlight', 'persistent', 'challenge', 'paper', 'existing', 'geodemographic', 'approach', 'extended', 'coupling', 'kohonen', 'self', 'organizing', 'algorithm', 'mining', 'technique', 'geographic', 'information', 'approach', 'allows', 'construction', 'linked', 'social', 'attribute', 'geographic', 'space', 'novel', 'type', 'geodemographic', 'classification', 'allows', 'hierarchical', 'grouping', 'exploration', 'relationship', 'social', 'similarity', 'geographic', 'proximity', 'allows', 'filter', 'complex', 'demographic', 'datasets', 'capable', 'highlighting', 'general', 'social', 'pattern', 'retaining', 'fundamental', 'social', 'fingerprint', 'city', 'dataset', 'describing', 'attribute', 'census', 'tract', 'york', 'city', 'analyzed', 'illustrate', 'technique', 'pair', 'social', 'geographic', 'formally', 'compared', 'simple', 'pattern', 'metric', 'analysis', 'york', 'city', 'question', 'assumption', 'functional', 'spatial', 'relationship', 'underlie', 'modeling', 'statistical', 'technique']</t>
+  </si>
+  <si>
+    <t>x1: 0.40|x2: 0.14|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.39|x12: 0.25|x13: 0.00|x14: 0.00|x15: 0.17|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 11, 12]</t>
+  </si>
+  <si>
+    <t>['present', 'aidr', 'artificial', 'intelligence', 'disaster', 'response', 'platform', 'designed', 'perform', 'automatic', 'classification', 'crisis', 'related', 'microblog', 'communication', 'aidr', 'enables', 'human', 'machine', 'work', 'apply', 'human', 'intelligence', 'large', 'scale', 'speed', 'objective', 'aidr', 'classify', 'message', 'post', 'disaster', 'user', 'defined', 'category', 'information', 'need', 'damage', 'purpose', 'continuously', 'ingests', 'twitter', 'process', 'machine', 'learning', 'classification', 'technique', 'leverage', 'human', 'participation', 'crowdsourcing', 'time', 'aidr', 'successfully', 'tested', 'classify', 'informative', 'informative', 'tweet', 'posted', 'pakistan', 'earthquake', 'overall', 'achieved', 'classification', 'quality', 'measured', 'aidr', 'available', 'http', 'aidr', 'qcri']</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>x1: 0.19|x2: 0.00|x3: 0.21|x4: 0.18|x5: 0.13|x6: 0.08|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['paper', 'present', 'result', 'attempt', 'perform', 'modeling', 'concentration', 'urban', 'area', 'vicinity', 'copper', 'smelter', 'serbia', 'anfis', 'methodological', 'approach', 'obtained', 'model', 'develop', 'prediction', 'tool', 'calculate', 'potential', 'concentration', 'prescribed', 'limitation', 'based', 'input', 'parameter', 'predictor', 'technogenic', 'meteorological', 'input', 'parameter', 'considered', 'accordingly', 'dependence', 'concentration', 'modeled', 'function', 'wind', 'speed', 'wind', 'direction', 'temperature', 'humidity', 'sulfur', 'emitted', 'process', 'sulfidic', 'copper', 'concentration', 'treatment']</t>
+  </si>
+  <si>
+    <t>x1: 0.21|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.24|x6: 0.00|x7: 0.15|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.10|x12: 0.00|x13: 0.66|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.66]</t>
+  </si>
+  <si>
+    <t>[1, 5, 13]</t>
+  </si>
+  <si>
+    <t>['study', 'present', 'basic', 'concept', 'application', 'artificial', 'intelligence', 'development', 'intelligent', 'transport', 'smart', 'city', 'india', 'growing', 'urbanization', 'government', 'realized', 'need', 'developing', 'smart', 'city', 'cope', 'challenge', 'urban', 'living', 'magnet', 'investment', 'india', 'transport', 'smart', 'city', 'accessible', 'safe', 'environmentally', 'friendly', 'faster', 'comfortable', 'affordable', 'compromising', 'future', 'need', 'indian', 'city', 'largely', 'lack', 'intelligent', 'transport', 'india', 'problem', 'inefficient', 'public', 'transport', 'severe', 'congestion', 'increasing', 'incidence', 'road', 'accident', 'inadequate', 'parking', 'space', 'rapidly', 'increasing', 'energy', 'cost', 'development', 'intelligent', 'transportation', 'essential', 'smart', 'city', 'concern', 'environmental', 'economic', 'social', 'equity', 'artificial', 'intelligence', 'technology', 'resolve', 'issue', 'urgent', 'need', 'adopt', 'artificial', 'intelligence', 'development', 'intelligent', 'transport', 'better', 'understand', 'control', 'operation', 'smart', 'city', 'main', 'objective', 'study', 'present', 'basic', 'concept', 'artificial', 'intelligence', 'application', 'development', 'intelligent', 'transport', 'smart', 'city', 'india', 'study', 'concludes', 'artificial', 'intelligence', 'need', 'adopted', 'develop', 'smart', 'public', 'transport', 'intelligent', 'traffic', 'management', 'control', 'smart', 'traveller', 'information', 'smart', 'parking', 'management', 'safe', 'mobility', 'emergency', 'smart', 'city', 'expected', 'study', 'pave', 'development', 'intelligent', 'transport', 'smart', 'city', 'india']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.31|x10: 0.00|x11: 0.64|x12: 0.11|x13: 0.13|x14: 0.00|x15: 0.12|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.64]</t>
+  </si>
+  <si>
+    <t>['license', 'plate', 'recognition', 'divided', 'following', 'step', 'preprocessing', 'plate', 'region', 'extraction', 'plate', 'region', 'thresholding', 'character', 'segmentation', 'character', 'recognition', 'post', 'processing', 'step', 'combination', 'color', 'shape', 'information', 'plate', 'satisfactory', 'extraction', 'result', 'achieved', 'step', 'channel', 'selected', 'threshold', 'computed', 'finally', 'region', 'thresholded', 'step', 'character', 'segmented', 'vertical', 'horizontal', 'direction', 'tentative', 'optimization', 'applied', 'step', 'euclidean', 'distance', 'based', 'template', 'matching', 'confusing', 'character', 'special', 'processing', 'necessary', 'step', 'validity', 'checked', 'machine', 'manual', 'experiment', 'performed', 'program', 'based', 'aforementioned', 'algorithm', 'indicates', 'based', 'color', 'image', 'processing', 'quick', 'accurate']</t>
+  </si>
+  <si>
+    <t>x1: 0.09|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.00|x10: 0.00|x11: 0.09|x12: 0.36|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.38|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[8, 12, 16]</t>
+  </si>
+  <si>
+    <t>['nonlinear', 'artificial', 'intelligence', 'ensemble', 'prediction', 'naiep', 'model', 'developed', 'predicting', 'typhoon', 'based', 'multiple', 'neural', 'network', 'expected', 'output', 'evolutionary', 'genetic', 'algorithm', 'model', 'validated', 'short', 'range', 'forecast', 'typhoon', 'south', 'china', 'result', 'naiep', 'model', 'clearly', 'better', 'climatology', 'persistence', 'cliper', 'model', 'forecast', 'typhoon', 'identical', 'predictor', 'sample', 'prediction', 'genetic', 'neural', 'network', 'ensemble', 'prediction', 'gnnep', 'model', 'compared', 'single', 'prediction', 'model', 'proven', 'theoretically', 'accurate', 'computation', 'analysis', 'generalization', 'capacity', 'gnnep', 'demonstrate', 'prediction', 'ensemble', 'model', 'integrates', 'prediction', 'optimized', 'ensemble', 'member', 'generalization', 'capacity', 'ensemble', 'prediction', 'model', 'enhanced', 'model', 'better', 'address', 'overfitting', 'problem', 'generally', 'exists', 'traditional', 'neural', 'network', 'approach', 'practical', 'weather', 'prediction']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.41|x10: 0.00|x11: 0.00|x12: 0.55|x13: 0.25|x14: 0.13|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.55]</t>
+  </si>
+  <si>
+    <t>['automatic', 'video', 'analysis', 'urban', 'surveillance', 'camera', 'fast', 'emerging', 'field', 'based', 'vision', 'technique', 'present', 'comprehensive', 'review', 'state', 'vision', 'traffic', 'video', 'critical', 'analysis', 'outlook', 'future', 'research', 'direction', 'field', 'increasing', 'relevance', 'intelligent', 'transport', 'decreasing', 'hardware', 'cost', 'increasing', 'deployment', 'camera', 'opened', 'wide', 'application', 'field', 'video', 'analytics', 'monitoring', 'objective', 'congestion', 'traffic', 'rule', 'violation', 'vehicle', 'interaction', 'targeted', 'camera', 'typically', 'originally', 'installed', 'human', 'operator', 'detection', 'classification', 'vehicle', 'highway', 'successfully', 'classical', 'visual', 'surveillance', 'technique', 'background', 'estimation', 'motion', 'tracking', 'time', 'urban', 'domain', 'challenging', 'respect', 'traffic', 'density', 'camera', 'angle', 'lead', 'degree', 'occlusion', 'variety', 'road', 'user', 'method', 'object', 'categorization', 'modeling', 'inspired', 'advanced', 'technique', 'tackle', 'challenge', 'commonly', 'benchmark', 'challenge', 'direct', 'comparison', 'proposed', 'algorithm', 'difficult', 'addition', 'evaluation', 'challenging', 'weather', 'condition', 'rain', 'darkness', 'desirable', 'rarely', 'performed', 'future', 'work', 'directed', 'robust', 'combined', 'detector', 'classifier', 'road', 'user', 'focus', 'realistic', 'condition', 'evaluation']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.17|x9: 0.19|x10: 0.10|x11: 0.17|x12: 0.00|x13: 0.10|x14: 0.18|x15: 0.00|x16: 0.17|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['loss', 'matter', 'captured', 'statistic', 'dollar', 'value', 'engineer', 'chipping', 'away', 'staggering', 'number', 'long', 'time', 'seat', 'belt', 'save', 'thousand', 'supercomputer', 'designer', 'create', 'frame', 'body', 'protect', 'inside', 'absorbing', 'energy', 'crash', 'possible', 'result', 'number', 'fatality', 'mile', 'vehicle', 'travel', 'decreased', 'ultimate', 'solution', 'save', 'life', 'limb', 'money', 'smashing', 'place', 'exactly', 'engineer', 'united', 'state', 'europe', 'japan', 'trying', 'applying', 'advanced', 'microprocessor', 'radar', 'speed', 'signal', 'processing', 'chip', 'algorithm', 'program', 'mark', 'face', 'automotive', 'industry', 'safety', 'kick', 'accident', 'occurs', 'attempting', 'minimize', 'injury', 'damage', 'prevent', 'collision', 'altogether', 'collision', 'avoidance', 'feature', 'road', 'pricey', 'adaptive', 'cruise', 'control', 'option', 'group', 'luxury']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.10|x7: 0.00|x8: 0.15|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.27|x13: 0.17|x14: 0.29|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 9, 12, 14]</t>
+  </si>
+  <si>
+    <t>['harmful', 'algal', 'bloom', 'considered', 'environmental', 'problem', 'nowadays', 'occur', 'coastal', 'water', 'world', 'cause', 'acute', 'ecological', 'damage', 'ensuing', 'economic', 'loss', 'fish', 'kill', 'shellfish', 'poisoning', 'public', 'health', 'threat', 'posed', 'toxic', 'bloom', 'recently', 'driven', 'model', 'including', 'machine', 'learning', 'technique', 'employed', 'mimic', 'dynamic', 'algal', 'bloom', 'important', 'step', 'application', 'technique', 'selection', 'significant', 'model', 'input', 'variable', 'present', 'paper', 'extensively', 'technique', 'artificial', 'neural', 'network', 'genetic', 'programming', 'selecting', 'significant', 'input', 'variable', 'efficacy', 'technique', 'demonstrated', 'test', 'problem', 'known', 'dependence', 'applied', 'world', 'study', 'water', 'quality', 'tolo', 'harbour', 'hong', 'kong', 'technique', 'overcome', 'limitation', 'currently', 'technique', 'input', 'variable', 'selection', 'review', 'presented', 'interpretation', 'weight', 'trained', 'evolved', 'equation', 'demonstrate', 'ability', 'identify', 'ecologically', 'significant', 'variable', 'precisely', 'significant', 'variable', 'suggested', 'technique', 'indicate', 'chlorophyll', 'chla', 'significant', 'input', 'predicting', 'algal', 'bloom', 'suggesting', 'auto', 'regressive', 'nature', 'persistence', 'algal', 'bloom', 'dynamic', 'related', 'long', 'flushing', 'time', 'semi', 'enclosed', 'coastal', 'water', 'study', 'confirms', 'previous', 'understanding', 'algal', 'bloom', 'coastal', 'water', 'hong', 'kong', 'occur', 'life', 'cycle', 'order', 'week']</t>
+  </si>
+  <si>
+    <t>x1: 0.16|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.12|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.16|x14: 0.39|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['forest', 'importantly', 'influence', 'environment', 'life', 'ability', 'accurately', 'predicting', 'area', 'involved', 'forest', 'event', 'help', 'optimizing', 'management', 'effort', 'given', 'complexity', 'task', 'powerful', 'computational', 'tool', 'needed', 'predicting', 'area', 'burned', 'forest', 'purpose', 'study', 'develop', 'intelligent', 'based', 'genetic', 'programming', 'prediction', 'burned', 'area', 'related', 'forest', 'analysis', 'meteorological', 'geometric', 'semantic', 'genetic', 'programming', 'based', 'recently', 'defined', 'geometric', 'semantic', 'genetic', 'operator', 'genetic', 'programming', 'experimental', 'result', 'achieved', 'database', 'forest', 'event', 'showed', 'appropriateness', 'proposed', 'prediction', 'burned', 'area', 'particular', 'result', 'obtained', 'geometric', 'semantic', 'genetic', 'programming', 'significantly', 'better', 'produced', 'standard', 'genetic', 'programming', 'state', 'machine', 'learning', 'method', 'training', 'sample', 'study', 'suggests', 'deeper', 'investigation', 'genetic', 'programming', 'field', 'forest', 'prediction', 'productive', 'giere', 'investigaciones', 'profundas', 'programacion', 'genetica', 'campo', 'prediccion', 'incendios', 'forestales', 'pueden', 'productivas']</t>
+  </si>
+  <si>
+    <t>x1: 0.22|x2: 0.00|x3: 0.15|x4: 0.18|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.00|x10: 0.00|x11: 0.12|x12: 0.00|x13: 0.10|x14: 0.00|x15: 0.49|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 15]</t>
+  </si>
+  <si>
+    <t>['pedestrian', 'vulnerable', 'traffic', 'participant', 'motion', 'prediction', 'utmost', 'importance', 'intelligent', 'transportation', 'predicting', 'motion', 'pedestrian', 'especially', 'hard', 'structured', 'environment', 'inertia', 'compared', 'road', 'vehicle', 'account', 'uncertainty', 'present', 'approach', 'probabilistic', 'prediction', 'pedestrian', 'motion', 'markov', 'chain', 'contrast', 'previous', 'work', 'consider', 'motion', 'model', 'constraint', 'semantic', 'goal', 'explicitly', 'adapt', 'prediction', 'based', 'crash', 'probability', 'traffic', 'participant', 'approach', 'work', 'situation', 'typically', 'challenging', 'pure', 'machine', 'learning', 'technique', 'learn', 'behavior', 'particular', 'road', 'section', 'consequently', 'struggle', 'different', 'road', 'section', 'usefulness', 'combining', 'aforementioned', 'aspect', 'single', 'approach', 'demonstrated', 'evaluation', 'recording', 'pedestrian']</t>
+  </si>
+  <si>
+    <t>x1: 0.20|x2: 0.00|x3: 0.41|x4: 0.00|x5: 0.14|x6: 0.18|x7: 0.00|x8: 0.23|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['recent', 'advance', 'field', 'artificial', 'intelligence', 'increasing', 'number', 'decision', 'making', 'task', 'delegated', 'software', 'requirement', 'success', 'adoption', 'user', 'trust', 'choice', 'fully', 'automated', 'decision', 'achieve', 'explanation', 'facility', 'widely', 'investigated', 'mean', 'establishing', 'trust', 'early', 'expert', 'today', 'increasingly', 'sophisticated', 'machine', 'learning', 'algorithm', 'challenge', 'context', 'explanation', 'accountability', 'trust', 'constantly', 'arise', 'work', 'systematically', 'review', 'literature', 'explanation', 'advice', 'giving', 'family', 'includes', 'recommender', 'successful', 'class', 'advicegiving', 'software', 'practice', 'investigate', 'purpose', 'explanation', 'generated', 'presented', 'user', 'evaluated', 'result', 'derive', 'novel', 'comprehensive', 'taxonomy', 'aspect', 'considered', 'designing', 'explanation', 'facility', 'current', 'future', 'decision', 'support', 'taxonomy', 'includes', 'variety', 'different', 'facet', 'explanation', 'objective', 'responsiveness', 'content', 'presentation', 'identified', 'challenge', 'remain', 'unaddressed', 'example', 'related', 'fine', 'grained', 'issue', 'associated', 'presentation', 'explanation', 'explanation', 'facility', 'evaluated']</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>x1: 0.16|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.20|x6: 0.18|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.09|x11: 0.10|x12: 0.14|x13: 0.00|x14: 0.23|x15: 0.00|x16: 0.16|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['rapid', 'progress', 'machine', 'learning', 'artificial', 'intelligence', 'brought', 'increasing', 'attention', 'potential', 'impact', 'technology', 'society', 'paper', 'discus', 'potential', 'impact', 'problem', 'accident', 'machine', 'learning', 'defined', 'unintended', 'harmful', 'behavior', 'emerge', 'poor', 'design', 'world', 'present', 'list', 'practical', 'research', 'problem', 'related', 'accident', 'risk', 'categorized', 'according', 'problem', 'originates', 'having', 'wrong', 'objective', 'function', 'avoiding', 'effect', 'avoiding', 'reward', 'hacking', 'objective', 'function', 'expensive', 'evaluate', 'frequently', 'scalable', 'supervision', 'undesirable', 'behavior', 'learning', 'process', 'safe', 'exploration', 'distributional', 'shift', 'review', 'previous', 'work', 'area', 'suggesting', 'research', 'direction', 'focus', 'relevance', 'cutting', 'edge', 'finally', 'consider', 'level', 'question', 'think', 'productively', 'safety', 'forward', 'looking', 'application']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.16|x4: 0.12|x5: 0.18|x6: 0.10|x7: 0.09|x8: 0.15|x9: 0.10|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.20|x15: 0.13|x16: 0.12|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.20]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['current', 'globalization', 'faced', 'challenge', 'meet', 'continuously', 'growing', 'worldwide', 'demand', 'capital', 'consumer', 'good', 'simultaneously', 'ensuring', 'sustainable', 'evolvement', 'human', 'existence', 'social', 'environmental', 'economic', 'dimension', 'order', 'cope', 'challenge', 'industrial', 'value', 'creation', 'geared', 'sustainability', 'currently', 'industrial', 'value', 'creation', 'early', 'industrialized', 'country', 'shaped', 'development', 'fourth', 'stage', 'called', 'industry', 'development', 'provides', 'immense', 'opportunity', 'realization', 'sustainable', 'manufacturing', 'paper', 'present', 'state', 'review', 'industry', 'based', 'recent', 'development', 'research', 'practice', 'subsequently', 'overview', 'different', 'opportunity', 'sustainable', 'manufacturing', 'industry', 'presented', 'retrofitting', 'manufacturing', 'equipment', 'specific', 'opportunity', 'sustainable', 'manufacturing', 'industry', 'exemplarily', 'outlined']</t>
+  </si>
+  <si>
+    <t>x1: 0.12|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.08|x8: 0.11|x9: 0.70|x10: 0.00|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.70]</t>
+  </si>
+  <si>
+    <t>['climate', 'impact', 'study', 'hydrology', 'rely', 'climate', 'change', 'information', 'fine', 'spatial', 'resolution', 'general', 'circulation', 'model', 'gcms', 'advanced', 'tool', 'estimating', 'future', 'climate', 'change', 'scenario', 'operate', 'coarse', 'scale', 'output', 'downscaled', 'obtain', 'information', 'relevant', 'hydrologic', 'study', 'paper', 'support', 'vector', 'machine', 'approach', 'proposed', 'statistical', 'downscaling', 'precipitation', 'monthly', 'time', 'scale', 'effectiveness', 'approach', 'illustrated', 'application', 'meteorological', 'division', 'msds', 'india', 'climate', 'variable', 'affecting', 'spatio', 'temporal', 'variation', 'precipitation', 'india', 'identified', 'following', 'pertaining', 'identified', 'climate', 'variable', 'predictor', 'classified', 'cluster', 'analysis', 'group', 'representing', 'season', 'based', 'downscaling', 'model', 'developed', 'season', 'significant', 'rainfall', 'principal', 'component', 'extracted', 'predictor', 'input', 'contemporaneous', 'precipitation', 'observed', 'output', 'proposed', 'shown', 'superior', 'conventional', 'downscaling', 'multi', 'layer', 'propagation', 'artificial', 'neural', 'network', 'subsequently', 'based', 'applied', 'future', 'climate', 'prediction', 'second', 'generation', 'coupled', 'global', 'climate', 'model', 'cgcm', 'obtain', 'future', 'projection', 'precipitation', 'msds', 'result', 'analyzed', 'impact', 'climate', 'change', 'precipitation', 'india', 'shown', 'svms', 'provide', 'promising', 'alternative', 'conventional', 'artificial', 'neural', 'network', 'statistical', 'downscaling', 'suitable', 'conducting', 'climate', 'impact', 'study']</t>
+  </si>
+  <si>
+    <t>x1: 0.19|x2: 0.00|x3: 0.15|x4: 0.17|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.18|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.44|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['fully', 'automated', 'identification', 'possible', 'spill', 'present', 'synthetic', 'aperture', 'radar', 'satellite', 'image', 'based', 'artificial', 'intelligence', 'fuzzy', 'logic', 'developed', 'spill', 'recognized', 'expert', 'dark', 'pattern', 'characteristic', 'shape', 'particular', 'context', 'analyzes', 'satellite', 'image', 'assigns', 'probability', 'dark', 'image', 'shape', 'spill', 'output', 'consists', 'image', 'table', 'providing', 'user', 'relevant', 'information', 'decision', 'making', 'study', 'area', 'aegean', 'greece', 'responded', 'satisfactorily', 'image', 'processed', 'complete', 'algorithmic', 'procedure', 'coded', 'visual', 'stand', 'dynamic', 'link', 'library', 'linked', 'sort', 'application', 'variant', 'window', 'operating']</t>
+  </si>
+  <si>
+    <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.23|x5: 0.00|x6: 0.19|x7: 0.00|x8: 0.00|x9: 0.11|x10: 0.14|x11: 0.00|x12: 0.29|x13: 0.11|x14: 0.11|x15: 0.09|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 4, 12]</t>
+  </si>
+  <si>
+    <t>['understanding', 'specific', 'relationship', 'ecological', 'socioeconomic', 'condition', 'marine', 'tenure', 'contribute', 'successful', 'functioning', 'self', 'governance', 'institution', 'common', 'pool', 'resource', 'complex', 'factor', 'influencing', 'fishing', 'activity', 'coastal', 'community', 'implementation', 'customary', 'marine', 'tenure', 'water', 'represented', 'bayesian', 'belief', 'network', 'model', 'developed', 'bayesian', 'belief', 'network', 'model', 'includes', 'link', 'factor', 'fishing', 'community', 'island', 'indonesia', 'based', 'indepth', 'local', 'survey', 'result', 'showed', 'cumulative', 'impact', 'multiple', 'factor', 'social', 'economic', 'environmental', 'outcome', 'larger', 'impact', 'single', 'source', 'implies', 'management', 'policy', 'intervention', 'effective', 'addressing', 'multiple', 'factor', 'simultaneously', 'local', 'community', 'perception', 'fish', 'stock', 'abundance', 'trend', 'single', 'important', 'factor', 'influencing', 'social', 'economic', 'environmental', 'outcome', 'community', 'based', 'management', 'frequency', 'outsider', 'sighted', 'territorial', 'water', 'strongly', 'negatively', 'linked', 'weak', 'strong', 'implementation', 'customary', 'tenure', 'sasi', 'occurrence', 'intervillage', 'intravillage', 'conflict', 'ecological', 'variable', 'drive', 'conflict', 'illustrates', 'close', 'connection', 'ecological', 'social', 'outcome', 'importance', 'considering', 'social', 'ecological']</t>
+  </si>
+  <si>
+    <t>x1: 0.29|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.00|x6: 0.31|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.42|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 6, 12, 14]</t>
+  </si>
+  <si>
+    <t>['wallis', 'alofi', 'futuna', 'island', 'central', 'pacific', 'ocean', 'characterized', 'different', 'reef', 'geomorphology', 'following', 'request', 'local', 'environment', 'service', 'developed', 'indicative', 'conservation', 'plan', 'island', 'objective', 'representing', 'extent', 'coral', 'reef', 'habitat', 'area', 'keeping', 'subsistence', 'fishing', 'ground', 'open', 'extraction', 'objective', 'ambitious', 'current', 'convention', 'biological', 'diversity', 'aichi', 'target', 'objective', 'achieved', 'simultaneously', 'large', 'compromise', 'needed', 'size', 'island', 'dependence', 'local', 'community', 'coral', 'reef', 'resource', 'fishery', 'objective', 'significantly', 'limited', 'extent', 'habitat', 'available', 'conservation', 'problem', 'exacerbated', 'conservation', 'plan', 'larger', 'conservation', 'unit', 'complex', 'habitat', 'typology', 'result', 'indicate', 'international', 'conservation', 'guideline', 'carefully', 'adapted', 'pacific', 'island', 'incentive', 'feasible', 'necessary', 'reduction', 'available', 'fishing', 'ground', 'probably', 'needed']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.23|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.26|x14: 0.40|x15: 0.33|x16: 0.11|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['competition', 'marine', 'space', 'recognized', 'challenge', 'implementation', 'activity', 'emerging', 'blue', 'growth', 'initiative', 'amplify', 'competition', 'marine', 'spatial', 'planning', 'framework', 'requires', 'decision', 'maker', 'analyse', 'spatially', 'explicit', 'environmental', 'socio', 'economic', 'determine', 'user', 'conflict', 'emerge', 'consider', 'potential', 'management', 'scenario', 'present', 'research', 'spatially', 'explicit', 'bayesian', 'belief', 'network', 'applied', 'purpose', 'developed', 'analyse', 'potential', 'reallocation', 'artisanal', 'fishing', 'effort', 'alternative', 'site', 'introduction', 'area', 'offshore', 'aquaculture', 'site', 'basque', 'continental', 'shelf', 'constructed', 'model', 'combined', 'discrete', 'operational', 'fishery', 'continuous', 'environmental', 'expert', 'judgment', 'produce', 'fishing', 'activity', 'suitability', 'different', 'metier', 'longlines', 'trap', 'effort', 'reallocation', 'scenario', 'metier', 'best', 'alternative', 'fishing', 'location', 'identified', 'based', 'environmental', 'suitability', 'past', 'revenue', 'past', 'fishing', 'presence', 'closure', 'lesser', 'effect', 'longline', 'activity', 'displacing', 'local', 'fishing', 'effort', 'respectively', 'comparatively', 'local', 'effort', 'trap', 'took', 'place', 'closed', 'ground', 'alternative', 'site', 'identified', 'greatest', 'number', 'alternative', 'fishing', 'ground', 'surrounding', 'aquaculture', 'site', 'present', 'research', 'demonstrates', 'bbns', 'support', 'spatially', 'explicit', 'scenario', 'building', 'user', 'user', 'conflict', 'analysis', 'sustainable', 'successful', 'ecosystem', 'based', 'marine', 'spatial', 'planning']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.39|x7: 0.00|x8: 0.00|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.34|x13: 0.15|x14: 0.37|x15: 0.12|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 12, 14]</t>
+  </si>
+  <si>
+    <t>['artificial', 'intelligence', 'technique', 'neural', 'network', 'fuzzy', 'applied', 'alternative', 'method', 'determine', 'beach', 'litter', 'grading', 'based', 'litter', 'survey', 'antalya', 'coastline', 'turkish', 'riviera', 'litter', 'measurement', 'categorized', 'assessed', 'artificial', 'intelligence', 'technique', 'lead', 'litter', 'categorization', 'constructed', 'neural', 'network', 'satisfactorily', 'predicted', 'grading', 'antalya', 'beach', 'litter', 'category', 'based', 'number', 'litter', 'item', 'general', 'litter', 'category', 'concluded', 'neural', 'network', 'speed', 'prediction', 'litter', 'item', 'beach', 'grading', 'characteristic', 'main', 'litter', 'category', 'field', 'study', 'save', 'field', 'effort', 'fast', 'reliable', 'estimation', 'litter', 'category', 'required', 'management', 'research', 'study', 'beach', 'especially', 'concerned', 'health', 'safety', 'economic', 'implication', 'main', 'advantage', 'fuzzy', 'consider', 'linguistic', 'adjectival', 'definition', 'result', 'additional', 'information', 'inherent', 'linguistic', 'comment', 'refinement', 'judgment', 'field', 'study', 'incorporated', 'grading']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.23|x7: 0.00|x8: 0.12|x9: 0.34|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.14|x14: 0.53|x15: 0.14|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 9, 14]</t>
+  </si>
+  <si>
+    <t>['predicting', 'oceanic', 'process', 'encountered', 'problematic', 'dynamic', 'coastal', 'water', 'diverse', 'physical', 'chemical', 'biological', 'factor', 'interact', 'varied', 'rapidly', 'changing', 'combination', 'defining', 'process', 'requires', 'efficient', 'sampling', 'specific', 'water', 'mass', 'prompt', 'sample', 'return', 'subsequent', 'analysis', 'compound', 'challenge', 'motivated', 'effort', 'develop', 'mobile', 'autonomous', 'process', 'sampling', 'autonomous', 'underwater', 'vehicle', 'auvs', 'feature', 'recognized', 'artificial', 'intelligence', 'integrates', 'sensor', 'estimate', 'probabilistic', 'state', 'adaptive', 'control', 'survey', 'navigation', 'triggering', 'targeted', 'water', 'sampler', 'demonstrate', 'utility', 'focused', 'intermediate', 'nepheloid', 'layer', 'inls', 'episodic', 'transport', 'event', 'play', 'role', 'zooplankton', 'ecology', 'multiple', 'field', 'test', 'monterey', 'california', 'recognized', 'mapped', 'sampled', 'inls', 'invertebrate', 'larva', 'contained', 'water', 'sample', 'subsequently', 'characterized', 'molecular', 'probe', 'developed', 'throughput', 'screening', 'preliminary', 'result', 'support', 'hypothesis', 'inls', 'function', 'vehicle', 'episodic', 'larval', 'transport', 'applying', 'greater', 'coastal', 'ocean', 'observing', 'permitted', 'description', 'regional', 'oceanographic', 'dynamic', 'influenced', 'pattern', 'scale', 'larval', 'transport']</t>
+  </si>
+  <si>
+    <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.00|x8: 0.12|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.28|x15: 0.20|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 12, 14, 15]</t>
+  </si>
+  <si>
+    <t>['canada', 'pacific', 'coast', 'region', 'renewed', 'commitment', 'pursue', 'marine', 'spatial', 'planning', 'british', 'columbia', 'marine', 'conservation', 'analysis', 'bcmca', 'project', 'aimed', 'stage', 'designed', 'provide', 'resource', 'manager', 'scientist', 'decision', 'maker', 'stakeholder', 'resource', 'inform', 'coast', 'wide', 'integrated', 'marine', 'planning', 'management', 'initiative', 'geographic', 'information', 'decision', 'support', 'tool', 'marxan', 'develop', 'main', 'product', 'atlas', 'known', 'marine', 'ecological', 'value', 'human', 'analysis', 'area', 'conservation', 'value', 'human', 'value', 'biophysical', 'datasets', 'human', 'datasets', 'collated', 'refined', 'applicable', 'identified', 'ecological', 'expert', 'workshop', 'expert', 'review', 'physical', 'marine', 'classification', 'representation', 'guidance', 'human', 'working', 'group', 'ecological', 'richness', 'marxan', 'result', 'importance', 'nearshore', 'continental', 'shelf', 'region', 'richness', 'category', 'human', 'shipping', 'transport', 'closely', 'linked', 'shoreline', 'continental', 'shelf', 'example', 'ecological', 'marxan', 'solution', 'identifying', 'area', 'conservation', 'value', 'overlapped', 'human', 'sector', 'footprint', 'percentage', 'ranging', 'planning', 'unit', 'selected', 'marxan', 'contain', 'commercial', 'fishery', 'experience', 'bcmca', 'project', 'potential', 'provide', 'valuable', 'guidance', 'region', 'seeking', 'jump', 'start', 'planning', 'process', 'collating', 'spatial', 'information', 'carrying', 'exploratory', 'analysis']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.14|x10: 0.00|x11: 0.17|x12: 0.25|x13: 0.13|x14: 0.36|x15: 0.09|x16: 0.20|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['conservation', 'planning', 'research', 'influenced', 'conservation', 'action', 'globally', 'decade', 'successful', 'implementation', 'systematic', 'conservation', 'plan', 'region', 'customary', 'marine', 'tenure', 'exists', 'minimal', 'region', 'local', 'community', 'knowledge', 'understanding', 'socioeconomic', 'reality', 'offer', 'best', 'spatially', 'explicit', 'information', 'analysis', 'required', 'socioeconomic', 'available', 'scale', 'relevant', 'conservation', 'planning', 'process', 'undertaken', 'kadavu', 'yaubula', 'management', 'support', 'team', 'team', 'researcher', 'university', 'south', 'pacific', 'local', 'community', 'systematic', 'conservation', 'planning', 'tool', 'effectively', 'applied', 'useful', 'customary', 'governance', 'context', 'study', 'fiji', 'participatory', 'approach', 'meeting', 'local', 'scale', 'conservation', 'fishery', 'need', 'spatial', 'conservation', 'planning', 'tool', 'marxan', 'zone', 'reconfigure', 'collection', 'locally', 'designed', 'marine', 'protected', 'area', 'province', 'kadavu', 'order', 'achieve', 'broader', 'objective', 'local', 'scale', 'value', 'tool', 'process', 'identifying', 'conceptualising', 'management', 'issue', 'working', 'community', 'collate', 'participatory', 'technique', 'engaging', 'community', 'management', 'decision', 'making', 'output', 'tool', 'secondary', 'value', 'outcome', 'invaluable', 'developing', 'marine', 'protected', 'area', 'network', 'design', 'approach', 'combine', 'traditional', 'knowledge', 'ecological', 'feature', 'manner', 'appropriate', 'melanesian', 'context']</t>
+  </si>
+  <si>
+    <t>x1: 0.10|x2: 0.00|x3: 0.00|x4: 0.16|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.12|x12: 0.00|x13: 0.24|x14: 0.21|x15: 0.26|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['environmental', 'economic', 'impact', 'exotic', 'fungal', 'specie', 'natural', 'plantation', 'forest', 'historically', 'catastrophic', 'recorded', 'surveillance', 'control', 'action', 'challenging', 'costly', 'time', 'consuming', 'hazardous', 'remote', 'area', 'prolonged', 'period', 'testing', 'observation', 'site', 'based', 'test', 'limitation', 'verify', 'rapid', 'proliferation', 'exotic', 'pathogen', 'deterioration', 'rate', 'host', 'recent', 'remote', 'sensing', 'approach', 'offered', 'fast', 'broad', 'scale', 'affordable', 'survey', 'additional', 'indicator', 'complement', 'ground', 'test', 'paper', 'proposes', 'framework', 'consolidates', 'site', 'based', 'insight', 'remote', 'sensing', 'capability', 'detect', 'segment', 'deterioration', 'fungal', 'pathogen', 'natural', 'plantation', 'forest', 'approach', 'illustrated', 'experimentation', 'myrtle', 'rust', 'austropuccinia', 'psidii', 'paperbark', 'tree', 'melaleuca', 'quinquenervia', 'south', 'wale', 'australia', 'method', 'integrates', 'unmanned', 'aerial', 'vehicle', 'uavs', 'hyperspectral', 'image', 'sensor', 'processing', 'algorithm', 'machine', 'learning', 'imagery', 'acquired', 'headwall', 'nano', 'hyperspec', 'camera', 'orthorectified', 'headwall', 'spectralview', 'processed', 'python', 'programming', 'language', 'extreme', 'gradient', 'boosting', 'xgboost', 'geospatial', 'abstraction', 'library', 'gdal', 'scikit', 'learn', 'library', 'sample', 'extracted', 'labelled', 'class', 'class', 'deterioration', 'status', 'class', 'background', 'object', 'insight', 'reveal', 'individual', 'detection', 'rate', 'healthy', 'tree', 'deteriorated', 'tree', 'global', 'multiclass', 'detection', 'rate', 'methodology', 'versatile', 'applied', 'additional', 'datasets', 'taken', 'different', 'image', 'sensor', 'processing', 'large', 'datasets', 'freeware', 'tool']</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.17|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.10|x14: 0.22|x15: 0.17|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 9, 14]</t>
+  </si>
+  <si>
+    <t>['conservation', 'planning', 'integral', 'strategic', 'effective', 'operation', 'conservation', 'organization', 'drawing', 'biological', 'science', 'conservation', 'planning', 'historically', 'limited', 'social', 'offer', 'approach', 'integrating', 'social', 'conservation', 'planning', 'capture', 'place', 'context', 'spatial', 'pattern', 'trend', 'human', 'need', 'capacity', 'hierarchical', 'approach', 'provides', 'nested', 'framework', 'characterizing', 'mapping', 'social', 'domain', 'economic', 'health', 'political', 'empowerment', 'education', 'culture', 'domain', 'multiple', 'attribute', 'attribute', 'characterized', 'indicator', 'existing', 'novel', 'display', 'spatial', 'temporal', 'heterogeneity', 'social', 'conservation', 'scientist', 'planner', 'decision', 'maker', 'measure', 'benchmark', 'integrate', 'conservation', 'planning', 'process', 'selecting', 'indicator', 'integrating', 'conservation', 'planning', 'iterative', 'participatory', 'process', 'tailored', 'local', 'context', 'planning', 'goal', 'social', 'complement', 'biophysical', 'threat', 'oriented', 'social', 'conservation', 'planning', 'process', 'inform', 'decision', 'conserve', 'biodiversity', 'provide', 'structure', 'exploring', 'socioecological', 'relationship', 'foster', 'adaptive', 'management', 'building', 'existing', 'conservation', 'planning', 'method', 'insight', 'multiple', 'discipline', 'approach', 'putting', 'readily', 'merge', 'current', 'planning', 'practice', 'facilitate', 'rigorous', 'decision', 'making']</t>
+  </si>
+  <si>
+    <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.15|x10: 0.00|x11: 0.22|x12: 0.09|x13: 0.21|x14: 0.10|x15: 0.33|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 11, 13, 15]</t>
+  </si>
+  <si>
+    <t>['ecoacoustic', 'monitoring', 'proved', 'viable', 'approach', 'capture', 'ecological', 'related', 'animal', 'community', 'expert', 'manually', 'annotate', 'audio', 'sample', 'analysis', 'large', 'datasets', 'significantly', 'facilitated', 'automatic', 'pattern', 'recognition', 'method', 'unsupervised', 'learning', 'method', 'require', 'labelled', 'particularly', 'suited', 'analyse', 'poorly', 'documented', 'habitat', 'tropical', 'environment', 'propose', 'method', 'named', 'multiresolution', 'analysis', 'acoustic', 'diversity', 'maad', 'automate', 'detection', 'relevant', 'structure', 'audio', 'maad', 'designed', 'decompose', 'acoustic', 'community', 'elementary', 'component', 'soundtypes', 'based', 'time', 'frequency', 'attribute', 'short', 'time', 'fourier', 'transform', 'detect', 'region', 'time', 'frequency', 'domain', 'characterised', 'estimating', 'median', 'frequency', 'running', 'wavelet', 'analysis', 'multiple', 'scale', 'angle', 'finally', 'grouped', 'model', 'based', 'subspace', 'clustering', 'technique', 'automatically', 'annotated', 'clustered', 'soundtypes', 'test', 'performance', 'automatic', 'method', 'applied', 'maad', 'distinct', 'tropical', 'environment', 'french', 'guiana', 'lowland', 'rainforest', 'rock', 'savanna', 'compared', 'manual', 'automatic', 'annotation', 'adjusted', 'rand', 'similarity', 'manual', 'automated', 'partition', 'consistent', 'indicating', 'cluster', 'intelligible', 'analysis', 'weight', 'feature', 'estimated', 'clustering', 'process', 'revealed', 'important', 'information', 'structure', 'acoustic', 'community', 'particular', 'median', 'frequency', 'strongest', 'effect', 'modelling', 'cluster', 'classification', 'performance', 'suggesting', 'role', 'community', 'organisation', 'number', 'cluster', 'maad', 'regarded', 'estimation', 'soundtype', 'richness', 'given', 'environment', 'maad', 'comprehensive', 'promising', 'method', 'automatically', 'analyse', 'passive', 'acoustic', 'recording', 'combining', 'maad', 'manual', 'analysis', 'maximally', 'exploit', 'strength', 'human', 'reasoning', 'algorithm', 'composition', 'acoustic', 'community', 'estimated', 'accurately', 'quickly', 'large', 'scale']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.19|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.15|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.38|x15: 0.12|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['extensive', 'research', 'ecosystem', 'service', 'mapped', 'survey', 'based', 'biophysical', 'approach', 'comparative', 'mapping', 'public', 'value', 'quantified', 'model', 'lacking', 'paper', 'mapped', 'cold', 'spot', 'perceived', 'modeled', 'ecosystem', 'service', 'synthesizing', 'result', 'social', 'value', 'mapping', 'study', 'resident', 'living', 'near', 'pike', 'isabel', 'national', 'forest', 'located', 'southern', 'rocky', 'mountain', 'corresponding', 'biophysically', 'modeled', 'ecosystem', 'service', 'social', 'value', 'developed', 'social', 'value', 'ecosystem', 'service', 'tool', 'providing', 'statistically', 'modeled', 'continuous', 'value', 'surface', 'value', 'type', 'including', 'aesthetic', 'biodiversity', 'life', 'sustaining', 'value', 'biophysically', 'modeled', 'carbon', 'sequestration', 'storage', 'scenic', 'viewsheds', 'sediment', 'regulation', 'water', 'yield', 'generated', 'artificial', 'intelligence', 'ecosystem', 'service', 'tool', 'hotspot', 'perceived', 'modeled', 'service', 'located', 'wilderness', 'area', 'additionally', 'regression', 'analysis', 'evaluate', 'spatial', 'relationship', 'perceived', 'biodiversity', 'cultural', 'ecosystem', 'service', 'corresponding', 'biophysical', 'model', 'output', 'goal', 'determine', 'publicly', 'valued', 'location', 'aesthetic', 'biodiversity', 'life', 'sustaining', 'value', 'relate', 'meaningfully', 'result', 'corresponding', 'biophysical', 'ecosystem', 'service', 'model', 'weak', 'relationship', 'perceived', 'biophysically', 'modeled', 'service', 'indicating', 'public', 'perception', 'ecosystem', 'service', 'provisioning', 'region', 'limited', 'believe', 'biophysical', 'social', 'approach', 'ecosystem', 'service', 'mapping', 'serve', 'methodological', 'complement', 'advance', 'ecosystem', 'service', 'based', 'resource', 'management', 'benefitting', 'resource', 'manager', 'showing', 'potential', 'location', 'synergy', 'conflict', 'area', 'supplying', 'ecosystem', 'service', 'valued', 'public']</t>
+  </si>
+  <si>
+    <t>x1: 0.17|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.20|x7: 0.00|x8: 0.00|x9: 0.21|x10: 0.00|x11: 0.14|x12: 0.15|x13: 0.00|x14: 0.24|x15: 0.27|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[9, 14, 15]</t>
+  </si>
+  <si>
+    <t>['effective', 'sustainable', 'forest', 'management', 'broad', 'area', 'need', 'consistent', 'country', 'wide', 'forest', 'inventory', 'stand', 'level', 'inventory', 'appropriate', 'unit', 'local', 'regional', 'forest', 'management', 'south', 'korea', 'currently', 'produce', 'forest', 'type', 'contains', 'categorical', 'parameter', 'stand', 'crucial', 'forest', 'attribute', 'understanding', 'forest', 'ecosystem', 'currently', 'missing', 'included', 'future', 'forest', 'type', 'estimation', 'forest', 'stand', 'challenging', 'south', 'korea', 'stand', 'exist', 'irregular', 'patch', 'highly', 'rugged', 'terrain', 'study', 'proposed', 'stand', 'estimation', 'model', 'suitable', 'rugged', 'terrain', 'highly', 'mixed', 'tree', 'specie', 'arithmetic', 'mean', 'target', 'variable', 'plot', 'level', 'estimation', 'model', 'developed', 'descriptive', 'statistic', 'airborne', 'light', 'detection', 'ranging', 'lidar', 'machine', 'learning', 'approach', 'support', 'vector', 'regression', 'modified', 'regression', 'tree', 'random', 'forest', 'scheme', 'central', 'plot', 'based', 'scheme', 'stand', 'based', 'scheme', 'expanding', 'plot', 'level', 'stand', 'level', 'investigated', 'result', 'showed', 'varied', 'performance', 'metric', 'coefficient', 'determination', 'root', 'mean', 'square', 'error', 'mean', 'bias', 'model', 'forest', 'estimation', 'plot', 'level', 'statistically', 'significant', 'difference', 'mean', 'plot', 'model', 'term', 'estimated', 'bias', 'value', 'stand', 'level', 'validation', 'based', 'tree', 'measurement', 'selected', 'stand', 'produced', 'varied', 'result', 'scheme', 'machine', 'learning', 'implies', 'additional', 'reference', 'thorough', 'stand', 'level', 'validation', 'identify', 'statistically', 'robust', 'approach', 'future', 'nonetheless', 'research', 'finding', 'study', 'guide', 'estimating', 'stand', 'forest', 'rugged', 'terrain', 'complex', 'composition', 'tree', 'specie']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.19|x4: 0.11|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.00|x10: 0.00|x11: 0.15|x12: 0.21|x13: 0.00|x14: 0.12|x15: 0.32|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[8, 12, 15]</t>
+  </si>
+  <si>
+    <t>['tropical', 'forest', 'condition', 'important', 'implication', 'biodiversity', 'climate', 'change', 'human', 'need', 'structural', 'feature', 'forest', 'serve', 'useful', 'indicator', 'forest', 'condition', 'potential', 'assessed', 'remotely', 'sensed', 'imagery', 'provide', 'quantitative', 'information', 'forest', 'ecosystem', 'temporal', 'spatial', 'resolution', 'investigate', 'utility', 'remote', 'sensing', 'assessing', 'predicting', 'mapping', 'important', 'forest', 'structural', 'feature', 'stem', 'density', 'basal', 'area', 'tropical', 'littoral', 'forest', 'southeastern', 'madagascar', 'analysed', 'relationship', 'basal', 'area', 'stem', 'density', 'measurement', 'normalised', 'difference', 'vegetation', 'ndvi', 'radiance', 'measurement', 'band', 'landsat', 'enhanced', 'thematic', 'mapper', 'plus', 'strong', 'relationship', 'identified', 'individual', 'band', 'field', 'based', 'measurement', 'basal', 'area', 'weak', 'insignificant', 'relationship', 'spectral', 'response', 'stem', 'density', 'measurement', 'ndvi', 'significantly', 'correlated', 'basal', 'area', 'strongly', 'significantly', 'correlated', 'stem', 'density', 'subset', 'represented', 'extreme', 'value', 'artificial', 'neural', 'network', 'predict', 'basal', 'area', 'radiance', 'value', 'band', 'produce', 'predictive', 'basal', 'area', 'entire', 'forest', 'landscape', 'anns', 'produced', 'strong', 'significant', 'relationship', 'predicted', 'actual', 'measure', 'basal', 'area', 'jackknife', 'method', 'larger', 'predicted', 'basal', 'area', 'produced', 'assessed', 'relation', 'existing', 'forest', 'condition', 'derived', 'field', 'assessment', 'predictive', 'basal', 'area', 'provided', 'finer', 'stand', 'structural', 'heterogeneity', 'captured', 'known', 'climatic', 'influence', 'forest', 'structure', 'displayed', 'trend', 'basal', 'area', 'associated', 'degree', 'human', 'accessibility', 'finding', 'demonstrate', 'utility', 'anns', 'integrating', 'satellite', 'landsat', 'spectral', 'band', 'limited', 'field', 'survey', 'pattern', 'basal', 'area', 'landscape', 'scale']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.18|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.26|x15: 0.55|x16: 0.13|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[14, 15]</t>
+  </si>
+  <si>
+    <t>['marxan', 'widely', 'conservation', 'planning', 'software', 'world', 'designed', 'solving', 'complex', 'conservation', 'planning', 'problem', 'landscape', 'seascape', 'paper', 'substantial', 'extension', 'marxan', 'called', 'marxan', 'zone', 'decision', 'support', 'tool', 'provides', 'landuse', 'zoning', 'option', 'geographical', 'region', 'biodiversity', 'conservation', 'function', 'designed', 'enhance', 'original', 'marxan', 'software', 'expand', 'utility', 'decision', 'support', 'tool', 'major', 'element', 'decision', 'problem', 'allowing', 'parcel', 'land', 'allocated', 'specific', 'zone', 'reserved', 'unreserved', 'zone', 'option', 'action', 'objective', 'constraint', 'flexibility', 'define', 'contribution', 'zone', 'achieve', 'target', 'specified', 'feature', 'specie', 'habitat', 'objective', 'minimize', 'cost', 'implementing', 'zoning', 'plan', 'ensuring', 'variety', 'conservation', 'land', 'objective', 'achieved', 'outline', 'capability', 'limitation', 'additional', 'requirement', 'software', 'perform', 'comparison', 'original', 'version', 'marxan', 'feature', 'number', 'study', 'demonstrate', 'functionality', 'software', 'highlight', 'flexibility', 'address', 'range', 'complex', 'spatial', 'planning', 'problem', 'study', 'demonstrate', 'design', 'multiple', 'marine', 'park', 'western', 'australia', 'california', 'zoning', 'forest', 'east', 'kalimantan']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.11|x6: 0.13|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.12|x11: 0.00|x12: 0.10|x13: 0.30|x14: 0.29|x15: 0.26|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[13, 14, 15]</t>
+  </si>
+  <si>
+    <t>['despite', 'extensive', 'research', 'demonstrating', 'benefit', 'applying', 'cost', 'effective', 'conservation', 'technique', 'optimization', 'large', 'remains', 'evidence', 'research', 'action', 'profession', 'design', 'implement', 'conservation', 'program', 'study', 'examines', 'international', 'survey', 'conservation', 'professional', 'familiar', 'cost', 'effective', 'conservation', 'technique', 'primary', 'result', 'study', 'replicate', 'previous', 'result', 'smaller', 'sample', 'agricultural', 'preservation', 'professional', 'vast', 'majority', 'survey', 'respondent', 'viewed', 'cost', 'effectiveness', 'virtue', 'ultimately', 'consider', 'important', 'program', 'design', 'criterion', 'result', 'reinforce', 'idea', 'advocate', 'cost', 'effective', 'conservation', 'need', 'address', 'concern', 'fairness', 'transparency', 'remedy', 'knowledge', 'expertise', 'professional', 'involved', 'finally', 'lack', 'incentive', 'conservation', 'professional', 'change', 'practice', 'challenge', 'public', 'pressure', 'encouragement', 'experimentation', 'evidence', 'based', 'policy', 'improve', 'cost', 'effectiveness', 'conservation']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.17|x4: 0.00|x5: 0.16|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.00|x10: 0.19|x11: 0.00|x12: 0.28|x13: 0.00|x14: 0.31|x15: 0.23|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[12, 14, 15]</t>
+  </si>
+  <si>
+    <t>['surveying', 'threatened', 'invasive', 'specie', 'obtain', 'accurate', 'population', 'estimate', 'important', 'challenging', 'task', 'requires', 'considerable', 'investment', 'time', 'resource', 'estimate', 'existing', 'ground', 'based', 'monitoring', 'technique', 'camera', 'trap', 'survey', 'performed', 'foot', 'known', 'resource', 'intensive', 'potentially', 'inaccurate', 'imprecise', 'difficult', 'validate', 'recent', 'development', 'unmanned', 'aerial', 'vehicle', 'artificial', 'intelligence', 'miniaturized', 'thermal', 'imaging', 'represent', 'opportunity', 'wildlife', 'expert', 'inexpensively', 'survey', 'relatively', 'large', 'area', 'presented', 'paper', 'includes', 'thermal', 'image', 'acquisition', 'video', 'processing', 'pipeline', 'perform', 'object', 'detection', 'classification', 'tracking', 'wildlife', 'forest', 'open', 'area', 'tested', 'thermal', 'video', 'ground', 'based', 'test', 'flight', 'footage', 'able', 'detect', 'target', 'wildlife', 'located', 'surveyed', 'area', 'flexible', 'user', 'readily', 'define', 'type', 'object', 'classify', 'object', 'characteristic', 'considered', 'classification']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.22|x6: 0.17|x7: 0.00|x8: 0.00|x9: 0.15|x10: 0.19|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.12|x15: 0.39|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[5, 15]</t>
+  </si>
+  <si>
+    <t>['number', 'distribution', 'free', 'ranging', 'giant', 'panda', 'essential', 'formulation', 'effective', 'conservation', 'strategy', 'ideal', 'method', 'identify', 'individual', 'specie', 'traditional', 'bite', 'size', 'method', 'bamboo', 'fragment', 'feces', 'lack', 'accuracy', 'modern', 'based', 'estimation', 'expensive', 'demand', 'fresh', 'sample', 'lack', 'identifiable', 'individual', 'feature', 'panda', 'pelage', 'apparent', 'sexual', 'dimorphism', 'impede', 'reliable', 'estimation', 'camera', 'trap', 'image', 'propose', 'innovative', 'invasive', 'technique', 'identify', 'specie', 'footprint', 'identification', 'technique', 'based', 'pairwise', 'comparison', 'trail', 'unbroken', 'series', 'footprint', 'discriminant', 'analysis', 'ward', 'clustering', 'method', 'collected', 'footprint', 'captive', 'animal', 'train', 'algorithm', 'animal', 'model', 'validation', 'accuracy', 'individual', 'identification', 'individual', 'footprint', 'fewer', 'footprint', 'trail', 'accuracy', 'discrimination', 'single', 'footprint', 'trail', 'cost', 'effective', 'method', 'provides', 'promising', 'future', 'monitoring', 'wild', 'panda', 'population', 'understanding', 'dynamic', 'especially', 'useful', 'monitoring', 'reintroduced', 'animal', 'detachment', 'collar', 'collection', 'protocol', 'straightforward', 'accessible', 'citizen', 'scientist', 'conservation', 'professional', 'alike']</t>
+  </si>
+  <si>
+    <t>x1: 0.10|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.00|x10: 0.11|x11: 0.12|x12: 0.37|x13: 0.00|x14: 0.18|x15: 0.15|x16: 0.24|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[12, 16]</t>
+  </si>
+  <si>
+    <t>['increasing', 'number', 'surveillance', 'camera', 'indoor', 'outdoor', 'location', 'grown', 'demand', 'intelligent', 'detects', 'abnormal', 'event', 'human', 'action', 'recognition', 'highly', 'reached', 'topic', 'vision', 'abnormal', 'behavior', 'detection', 'lately', 'attracting', 'research', 'attention', 'proposed', 'order', 'ensure', 'human', 'safety', 'paper', 'interested', 'study', 'main', 'step', 'composing', 'video', 'surveillance', 'behavior', 'representation', 'behavior', 'modeling', 'technique', 'related', 'feature', 'extraction', 'description', 'behavior', 'representation', 'reviewed', 'classification', 'method', 'framework', 'behavior', 'modeling', 'provided', 'available', 'datasets', 'metric', 'performance', 'evaluation', 'presented', 'finally', 'example', 'existing', 'video', 'surveillance', 'world', 'described']</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.11|x10: 0.12|x11: 0.22|x12: 0.11|x13: 0.14|x14: 0.08|x15: 0.00|x16: 0.39|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[11, 16]</t>
+  </si>
+  <si>
+    <t>['visual', 'surveillance', 'dynamic', 'scene', 'especially', 'human', 'vehicle', 'currently', 'active', 'research', 'topic', 'vision', 'wide', 'spectrum', 'promising', 'application', 'including', 'access', 'control', 'special', 'area', 'human', 'identification', 'distance', 'crowd', 'flux', 'statistic', 'congestion', 'analysis', 'detection', 'anomalous', 'behavior', 'interactive', 'surveillance', 'multiple', 'camera', 'general', 'processing', 'framework', 'visual', 'surveillance', 'dynamic', 'scene', 'includes', 'following', 'stage', 'modeling', 'environment', 'detection', 'motion', 'classification', 'moving', 'object', 'tracking', 'understanding', 'description', 'behavior', 'human', 'identification', 'fusion', 'multiple', 'camera', 'review', 'recent', 'development', 'general', 'strategy', 'stage', 'finally', 'analyze', 'possible', 'research', 'direction', 'occlusion', 'handling', 'combination', 'twoand', 'dimensional', 'tracking', 'combination', 'motion', 'analysis', 'biometrics', 'anomaly', 'detection', 'behavior', 'prediction', 'content', 'based', 'retrieval', 'surveillance', 'video', 'behavior', 'understanding', 'natural', 'language', 'description', 'fusion', 'information', 'multiple', 'sensor', 'remote', 'surveillance']</t>
+  </si>
+  <si>
+    <t>x1: 0.18|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.19|x9: 0.13|x10: 0.11|x11: 0.19|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 16]</t>
+  </si>
+  <si>
+    <t>['game', 'improve', 'social', 'awareness', 'letting', 'experience', 'difficult', 'social', 'situation', 'learn', 'experience', 'assert', 'moving', 'strict', 'realism', 'social', 'simulation', 'offer', 'technique', 'role', 'play', 'offer', 'possibility', 'feedback', 'reflection', 'discus', 'design', 'game', 'interpersonal', 'skill', 'training', 'domain', 'enforcement', 'game', 'feature', 'intelligent', 'virtual', 'agent', 'trainee', 'interact', 'different', 'scenario', 'improve', 'social', 'awareness', 'interacting', 'virtual', 'agent', 'trainee', 'experience', 'behaviour', 'influence', 'course', 'intervention', 'outcome', 'discus', 'intend', 'improve', 'learning', 'experience', 'game', 'including', 'meta', 'technique', 'role', 'play', 'close', 'describing', 'current', 'future', 'implementation', 'game']</t>
+  </si>
+  <si>
+    <t>x1: 0.31|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.27|x14: 0.14|x15: 0.00|x16: 0.19|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 4, 12, 13]</t>
+  </si>
+  <si>
+    <t>['paper', 'envisions', 'future', 'autonomous', 'agent', 'foster', 'support', 'social', 'behavior', 'hybrid', 'society', 'human', 'machine', 'social', 'behavior', 'occurs', 'agent', 'perform', 'costly', 'action', 'benefit', 'helping', 'voluntarily', 'donating', 'charity', 'providing', 'information', 'sharing', 'resource', 'social', 'behavior', 'discus', 'question', 'challenge', 'purely', 'utilitarian', 'view', 'human', 'decision', 'making', 'contextualize', 'role', 'hybrid', 'society', 'condition', 'mechanism', 'lead', 'society', 'agent', 'human', 'social', 'engineer', 'autonomous', 'entity', 'agent', 'robot', 'lead', 'altruistic', 'cooperative', 'behavior', 'hybrid', 'society', 'propose', 'social', 'simulation', 'game', 'theory', 'population', 'dynamic', 'study', 'virtual', 'environment', 'robot', 'agent', 'human', 'interact', 'research', 'constitute', 'basis', 'establishing', 'foundation', 'field', 'social', 'computing', 'aiming', 'understanding', 'predicting', 'promoting', 'sociality', 'human', 'artificial', 'agent', 'multiagent']</t>
+  </si>
+  <si>
+    <t>x1: 0.35|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.14|x15: 0.00|x16: 0.44|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 13, 16]</t>
+  </si>
+  <si>
+    <t>['decade', 'scientific', 'research', 'unmanned', 'aerial', 'vehicle', 'uavs', 'spectacularly', 'design', 'multiple', 'type', 'aerial', 'platform', 'major', 'challenge', 'today', 'development', 'autonomously', 'operating', 'aerial', 'agent', 'capable', 'completing', 'mission', 'independently', 'human', 'interaction', 'extent', 'visual', 'sensing', 'technique', 'integrated', 'control', 'pipeline', 'uavs', 'order', 'enhance', 'navigation', 'guidance', 'skill', 'article', 'present', 'comprehensive', 'literature', 'review', 'vision', 'based', 'application', 'uavs', 'focusing', 'mainly', 'current', 'development', 'trend', 'application', 'sorted', 'different', 'category', 'according', 'research', 'topic', 'research', 'group', 'specifically', 'vision', 'based', 'position', 'attitude', 'control', 'pose', 'estimation', 'mapping', 'obstacle', 'detection', 'target', 'tracking', 'identified', 'component', 'autonomous', 'agent', 'aerial', 'platform', 'reach', 'greater', 'level', 'autonomy', 'integrating', 'technology', 'onboard', 'additionally', 'article', 'concept', 'fusion', 'multiple', 'sensor', 'highlighted', 'overview', 'challenge', 'kanellakis']</t>
+  </si>
+  <si>
+    <t>x1: 0.26|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.35|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.19|x10: 0.00|x11: 0.17|x12: 0.14|x13: 0.10|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 5]</t>
+  </si>
+  <si>
+    <t>['drone', 'increasingly', 'purpose', 'recording', 'footage', 'inaccessible', 'area', 'delivering', 'package', 'rise', 'drone', 'usage', 'introduces', 'privacy', 'security', 'concern', 'flying', 'boundary', 'drone', 'collect', 'public', 'private', 'space', 'stored', 'disseminated', 'commercial', 'personal', 'drone', 'regulation', 'focusing', 'privacy', 'security', 'fairly', 'minimal', 'united', 'state', 'inform', 'privacy', 'security', 'guideline', 'drone', 'design', 'regulation', 'need', 'understand', 'user', 'perception', 'drone', 'privacy', 'security', 'paper', 'laboratory', 'study', 'participant', 'interacted', 'model', 'drone', 'elicit', 'user', 'perception', 'privacy', 'security', 'issue', 'drone', 'present', 'result', 'discus', 'implication', 'work', 'recommendation', 'improve', 'drone', 'design', 'regulation', 'enhance', 'individual', 'privacy', 'security']</t>
+  </si>
+  <si>
+    <t>x1: 0.09|x2: 0.00|x3: 0.08|x4: 0.00|x5: 0.00|x6: 0.09|x7: 0.08|x8: 0.11|x9: 0.00|x10: 0.00|x11: 0.09|x12: 0.27|x13: 0.10|x14: 0.36|x15: 0.09|x16: 0.12|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['automated', 'driving', 'fundamentally', 'change', 'road', 'transportation', 'improve', 'quality', 'life', 'present', 'role', 'human', 'automated', 'vehicle', 'clearly', 'established', 'interview', 'conducted', 'expert', 'researcher', 'field', 'human', 'factor', 'automated', 'driving', 'identify', 'commonality', 'distinctive', 'perspective', 'challenge', 'development', 'expert', 'indicated', 'level', 'inform', 'driver', 'capability', 'operational', 'status', 'ensure', 'safety', 'changing', 'automated', 'manual', 'mode', 'research', 'particularly', 'address', 'interaction', 'human', 'driver', 'vulnerable', 'road', 'user', 'additionally', 'driver', 'training', 'program', 'modified', 'ensure', 'human', 'capable', 'finally', 'reflection', 'interview', 'provided', 'showing', 'discordance', 'interviewee', 'statementswhich', 'appear', 'long', 'history', 'work', 'human', 'factor', 'research', 'rapid', 'development', 'automation', 'technology', 'expect', 'perspective', 'instrumental', 'stakeholder', 'involved', 'development', 'instructive']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.11|x7: 0.00|x8: 0.13|x9: 0.24|x10: 0.13|x11: 0.00|x12: 0.23|x13: 0.20|x14: 0.18|x15: 0.00|x16: 0.14|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['background', 'worrying', 'public', 'health', 'issue', 'china', 'lack', 'timely', 'effective', 'surveillance', 'diffusion', 'adoption', 'internet', 'aggregated', 'internet', 'search', 'engine', 'contain', 'user', 'information', 'concern', 'reality', 'health', 'status', 'provide', 'opportunity', 'surveillance', 'paper', 'search', 'engine', 'monitor', 'forecast', 'china', 'method', 'machine', 'learning', 'method', 'artificial', 'neural', 'network', 'anns', 'forecast', 'incidence', 'death', 'search', 'trend', 'related', 'largest', 'chinese', 'search', 'engine', 'baiducom', 'collected', 'selected', 'input', 'variable', 'anns', 'officially', 'reported', 'actual', 'incidence', 'death', 'output', 'variable', 'criterion', 'mean', 'absolute', 'percentage', 'error', 'root', 'mean', 'squared', 'percentage', 'error', 'agreement', 'test', 'forecasting', 'performance', 'method', 'result', 'based', 'monthly', 'time', 'series', 'january', 'june', 'article', 'criterion', 'method', 'lead', 'satisfactory', 'forecasting', 'incidence', 'death', 'regardless', 'change', 'number', 'search', 'query', 'conclusion', 'despite', 'inability', 'selfdetect', 'online', 'searching', 'internetbased', 'adopted', 'timely', 'costeffective', 'complement', 'traditional', 'surveillance']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.29|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.21|x8: 0.17|x9: 0.13|x10: 0.11|x11: 0.00|x12: 0.12|x13: 0.00|x14: 0.12|x15: 0.00|x16: 0.12|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 7]</t>
+  </si>
+  <si>
+    <t>['introduction', 'artificial', 'intelligence', 'branch', 'science', 'capable', 'analysing', 'complex', 'medical', 'potential', 'exploit', 'meaningful', 'relationship', 'diagnosis', 'treatment', 'predicting', 'outcome', 'clinical', 'scenario', 'method', 'medline', 'internet', 'search', 'carried', 'keywords', 'artificial', 'intelligence', 'neural', 'network', 'reference', 'obtained', 'article', 'overview', 'different', 'artificial', 'intelligent', 'technique', 'presented', 'paper', 'review', 'important', 'clinical', 'application', 'result', 'proficiency', 'artificial', 'intelligent', 'technique', 'explored', 'field', 'medicine', 'artificial', 'neural', 'network', 'commonly', 'analytical', 'tool', 'whilst', 'artificial', 'intelligent', 'technique', 'fuzzy', 'expert', 'evolutionary', 'computation', 'hybrid', 'intelligent', 'different', 'clinical', 'setting', 'discussion', 'artificial', 'intelligence', 'technique', 'potential', 'applied', 'field', 'medicine', 'need', 'clinical', 'trial', 'appropriately', 'designed', 'emergent', 'technique', 'application', 'clinical', 'setting']</t>
+  </si>
+  <si>
+    <t>x1: 0.22|x2: 0.00|x3: 0.26|x4: 0.11|x5: 0.16|x6: 0.12|x7: 0.00|x8: 0.10|x9: 0.16|x10: 0.00|x11: 0.19|x12: 0.00|x13: 0.18|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.26]</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>['objective', 'introduce', 'summarize', 'current', 'research', 'field', 'public', 'health', 'epidemiology', 'informatics', 'method', 'literature', 'concerning', 'public', 'health', 'epidemiology', 'informatics', 'searched', 'pubmed', 'science', 'returned', 'reference', 'reviewed', 'section', 'editor', 'select', 'candidate', 'best', 'paper', 'paper', 'peerreviewed', 'external', 'reviewer', 'provide', 'editorial', 'team', 'enlightened', 'vision', 'select', 'best', 'paper', 'result', 'reference', 'retrieved', 'pubmed', 'science', 'finally', 'selected', 'best', 'paper', 'analyzes', 'relationship', 'disease', 'social', 'mass', 'public', 'emotion', 'understand', 'public', 'overreaction', 'leading', 'noticeable', 'reduction', 'social', 'economic', 'activity', 'context', 'nationwide', 'outbreak', 'middle', 'east', 'respiratory', 'syndrome', 'mers', 'korea', 'second', 'paper', 'concern', 'methodology', 'deidentify', 'patient', 'note', 'electronic', 'health', 'record', 'based', 'artificial', 'neural', 'network', 'outperformed', 'existing', 'method', 'conclusion', 'surveillance', 'productive', 'topic', 'public', 'health', 'informatics', 'important', 'topic', 'public', 'health', 'appearing', 'example', 'artificial', 'intelligence', 'approach', 'increasing']</t>
+  </si>
+  <si>
+    <t>x1: 0.15|x2: 0.00|x3: 0.39|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.00|x8: 0.10|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.28|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 11, 12]</t>
+  </si>
+  <si>
+    <t>['optical', 'microscope', 'widely', 'tool', 'diagnosing', 'infectious', 'disease', 'developing', 'world', 'reliance', 'trained', 'microscopist', 'field', 'microscopy', 'suffers', 'poor', 'sensitivity', 'specificity', 'reproducibility', 'goal', 'work', 'called', 'autoscope', 'lowcost', 'automated', 'digital', 'microscope', 'coupled', 'vision', 'classification', 'algorithm', 'accurately', 'diagnose', 'variety', 'infectious', 'disease', 'targeting', 'usecases', 'developing', 'world', 'initial', 'target', 'malaria', 'difficulty', 'task', 'manual', 'microscopy', 'currently', 'central', 'highly', 'imperfect', 'tool', 'malaria', 'work', 'field', 'addition', 'diagnosis', 'algorithm', 'performs', 'specie', 'identification', 'quantitation', 'parasite', 'load', 'parameter', 'critical', 'field', 'application', 'effectively', 'rapid', 'diagnostic', 'test', 'rdts']</t>
+  </si>
+  <si>
+    <t>x1: 0.41|x2: 0.00|x3: 0.41|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.13|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['background', 'study', 'validate', 'fetal', 'medicine', 'foundation', 'multiple', 'logistic', 'regression', 'algorithm', 'prediction', 'risk', 'preeclampsia', 'australian', 'population', 'model', 'predicts', 'risk', 'population', 'rate', 'preeclampsia', 'variety', 'demographic', 'factor', 'mean', 'maternal', 'arterial', 'blood', 'pressure', 'uterine', 'artery', 'plasma', 'protein', 'pappa', 'shown', 'predict', 'earlyonset', 'preeclampsia', 'delivery', 'prior', 'week', 'woman', 'falsepositive', 'rate', 'method', 'woman', 'attended', 'trimester', 'screening', 'royal', 'prince', 'alfred', 'hospital', 'body', 'mass', 'assessed', 'addition', 'factor', 'traditionally', 'aneuploidy', 'including', 'pappa', 'delivery', 'risk', 'earlyonset', 'delivery', 'prior', 'week', 'preeclampsia', 'late', 'preeclampsia', 'gestational', 'hypertension', 'calculated', 'risk', 'algorithm', 'result', 'woman', 'screened', 'delivered', 'locally', 'woman', 'perform', 'preeclampsia', 'screening', 'available', 'included', 'woman', 'live', 'risk', 'early', 'preeclampsia', 'calculated', 'woman', 'delivered', 'week', 'early', 'preeclampsia', 'prevalence', 'early', 'preeclampsia', 'pregnancy', 'risk', 'generated', 'maternal', 'history', 'pappa', 'detected', 'early', 'preeclampsia', 'falsepositive', 'rate', 'respectively', 'conclusion', 'study', 'early', 'preeclampsia', 'algorithm', 'effective', 'australian', 'population']</t>
+  </si>
+  <si>
+    <t>x1: 0.30|x2: 0.00|x3: 0.26|x4: 0.00|x5: 0.42|x6: 0.00|x7: 0.00|x8: 0.26|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.10|x13: 0.00|x14: 0.15|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 8]</t>
+  </si>
+  <si>
+    <t>['identifying', 'robust', 'survival', 'subgroup', 'hepatocellular', 'carcinoma', 'significantly', 'improve', 'patient', 'care', 'currently', 'endeavor', 'integrating', 'multiomics', 'explicitly', 'predict', 'survival', 'multiple', 'patient', 'cohort', 'lacking', 'present', 'deep', 'learning', 'based', 'model', 'robustly', 'differentiates', 'survival', 'subpopulation', 'patient', 'cohort', 'build', 'based', 'model', 'patient', 'rnaseq', 'mirnaseq', 'methylation', 'tcga', 'predicts', 'prognosis', 'good', 'alternative', 'model', 'genomics', 'clinical', 'considered', 'based', 'model', 'provides', 'optimal', 'subgroup', 'patient', 'significant', 'survival', 'difference', 'good', 'model', 'fitness', 'cindex', 'aggressive', 'subtype', 'associated', 'frequent', 'inactivation', 'mutation', 'higher', 'expression', 'stemness', 'marker', 'epcam', 'tumor', 'marker', 'birc', 'activated', 'signaling', 'pathway', 'validated', 'multiomics', 'model', 'external', 'datasets', 'omics', 'type', 'lirijp', 'cohort', 'cindex', 'cohort', 'cindex', 'chinese', 'cohort', 'cindex', 'etabm', 'cohort', 'cindex', 'hawaiian', 'cohort', 'cindex', 'study', 'employ', 'deep', 'learning', 'identify', 'multiomics', 'feature', 'linked', 'differential', 'survival', 'patient', 'given', 'robustness', 'multiple', 'cohort', 'expect', 'workflow', 'useful', 'predicting', 'prognosis', 'prediction']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.12|x5: 0.11|x6: 0.13|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.57|x13: 0.00|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.57]</t>
+  </si>
+  <si>
+    <t>['present', 'method', 'predicting', 'preterm', 'infant', 'inhospital', 'mortality', 'bayesian', 'gaussian', 'process', 'classification', 'combined', 'feature', 'extracted', 'sensor', 'measurement', 'hour', 'care', 'weight', 'infant', 'weight', 'standard', 'clinical', 'feature', 'calculated', 'arrival', 'neonatal', 'intensive', 'care', 'unit', 'time', 'period', 'hour', 'evaluated', 'achieved', 'classification', 'result', 'area', 'receiver', 'operating', 'characteristic', 'curve', 'excess', 'result', 'achieved', 'clinical', 'standard', 'snapii', 'snappeii', 'score']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.12|x3: 0.24|x4: 0.00|x5: 0.38|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.46|x13: 0.00|x14: 0.20|x15: 0.11|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 5, 12]</t>
+  </si>
+  <si>
+    <t>['common', 'barrier', 'healthcare', 'psychiatric', 'condition', 'stigma', 'associated', 'disorder', 'perceived', 'stigma', 'prevents', 'reporting', 'symptom', 'stigma', 'particularly', 'pervasive', 'problem', 'military', 'service', 'member', 'preventing', 'reporting', 'symptom', 'combatrelated', 'condition', 'like', 'posttraumatic', 'disorder', 'ptsd', 'research', 'reporting', 'service', 'member', 'anonymous', 'assessment', 'example', 'service', 'member', 'report', 'symptom', 'ptsd', 'anonymously', 'answer', 'postdeployment', 'health', 'assessment', 'pdha', 'symptom', 'checklist', 'compared', 'official', 'pdha', 'identifiable', 'linked', 'military', 'record', 'investigate', 'factor', 'influence', 'reporting', 'psychological', 'symptom', 'service', 'member', 'transformative', 'technology', 'automated', 'virtual', 'human', 'interview', 'symptom', 'virtual', 'human', 'interviewer', 'allow', 'simultaneous', 'technique', 'eliciting', 'disclosure', 'incompatible', 'afford', 'anonymity', 'building', 'rapport', 'examined', 'virtual', 'human', 'interviewer', 'increase', 'disclosure', 'mental', 'health', 'symptom', 'activeduty', 'service', 'member', 'returned', 'yearlong', 'deployment', 'afghanistan', 'service', 'member', 'reported', 'symptom', 'conversation', 'virtual', 'human', 'interviewer', 'official', 'pdha', 'reported', 'virtual', 'human', 'interviewer', 'anonymized', 'pdha', 'second', 'larger', 'sample', 'activeduty', 'service', 'member', 'similar', 'effect', 'approached', 'statistical', 'significance', 'respondent', 'study', 'shared', 'virtual', 'human', 'interviewer', 'anonymized', 'pdhaeven', 'condition', 'control', 'stigma', 'ramification', 'service', 'member', 'military', 'recordsvirtual', 'human', 'interviewer', 'build', 'rapport', 'provide', 'superior', 'option', 'encourage', 'reporting']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.25|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.15|x10: 0.00|x11: 0.11|x12: 0.23|x13: 0.00|x14: 0.10|x15: 0.00|x16: 0.16|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['contribution', 'provides', 'review', 'fundamental', 'goal', 'development', 'future', 'perspective', 'driver', 'assistance', 'mobility', 'fundamental', 'desire', 'mankind', 'virtually', 'society', 'strives', 'safe', 'efficient', 'mobility', 'ecological', 'economic', 'cost', 'technical', 'implementation', 'significantly', 'differs', 'society', 'depending', 'culture', 'degree', 'potential', 'evolutionary', 'roadmap', 'driver', 'assistance', 'discussed', 'emerging', 'based', 'proprioceptive', 'sensor', 'review', 'progress', 'incented', 'exteroceptive', 'sensor', 'radar', 'video', 'lidar', 'ultimate', 'goal', 'automated', 'cooperative', 'traffic', 'remains', 'vision', 'future', 'intermediate', 'step', 'realized', 'mitigate', 'avoid', 'collision', 'selected', 'driving', 'situation', 'research', 'extends', 'stateoftheart', 'automated', 'driving', 'urban', 'traffic', 'cooperative', 'driving', 'addressing', 'communication', 'collaboration', 'different', 'vehicle', 'cooperative', 'vehicle', 'operation', 'driver', 'machine', 'intelligence', 'step', 'considered', 'important', 'interim', 'period', 'reliable', 'unsupervised', 'automated', 'driving', 'conceivable', 'traffic', 'situation', 'available', 'prospective', 'evolution', 'driver', 'assistance', 'stimulated', 'technological', 'societal', 'market', 'trend', 'paper', 'close', 'view', 'current', 'research', 'field']</t>
+  </si>
+  <si>
+    <t>[11, 3]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.41|x10: 0.19|x11: 0.10|x12: 0.00|x13: 0.14|x14: 0.14|x15: 0.00|x16: 0.18|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['discussion', 'woman', 'access', 'digital', 'information', 'communication', 'technology', 'developing', 'country', 'inconclusive', 'claim', 'woman', 'technophobic', 'better', 'user', 'digital', 'tool', 'argue', 'woman', 'embrace', 'digital', 'communication', 'article', 'question', 'empirical', 'test', 'analyze', 'latin', 'american', 'african', 'country', 'believed', 'extensive', 'empirical', 'study', 'field', 'result', 'surprisingly', 'consistent', 'revealing', 'reason', 'fewer', 'woman', 'access', 'direct', 'result', 'unfavorable', 'condition', 'respect', 'employment', 'education', 'income', 'controlling', 'variable', 'woman', 'turn', 'active', 'user', 'digital', 'tool', 'turn', 'alleged', 'digital', 'gender', 'divide', 'opportunity', 'given', 'woman', 'affinity', 'given', 'digital', 'technology', 'tool', 'improve', 'living', 'condition', 'represent', 'concrete', 'tangible', 'opportunity', 'tackle', 'longstanding', 'challenge', 'gender', 'inequality', 'developing', 'country', 'including', 'access', 'employment', 'income', 'education', 'health', 'service']</t>
+  </si>
+  <si>
+    <t>x1: 0.23|x2: 0.00|x3: 0.26|x4: 0.13|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.38|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.10|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['intelligent', 'tutoring', 'program', 'model', 'learner', 'psychological', 'state', 'provide', 'individualized', 'instruction', 'developed', 'diverse', 'subject', 'area', 'algebra', 'medicine', 'reading', 'help', 'learner', 'acquire', 'domainspecific', 'cognitive', 'metacognitive', 'knowledge', 'metaanalysis', 'conducted', 'research', 'compared', 'outcome', 'student', 'learning', 'learning', 'nonits', 'learning', 'environment', 'metaanalysis', 'examined', 'effect', 'size', 'varied', 'type', 'type', 'comparison', 'treatment', 'received', 'learner', 'type', 'learning', 'outcome', 'knowledge', 'learned', 'procedural', 'declarative', 'factor', 'search', 'major', 'bibliographic', 'database', 'effect', 'size', 'involving', 'participant', 'extracted', 'analyzed', 'associated', 'greater', 'achievement', 'comparison', 'teacherled', 'largegroup', 'instruction', 'nonits', 'computerbased', 'instruction', 'textbook', 'workbook', 'significant', 'difference', 'learning', 'learning', 'individualized', 'human', 'tutoring', 'smallgroup', 'instruction', 'significant', 'positive', 'mean', 'effect', 'size', 'regardless', 'principal', 'mean', 'instruction', 'supplement', 'teacherled', 'instruction', 'integral', 'component', 'teacherled', 'instruction', 'homework', 'significant', 'positive', 'effect', 'size', 'level', 'education', 'subject', 'domain', 'evaluated', 'provided', 'feedback', 'modeled', 'student', 'misconception', 'claim', 'relatively', 'effective', 'tool', 'learning', 'consistent', 'analysis', 'potential', 'publication', 'bias']</t>
+  </si>
+  <si>
+    <t>x1: 0.17|x2: 0.00|x3: 0.12|x4: 0.52|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.11|x14: 0.14|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['long', 'research', 'tradition', 'focused', 'information', 'communication', 'technology', 'development', 'explore', 'role', 'artificial', 'intelligence', 'start', 'technical', 'review', 'characteristic', 'trait', 'deep', 'learning', 'technology', 'lead', 'natural', 'metaphor', 'international', 'development', 'based', 'empirical', 'evidence', 'study', 'derive', 'characteristic', 'align', 'technological', 'trait', 'isolation', 'present', 'plethora', 'opportunity', 'contribute', 'international', 'development', 'especially', 'attainment', 'sustainable', 'development', 'goal', 'sdgs', 'combination', 'create', 'clear', 'tension', 'looming', 'threat', 'hegemonic', 'intelligence', 'indoctrination', 'pushed', 'global', 'economy', 'scale', 'potential', 'promise', 'honor', 'celebrate', 'local', 'diversity', 'help', 'flexible', 'design', 'conclude', 'achieved', 'active', 'public', 'policy', 'dialogue', 'international', 'level', 'effort', 'national', 'level', 'especially', 'developing', 'country', 'study', 'provides', 'terminology', 'concept', 'identify', 'frame', 'arising', 'discussion']</t>
+  </si>
+  <si>
+    <t>x1: 0.13|x2: 0.00|x3: 0.12|x4: 0.15|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.44|x10: 0.00|x11: 0.00|x12: 0.09|x13: 0.23|x14: 0.00|x15: 0.17|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['protecting', 'world', 'freshwater', 'resource', 'requires', 'diagnosing', 'threat', 'broad', 'range', 'scale', 'fromglobal', 'local', 'present', 'worldwide', 'synthesis', 'jointly', 'consider', 'human', 'biodiversity', 'perspective', 'water', 'security', 'spatial', 'framework', 'quantifies', 'multiple', 'stressor', 'account', 'downstream', 'impact', 'nearly', 'world', 'population', 'exposed', 'level', 'threat', 'water', 'security', 'massive', 'investment', 'water', 'technology', 'enables', 'rich', 'offset', 'stressor', 'level', 'remedying', 'underlying', 'cause', 'wealthy', 'remain', 'vulnerable', 'similar', 'lack', 'precautionary', 'investment', 'jeopardizes', 'biodiversity', 'habitat', 'associated', 'continental', 'discharge', 'classified', 'moderately', 'highly', 'threatened', 'cumulative', 'threat', 'framework', 'offer', 'tool', 'prioritizing', 'policy', 'management', 'response', 'crisis', 'underscore', 'necessity', 'limiting', 'threat', 'source', 'instead', 'costly', 'remediation', 'symptom', 'order', 'assure', 'global', 'water', 'security', 'human', 'freshwater', 'biodiversity']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.23|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.39|x14: 0.40|x15: 0.35|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['storytelling', 'negative', 'connotation', 'science', 'narrative', 'format', 'communication', 'disregarded', 'communicating', 'science', 'nonexpert', 'audience', 'narrative', 'offer', 'comprehension', 'engagement', 'nonexperts', 'science', 'information', 'mass', 'content', 'biased', 'narrative', 'format', 'narrative', 'intrinsically', 'persuasive', 'offer', 'science', 'communicator', 'tactic', 'persuading', 'resistant', 'audience', 'raise', 'ethical', 'consideration', 'future', 'intersection', 'narrative', 'research', 'ongoing', 'discussion', 'science', 'communication', 'introduced']</t>
+  </si>
+  <si>
+    <t>x1: 0.18|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.47|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.08|x14: 0.12|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 6, 9]</t>
+  </si>
+  <si>
+    <t>['reliable', 'economic', 'livelihood', 'remain', 'scarce', 'developing', 'world', 'hampering', 'effort', 'study', 'outcome', 'design', 'policy', 'improve', 'demonstrate', 'accurate', 'inexpensive', 'scalable', 'method', 'estimating', 'consumption', 'expenditure', 'asset', 'wealth', 'highresolution', 'satellite', 'imagery', 'survey', 'satellite', 'african', 'uganda', 'malawi', 'rwandawe', 'convolutional', 'neural', 'network', 'trained', 'identify', 'image', 'feature', 'explain', 'variation', 'locallevel', 'economic', 'outcome', 'method', 'requires', 'publicly', 'available', 'transform', 'effort', 'track', 'target', 'poverty', 'developing', 'country', 'demonstrates', 'powerful', 'machine', 'learning', 'technique', 'applied', 'setting', 'limited', 'training', 'suggesting', 'broad', 'potential', 'application', 'scientific', 'domain']</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.40|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.24|x10: 0.00|x11: 0.00|x12: 0.10|x13: 0.27|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[4, 8, 9, 13]</t>
+  </si>
+  <si>
+    <t>['today', 'standard', 'tablet', 'device', 'posse', 'equivalent', 'processing', 'power', 'desktop', 'nasa', 'space', 'shuttle', 'programme', 'storing', 'cost', 'today', 'cost', 'approximately', 'human', 'genome', 'sequenced', 'took', 'decade', 'cost', 'today', 'genome', 'sequenced', 'hour', 'thousand', 'dollar', 'appeared', 'apple', 'founder', 'steve', 'enabled', 'outside', 'developer', 'create', 'application', 'iphone', 'today', 'decade', 'later', 'economy', 'worth', 'trillion', 'revenue', 'global', 'pharmaceutical', 'market', 'whatsapp', 'created', 'sends', 'message', 'news', 'celebrity', 'gossip', 'quality', 'travel', 'fast', 'globally', 'forum', 'termed', 'period', 'accelerating', 'innovation', 'science', 'technology', 'transformative', 'change', 'technology', 'capability', 'combined', 'merging', 'digital', 'physical', 'biological', 'realm', 'impact', 'society', 'fourth', 'industrial', 'revolution', 'transforming', 'social', 'network', 'scientific', 'research', 'radically', 'reshaping', 'agenda', 'industry', 'government', 'international', 'community', 'fourth', 'industrial', 'revolution', 'reshaping', 'healthcare', 'mobility', 'education', 'worldwide', 'reshape', 'environmental', 'community', 'related', 'institution', 'work', 'scientist', 'tell', 'facing', 'urgent', 'global', 'environmental', 'challenge', 'despite', 'international', 'environmental', 'agreement', 'established', 'environmental', 'professional', 'aware', 'complacent', 'policybased', 'institutional', 'approach', 'worked', 'necessary', 'longer', 'appear', 'sufficient', 'manage', 'growing', 'environmental', 'challenge', 'goal', 'target', 'sound', 'ability', 'deliver', 'environmental', 'outcome', 'required', 'need', 'augmented', 'result', 'increasing', 'great', 'potential', 'exploring', 'science', 'technology', 'innovation', 'driving', 'fourth', 'industrial', 'revolution', 'applied', 'improving', 'environmental', 'natural', 'resource', 'management', 'arrangement', 'includes', 'technology', 'innovation', 'able', 'imagine', 'technology', 'starting', 'transform', 'look', 'health', 'surely', 'harnessed', 'help', 'transform', 'look', 'environment', 'example', 'wearable', 'tech', 'measuring', 'heart', 'rate', 'quality', 'breathe', 'growing', 'realization', 'rapid', 'advance', 'science', 'technology', 'unintended', 'negative', 'consequence', 'nature', 'need', 'recognized', 'avoided', 'technology', 'come', 'need', 'improved', 'agile', 'governance', 'fourth', 'industrial', 'revolution', 'fully', 'sustainable', 'industrial', 'revolution', 'effective', 'enabling', 'environment', 'approach', 'help', 'government', 'create', 'smart', 'safeguard', 'protocol', 'policy', 'effective', 'oversight', 'recourse', 'mechanism', 'need', 'place', 'avoid', 'unintended', 'consequence', 'ensure', 'society', 'nature', 'benefit', 'revolution', 'example', 'wearable', 'sensor', 'measure', 'quality', 'breathe', 'control', 'access', 'collected', 'government', 'civil', 'society', 'industry', 'important', 'role', 'play', 'help', 'answer', 'question', 'develop', 'principle', 'usage', 'guideline', 'mean', 'bringing', 'stakeholder', 'codevelop', 'science', 'technology', 'development', 'needed', 'need', 'help', 'better', 'understand', 'manage', 'nature', 'environment', 'avoid', 'creating', 'negative', 'unforeseen', 'outcome', 'focus', 'developing', 'policy', 'principle', 'alongside', 'interact', 'acceleration', 'programme', 'promote', 'innovation', 'wider', 'deployment', 'science', 'technology', 'environmental', 'management', 'heart', 'challenge', 'practical', 'term', 'environmental', 'sector', 'helped', 'harness', 'science', 'technology', 'revolution', 'reshaping', 'wider', 'economy', 'society', 'current', 'arrangement', 'enhanced', 'better', 'manage', 'environmental', 'sustain', 'planet', 'earth', 'given', 'increasing', 'pressure', 'nature', 'face', 'human', 'activity', 'time', 'policy', 'principle', 'protocol', 'developed', 'environmental', 'sector', 'risk', 'technology', 'individual', 'society', 'environment', 'minimized', 'opportunity', 'maximized']</t>
+  </si>
+  <si>
+    <t>x1: 0.14|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.13|x9: 0.30|x10: 0.09|x11: 0.00|x12: 0.25|x13: 0.13|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 9, 12, 14]</t>
+  </si>
+  <si>
+    <t>['robot', 'technology', 'task', 'previously', 'performed', 'labor', 'increasing', 'concern', 'future', 'wage', 'analyze', 'effect', 'increase', 'industrial', 'robot', 'usage', 'local', 'labor', 'market', 'model', 'robot', 'compete', 'human', 'labor', 'production', 'different', 'task', 'robot', 'reduce', 'employment', 'wage', 'local', 'labor', 'market', 'effect', 'robot', 'estimated', 'regressing', 'change', 'employment', 'wage', 'exposure', 'robot', 'local', 'labor', 'marketdefined', 'national', 'penetration', 'robot', 'industry', 'local', 'distribution', 'employment', 'industry', 'approach', 'estimate', 'large', 'robust', 'negative', 'effect', 'robot', 'employment', 'wage', 'commuting', 'zone', 'bolster', 'evidence', 'showing', 'commuting', 'zone', 'exposed', 'robot', 'post', 'exhibit', 'differential', 'trend', 'impact', 'robot', 'distinct', 'impact', 'import', 'china', 'mexico', 'decline', 'routine', 'offshoring', 'type', 'capital', 'capital', 'stock', 'fact', 'exposure', 'robot', 'weakly', 'correlated', 'variable', 'according', 'estimate', 'robot', 'thousand', 'worker', 'reduces', 'employment', 'population', 'ratio', 'percentage', 'point', 'wage', 'percent']</t>
+  </si>
+  <si>
+    <t>x1: 0.10|x2: 0.23|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.31|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.21|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[2, 3, 8, 14]</t>
+  </si>
+  <si>
+    <t>['time', 'finally', 'come', 'artificial', 'intelligence', 'period', 'hype', 'followed', 'winter', 'past', 'today', 'announcement', 'technical', 'breakthrough', 'enabling', 'superhuman', 'performance', 'machine', 'follow', 'rapid', 'succession', 'power', 'realworld', 'application', 'ranging', 'facial', 'recognition', 'language', 'translator', 'assistant', 'like', 'siri', 'alexa', 'barely', 'notice', 'consumer', 'application', 'company', 'sector', 'increasingly', 'harnessing', 'power', 'operation', 'embracing', 'promise', 'considerable', 'benefit', 'business', 'economy', 'contribution', 'productivity', 'growth', 'innovation', 'adopter', 'starting', 'reap', 'benefit', 'adoption', 'relatively', 'early', 'stage', 'uneven', 'readiness', 'varies', 'widely', 'company', 'sector', 'country', 'time', 'impact', 'work', 'profound', 'occupation', 'demand', 'skill', 'decline', 'grow', 'change', 'work', 'alongside', 'everevolving', 'increasingly', 'capable', 'machine', 'scenario', 'developed', 'suggest', 'created', 'lost', 'automation', 'transition', 'disruptive', 'occupation', 'skill', 'requirement', 'shift', 'significantly', 'potential', 'contribute', 'tackling', 'pressing', 'societal', 'challenge', 'healthcare', 'climate', 'change', 'humanitarian', 'crisis', 'introduce', 'exacerbate', 'social', 'challenge', 'misuse', 'challenge', 'related', 'bias', 'privacy', 'cybersecurity', 'given', 'economic', 'benefit', 'policy', 'maker', 'business', 'leader', 'embrace', 'place', 'measure', 'facilitate', 'adoption', 'soften', 'disruptive', 'transition', 'accompany', 'place', 'focus', 'responsible', 'briefing', 'note', 'draw', 'ongoing', 'research', 'mckinsey', 'global', 'institute', 'technology', 'limitation', 'impact', 'concludes', 'issue', 'policy', 'maker', 'business', 'leader', 'need', 'address', 'list', 'main', 'source', 'note', 'suggestion', 'reading', 'appear']</t>
+  </si>
+  <si>
+    <t>[12, 8]</t>
+  </si>
+  <si>
+    <t>x1: 0.12|x2: 0.00|x3: 0.15|x4: 0.10|x5: 0.14|x6: 0.00|x7: 0.09|x8: 0.18|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['recent', 'revival', 'concern', 'automation', 'digitalisation', 'result', 'jobless', 'future', 'debate', 'fuelled', 'study', 'europe', 'arguing', 'substantial', 'risk', 'computerisation', 'study', 'follow', 'occupationbased', 'approach', 'proposed', 'frey', 'osborne', 'assume', 'occupation', 'single', 'jobtasks', 'automated', 'technology', 'argue', 'lead', 'overestimation', 'automatibility', 'occupation', 'labelled', 'highrisk', 'occupation', 'contain', 'substantial', 'task', 'hard', 'automate', 'paper', 'serf', 'purpose', 'firstly', 'estimate', 'automatibility', 'oecd', 'country', 'based', 'taskbased', 'approach', 'contrast', 'study', 'account', 'heterogeneity', 'worker', 'task', 'occupation', 'overall', 'oecd', 'country', 'automatable', 'threat', 'technological', 'advance', 'pronounced', 'compared', 'occupationbased', 'approach', 'heterogeneity', 'oecd', 'country', 'instance', 'automatable', 'korea', 'corresponding', 'austria', 'difference', 'country', 'reflect', 'general', 'difference', 'workplace', 'organisation', 'difference', 'previous', 'investment', 'automation', 'technology', 'difference', 'education', 'worker', 'country', 'second', 'purpose', 'paper', 'critically', 'reflect', 'recent', 'study', 'generate', 'figure', 'risk', 'computerisation', 'provide', 'comprehensive', 'discussion', 'possible', 'adjustment', 'process', 'firm', 'worker', 'automation', 'digitalisation', 'particular', 'argue', 'estimated', 'risk', 'equated', 'actual', 'expected', 'employment', 'loss', 'technological', 'advance', 'reason', 'utilisation', 'technology', 'slow', 'process', 'economic', 'legal', 'societal', 'hurdle', 'technological', 'substitution', 'place', 'expected', 'second', 'technology', 'introduced', 'worker', 'adjust', 'changing', 'technological', 'endowment', 'switching', 'task', 'preventing', 'technological', 'unemployment', 'technological', 'change', 'generates', 'additional', 'demand', 'technology', 'higher', 'competitiveness', 'main', 'conclusion', 'paper', 'automation', 'digitalisation', 'unlikely', 'destroy', 'large', 'number', 'qualified', 'worker', 'bear', 'brunt', 'adjustment', 'cost', 'automatibility', 'higher', 'compared', 'highly', 'qualified', 'worker', 'challenge', 'future', 'coping', 'rising', 'inequality', 'ensuring', 'sufficient', 'retraining', 'especially', 'qualified', 'worker']</t>
+  </si>
+  <si>
+    <t>x1: 0.10|x2: 0.15|x3: 0.28|x4: 0.13|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.10|x14: 0.09|x15: 0.00|x16: 0.00|x17: 0.00</t>
   </si>
   <si>
     <t>[3, 8, 9]</t>
   </si>
   <si>
-    <t>['significant', 'advances', 'smart', 'decision', 'support', 'systems', 'dsss', 'development', 'influenced', 'important', 'results', 'pregnancy', 'care', 'considering', 'efforts', 'reduce', 'number', 'women', 'deaths', 'problems', 'related', 'pregnancy', 'decrease', 'presented', 'impact', 'areas', 'human', 'development', 'hypertensive', 'disorders', 'pregnancy', 'particularly', 'eclampsia', 'eclampsia', 'account', 'significant', 'proportion', 'perinatal', 'morbidity', 'maternal', 'mortality', 'context', 'paper', 'proposes', 'inference', 'model', 'uses', 'mining', 'techniques', 'capable', 'operating', 'extract', 'patterns', 'assist', 'knowledge', 'discovery', 'identifying', 'hypertensive', 'crises', 'complicate', 'pregnancy', 'impact', 'meaningful', 'reduction', 'incidence', 'sequelae', 'death', 'pregnant', 'women', 'comparison', 'bayesian', 'classifiers', 'performed', 'work', 'better', 'classify', 'hypertensive', 'disorders', 'severity', 'results', 'showed', 'naive', 'bayes', 'classifier', 'excellent', 'performance', 'presenting', 'better', 'precision', 'measure', 'compared', 'experimented', 'classifiers', 'finding', 'good', 'performance', 'predict', 'hypertensive', 'disorders', 'bayesian', 'methods', 'need', 'evaluated', 'techniques', 'based', 'artificial', 'intelligence', 'tree', 'based', 'methods']</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.77|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.25|x10: 0.12|x11: 0.16|x12: 0.00|x13: 0.24|x14: 0.13|x15: 0.00|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.77]</t>
-  </si>
-  <si>
-    <t>[3, 8, 9, 13]</t>
-  </si>
-  <si>
-    <t>['increases', 'throughput', 'installed', 'base', 'biomedical', 'research', 'equipment', 'massive', 'accumulation', 'omics', 'known', 'highly', 'variable', 'dimensional', 'sourced', 'multiple', 'incompatible', 'platforms', 'useful', 'biomarker', 'identification', 'drug', 'discovery', 'bulk', 'remains', 'underutilized', 'deep', 'neural', 'networks', 'dnns', 'efficient', 'algorithms', 'based', 'compositional', 'layers', 'neurons', 'advantages', 'matched', 'challenges', 'omics', 'presents', 'achieving', 'state', 'results', 'surpassing', 'human', 'accuracy', 'challenging', 'tasks', 'adoption', 'deep', 'learning', 'biomedicine', 'comparatively', 'slow', 'discuss', 'features', 'deep', 'learning', 'approach', 'edge', 'machine', 'learning', 'methods', 'consider', 'limitations', 'review', 'number', 'applications', 'deep', 'learning', 'biomedical', 'studies', 'demonstrating', 'proof', 'concept', 'practical', 'utility']</t>
-  </si>
-  <si>
-    <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.54|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.54]</t>
-  </si>
-  <si>
-    <t>[1, 4, 5, 16]</t>
-  </si>
-  <si>
-    <t>['fuzzy', 'logic', 'control', 'developed', 'hamburg', 'university', 'applied', 'sciences', 'hamburg', 'operation', 'biogas', 'reactors', 'running', 'energy', 'crops', 'commercially', 'available', 'measuring', 'parameters', 'methane', 'content', 'specific', 'production', 'rate', 'spec', 'included', 'objective', 'avoid', 'stabilization', 'buffering', 'supplements', 'like', 'lime', 'manure', 'developed', 'cover', 'applications', 'careful', 'start', 'process', 'gentle', 'recovery', 'strategy', 'severe', 'reactor', 'failure', 'enabling', 'process', 'organic', 'loading', 'rate', 'hydraulic', 'retention', 'time', 'throughput', 'anaerobic', 'digestion', 'process', 'stable', 'content', 'precondition', 'load', 'process', 'concept', 'interval', 'feeding', 'example', 'interval', 'proved', 'reliable', 'long', 'term', 'fermentation', 'studies', 'years', 'stage', 'completely', 'stirred', 'tank', 'reactors', 'cstr', 'acidic', 'beet', 'silage', 'mono', 'input', 'fermentation', 'fodder', 'beet', 'silage', 'stable', 'days', 'volumetric', 'reached', 'enabled', 'automatic', 'recovery', 'digester', 'induced', 'severe', 'reactor', 'failures', 'attempt', 'prove', 'feasibility', 'substrate', 'changed', 'sugar', 'beet', 'silage', 'substantially', 'buffering', 'capacity', 'accomplished', 'stable', 'fermentation', 'level', 'volatile', 'fatty', 'acid', 'level', 'interact', 'change', 'substrate', 'dosage', 'permanently', 'experiment', 'reactor', 'temperature', 'concomitantly', 'specific', 'dropped', 'finally', 'automatically', 'enabled', 'complete', 'recovery', 'days']</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.00|x3: 0.17|x4: 0.26|x5: 0.00|x6: 0.21|x7: 0.00|x8: 0.26|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.32|x14: 0.15|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.32]</t>
-  </si>
-  <si>
-    <t>[4, 6, 8, 9, 12, 13]</t>
-  </si>
-  <si>
-    <t>['intuitionistic', 'fuzzy', 'sets', 'ifss', 'generalization', 'fuzzy', 'sets', 'adding', 'additional', 'attribute', 'parameter', 'called', 'membership', 'degree', 'paper', 'intuitionistic', 'fuzzy', 'hopfield', 'neural', 'network', 'ifhnn', 'proposed', 'combining', 'ifss', 'hopfield', 'neural', 'networks', 'stability', 'ifhnn', 'investigated', 'shown', 'given', 'weight', 'matrix', 'given', 'initial', 'intuitionistic', 'fuzzy', 'pattern', 'iteration', 'process', 'ifhnn', 'converges', 'limit', 'cycle', 'furthermore', 'suitable', 'extra', 'conditions', 'converges', 'stable', 'point', 'finite', 'iterations', 'finally', 'kind', 'lyapunov', 'stability', 'stable', 'points', 'ifhnn', 'proved', 'means', 'initial', 'state', 'network', 'close', 'stable', 'point', 'network', 'states', 'remain', 'neighborhood', 'stable', 'point', 'stability', 'results', 'indicate', 'convergence', 'memory', 'process', 'ifhnn', 'numerical', 'example', 'provided', 'effectiveness', 'lyapunov', 'stability', 'ifhnn']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.43|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.30|x9: 0.35|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.41|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 8, 9, 13]</t>
-  </si>
-  <si>
-    <t>['reduction', 'environmental', 'pollution', 'conservation', 'recycling', 'natural', 'resources', 'significant', 'social', 'environmental', 'concerns', 'valuable', 'means', 'pollution', 'control', 'minimization', 'mitigation', 'remain', 'attractive', 'approaches', 'interactive', 'dynamic', 'uncertain', 'features', 'associated', 'processes', 'resulting', 'difficulties', 'management', 'control', 'artificial', 'intelligence', 'effective', 'approach', 'tackling', 'complexities', 'study', 'recent', 'advancements', 'based', 'technologies', 'management', 'control', 'pollution', 'minimization', 'mitigation', 'processes', 'examined', 'literature', 'relevant', 'area', 'application', 'control', 'management', 'pollution', 'minimization', 'mitigation', 'processes', 'investigated', 'especially', 'technologies', 'expert', 'systems', 'fuzzy', 'logic', 'neural', 'networks', 'emerge', 'frequently', 'employed', 'approaches', 'realizing', 'process', 'control', 'highlighted', 'results', 'provide', 'overview', 'updated', 'progress', 'study', 'field', 'importantly', 'reveal', 'perspectives', 'research', 'effective', 'environmental', 'process', 'control', 'aided', 'measures', 'demanding', 'areas', 'enhanced', 'research', 'efforts', 'discussed', 'including', 'issues', 'availability', 'reliability', 'methodology', 'validity', 'complexity']</t>
-  </si>
-  <si>
-    <t>x1: 0.21|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.13|x9: 0.14|x10: 0.13|x11: 0.00|x12: 0.00|x13: 0.56|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 6, 13, 14]</t>
-  </si>
-  <si>
-    <t>['work', 'aided', 'tool', 'detection', 'developed', 'segment', 'breast', 'masses', 'clinical', 'ultrasound', 'scans', 'underlying', 'multi', 'algorithm', 'based', 'convolutional', 'neural', 'networks', 'mayo', 'clinic', 'institutional', 'review', 'board', 'protocol', 'prospective', 'study', 'automatic', 'segmentation', 'suspicious', 'breast', 'masses', 'performed', 'cohort', 'consisted', 'female', 'patients', 'clinically', 'identified', 'suspicious', 'breast', 'masses', 'underwent', 'clinical', 'scan', 'breast', 'biopsy', 'aided', 'detection', 'tool', 'effectively', 'segmented', 'breast', 'masses', 'achieving', 'mean', 'dice', 'coefficient', 'true', 'positive', 'fraction', 'false', 'positive', 'fraction', 'avoiding', 'positioning', 'initial', 'seed', 'algorithm', 'able', 'segment', 'images', 'time', 'image', 'potential', 'clinical', 'applications', 'algorithm', 'conventional', 'seeded', 'algorithm', 'mean', 'dice', 'coefficient', 'performs', 'significantly', 'better', 'original', 'algorithm']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.35|x3: 0.23|x4: 0.34|x5: 0.30|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.20|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 12, 13]</t>
-  </si>
-  <si>
-    <t>['coronary', 'artery', 'calcification', 'strong', 'independent', 'predictor', 'cardiovascular', 'events', 'clinically', 'quantified', 'cardiac', 'calcium', 'scoring', 'csct', 'shown', 'cardiac', 'angiography', 'ccta', 'purpose', 'present', 'method', 'automatic', 'quantification', 'ccta', 'method', 'uses', 'supervised', 'learning', 'directly', 'identify', 'quantify', 'need', 'coronary', 'artery', 'extraction', 'commonly', 'existing', 'methods']</t>
-  </si>
-  <si>
-    <t>x1: 0.60|x2: 0.00|x3: 0.27|x4: 0.16|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.12|x14: 0.00|x15: 0.35|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.60]</t>
-  </si>
-  <si>
-    <t>[1, 3, 15]</t>
-  </si>
-  <si>
-    <t>['automatic', 'license', 'plate', 'recognition', 'plays', 'important', 'role', 'numerous', 'applications', 'number', 'techniques', 'proposed', 'worked', 'restricted', 'conditions', 'fixed', 'illumination', 'limited', 'vehicle', 'speed', 'designated', 'routes', 'stationary', 'backgrounds', 'study', 'constraints', 'possible', 'working', 'environment', 'considered', 'proposed', 'technique', 'consists', 'main', 'modules', 'license', 'plate', 'locating', 'module', 'license', 'number', 'identification', 'module', 'characterized', 'fuzzy', 'disciplines', 'attempts', 'extract', 'license', 'plates', 'input', 'image', 'conceptualized', 'terms', 'neural', 'subjects', 'aims', 'identify', 'number', 'present', 'license', 'plate', 'experiments', 'conducted', 'respective', 'modules', 'experiment', 'locating', 'license', 'plates', 'images', 'taken', 'scenes', 'different', 'conditions', 'employed', 'images', 'failed', 'locate', 'license', 'plates', 'present', 'images', 'license', 'plate', 'location', 'rate', 'success', 'experiment', 'identifying', 'license', 'number', 'images', 'license', 'plates', 'successfully', 'located', 'images', 'failed', 'identify', 'numbers', 'license', 'plates', 'located', 'images', 'identification', 'rate', 'success', 'combining', 'rates', 'overall', 'rate', 'success', 'algorithm']</t>
-  </si>
-  <si>
-    <t>x1: 0.57|x2: 0.00|x3: 0.11|x4: 0.17|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.40|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.57]</t>
-  </si>
-  <si>
-    <t>[1, 8, 9]</t>
-  </si>
-  <si>
-    <t>['perception', 'design', 'vital', 'step', 'development', 'autonomous', 'vehicle', 'vast', 'selection', 'available', 'shelf', 'schemes', 'seemingly', 'endless', 'options', 'sensor', 'systems', 'implemented', 'research', 'commercial', 'vehicles', 'difficult', 'identify', 'optimal', 'application', 'article', 'presents', 'comprehensive', 'review', 'state', 'perception', 'technology', 'available', 'today', 'provides', 'date', 'information', 'advantages', 'disadvantages', 'limits', 'ideal', 'applications', 'specific', 'sensors', 'prevalent', 'sensors', 'current', 'research', 'commercial', 'autonomous', 'features', 'currently', 'market', 'localization', 'mapping', 'methods', 'currently', 'implemented', 'research', 'information', 'useful', 'newcomers', 'field', 'gain', 'greater', 'understanding', 'current', 'solution', 'landscape', 'guide', 'experienced', 'researchers', 'research', 'areas', 'requiring', 'development', 'furthermore', 'paper', 'highlights', 'future', 'research', 'areas', 'draws', 'conclusions', 'effective', 'methods', 'perception', 'effect', 'localization', 'mapping', 'topics', 'discussed', 'perception', 'automotive', 'sensors', 'section', 'focus', 'sensors', 'topics', 'discussed', 'localization', 'mapping', 'section', 'focus', 'vehicle', 'perceives', 'road', 'providing', 'context', 'automotive', 'sensors', 'improving', 'current', 'state', 'perception', 'systems', 'robust', 'reliable', 'safe', 'accessible', 'ultimately', 'providing', 'greater', 'efficiency', 'mobility', 'safety', 'benefits', 'public']</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.00|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.15|x8: 0.25|x9: 0.30|x10: 0.17|x11: 0.17|x12: 0.17|x13: 0.17|x14: 0.19|x15: 0.00|x16: 0.11|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.30]</t>
-  </si>
-  <si>
-    <t>[8, 9]</t>
-  </si>
-  <si>
-    <t>['life', 'depression', 'seventh', 'competition', 'event', 'aimed', 'comparison', 'multimedia', 'processing', 'machine', 'learning', 'methods', 'automatic', 'audiovisual', 'depression', 'emotion', 'analysis', 'participants', 'competing', 'strictly', 'conditions', 'goal', 'challenge', 'provide', 'common', 'benchmark', 'test', 'multimodal', 'information', 'processing', 'bring', 'depression', 'emotion', 'recognition', 'communities', 'audiovisual', 'processing', 'communities', 'compare', 'relative', 'merits', 'approaches', 'depression', 'emotion', 'recognition', 'life', 'paper', 'presents', 'novelties', 'introduced', 'challenge', 'guidelines', 'performance', 'baseline', 'proposed', 'tasks', 'dimensional', 'emotion', 'recognition', 'time', 'value', 'continuous', 'dimensional', 'depression', 'estimation', 'value', 'continuous']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.56|x4: 0.19|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.23|x9: 0.30|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.32|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 6, 8, 9, 13]</t>
-  </si>
-  <si>
-    <t>['mimo', 'multiple', 'inputs', 'multiple', 'outputs', 'fuzzy', 'logic', 'based', 'model', 'developed', 'predict', 'biogas', 'methane', 'production', 'rates', 'pilot', 'scale', 'mesophilic', 'flow', 'anaerobic', 'sludge', 'blanket', 'uasb', 'reactor', 'treating', 'molasses', 'wastewater', 'input', 'variables', 'volumetric', 'organic', 'loading', 'rate', 'volumetric', 'chemical', 'oxygen', 'demand', 'tcod', 'removal', 'rate', 'influent', 'alkalinity', 'influent', 'effluent', 'fuzzified', 'artificial', 'intelligence', 'based', 'approach', 'trapezoidal', 'membership', 'functions', 'levels', 'conducted', 'fuzzy', 'subsets', 'mamdani', 'type', 'fuzzy', 'inference', 'implement', 'rules', 'format', 'product', 'prod', 'centre', 'gravity', 'centroid', 'methods', 'employed', 'inference', 'operator', 'defuzzification', 'methods', 'respectively', 'fuzzy', 'logic', 'predicted', 'results', 'compared', 'outputs', 'exponential', 'linear', 'regression', 'models', 'derived', 'study', 'uasb', 'reactor', 'showed', 'remarkable', 'performance', 'treatment', 'molasses', 'wastewater', 'tcod', 'removal', 'efficiency', 'volumetric', 'tcod', 'removal', 'rate', 'tcod', 'removed', 'respectively', 'findings', 'study', 'clearly', 'indicated', 'compared', 'linear', 'regression', 'models', 'proposed', 'mimo', 'fuzzy', 'logic', 'based', 'model', 'produced', 'smaller', 'deviations', 'exhibited', 'superior', 'predictive', 'performance', 'forecasting', 'biogas', 'methane', 'production', 'rates', 'satisfactory', 'determination', 'coefficients']</t>
-  </si>
-  <si>
-    <t>x1: 0.61|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.20|x9: 0.23|x10: 0.13|x11: 0.00|x12: 0.15|x13: 0.00|x14: 0.16|x15: 0.00|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.61]</t>
-  </si>
-  <si>
-    <t>[1, 3, 8, 9]</t>
-  </si>
-  <si>
-    <t>['fuzzy', 'logic', 'model', 'developed', 'simulate', 'effect', 'leachate', 'recirculation', 'sludge', 'addition', 'biogas', 'generation', 'anaerobic', 'bioreactor', 'landfills', 'model', 'designed', 'fuzzy', 'logic', 'incorporated', 'input', 'variables', 'time', 'leachate', 'recirculation', 'sludge', 'addition', 'single', 'manipulated', 'output', 'biogas', 'generation', 'rate', 'biogas', 'production', 'rate', 'measured', 'experiment', 'increasing', 'proportionally', 'rate', 'leachate', 'recirculation', 'sludge', 'addition', 'experimental', 'work', 'involved', 'operation', 'simulated', 'laboratory', 'scale', 'bioreactors', 'different', 'operating', 'schemes', 'experimental', 'results', 'employed', 'formulating', 'fuzzy', 'rule', 'base', 'calibrating', 'model', 'verifying', 'predictions', 'model', 'validated', 'measured', 'compiled', 'published', 'studies', 'model', 'simulations', 'demonstrated', 'correlation', 'experimental', 'observations']</t>
-  </si>
-  <si>
-    <t>x1: 0.14|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.16|x6: 0.00|x7: 0.17|x8: 0.33|x9: 0.39|x10: 0.20|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.11|x15: 0.00|x16: 0.18|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['hypertension', 'main', 'cause', 'maternal', 'death', 'preeclampsia', 'affect', 'pregnant', 'women', 'pregnancy', 'identification', 'patients', 'higher', 'risk', 'preeclampsia', 'allows', 'precautions', 'taken', 'prevent', 'severe', 'disease', 'subsequent', 'complications', 'medicine', 'different', 'situations', 'deal', 'large', 'range', 'information', 'needs', 'thorough', 'assessment', 'able', 'help', 'experts', 'decision', 'making', 'process', 'smart', 'decision', 'support', 'systems', 'allow', 'grouping', 'existing', 'information', 'finding', 'pertinent', 'information', 'bayesian', 'networks', 'offer', 'models', 'allow', 'information', 'capture', 'handle', 'situations', 'uncertainty', 'paper', 'proposes', 'construction', 'support', 'intelligent', 'decision', 'applied', 'diagnosis', 'preeclampsia', 'bayesian', 'networks', 'help', 'experts', 'pregnant', 'care', 'processes', 'qualitative', 'quantitative', 'modeling', 'construction', 'network', 'presented', 'main', 'contribution', 'work', 'includes', 'presentation', 'bayesian', 'network', 'built', 'help', 'decision', 'makers', 'moments', 'uncertainty', 'care', 'pregnant', 'women']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.78|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.34|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.78]</t>
-  </si>
-  <si>
-    <t>[2, 3, 8, 9, 12]</t>
-  </si>
-  <si>
-    <t>['pregnancy', 'delicate', 'stage', 'woman', 'life', 'cycle', 'changes', 'health', 'period', 'lead', 'risk', 'pregnancy', 'risk', 'pregnancy', 'endangers', 'women', 'baby', 'health', 'life', 'hypertensive', 'disorders', 'common', 'cause', 'pregnancy', 'related', 'complications', 'present', 'major', 'challenge', 'health', 'care', 'results', 'increasing', 'maternal', 'fetal', 'death', 'exist', 'techniques', 'widely', 'mining', 'early', 'identification', 'health', 'diseases', 'better', 'treatment', 'provided', 'early', 'stage', 'early', 'identification', 'hypertensive', 'disorders', 'main', 'intent', 'paper', 'pinpoint', 'present', 'complications', 'pregnant', 'woman', 'applying', 'boosted', 'random', 'forest', 'approach', 'predicting', 'hypertensive', 'disorders', 'classification', 'method', 'helps', 'predict', 'risks', 'diagnose', 'decrease', 'maternal', 'fetal', 'mortality', 'remains', 'large', 'problem', 'developing']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.19|x3: 1.11|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 1.11]</t>
-  </si>
-  <si>
-    <t>[3, 4, 12]</t>
-  </si>
-  <si>
-    <t>['national', 'motor', 'vehicle', 'crash', 'causation', 'survey', 'nmvccs', 'conducted', 'aimed', 'collecting', 'scene', 'information', 'events', 'associated', 'factors', 'leading', 'crashes', 'involving', 'light', 'vehicles', 'facets', 'crash', 'occurrence', 'investigated', 'collection', 'precrash', 'movement', 'critical', 'crash', 'event', 'critical', 'reason', 'associated', 'factors', 'weighted', 'sample', 'crashes', 'investigated', 'period', 'years', 'represents', 'estimated', 'crashes', 'nationwide', 'vehicles', 'drivers', 'passengers', 'estimated', 'involved', 'crashes', 'critical', 'reason', 'event', 'crash', 'causal', 'chain', 'assigned', 'driver', 'percent', 'crashes', 'percent', 'crashes', 'critical', 'reason', 'assigned', 'vehicle', 'component', 'failure', 'degradation', 'percent', 'crashes', 'attributed', 'environment', 'slick', 'roads', 'weather', 'estimated', 'drivers', 'assigned', 'critical', 'reasons', 'recognition', 'errors', 'accounted', 'percent', 'decision', 'errors', 'percent', 'performance', 'errors', 'percent', 'crashes']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.36|x3: 0.36|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.60|x14: 0.00|x15: 0.37|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 13, 15]</t>
-  </si>
-  <si>
-    <t>['paper', 'surveys', 'discusses', 'application', 'derived', 'soft', 'sensing', 'techniques', 'biological', 'wastewater', 'treatment', 'plants', 'emphasis', 'given', 'extensive', 'overview', 'current', 'status', 'specific', 'challenges', 'potential', 'allow', 'effective', 'application', 'soft', 'sensors', 'scale', 'scenarios', 'soft', 'sensors', 'presented', 'studies', 'effective', 'inexpensive', 'technologies', 'extracting', 'modelling', 'relevant', 'process', 'information', 'directly', 'process', 'laboratory', 'routinely', 'acquired', 'biological', 'wastewater', 'treatment', 'facilities', 'extracted', 'information', 'timely', 'analysis', 'hard', 'measure', 'primary', 'process', 'variables', 'process', 'diagnostics', 'characterize', 'operation', 'plants', 'instrumentation', 'information', 'invaluable', 'effective', 'utilization', 'advanced', 'control', 'optimization', 'strategies']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.31|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.24|x13: 0.14|x14: 0.00|x15: 0.39|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 6, 12, 15]</t>
-  </si>
-  <si>
-    <t>['paper', 'provide', 'survey', 'applications', 'deep', 'learning', 'cancer', 'detection', 'diagnosis', 'hope', 'provide', 'overview', 'progress', 'field', 'survey', 'firstly', 'provide', 'overview', 'deep', 'learning', 'popular', 'architectures', 'cancer', 'detection', 'diagnosis', 'especially', 'present', 'popular', 'deep', 'learning', 'architectures', 'including', 'convolutional', 'neural', 'networks', 'fully', 'convolutional', 'networks', 'auto', 'encoders', 'deep', 'belief', 'networks', 'survey', 'secondly', 'provide', 'survey', 'studies', 'exploiting', 'deep', 'learning', 'cancer', 'detection', 'diagnosis', 'surveys', 'organized', 'based', 'types', 'cancers', 'thirdly', 'provide', 'summary', 'comments', 'recent', 'work', 'applications', 'deep', 'learning', 'cancer', 'detection', 'diagnosis', 'propose', 'future', 'research', 'directions']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.63|x5: 0.25|x6: 0.19|x7: 0.00|x8: 0.19|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.63]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 9, 16]</t>
-  </si>
-  <si>
-    <t>['social', 'media', 'twitter', 'provide', 'urgently', 'needed', 'drug', 'abuse', 'intelligence', 'support', 'campaign', 'fighting', 'national', 'drug', 'abuse', 'crisis', 'employed', 'targeted', 'tweet', 'collection', 'approach', 'staged', 'annotation', 'strategy', 'combines', 'conventional', 'annotation', 'crowdsourced', 'annotation', 'produce', 'annotated', 'training', 'dataset', 'demo', 'deep', 'learning', 'models', 'trained', 'boosting', 'manner', 'staged', 'annotation', 'method', 'unlabeled', 'collection', 'detect', 'drug', 'abuse', 'risk', 'behavior', 'tweets']</t>
-  </si>
-  <si>
-    <t>x1: 0.34|x2: 0.00|x3: 0.13|x4: 0.21|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.37|x9: 0.48|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.14|x15: 0.00|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 4, 8, 9]</t>
-  </si>
-  <si>
-    <t>['goal', 'research', 'project', 'combine', 'intelligent', 'decision', 'systems', 'patient', 'decisionsupport', 'tool', 'provide', 'information', 'physicians', 'nurses', 'parents', 'facing', 'difficult', 'ethical', 'decisions', 'care', 'management', 'neonatal', 'intensive', 'care', 'nicu', 'patients', 'artificial', 'intelligence', 'approaches', 'based', 'reasoning', 'artificial', 'neural', 'networks', 'provide', 'critical', 'information', 'estimates', 'likelihood', 'survival', 'duration', 'artificial', 'ventilation', 'estimates', 'addition', 'factors', 'weight', 'gestational', 'presence', 'major', 'complications', 'provide', 'eritical', 'information', 'health', 'care', 'givers', 'parents', 'decide', 'initiate', 'intensive', 'care', 'infant', 'terminate', 'initiated']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.36|x3: 0.56|x4: 0.00|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.11|x15: 0.00|x16: 0.32|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['severe', 'maternal', 'morbidity', 'public', 'health', 'issue', 'occur', 'pregnancy', 'delivery', 'puerperium', 'conditions', 'hypertensive', 'disorders', 'hemorrhages', 'infections', 'risk', 'women', 'baby', 'life', 'conditions', 'difficult', 'detect', 'early', 'stage', 'response', 'work', 'proposes', 'machine', 'learning', 'techniques', 'considered', 'relevant', 'medical', 'setting', 'order', 'predict', 'risk', 'level', 'severe', 'maternal', 'morbidity', 'patients', 'pregnancy', 'population', 'studied', 'correspond', 'pregnant', 'women', 'receiving', 'prenatal', 'care', 'attention', 'clinica', 'maternidad', 'rafael', 'calvo', 'cartagena', 'colombia', 'paper', 'presents', 'preliminary', 'results', 'ongoing', 'project', 'methods', 'materials', 'considered', 'construction', 'learning', 'models']</t>
-  </si>
-  <si>
-    <t>x1: 0.19|x2: 0.17|x3: 0.70|x4: 0.34|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.70]</t>
-  </si>
-  <si>
-    <t>[3, 4]</t>
-  </si>
-  <si>
-    <t>['background', 'misuse', 'prescription', 'opioids', 'mupo', 'leading', 'public', 'health', 'concern', 'social', 'media', 'playing', 'expanded', 'role', 'public', 'health', 'research', 'methods', 'estimating', 'established', 'epidemiological', 'metrics', 'social', 'media', 'purpose', 'study', 'demonstrate', 'geographic', 'variation', 'social', 'media', 'posts', 'mentioning', 'prescription', 'opioid', 'misuse', 'strongly', 'correlates', 'government', 'estimates', 'mupo', 'month', 'methods', 'wrote', 'software', 'acquire', 'publicly', 'available', 'tweets', 'twitter', 'contained', 'keyword', 'related', 'prescription', 'opioid', 'medical', 'toxicologist', 'emergency', 'physician', 'curated', 'list', 'keywords', 'semantic', 'distance', 'semd', 'automatically', 'quantify', 'similarity', 'meaning', 'tweets', 'identify', 'tweets', 'mentioned', 'mupo', 'defined', 'semd', 'words', 'shortest', 'distance', 'corresponding', 'word', 'centroids', 'word', 'centroid', 'represented', 'recognized', 'meanings', 'word', 'validated', 'automatic', 'identification', 'manual', 'curation', 'twitter', 'metadata', 'estimate', 'location', 'tweet', 'compared', 'estimated', 'geographic', 'distribution', 'national', 'surveys', 'drug', 'usage', 'health', 'nsduh', 'results', 'tweets', 'mentioned', 'mupo', 'formed', 'distinct', 'cluster', 'away', 'semantically', 'unrelated', 'tweets', 'state', 'bystate', 'correlation', 'twitter', 'nsduh', 'highly', 'significant', 'nsduh', 'survey', 'years', 'correlation', 'strongest', 'twitter', 'nsduh', 'aged', 'correlation', 'driven', 'discussions', 'opioid', 'controlling', 'geographic', 'variation', 'twitter', 'usage', 'conclusions', 'mentions', 'mupo', 'twitter', 'correlate', 'strongly', 'state', 'state', 'nsduh', 'estimates', 'mupo', 'demonstrated', 'natural', 'language', 'processing', 'analyze', 'social', 'media', 'provide', 'insights', 'syndromic']</t>
-  </si>
-  <si>
-    <t>x1: 0.54|x2: 0.37|x3: 0.26|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.15|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>['generating', 'novel', 'graph', 'structures', 'optimize', 'given', 'objectives', 'obeying', 'given', 'underlying', 'rules', 'fundamental', 'chemistry', 'biology', 'social', 'science', 'research', 'especially', 'important', 'task', 'molecular', 'graph', 'generation', 'goal', 'discover', 'novel', 'molecules', 'desired', 'properties', 'drug', 'likeness', 'synthetic', 'accessibility', 'obeying', 'physical', 'laws', 'chemical', 'valency', 'designing', 'models', 'molecules', 'optimize', 'desired', 'properties', 'incorporating', 'highly', 'complex', 'differentiable', 'rules', 'remains', 'challenging', 'task', 'propose', 'graph', 'convolutional', 'policy', 'network', 'gcpn', 'general', 'graph', 'convolutional', 'network', 'based', 'model', 'goaldirected', 'graph', 'generation', 'reinforcement', 'learning', 'model', 'trained', 'optimize', 'domain', 'specific', 'rewards', 'adversarial', 'loss', 'policy', 'gradient', 'acts', 'environment', 'incorporates', 'domain', 'specific', 'rules', 'experimental', 'results', 'gcpn', 'achieve', 'improvement', 'chemical', 'property', 'optimization', 'state', 'baselines', 'resembling', 'known', 'molecules', 'achieve', 'improvement', 'constrained', 'property', 'optimization', 'task']</t>
-  </si>
-  <si>
-    <t>x1: 0.14|x2: 0.00|x3: 0.00|x4: 0.47|x5: 0.29|x6: 0.00|x7: 0.14|x8: 0.15|x9: 0.17|x10: 0.16|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.24|x16: 0.25|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.47]</t>
-  </si>
-  <si>
-    <t>[4, 5, 15, 16]</t>
-  </si>
-  <si>
-    <t>['discrete', 'hidden', 'markov', 'models', 'hmms', 'applied', 'classify', 'pregnancy', 'disorders', 'observation', 'sequence', 'generated', 'transforming', 'systolic', 'blood', 'pressure', 'time', 'series', 'symbolic', 'dynamics', 'time', 'series', 'recorded', 'women', 'pregnancy', 'induced', 'hypertension', 'preeclampsia', 'controls', 'gestational', 'week', 'hmms', 'hidden', 'states', 'sufficient', 'characterize', 'different', 'blood', 'pressure', 'variability', 'significant', 'classification', 'based', 'hmms', 'hidden', 'states', 'pregnancy', 'disorders', 'preeclampsia', 'pregnancy', 'induced', 'hypertension', 'revealed', 'different', 'patho', 'physiological', 'autonomous', 'regulation', 'supposing', 'different', 'etiology', 'disorders']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.22|x3: 0.54|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.21|x8: 0.00|x9: 0.00|x10: 0.24|x11: 0.18|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.14|x16: 0.25|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 7, 10, 16]</t>
-  </si>
-  <si>
-    <t>['substance', 'abuse', 'significant', 'public', 'health', 'problem', 'united', 'states', 'group', 'based', 'intervention', 'programs', 'offer', 'promising', 'means', 'reducing', 'substance', 'abuse', 'effective', 'inappropriate', 'intervention', 'groups', 'result', 'increase', 'deviant', 'behaviors', 'participants', 'process', 'known', 'deviancy', 'training', 'paper', 'present', 'guide', 'based', 'decision', 'leverages', 'social', 'network', 'information', 'optimize', 'structure', 'intervention', 'groups']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.39|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.41|x9: 0.39|x10: 0.00|x11: 0.11|x12: 0.27|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.41]</t>
-  </si>
-  <si>
-    <t>[2, 3, 8, 9, 12, 16]</t>
-  </si>
-  <si>
-    <t>['seek', 'automate', 'design', 'molecules', 'based', 'specific', 'chemical', 'properties', 'computational', 'terms', 'task', 'involves', 'continuous', 'embedding', 'generation', 'molecular', 'graphs', 'primary', 'contribution', 'direct', 'realization', 'molecular', 'graphs', 'task', 'previously', 'approached', 'generating', 'linear', 'smiles', 'strings', 'instead', 'graphs', 'junction', 'tree', 'variational', 'autoencoder', 'generates', 'molecular', 'graphs', 'phases', 'generating', 'tree', 'structured', 'scaffold', 'chemical', 'substructures', 'combining', 'molecule', 'graph', 'message', 'passing', 'network', 'approach', 'allows', 'incrementally', 'expand', 'molecules', 'maintaining', 'chemical', 'validity', 'step', 'evaluate', 'model', 'multiple', 'tasks', 'ranging', 'molecular', 'generation', 'optimization', 'tasks', 'model', 'outperforms', 'previous', 'state', 'baselines', 'significant', 'margin']</t>
-  </si>
-  <si>
-    <t>x1: 0.22|x2: 0.21|x3: 0.00|x4: 0.19|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.26|x9: 0.34|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.37|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.37]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['cancer', 'characterized', 'heterogeneous', 'disease', 'consisting', 'different', 'subtypes', 'early', 'diag', 'nosis', 'prognosis', 'cancer', 'type', 'necessity', 'cancer', 'research', 'facilitate', 'subsequent', 'clinical', 'management', 'patients', 'importance', 'classifying', 'cancer', 'patients', 'risk', 'groups', 'research', 'teams', 'biomedical', 'bioinformatics', 'field', 'study', 'application', 'machine', 'learning', 'methods', 'techniques', 'utilized', 'model', 'progression', 'treatment', 'cancerous', 'conditions', 'addition', 'ability', 'tools', 'detect', 'features', 'complex', 'datasets', 'reveals', 'importance', 'variety', 'techniques', 'including', 'artificial', 'neural', 'networks', 'anns', 'bayesian', 'networks', 'support', 'vector', 'machines', 'svms', 'decision', 'trees', 'widely', 'applied', 'cancer', 'research', 'development', 'predictive', 'models', 'resulting', 'effective', 'accurate', 'decision', 'making', 'evident', 'methods', 'improve', 'understanding', 'cancer', 'progression', 'appropriate', 'level', 'validation', 'needed', 'order', 'methods', 'considered', 'everyday', 'clinical', 'prac', 'tice', 'work', 'present', 'review', 'recent', 'approaches', 'employed', 'modeling', 'cancer', 'progression', 'predictive', 'models', 'discussed', 'based', 'supervised', 'techniques', 'different', 'input', 'features', 'samples', 'given', 'growing', 'trend', 'application', 'methods', 'cancer', 'research', 'present', 'recent', 'publications', 'employ', 'techniques', 'model', 'cancer', 'risk', 'patient', 'outcomes']</t>
-  </si>
-  <si>
-    <t>x1: 0.29|x2: 0.00|x3: 0.44|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.19|x9: 0.22|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 9, 14]</t>
-  </si>
-  <si>
-    <t>['eclampsia', 'multi', 'disorder', 'pregnancy', 'major', 'maternal', 'perinatal', 'implications', 'emerging', 'therapeutic', 'strategies', 'maximally', 'effective', 'commenced', 'weeks', 'months', 'prior', 'clinical', 'presentation', 'disease', 'widespread', 'plasma', 'alterations', 'precede', 'clinical', 'onset', 'eclampsia', 'single', 'plasma', 'constituent', 'emerged', 'sensitive', 'specific', 'predictor', 'risk', 'consequently', 'currently', 'available', 'methods', 'identifying', 'condition', 'prior', 'clinical', 'presentation', 'limited', 'clinical', 'exploited', 'genetic', 'programming', 'powerful', 'mining', 'method', 'identify', 'patterns', 'metabolites', 'distinguish', 'plasma', 'patients', 'eclampsia', 'taken', 'healthy', 'matched', 'controls', 'resolution', 'chromatography', 'time', 'flight', 'mass', 'spectrometry', 'performed', 'plasma', 'samples', 'women', 'eclampsia', 'matched', 'controls', 'normalised', 'peak', 'genetic', 'programming', 'produce', 'model', 'gave', 'output', 'patients', 'controls', 'model', 'trained', 'generated', 'tested', 'separate', 'hold', 'model', 'generated', 'identified', 'metabolomic', 'pattern', 'produce', 'simple', 'rules', 'discriminate', 'eclampsia', 'normal', 'pregnant', 'controls', 'metabolite', 'peak', 'variables', 'sensitivity', 'specificity', 'preeclampsia', 'diagnosed', 'level', 'molecule', 'metabolism', 'blood', 'plasma', 'findings', 'justify', 'prospective', 'assessment', 'metabolomic', 'technology', 'screening', 'tool', 'eclampsia', 'identification', 'metabolites', 'involved', 'lead', 'improved', 'understanding', 'aetiological', 'basis', 'eclampsia', 'development', 'targeted', 'therapies']</t>
-  </si>
-  <si>
-    <t>x1: 0.35|x2: 0.27|x3: 0.28|x4: 0.18|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 16]</t>
-  </si>
-  <si>
-    <t>['hypertensive', 'disorders', 'leading', 'cause', 'deaths', 'pregnancy', 'risk', 'pregnancy', 'accompaniment', 'essential', 'reduce', 'complications', 'decision', 'support', 'systems', 'important', 'tools', 'patients', 'accompaniment', 'systems', 'provide', 'relevant', 'information', 'health', 'experts', 'clinical', 'condition', 'patient', 'anytime', 'paper', 'model', 'uses', 'naive', 'bayesian', 'classifier', 'introduced', 'performance', 'evaluated', 'comparison', 'mining', 'classifier', 'named', 'decision', 'tree', 'study', 'includes', 'modeling', 'performance', 'evaluation', 'comparison', 'models', 'assess', 'pregnancy', 'complications', 'evaluation', 'analysis', 'results', 'performed', 'confusion', 'matrix', 'indicators', 'founded', 'results', 'decision', 'tree', 'classifier', 'performs', 'better', 'indicators', 'confirming', 'promising', 'accuracy', 'identifying', 'hypertensive', 'disorders', 'pregnancy']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.11|x3: 0.46|x4: 0.18|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.12|x10: 0.00|x11: 0.17|x12: 0.16|x13: 0.13|x14: 0.16|x15: 0.00|x16: 0.24|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 16]</t>
-  </si>
-  <si>
-    <t>['dysplasia', 'necrotizing', 'enterocolitis', 'retinopathy', 'prematurity', 'severe', 'complications', 'affecting', 'weight', 'vlbw', 'infants', 'findings', 'gathered', 'intensive', 'care', 'unit', 'hours', 'care', 'predict', 'vlbw', 'infant', 'risk', 'developing', 'gaussian', 'process', 'classification', 'achieved', 'classification', 'results', 'areas', 'receiver', 'operator', 'characteristic', 'curve', 'standard', 'error', 'compares', 'favourably', 'results', 'achieved', 'clinical', 'standard', 'snap', 'snappe', 'scores', 'sensitivity', 'sensitivity', 'close', 'zero', 'suggesting', 'reliably', 'predicted', 'approach']</t>
-  </si>
-  <si>
-    <t>x1: 0.22|x2: 0.36|x3: 0.00|x4: 0.00|x5: 0.31|x6: 0.00|x7: 0.14|x8: 0.18|x9: 0.00|x10: 0.16|x11: 0.00|x12: 0.26|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.38|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 12, 16]</t>
-  </si>
-  <si>
-    <t>['cardiac', 'magnetic', 'resonance', 'imaging', 'fully', 'automatic', 'segmentation', 'heart', 'enables', 'precise', 'structural', 'functional', 'measurements', 'taken', 'short', 'axis', 'images', 'left', 'ventricle', 'work', 'propose', 'recurrent', 'fully', 'convolutional', 'network', 'rfcn', 'learns', 'image', 'representations', 'stack', 'slices', 'ability', 'leverage', 'inter', 'slice', 'spatial', 'dependences', 'internal', 'memory', 'units', 'rfcn', 'combines', 'anatomical', 'detection', 'segmentation', 'single', 'architecture', 'trained', 'significantly', 'reducing', 'computational', 'time', 'simplifying', 'segmentation', 'pipeline', 'potentially', 'enabling', 'time', 'applications', 'report', 'investigation', 'rfcn', 'datasets', 'including', 'publicly', 'available', 'miccai', 'challenge', 'dataset', 'comparisons', 'carried', 'fully', 'convolutional', 'networks', 'deep', 'restricted', 'boltzmann', 'machines', 'including', 'recurrent', 'version', 'leverages', 'inter', 'slice', 'spatial', 'correlation', 'studies', 'suggest', 'rfcn', 'produces', 'state', 'results', 'substantially', 'improve', 'delineation', 'contours', 'near', 'apex', 'heart']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.15|x5: 0.36|x6: 0.20|x7: 0.00|x8: 0.18|x9: 0.24|x10: 0.12|x11: 0.12|x12: 0.00|x13: 0.00|x14: 0.19|x15: 0.00|x16: 0.45|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.45]</t>
-  </si>
-  <si>
-    <t>[5, 9, 16]</t>
-  </si>
-  <si>
-    <t>['anticipating', 'future', 'actions', 'human', 'widely', 'studied', 'problem', 'robotics', 'requires', 'spatiotemporal', 'reasoning', 'work', 'propose', 'deep', 'learning', 'approach', 'anticipation', 'sensory', 'rich', 'robotics', 'applications', 'introduce', 'sensory', 'fusion', 'architecture', 'jointly', 'learns', 'anticipate', 'fuse', 'information', 'multiple', 'sensory', 'streams', 'architecture', 'consists', 'recurrent', 'neural', 'networks', 'rnns', 'long', 'short', 'term', 'memory', 'lstm', 'units', 'capture', 'long', 'temporal', 'dependencies', 'train', 'architecture', 'sequence', 'sequence', 'prediction', 'manner', 'explicitly', 'learns', 'predict', 'future', 'given', 'partial', 'temporal', 'context', 'introduce', 'novel', 'loss', 'layer', 'anticipation', 'prevents', 'fitting', 'encourages', 'early', 'anticipation', 'architecture', 'anticipate', 'driving', 'maneuvers', 'seconds', 'happen', 'natural', 'driving', 'miles', 'context', 'maneuver', 'anticipation', 'comes', 'multiple', 'sensors', 'installed', 'vehicle', 'approach', 'shows', 'significant', 'improvement', 'state', 'maneuver', 'anticipation', 'increasing', 'precision', 'recall']</t>
-  </si>
-  <si>
-    <t>x1: 0.39|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.63|x14: 0.00|x15: 0.36|x16: 0.17|x17: 0.00</t>
+    <t>['cellular', 'network', 'assumed', 'enabler', 'infrastructure', 'provider', 'industry', 'offering', 'variety', 'service', 'diverse', 'requirement', 'standardization', 'cellular', 'network', 'expedited', 'implies', 'candidate', 'technology', 'adopted', 'worthwhile', 'provide', 'insight', 'candidate', 'technique', 'examine', 'design', 'philosophy', 'article', 'highlight', 'fundamental', 'feature', 'revolutionary', 'technique', 'emerges', 'initial', 'intelligence', 'nearly', 'important', 'aspect', 'cellular', 'network', 'including', 'radio', 'resource', 'management', 'mobility', 'management', 'service', 'provisioning', 'management', 'faced', 'complicated', 'configuration', 'issue', 'blossoming', 'service', 'requirement', 'insufficient', 'cellular', 'network', 'lack', 'complete', 'functionality', 'introduce', 'fundamental', 'concept', 'discus', 'relationship', 'candidate', 'technique', 'cellular', 'network', 'specifically', 'highlight', 'opportunity', 'challenge', 'exploit', 'achieve', 'intelligent', 'network', 'demonstrate', 'effectiveness', 'manage', 'orchestrate', 'cellular', 'network', 'resource', 'envision', 'aiempowered', 'cellular', 'network', 'acclaimed', 'enabler', 'reality']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.13|x6: 0.14|x7: 0.00|x8: 0.00|x9: 0.84|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.84]</t>
+  </si>
+  <si>
+    <t>['agenda', 'enthusiastic', 'great', 'potential', 'accelerating', 'human', 'progress', 'brought', 'information', 'communication', 'technology', 'global', 'time', 'acknowledges', 'dark', 'innovation', 'challenge', 'cybersecurity', 'threat', 'risk', 'privacy', 'unleashed', 'artificial', 'intelligence', 'military', 'related', 'cyber', 'operation', 'cyberattacks', 'climate', 'change', 'increasing', 'inequality', 'power', 'concentration', 'challenge', 'solved', 'country', 'acting', 'isolation', 'urgently', 'require', 'strengthened', 'multilateralism', 'time', 'major', 'technological', 'shift', 'necessary', 'implement', 'global', 'transition', 'required', 'agenda', 'resilient', 'economic', 'social', 'development', 'model', 'technology', 'exists', 'strategy', 'needed', 'generalize', 'global', 'level']</t>
+  </si>
+  <si>
+    <t>[11, 9]</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.09|x4: 0.10|x5: 0.09|x6: 0.00|x7: 0.24|x8: 0.13|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.10|x13: 0.47|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[7, 9, 13]</t>
+  </si>
+  <si>
+    <t>['advocate', 'algorithmic', 'technique', 'like', 'mining', 'argue', 'technique', 'eliminate', 'human', 'bias', 'decisionmaking', 'process', 'algorithm', 'good', 'work', 'frequently', 'imperfect', 'allow', 'algorithm', 'inherit', 'prejudice', 'prior', 'decision', 'maker', 'simply', 'reflect', 'widespread', 'bias', 'persist', 'society', 'large', 'mining', 'discover', 'surprisingly', 'useful', 'regularity', 'preexisting', 'pattern', 'exclusion', 'inequality', 'unthinking', 'reliance', 'mining', 'deny', 'historically', 'disadvantaged', 'vulnerable', 'group', 'participation', 'society', 'worse', 'resulting', 'discrimination', 'unintentional', 'emergent', 'property', 'algorithm', 'conscious', 'choice', 'programmer', 'unusually', 'hard', 'identify', 'source', 'problem', 'explain', 'court']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.47|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.18|x14: 0.12|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['globalization', 'created', 'opportunity', 'difficult', 'problem', 'community', 'psychologist', 'economic', 'change', 'created', 'different', 'area', 'world', 'promoted', 'emergence', 'sharing', 'economy', 'fostered', 'huge', 'disparity', 'country', 'political', 'change', 'polarization', 'growth', 'nationalist', 'populist', 'amplify', 'divisiveness', 'transformation', 'notion', 'citizenship', 'identity', 'technological', 'change', 'brought', 'artificial', 'intelligence', 'revolution', 'open', 'opportunity', 'danger', 'prospect', 'diffusion', 'social', 'network', 'able', 'promoting', 'political', 'participation', 'increasing', 'political', 'polarization', 'finally', 'community', 'psychologist', 'pursue', 'help', 'develop', 'opportunity', 'reduce', 'problem', 'emerge', 'change', 'discussed']</t>
+  </si>
+  <si>
+    <t>x1: 0.28|x2: 0.00|x3: 0.09|x4: 0.11|x5: 0.14|x6: 0.09|x7: 0.00|x8: 0.13|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.32|x14: 0.00|x15: 0.09|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 9, 13]</t>
+  </si>
+  <si>
+    <t>['advance', 'artificial', 'intelligence', 'robotics', 'leading', 'industrial', 'revolution', 'paper', 'present', 'model', 'necessary', 'feature', 'analyze', 'implication', 'inequality', 'output', 'assumption', 'robot', 'capital', 'distinct', 'traditional', 'capital', 'degree', 'human', 'labor', 'capitalist', 'skilled', 'worker', 'save', 'analyze', 'range', 'variant', 'reflect', 'widely', 'different', 'view', 'automation', 'transform', 'labor', 'market', 'main', 'result', 'surprisingly', 'robust', 'automation', 'good', 'growth', 'equality', 'benchmark', 'model', 'wage', 'fall', 'short', 'eventually', 'rise', 'eventually', 'easily', 'generation']</t>
+  </si>
+  <si>
+    <t>x1: 0.11|x2: 0.00|x3: 0.28|x4: 0.00|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.33|x9: 0.27|x10: 0.00|x11: 0.00|x12: 0.26|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 8, 9, 12]</t>
+  </si>
+  <si>
+    <t>['study', 'present', 'application', 'artificial', 'intelligence', 'development', 'sustainable', 'transport', 'smart', 'city', 'india', 'huge', 'demand', 'supply', 'public', 'transport', 'urban', 'city', 'india', 'rapid', 'urbanization', 'india', 'realize', 'importance', 'developing', 'smart', 'city', 'improve', 'quality', 'life', 'captivate', 'foreign', 'investment', 'build', 'superior', 'quality', 'infrastructure', 'india', 'majority', 'indian', 'city', 'facing', 'problem', 'congestion', 'safety', 'inadequate', 'public', 'transport', 'facility', 'inappropriate', 'information', 'inadequate', 'parking', 'space', 'environmental', 'pollution', 'sustainable', 'transport', 'eliminate', 'problem', 'providing', 'safer', 'faster', 'comfortable', 'efficient', 'environment', 'friendly', 'help', 'development', 'smart', 'city', 'implementation', 'intelligent', 'transport', 'urgent', 'need', 'develop', 'intelligent', 'transport', 'indian', 'city', 'play', 'role', 'development', 'sustainable', 'transport', 'main', 'requirement', 'adopt', 'artificial', 'intelligence', 'development', 'smart', 'city', 'india', 'main', 'objective', 'article', 'present', 'major', 'application', 'intelligent', 'transport', 'development', 'sustainable', 'transport', 'smart', 'city', 'study', 'implementation', 'intelligent', 'transport', 'development', 'sustainable', 'transport', 'smart', 'city', 'india']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.38|x10: 0.00|x11: 0.70|x12: 0.15|x13: 0.14|x14: 0.00|x15: 0.13|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['ecologist', 'variety', 'tool', 'collecting', 'analyzing', 'relatively', 'tool', 'facilitate', 'ecological', 'reasoning', 'time', 'simulation', 'model', 'basic', 'mean', 'organizing', 'ecological', 'knowledge', 'rapidly', 'processed', 'technology', 'computerbased', 'manipulation', 'knowledge', 'developed', 'artificial', 'intelligence', 'area', 'ecological', 'science', 'technology', 'prove', 'important', 'include', 'modelling', 'simulation', 'integration', 'qualitative', 'quantitative', 'knowledge', 'theoretical', 'development', 'natural', 'resource', 'management', 'researcher', 'manager', 'basic', 'applied', 'ecology', 'affected', 'development', 'aiderived', 'technology', 'added', 'ecological', 'toolkit']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.38|x7: 0.00|x8: 0.00|x9: 0.70|x10: 0.13|x11: 0.00|x12: 0.12|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[6, 9]</t>
+  </si>
+  <si>
+    <t>['machine', 'learning', 'algorithm', 'tremendously', 'power', 'recent', 'fully', 'utilized', 'ecology', 'sustainable', 'resource', 'management', 'domain', 'wildlife', 'reserve', 'design', 'forest', 'management', 'invasive', 'specie', 'spread', 'thing', 'domain', 'common', 'contain', 'dynamic', 'characterized', 'spatially', 'spreading', 'process', 'requires', 'parameter', 'precisely', 'model', 'dynamic', 'spread', 'rate', 'directional', 'bias', 'element', 'spreading', 'present', 'related', 'work', 'artificial', 'intelligence', 'machine', 'learning', 'sustainability', 'domain', 'including', 'forest', 'wildfire', 'prediction', 'introduce', 'novel', 'approach', 'learning', 'domain', 'reinforcement', 'learning', 'agent', 'cell', 'landscape', 'action', 'location', 'point', 'time', 'includes', 'spreading', 'north', 'south', 'east', 'west', 'spreading', 'approach', 'inverts', 'usual', 'setup', 'dynamic', 'corresponding', 'markov', 'decision', 'process', 'known', 'function', 'immed', 'iate', 'wildfire', 'spread', 'learn', 'agent', 'policy', 'predictive', 'model', 'dynamic', 'complex', 'spatial', 'process', 'reward', 'provided', 'correctly', 'classifying', 'cell', 'compared', 'satellite', 'related', 'examine', 'behavior', 'algorithm', 'problem', 'value', 'iteration', 'policy', 'iteration', 'qlearning', 'monte', 'carlo', 'tree', 'search', 'asynchronous', 'advantage', 'actorcritic', 'compare', 'gaussian', 'processbased', 'supervised', 'learning', 'approach', 'discus', 'relation', 'approach', 'manually', 'constructed', 'stateoftheart', 'method', 'forest', 'wildfire', 'modeling', 'validate', 'approach', 'satellite', 'image', 'massive', 'wildfire', 'event', 'northern', 'alberta', 'canada', 'fort', 'mcmurray', 'richardson', 'result', 'learn', 'predictive', 'agentbased', 'policy', 'model', 'spatial', 'dynamic', 'readily', 'available', 'satellite', 'image', 'method', 'additional', 'advantage', 'term']</t>
+  </si>
+  <si>
+    <t>x1: 0.20|x2: 0.00|x3: 0.10|x4: 0.17|x5: 0.09|x6: 0.11|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.18|x14: 0.11|x15: 0.16|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 12]</t>
+  </si>
+  <si>
+    <t>['ability', 'transform', 'vast', 'complex', 'ambiguous', 'information', 'insight', 'potential', 'reveal', 'longheld', 'secret', 'help', 'solve', 'world', 'enduring', 'problem', 'like', 'powerful', 'technology', 'great', 'care', 'taken', 'development', 'deployment', 'reap', 'societal', 'benefit', 'need', 'trust', 'sure', 'follow', 'ethical', 'principle', 'moral', 'value', 'professional', 'code', 'social', 'norm', 'human', 'follow', 'scenario', 'research', 'educational', 'effort', 'carefully', 'designed', 'regulation', 'place', 'achieve', 'goal', 'international', 'business', 'machine', 'corporation', 'actively', 'engaged', 'internally', 'collaborator', 'competitor', 'global', 'discussion', 'ethical', 'beneficial', 'possible', 'society']</t>
+  </si>
+  <si>
+    <t>x1: 0.25|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.21|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.34|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[1, 8, 9, 13, 16]</t>
+  </si>
+  <si>
+    <t>['recent', 'witnessed', 'exponential', 'growth', 'automation', 'power', 'decision', 'impact', 'life', 'society', 'bring', 'potential', 'benefit', 'reducing', 'human', 'bias', 'speeding', 'decisionmaking', 'fraught', 'risk', 'increasing', 'machine', 'bias', 'rendering', 'decisionmaking', 'opaque', 'remote', 'consideration', 'fairness', 'accountability', 'transparency', 'process', 'fundamental', 'omidyar', 'network', 'governance', 'citizen', 'engagement', 'initiative', 'started', 'funding', 'advocating', 'open', 'following', 'snowden', 'revelation', 'summer', 'included', 'privacy', 'surveillance', 'reform', 'effort', 'realizing', 'openness', 'privacy', 'closely', 'related', 'focused', 'helping', 'develop', 'framework', 'governing', 'collection', 'access', 'storage', 'usage', 'right', 'recently', 'started', 'looking', 'impact', 'release', 'light', 'processing', 'power', 'access', 'decision', 'government', 'corporate', 'sector', 'actor', 'increasingly', 'automated', 'government', 'algorithm', 'screen', 'immigrant', 'allocate', 'social', 'service', 'vital', 'know', 'interrogate', 'hold', 'accountable', 'main', 'increase', 'individual', 'control', 'agency', 'decision', 'impact', 'life', 'ultimately', 'society', 'believe', 'accountability', 'transparency', 'agenda', 'benefit', 'better', 'understanding', 'ultimately', 'scrutinizing', 'automated', 'decisionmaking', 'explore', 'question', 'partnered', 'upturn', 'landscape', 'public', 'scrutiny', 'automated', 'decisionmaking', 'term', 'civil', 'society', 'nascent', 'sector', 'regulation', 'place', 'help', 'regulate', 'study', 'developed', 'clear', 'pave', 'textured', 'practical', 'understanding', 'algorithmic', 'transparency', 'omidyar', 'network', 'explore', 'issue', 'companion', 'paper', 'released', 'later', 'hope', 'report', 'help', 'civil', 'society', 'actor', 'consider', 'gain', 'empowering', 'public', 'audience', 'effectively', 'scrutinize', 'understand', 'help', 'govern', 'automated', 'decision', 'hope', 'start', 'laying', 'policy', 'framework', 'governance', 'adding', 'growing', 'rich', 'literature', 'social', 'economic', 'impact', 'decision', 'finally', 'hope', 'report', 'finding', 'analysis', 'help', 'inform', 'funders', 'decision', 'important', 'growing', 'field']</t>
+  </si>
+  <si>
+    <t>x1: 0.17|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.11|x10: 0.16|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.24|x15: 0.13|x16: 0.13|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['protected', 'area', 'effective', 'tool', 'reducing', 'biodiversity', 'loss', 'current', 'legislation', 'distinguishes', 'type', 'marine', 'protected', 'area', 'allowing', 'different', 'level', 'resource', 'extraction', 'theory', 'spatial', 'conservation', 'planning', 'focused', 'identifying', 'notake', 'reserve', 'current', 'approach', 'zoning', 'multiple', 'type', 'protected', 'area', 'result', 'suboptimal', 'plan', 'term', 'protecting', 'biodiversity', 'minimizing', 'negative', 'socioeconomic', 'impact', 'overcame', 'limitation', 'application', 'multizone', 'planning', 'tool', 'marxan', 'zone', 'design', 'network', 'type', 'protected', 'area', 'context', 'california', 'marine', 'life', 'protection', 'produced', 'zoning', 'configuration', 'entail', 'mean', 'value', 'loss', 'fishery', 'compromising', 'conservation', 'goal', 'spatial', 'numerical', 'optimization', 'tool', 'allows', 'multiple', 'zone', 'outperforms', 'tool', 'identify', 'zone', 'marine', 'reserve', 'overall', 'impact', 'fishing', 'industry', 'reduced', 'second', 'equitable', 'impact', 'different', 'fishing', 'sector', 'achieved', 'finally', 'examined', 'tradeoff', 'representing', 'biodiversity', 'feature', 'impacting', 'fishery', 'approach', 'applicable', 'marine', 'terrestrial', 'conservation', 'planning', 'delivers', 'ecosystembased', 'management', 'outcome', 'balance', 'conservation', 'industry', 'objective']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.00|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.11|x13: 0.15|x14: 0.37|x15: 0.56|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09, 0.56]</t>
+  </si>
+  <si>
+    <t>['national', 'oceanic', 'atmospheric', 'administration', 'noaa', 'integrated', 'coral', 'observing', 'network', 'icon', 'operational', 'work', 'closely', 'government', 'international', 'environmental', 'partner', 'involved', 'coral', 'reef', 'research', 'icon', 'program', 'pioneered', 'artificial', 'intelligence', 'technique', 'near', 'realtime', 'stream', 'environment', 'sensor', 'network', 'seakeys', 'network', 'florida', 'australia', 'institute', 'marine', 'science', 'weather', 'network', 'noaa', 'coral', 'reef', 'ecosystem', 'division', 'network', 'pacific', 'integrated', 'coral', 'observing', 'network', 'icon', 'station', 'caribbean', 'innovative', 'approach', 'coral', 'monitoring', 'station', 'deployment', 'icon', 'program', 'recently', 'pioneered', 'technique', 'near', 'realtime', 'integration', 'satellite', 'situ', 'radar', 'source', 'purpose', 'ecological', 'forecasting', 'event', 'coral', 'bleaching', 'coral', 'spawning', 'upwelling', 'marine', 'behavioral', 'physical', 'oceanographic', 'event', 'icon', 'program', 'ushered', 'pulseamplitude', 'modulating', 'fluorometry', 'measure', 'near', 'realtime', 'physiological', 'recording', 'response', 'environmental', 'coral', 'bleaching', 'providing', 'better', 'ecological', 'forecasting', 'capability', 'artificial', 'intelligence', 'integrative', 'technique', 'herewith', 'technique', 'report', 'coral', 'calcification', 'instrumentation', 'augmenting', 'icon', 'network', 'sensor', 'array']</t>
+  </si>
+  <si>
+    <t>x1: 0.18|x2: 0.00|x3: 0.00|x4: 0.09|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.56|x15: 0.22|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['marine', 'cabled', 'allow', 'nondestructive', 'sampling', 'specie', 'frequency', 'duration', 'attained', 'lack', 'appropriate', 'method', 'automatically', 'process', 'video', 'imagery', 'limit', 'technology', 'purpose', 'ecosystem', 'monitoring', 'automation', 'prerequisite', 'deal', 'huge', 'quantity', 'video', 'footage', 'captured', 'camera', 'transform', 'device', 'true', 'autonomous', 'sensor', 'study', 'developed', 'novel', 'methodology', 'based', 'genetic', 'programming', 'contentbased', 'image', 'analysis', 'capture', 'temporal', 'dynamic', 'fish', 'abundance', 'processed', 'image', 'acquired', 'challenging', 'realworld', 'coastal', 'scenario', 'obseaemso', 'testingsite', 'image', 'collected', 'frequency', 'continuously', 'night', 'highly', 'variable', 'environmental', 'condition', 'allowed', 'test', 'effectiveness', 'approach', 'changing', 'light', 'radiation', 'water', 'turbidity', 'background', 'confusion', 'biofouling', 'growth', 'camera', 'housing', 'automated', 'recognition', 'result', 'highly', 'correlated', 'manual', 'count', 'highly', 'reliable', 'track', 'fish', 'variation', 'different', 'hourly', 'daily', 'monthly', 'time', 'scale', 'addition', 'methodology', 'easily', 'transferred', 'cabled']</t>
+  </si>
+  <si>
+    <t>x1: 0.09|x2: 0.00|x3: 0.14|x4: 0.15|x5: 0.00|x6: 0.15|x7: 0.14|x8: 0.16|x9: 0.17|x10: 0.00|x11: 0.09|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.16|x16: 0.00|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['having', 'accurate', 'detailed', 'uptodate', 'information', 'location', 'behavior', 'animal', 'wild', 'improve', 'ability', 'study', 'conserve', 'ecosystem', 'investigate', 'ability', 'automatically', 'accurately', 'inexpensively', 'collect', 'help', 'catalyze', 'transformation', 'field', 'ecology', 'wildlife', 'biology', 'zoology', 'conservation', 'biology', 'animal', 'behavior', 'science', 'motionsensor', 'camera', 'trap', 'enable', 'collecting', 'wildlife', 'picture', 'inexpensively', 'unobtrusively', 'frequently', 'extracting', 'information', 'picture', 'remains', 'expensive', 'timeconsuming', 'manual', 'task', 'demonstrate', 'information', 'automatically', 'extracted', 'deep', 'learning', 'cuttingedge', 'type', 'artificial', 'intelligence', 'train', 'deep', 'convolutional', 'neural', 'network', 'identify', 'count', 'behavior', 'specie', 'millionimage', 'snapshot', 'serengeti', 'dataset', 'deep', 'neural', 'network', 'automatically', 'identify', 'animal', 'accuracy', 'expect', 'number', 'improve', 'rapidly', 'come', 'importantly', 'classifies', 'image', 'confident', 'automate', 'animal', 'identification', 'performing', 'accuracy', 'crowdsourced', 'team', 'human', 'volunteer', 'saving', 'human', 'labeling', 'effort', 'millionimage', 'dataset', 'efficiency', 'gain', 'highlight', 'importance', 'deep', 'neural', 'network', 'automate', 'extraction', 'cameratrap', 'image', 'reducing', 'roadblock', 'widely', 'technology', 'result', 'suggest', 'deep', 'learning', 'enable', 'inexpensive', 'unobtrusive', 'highvolume', 'realtime', 'collection', 'wealth', 'information', 'vast', 'number', 'animal', 'wild']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.10|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.12|x12: 0.27|x13: 0.09|x14: 0.41|x15: 0.20|x16: 0.13|x17: 0.00</t>
+  </si>
+  <si>
+    <t>['specie', 'ecosystem', 'worldwide', 'continue', 'decline', 'disappear', 'spite', 'decade', 'investment', 'conservation', 'effort', 'systematic', 'conservation', 'planning', 'field', 'study', 'designed', 'improve', 'conservation', 'program', 'identifying', 'land', 'configuration', 'protected', 'efficiently', 'sustain', 'biodiversity', 'despite', 'contributing', 'specie', 'persistence', 'landscape', 'criticized', 'replacing', 'sitebased', 'conservation', 'plan', 'consider', 'social', 'context', 'contrast', 'land', 'science', 'emerging', 'field', 'explores', 'process', 'landuse', 'landcover', 'change', 'integrates', 'social', 'process', 'conservation', 'analysis', 'suggest', 'incorporating', 'insight', 'social', 'process', 'livelihood', 'adaptation', 'agricultural', 'intensification', 'enhance', 'legitimacy', 'conservation', 'plan', 'reducing', 'conservation', 'planning', 'implementation', 'represents', 'necessary', 'step', 'reinvent', 'decisionsupport', 'tool', 'help', 'reconcile', 'longstanding', 'divide', 'landscapelevel', 'specie', 'conservation', 'social', 'need']</t>
+  </si>
+  <si>
+    <t>x1: 0.25|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.09|x7: 0.00|x8: 0.00|x9: 0.10|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.37|x14: 0.13|x15: 0.56|x16: 0.00|x17: 0.00</t>
   </si>
   <si>
     <t>[1, 13, 15]</t>
   </si>
   <si>
-    <t>['criteria', 'suggested', 'help', 'design', 'clinical', 'decision', 'support', 'cdss', 'better', 'chance', 'successfully', 'deployed', 'clinical', 'environment', 'criteria', 'successfully', 'applied', 'cdss', 'designed', 'estimate', 'outcomes', 'neonatal', 'intensive', 'care', 'unit', 'nicu', 'patients', 'cdss', 'deployed', 'pilot', 'study', 'children', 'hospital', 'eastern', 'ontario', 'cheo', 'nicu', 'results', 'study', 'showed', 'accuracy', 'deemed', 'acceptable', 'physicians', 'cdss', 'meet', 'expectations', 'ready', 'deployment', 'clinical', 'environment']</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.29|x3: 0.28|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.24|x14: 0.13|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.31]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 8, 9, 13]</t>
-  </si>
-  <si>
-    <t>['driver', 'fatigue', 'major', 'causes', 'traffic', 'accidents', 'particularly', 'drivers', 'large', 'vehicles', 'buses', 'heavy', 'trucks', 'prolonged', 'driving', 'periods', 'boredom', 'working', 'conditions', 'paper', 'propose', 'vision', 'based', 'fatigue', 'detection', 'driver', 'monitoring', 'easy', 'flexible', 'deployment', 'buses', 'large', 'vehicles', 'consists', 'modules', 'head', 'shoulder', 'detection', 'face', 'detection', 'detection', 'openness', 'estimation', 'fusion', 'drowsiness', 'measure', 'percentage', 'eyelid', 'closure', 'perclos', 'estimation', 'fatigue', 'level', 'classification', 'core', 'innovative', 'techniques', 'follows', 'approach', 'estimate', 'continuous', 'level', 'openness', 'based', 'spectral', 'regression', 'fusion', 'algorithm', 'estimate', 'state', 'based', 'adaptive', 'integration', 'multimodel', 'detections', 'eyes', 'robust', 'measure', 'perclos', 'continuous', 'level', 'openness', 'defined', 'driver', 'states', 'classified', 'experiments', 'systematic', 'evaluations', 'analysis', 'proposed', 'algorithms', 'comparison', 'ground', 'truth', 'perclos', 'measurements', 'performed', 'experimental', 'results', 'advantages', 'accuracy', 'robustness', 'challenging', 'situations', 'camera', 'oblique', 'viewing', 'angle', 'driver', 'face', 'driving', 'state', 'monitoring']</t>
-  </si>
-  <si>
-    <t>x1: 0.69|x2: 0.20|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.00|x8: 0.20|x9: 0.27|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.22|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.69]</t>
-  </si>
-  <si>
-    <t>[1, 3, 8, 9, 14]</t>
-  </si>
-  <si>
-    <t>['rate', 'depression', 'growing', 'alarming', 'rate', 'study', 'open', 'talking', 'human', 'paper', 'motivate', 'going', 'phase', 'life', 'avoid', 'effects', 'depression', 'propose', 'chatbot', 'enable', 'positivity', 'boosting', 'conversation', 'user', 'chatbot', 'personalize', 'replies', 'user', 'conversation', 'engaging', 'emotionally', 'supportive', 'training', 'motivating', 'dialogue', 'corpus', 'corpus', 'extended', 'users', 'historical', 'chat', 'social', 'media', 'platforms', 'tensorflow', 'framework', 'power', 'required', 'server', 'training', 'advantage', 'instead', 'reaching', 'phase', 'requiring', 'visit', 'psychiatrist', 'online', 'free', 'service', 'reach', 'mediate', 'effects', 'depression', 'contribute', 'betterment', 'society']</t>
-  </si>
-  <si>
-    <t>x1: 0.15|x2: 0.00|x3: 0.19|x4: 0.28|x5: 0.12|x6: 0.53|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.33|x13: 0.00|x14: 0.26|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 6, 12, 14]</t>
-  </si>
-  <si>
-    <t>['paper', 'process', 'constructing', 'proxy', 'variables', 'represent', 'adult', 'learners', 'time', 'management', 'strategies', 'online', 'course', 'based', 'previous', 'research', 'values', 'selected', 'according', 'result', 'empirical', 'validation', 'regularity', 'learning', 'interval', 'proven', 'correlative', 'predict', 'learning', 'performance', 'indicated', 'previous', 'research', 'regularity', 'learning', 'strong', 'indicator', 'explain', 'learners', 'consistent', 'endeavors', 'study', 'demonstrates', 'possibility', 'learning', 'analytics', 'address', 'learner', 'specific', 'competence', 'basis', 'theoretical', 'background', 'implications', 'learning', 'analytics', 'field', 'seeking', 'pedagogical', 'theory', 'driven', 'approach', 'discussed']</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.42|x5: 0.17|x6: 0.26|x7: 0.00|x8: 0.21|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.19|x14: 0.00|x15: 0.00|x16: 0.19|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.42]</t>
-  </si>
-  <si>
-    <t>[4, 6, 8, 9]</t>
-  </si>
-  <si>
-    <t>['standard', 'behavioral', 'interventions', 'autism', 'spectrum', 'disorder', 'effective', 'therapies', 'social', 'deficits', 'face', 'criticism', 'time', 'intensive', 'overdependent', 'specialists', 'earlier', 'starting', 'therapy', 'strong', 'predictor', 'later', 'success', 'waitlists', 'therapies', 'months', 'long', 'address', 'complications', 'developed', 'superpower', 'glass', 'machine', 'learning', 'assisted', 'software', 'runs', 'google', 'glass', 'android', 'smartphone', 'designed', 'social', 'interactions', 'pilot', 'exploratory', 'study', 'examines', 'prototype', 'tool', 'potential', 'social', 'affective', 'learning', 'children', 'autism', 'sent', 'tool', 'home', 'families', 'assessed', 'changes', 'intake', 'conclusion', 'social', 'responsiveness', 'scale', 'facial', 'affect', 'recognition', 'task', 'qualitative', 'parent', 'reports', 'repeated', 'measures', 'anova', 'demonstrated', 'decrease', 'scores', 'points', 'higher', 'scores', 'indicate', 'higher', 'severity', 'scores', 'correct', 'responses', 'parents', 'reported', 'contact', 'greater', 'social', 'acuity', 'feasibility', 'study', 'supports', 'mobile', 'technologies', 'potential', 'therapeutic', 'purposes']</t>
-  </si>
-  <si>
-    <t>x1: 0.50|x2: 0.33|x3: 0.16|x4: 0.24|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.50]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 12]</t>
-  </si>
-  <si>
-    <t>['paper', 'explores', 'phenomena', 'emergence', 'artificial', 'intelligence', 'teaching', 'learning', 'higher', 'education', 'investigates', 'educational', 'implications', 'emerging', 'technologies', 'students', 'learn', 'institutions', 'teach', 'evolve', 'recent', 'technological', 'advancements', 'increasing', 'speed', 'adopting', 'technologies', 'higher', 'education', 'explored', 'order', 'predict', 'future', 'nature', 'higher', 'education', 'world', 'artificial', 'intelligence', 'fabric', 'universities', 'pinpoint', 'challenges', 'institutions', 'higher', 'education', 'student', 'learning', 'adoption', 'technologies', 'teaching', 'learning', 'student', 'support', 'administration', 'explore', 'directions', 'research']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 1.12|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.29|x10: 0.13|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 1.12]</t>
-  </si>
-  <si>
-    <t>['social', 'robots', 'offer', 'tremendous', 'possibilities', 'autism', 'spectrum', 'disorder', 'interventions', 'date', 'studies', 'population', 'short', 'isolated', 'encounters', 'controlled', 'laboratory', 'settings', 'study', 'focused', 'month', 'home', 'based', 'intervention', 'increasing', 'social', 'communication', 'skills', 'children', 'years', 'autonomous', 'social', 'robot', 'children', 'engaged', 'triadic', 'interaction', 'caregiver', 'robot', 'complete', 'activities', 'emotional', 'storytelling', 'perspective', 'taking', 'sequencing', 'robot', 'encouraged', 'engagement', 'adapted', 'difficulty', 'activities', 'child', 'past', 'performance', 'modeled', 'positive', 'social', 'skills', 'maintained', 'engagement', 'month', 'deployment', 'children', 'showed', 'improvement', 'joint', 'attention', 'skills', 'adults', 'presence', 'robot', 'results', 'consistent', 'caregiver', 'questionnaires', 'caregivers', 'reported', 'prompting', 'time', 'overall', 'communication']</t>
-  </si>
-  <si>
-    <t>x1: 0.33|x2: 0.36|x3: 0.00|x4: 0.47|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.16|x14: 0.21|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 12, 14]</t>
-  </si>
-  <si>
-    <t>['achieved', 'paper', 'presents', 'artefact', 'named', 'ambient', 'learning', 'knowledge', 'service', 'model', 'describing', 'actionable', 'knowledge', 'extracted', 'ambient', 'learning', 'systems', 'support', 'improvement', 'consequently', 'facilitate', 'achievement', 'sustainable', 'development', 'goal', 'creative', 'process', 'adopted', 'guide', 'development', 'model', 'process', 'involved', 'carrying', 'problem', 'analysis', 'literature', 'review', 'designing', 'model', 'combining', 'ambient', 'learning', 'knowledge', 'service', 'concepts', 'demonstrating', 'application', 'developing', 'prototype', 'evaluation', 'results', 'revealed', 'algorithm', 'implemented', 'waikato', 'environment', 'knowledge', 'analysis', 'weka', 'software', 'suitable', 'extracting', 'knowledge', 'ambient', 'learning', 'systems', 'prolog', 'software', 'applied', 'create', 'tool', 'knowledge', 'delivery']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.17|x3: 0.15|x4: 0.42|x5: 0.12|x6: 0.00|x7: 0.14|x8: 0.17|x9: 0.12|x10: 0.16|x11: 0.00|x12: 0.19|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 13]</t>
-  </si>
-  <si>
-    <t>['multiple', 'studies', 'conducted', 'project', 'listen', 'intelligent', 'tutoring', 'analyze', 'educational', 'learning', 'analysis', 'students', 'interactions', 'studies', 'defined', 'phenomenon', 'exploring', 'happens', 'questions', 'analyzing', 'context', 'specified', 'phenomenon', 'occurrence', 'focus', 'student', 'decisions', 'resources', 'suggest', 'analysis', 'monitoring', 'needed', 'best', 'results', 'systems', 'study', 'argue', 'boys', 'interact', 'differently', 'girls', 'finding', 'evident', 'results', 'bayesian', 'knowledge', 'tracing', 'learning', 'curve', 'analysis', 'models']</t>
-  </si>
-  <si>
-    <t>x1: 0.38|x2: 0.00|x3: 0.00|x4: 0.82|x5: 0.00|x6: 0.37|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.27|x14: 0.16|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.82]</t>
-  </si>
-  <si>
-    <t>[1, 4, 6, 13]</t>
-  </si>
-  <si>
-    <t>['paper', 'review', 'contribution', 'original', 'work', 'titled', 'bsimulating', 'instructional', 'roles', 'pedagogical', 'agents', 'published', 'international', 'journal', 'artificial', 'intelligence', 'education', 'baylor', 'computers', 'human', 'behavior', 'original', 'work', 'operationalized', 'instructional', 'roles', 'simulated', 'pedagogical', 'agents', 'demonstrated', 'effectiveness', 'agent', 'roles', 'learning', 'motivation', 'publication', 'work', 'pedagogical', 'agent', 'research', 'expanded', 'scope', 'provision', 'intelligent', 'guidance', 'broad', 'agents', 'social', 'affective', 'support', 'learners', 'discuss', 'current', 'progress', 'pedagogical', 'agent', 'roles', 'capabilities', 'speculate', 'future', 'agent', 'role', 'design', 'expect', 'optimizing', 'roles', 'artificial', 'beings', 'including', 'screen', 'agents', 'robots', 'continue', 'educational', 'technology', 'community', 'technologies', 'continue', 'evolve', 'pedagogical', 'agents', 'experimental', 'research', 'virtual', 'humans', 'interface', 'design', 'overview', 'original', 'paper', 'motivation', 'early', 'empirical', 'support', 'presence', 'pedagogical', 'agent', 'facilitated', 'deeper', 'learning', 'enhanced', 'motivation', 'atkinson', 'moreno']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.38|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.39|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['domain', 'objective', 'reached', 'order', 'opportunities', 'equality', 'persons', 'defined', 'digital', 'equity', 'different', 'international', 'organizations', 'working', 'reach', 'goal', 'analysis', 'points', 'reaching', 'objective', 'international', 'organizations', 'international', 'union', 'united', 'nations', 'international', 'federation', 'information', 'processing', 'working', 'goal', 'presented', 'paper']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.11|x5: 0.15|x6: 0.00|x7: 0.30|x8: 0.29|x9: 0.40|x10: 0.35|x11: 0.00|x12: 0.00|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.40]</t>
-  </si>
-  <si>
-    <t>[7, 8, 9, 10, 13]</t>
-  </si>
-  <si>
-    <t>['mixed', 'method', 'study', 'examined', 'design', 'potential', 'impact', 'mixed', 'reality', 'integrated', 'learning', 'environment', 'mile', 'providing', 'simulated', 'immersive', 'teaching', 'practice', 'university', 'teaching', 'assistants', 'virtual', 'reality', 'based', 'learning', 'platform', 'integrating', 'kinect', 'enabled', 'sensorimotor', 'interface', 'developed', 'university', 'teaching', 'assistants', 'qualitative', 'quantitative', 'participants', 'participation', 'behaviors', 'engagement', 'perceptions', 'collected', 'video', 'screen', 'recording', 'interview', 'surveys', 'teaching', 'self', 'efficacy', 'sense', 'presence', 'tracking', 'results', 'indicated', 'mile', 'reinforced', 'sense', 'presence', 'supported', 'performance', 'ample', 'range', 'virtual', 'teaching', 'tasks', 'actions', 'avatar', 'embodied', 'live', 'gesturing', 'environmental', 'fidelity', 'mixed', 'reality', 'learning', 'spaces', 'design', 'arrangement', 'virtual', 'agents', 'avatars', 'affordance', 'embodied', 'gesturing', 'walking', 'salient', 'mile', 'design', 'features', 'affected', 'participants', 'sense', 'presence', 'virtual', 'teaching', 'performance']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.33|x3: 0.00|x4: 0.50|x5: 0.16|x6: 0.22|x7: 0.00|x8: 0.16|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.14|x15: 0.00|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 4, 6]</t>
-  </si>
-  <si>
-    <t>['help', 'investigator', 'efficiently', 'connect', 'dots', 'uncover', 'network', 'individuals', 'involved', 'criminal', 'activity', 'based', 'evidence', 'connections', 'visiting', 'address', 'transacting', 'bank', 'account', 'formulate', 'problem', 'active', 'search', 'connections', 'finds', 'target', 'entities', 'evidence', 'different', 'types', 'given', 'lead', 'relevance', 'queried', 'interactively', 'investigator', 'present', 'redthread', 'efficient', 'solution', 'inferring', 'related', 'relevant', 'nodes', 'incorporating', 'user', 'feedback', 'guide', 'inference', 'experiments', 'focus', 'building', 'combating', 'human', 'trafficking', 'investigator', 'follows', 'leads', 'expose', 'organized', 'activities', 'different', 'escort', 'advertisements', 'connected', 'possibly', 'orchestrated', 'redthread', 'local', 'algorithm', 'enables', 'online', 'building', 'mining', 'millions', 'posted', 'largest', 'classified', 'advertising', 'websites', 'results', 'redthread', 'interpretable', 'explain', 'results', 'connected', 'initial', 'lead', 'experimentally', 'redthread', 'learns', 'importance', 'different', 'types', 'different', 'pieces', 'evidence', 'transferred', 'cases']</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.00|x5: 0.30|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.27|x13: 0.23|x14: 0.34|x15: 0.14|x16: 0.26|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.34]</t>
-  </si>
-  <si>
-    <t>[5, 12, 13, 14, 16]</t>
-  </si>
-  <si>
-    <t>['computers', 'increasingly', 'decisions', 'significant', 'impact', 'lives', 'predictions', 'affect', 'different', 'population', 'subgroups', 'result', 'issue', 'fairness', 'received', 'recent', 'number', 'fairness', 'enhanced', 'classifiers', 'appeared', 'literature', 'paper', 'seeks', 'study', 'following', 'questions', 'different', 'techniques', 'fundamentally', 'compare', 'accounts', 'differences', 'specifically', 'seek', 'bring', 'attention', 'appreciated', 'aspects', 'fairness', 'enhancing', 'interventions', 'require', 'investigation', 'algorithms', 'receive', 'broad', 'adoption', 'present', 'results', 'open', 'benchmark', 'developed', 'lets', 'compare', 'number', 'different', 'algorithms', 'variety', 'fairness', 'measures', 'existing', 'datasets', 'different', 'algorithms', 'tend', 'prefer', 'specific', 'formulations', 'fairness', 'preservations', 'measures', 'strongly', 'correlate', 'addition', 'fairness', 'preserving', 'algorithms', 'tend', 'sensitive', 'fluctuations', 'dataset', 'composition', 'simulated', 'benchmark', 'varying', 'training', 'test', 'splits', 'different', 'forms', 'preprocessing', 'indicating', 'fairness', 'interventions', 'brittle', 'previously', 'thought', 'computing', 'methodologies', 'machine', 'learning', 'software', 'engineering', 'software', 'libraries', 'repositories']</t>
-  </si>
-  <si>
-    <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.28|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.24|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.19|x13: 0.48|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 8, 9, 13, 16]</t>
-  </si>
-  <si>
-    <t>['human', 'trafficking', 'challenging', 'enforcement', 'problems', 'demands', 'persistent', 'fight', 'globe', 'study', 'leverage', 'readily', 'available', 'website', 'backpage', 'classified', 'advertisement', 'discern', 'potential', 'patterns', 'human', 'trafficking', 'activities', 'manifest', 'online', 'identify', 'trafficking', 'related', 'advertisements', 'lack', 'ground', 'truth', 'rely', 'human', 'analysts', 'human', 'trafficking', 'victim', 'survivor', 'enforcement', 'hand', 'labeling', 'portion', 'crawled', 'present', 'semisupervised', 'learning', 'approach', 'trained', 'available', 'labeled', 'unlabeled', 'evaluated', 'unseen', 'verification', 'experts']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.42|x5: 0.36|x6: 0.12|x7: 0.00|x8: 0.16|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.42|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 16]</t>
-  </si>
-  <si>
-    <t>['appreciate', 'help', 'michael', 'gallagher', 'retired', 'police', 'officer', 'currently', 'works', 'domestic', 'violence', 'agency', 'jurisdiction', 'studied', 'provided', 'important', 'information', 'meaning', 'variables', 'related', 'enforcement', 'procedures', 'received', 'important', 'assistance', 'prosecutorial', 'context', 'domestic', 'violence', 'marian', 'braccia', 'deputy', 'district', 'attorney', 'district', 'attorney', 'office', 'jurisdiction', 'thanks', 'anonymous', 'reviewers', 'article']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.35|x3: 0.00|x4: 0.00|x5: 0.43|x6: 0.39|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.57|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 5, 6, 13, 16]</t>
-  </si>
-  <si>
-    <t>['work', 'investigate', 'gender', 'based', 'inequalities', 'context', 'resume', 'search', 'engines', 'tools', 'allow', 'recruiters', 'proactively', 'search', 'candidates', 'based', 'keywords', 'filters', 'ranking', 'algorithms', 'demographic', 'features', 'account', 'directly', 'indirectly', 'produce', 'rankings', 'disadvantage', 'candidates', 'collect', 'search', 'results', 'monster', 'careerbuilder', 'based', 'titles', 'cities', 'resulting', 'candidates', 'statistical', 'tests', 'examine', 'search', 'engines', 'produce', 'rankings', 'exhibit', 'types', 'indirect', 'discrimination', 'individual', 'group', 'unfairness', 'furthermore', 'controlled', 'experiments', 'websites', 'inferred', 'gender', 'candidates', 'explicit', 'features', 'ranking', 'algorithms']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.32|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.38|x15: 0.00|x16: 0.36|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 5, 8, 9, 14, 16]</t>
-  </si>
-  <si>
-    <t>['blind', 'application', 'machine', 'learning', 'runs', 'risk', 'amplifying', 'biases', 'present', 'danger', 'facing', 'word', 'embedding', 'popular', 'framework', 'represent', 'text', 'vectors', 'machine', 'learning', 'natural', 'language', 'processing', 'tasks', 'word', 'embeddings', 'trained', 'google', 'news', 'articles', 'exhibit', 'female', 'male', 'gender', 'stereotypes', 'disturbing', 'extent', 'raises', 'concerns', 'widespread', 'tends', 'amplify', 'biases', 'geometrically', 'gender', 'bias', 'shown', 'captured', 'direction', 'word', 'embedding', 'second', 'gender', 'neutral', 'words', 'shown', 'linearly', 'separable', 'gender', 'definition', 'words', 'word', 'embedding', 'properties', 'provide', 'methodology', 'modifying', 'embedding', 'remove', 'gender', 'stereotypes', 'association', 'words', 'receptionist', 'female', 'maintaining', 'desired', 'associations', 'words', 'queen', 'female', 'crowd', 'worker', 'evaluation', 'standard', 'benchmarks', 'empirically', 'demonstrate', 'algorithms', 'significantly', 'reduce', 'gender', 'bias', 'embeddings', 'preserving', 'useful', 'properties', 'ability', 'cluster', 'related', 'concepts', 'solve', 'analogy', 'tasks', 'resulting', 'embeddings', 'applications', 'amplifying', 'gender', 'bias']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.30|x3: 0.13|x4: 0.17|x5: 0.34|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.21|x15: 0.14|x16: 0.39|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 5, 14, 16]</t>
-  </si>
-  <si>
-    <t>['technology', 'facilitated', 'sexual', 'violence', 'tfsv', 'refers', 'range', 'behaviors', 'digital', 'technologies', 'facilitate', 'virtual', 'face', 'face', 'sexually', 'based', 'harms', 'behaviors', 'include', 'online', 'sexual', 'harassment', 'gender', 'sexuality', 'based', 'harassment', 'cyberstalking', 'image', 'based', 'sexual', 'exploitation', 'carriage', 'service', 'coerce', 'victim', 'unwanted', 'sexual', 'article', 'reviews', 'current', 'state', 'knowledge', 'different', 'dimensions', 'drawing', 'existing', 'empirical', 'studies', 'growing', 'body', 'research', 'technology', 'facilitated', 'harms', 'perpetrated', 'children', 'adolescents', 'dearth', 'qualitative', 'quantitative', 'research', 'tfsv', 'adults', 'existing', 'studies', 'provide', 'reliable', 'nature', 'scope', 'impacts', 'tfsv', 'preliminary', 'studies', 'indicate', 'harms', 'like', 'sexual', 'violence', 'broadly', 'predominantly', 'gender', 'sexuality', 'based', 'young', 'women', 'overrepresented', 'victims', 'categories', 'review', 'collects', 'empirical', 'evidence', 'date', 'prevalence', 'gender', 'based', 'nature', 'tfsv', 'adults', 'discusses', 'implications', 'policy', 'programs', 'suggestions', 'future', 'research']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.26|x3: 0.00|x4: 0.20|x5: 0.46|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.18|x14: 0.00|x15: 0.00|x16: 0.54|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 12, 16]</t>
-  </si>
-  <si>
-    <t>['study', 'analyzes', 'digital', 'games', 'development', 'africa', 'examining', 'individual', 'texts', 'operate', 'broader', 'international', 'development', 'discourse', 'political', 'economic', 'products', 'implications', 'international', 'development', 'gaming', 'industries', 'conceptual', 'framework', 'proposed', 'process', 'looking', 'individual', 'games', 'alongside', 'organizations', 'funding', 'structures', 'argue', 'digital', 'games', 'technological', 'platform', 'present', 'revolutionary', 'approach', 'development', 'africa', 'reinforce', 'subvert', 'dominant', 'approaches', 'play']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.39|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.12|x8: 0.31|x9: 0.30|x10: 0.14|x11: 0.00|x12: 0.26|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['improved', 'understanding', 'geographical', 'variation', 'inequity', 'health', 'status', 'wealth', 'access', 'resources', 'countries', 'increasingly', 'recognized', 'central', 'meeting', 'development', 'goals', 'development', 'health', 'indicators', 'assessed', 'national', 'subnational', 'scale', 'conceal', 'important', 'inequities', 'rural', 'poor', 'represented', 'ability', 'target', 'limited', 'resources', 'fundamental', 'especially', 'international', 'context', 'funding', 'health', 'development', 'comes', 'pressure', 'recently', 'prompted', 'exploration', 'potential', 'spatial', 'interpolation', 'methods', 'based', 'geolocated', 'clusters', 'national', 'household', 'survey', 'resolution', 'mapping', 'features', 'population', 'structures', 'vaccination', 'coverage', 'access', 'sanitation', 'remains', 'unclear', 'predictable', 'different', 'factors', 'different', 'settings', 'variables', 'demographic', 'groups', 'test', 'accuracy', 'spatial', 'interpolation', 'methods', 'producing', 'gender', 'disaggregated', 'resolution', 'maps', 'rates', 'literacy', 'stunting', 'modern', 'contraceptive', 'methods', 'combination', 'geolocated', 'demographic', 'health', 'surveys', 'cluster', 'geospatial', 'covariates', 'bayesian', 'geostatistical', 'machine', 'learning', 'modelling', 'methods', 'tested', 'income', 'countries', 'varying', 'gridded', 'environmental', 'socio', 'economic', 'covariate', 'datasets', 'build', 'spatial', 'resolution', 'maps', 'uncertainty', 'estimates', 'results', 'potential', 'approach', 'producing', 'resolution', 'maps', 'gender', 'disaggregated', 'socio', 'economic', 'indicators', 'explained', 'variance', 'cross', 'validation', 'female', 'literacy', 'nigeria', 'kenya', 'range', 'variables', 'substantial', 'variations', 'country', 'variable', 'seen', 'variables', 'showing', 'poor', 'mapping', 'accuracies', 'range', 'explained', 'variance', 'geostatistical', 'machine', 'learning', 'approaches', 'analyses', 'offer', 'robust', 'basis', 'construction', 'timely', 'maps', 'levels', 'support', 'geographically', 'stratified', 'decision', 'making', 'monitoring', 'progress', 'development', 'goals', 'great', 'variability', 'results', 'countries', 'variables', 'highlights', 'challenges', 'applying', 'interpolation', 'methods', 'universally', 'multiple', 'countries', 'importance', 'validation', 'quantifying', 'uncertainty', 'undertaken']</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>x1: 0.27|x2: 0.15|x3: 0.31|x4: 0.33|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.33]</t>
-  </si>
-  <si>
-    <t>[1, 3, 4]</t>
-  </si>
-  <si>
-    <t>['compactness', 'landscape', 'connectivity', 'essential', 'properties', 'effective', 'functioning', 'conservation', 'reserves', 'article', 'introduce', 'linear', 'integer', 'programming', 'model', 'determine', 'optimal', 'configuration', 'conservation', 'reserve', 'properties', 'connectivity', 'defined', 'structural', 'physical', 'connectivity', 'functional', 'connectivity', 'model', 'developed', 'addresses', 'properties', 'apply', 'model', 'identify', 'optimal', 'conservation', 'management', 'areas', 'protection', 'gopher', 'tortoise', 'military', 'installation', 'benning', 'georgia', 'serves', 'safe', 'refuge', 'risk', 'species', 'recent', 'expansion', 'military', 'mission', 'installation', 'increases', 'pressure', 'scarce', 'habitat', 'areas', 'requires', 'moving', 'existent', 'populations', 'areas', 'suitably', 'chosen', 'conservation', 'management', 'areas', 'boundaries', 'installation', 'model', 'suitable', 'spatially', 'coherent', 'management', 'areas', 'outside', 'heavily', 'training', 'areas']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.25|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.15|x8: 0.20|x9: 0.19|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.84|x16: 0.19|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.84]</t>
-  </si>
-  <si>
-    <t>[2, 8, 15]</t>
-  </si>
-  <si>
-    <t>['negotiation', 'active', 'involvement', 'participation', 'water', 'managers', 'experts', 'stakeholders', 'representatives', 'general', 'public', 'requires', 'decision', 'support', 'tools', 'environmental', 'decision', 'support', 'systems', 'edss', 'build', 'transparency', 'flexibility', 'order', 'reach', 'sound', 'action', 'plans', 'management', 'instruments', 'possible', 'edss', 'active', 'involvement', 'stakeholders', 'application', 'bayesian', 'networks', 'paper', 'gives', 'example', 'study', 'danish', 'farmers', 'hydrologists', 'disputed', 'degree', 'pesticide', 'application', 'affected', 'quality', 'deep', 'groundwater', 'instead', 'selecting', 'opinion', 'decision', 'include', 'adopting', 'approach', 'possible', 'view', 'results', 'point', 'view', 'accepting', 'reality', 'situation', 'mired', 'insoluble', 'conflict', 'laying', 'foundation', 'future', 'compromises', 'paper', 'explores', 'tool', 'acting', 'dealing', 'management', 'groundwater', 'protection', 'allow', 'stakeholders', 'divergent', 'values', 'interests', 'beliefs', 'surfaced', 'negotiated', 'participatory', 'processes', 'areas', 'conventional', 'physically', 'based', 'groundwater', 'models', 'insufficient', 'lack', 'physical', 'understanding', 'flexibility', 'lack', 'integration', 'capability', 'agency', 'able', 'address', 'institutional', 'arrangement', 'influencing', 'groundwater', 'protection', 'complexity']</t>
-  </si>
-  <si>
-    <t>x1: 0.23|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.00|x6: 0.43|x7: 0.00|x8: 0.24|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.20|x14: 0.23|x15: 0.14|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 4, 6, 8, 9, 13, 14]</t>
-  </si>
-  <si>
-    <t>['produced', 'artificial', 'intelligence', 'ecosystem', 'services', 'aries', 'platform', 'supply', 'defined', 'carbon', 'storage', 'flood', 'regulation', 'demand', 'specified', 'recreation', 'water', 'joint', 'spatial', 'prioritisation', 'biodiversity', 'employing', 'marxan', 'zones', 'laying', 'spatial', 'representation', 'multiple', 'management', 'zones', 'given', 'transboundary', 'setting', 'danube', 'river', 'comparative', 'analyses', 'including', 'country', 'level', 'purchasing', 'power', 'parity', 'adjusted', 'gross', 'domestic', 'product', 'country', 'percent', 'cover', 'area', 'potential', 'cost', 'factors', 'illustrating', 'scheme', 'balancing', 'establishing', 'specific', 'zones', 'countries', 'demonstrate', 'emphasizing', 'biodiversity', 'targets', 'model', 'coupling', 'framework', 'cost', 'effectively', 'test', 'spatially', 'explicit', 'management', 'options', 'multi', 'national', 'study', 'discuss', 'possible', 'limitations', 'future', 'developments', 'requirements', 'effectively', 'managing', 'balance', 'biodiversity', 'supply', 'demand', 'freshwater', 'ecosystems']</t>
-  </si>
-  <si>
-    <t>x1: 0.18|x2: 0.17|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.50|x7: 0.12|x8: 0.00|x9: 0.00|x10: 0.15|x11: 0.15|x12: 0.25|x13: 0.00|x14: 0.16|x15: 0.32|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[6, 12, 15]</t>
-  </si>
-  <si>
-    <t>['deciding', 'implement', 'conservation', 'actions', 'order', 'meet', 'conservation', 'targets', 'efficiently', 'important', 'component', 'systematic', 'conservation', 'planning', 'mathematical', 'optimisation', 'quantitative', 'transparent', 'framework', 'solving', 'problems', 'despite', 'advantages', 'exact', 'methods', 'integer', 'linear', 'programming', 'conservation', 'planning', 'problems', 'date', 'solved', 'heuristic', 'approaches', 'simulated', 'annealing', 'explain', 'implement', 'common', 'conservation', 'planning', 'problems', 'marxan', 'marxan', 'zones', 'framework', 'formulations', 'extended', 'account', 'spatial', 'dependencies', 'planning', 'units', 'arising', 'environmental', 'flows', 'rivers', 'simulated', 'datasets', 'demonstrate', 'outperforms', 'respect', 'solution', 'quality', 'close', 'optimality', 'processing', 'time', 'range', 'problem', 'sizes', 'modestly', 'sized', 'quadratic', 'problems', 'spatial', 'units', 'species', 'example', 'processing', 'time', 'approximately', 'required', 'achieve', 'solution', 'optimality', 'achieved', 'solutions', 'optimality', 'largest', 'quadratic', 'problems', 'evaluated', 'processing', 'time', 'exceeding', 'required', 'achieve', 'solution', 'optimality', 'achieved', 'solutions', 'optimality', 'approximately', 'hour', 'heuristics', 'conceptually', 'simple', 'applied', 'large', 'linear', 'objective', 'functions', 'unlike', 'produce', 'solutions', 'unknown', 'quality', 'discuss', 'approaches', 'facilitate', 'quantification', 'trade', 'curves', 'sensitivity', 'analysis', 'solving', 'linear', 'quadratic', 'conservation', 'planning', 'problems', 'recommend', 'heuristic', 'approaches', 'possible']</t>
-  </si>
-  <si>
-    <t>[6, 14]</t>
-  </si>
-  <si>
-    <t>x1: 0.16|x2: 0.00|x3: 0.00|x4: 0.34|x5: 0.00|x6: 0.20|x7: 0.00|x8: 0.00|x9: 0.15|x10: 0.14|x11: 0.15|x12: 0.00|x13: 0.30|x14: 0.35|x15: 0.20|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 6, 13, 14]</t>
-  </si>
-  <si>
-    <t>['emerged', 'metaheuristic', 'optimization', 'techniques', 'colony', 'optimization', 'received', 'considerable', 'attentions', 'water', 'resources', 'environmental', 'planning', 'management', 'decade', 'different', 'versions', 'proved', 'flexible', 'powerful', 'solving', 'number', 'spatially', 'temporally', 'complex', 'water', 'resources', 'problems', 'discrete', 'continuous', 'domains', 'single', 'multiple', 'objectives', 'reviewing', 'large', 'number', 'peer', 'reviewed', 'journal', 'papers', 'valuable', 'conference', 'papers', 'intend', 'touch', 'characteristics', 'algorithms', 'critically', 'review', 'state', 'applications', 'water', 'resources', 'environmental', 'management', 'problems', 'discrete', 'continuous', 'domains', 'paper', 'seeks', 'promote', 'opportunities', 'advantages', 'disadvantages', 'algorithm', 'applied', 'different', 'areas', 'water', 'resources', 'problems', 'research', 'practice', 'intends', 'identify', 'present', 'major', 'seminal', 'contributions', 'algorithms', 'findings', 'organized', 'areas', 'reservoir', 'operation', 'surface', 'water', 'management', 'water', 'distribution', 'systems', 'urban', 'drainage', 'sewer', 'systems', 'groundwater', 'managements', 'environmental', 'watershed', 'management', 'current', 'trends', 'challenges', 'algorithms', 'discussed', 'called', 'attempts', 'carry', 'convergence', 'analysis', 'active', 'area']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.43|x5: 0.16|x6: 0.62|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.20|x12: 0.00|x13: 0.16|x14: 0.42|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.62]</t>
-  </si>
-  <si>
-    <t>[4, 6, 11, 14]</t>
-  </si>
-  <si>
-    <t>['increasing', 'incorporation', 'artificial', 'intelligence', 'automated', 'systems', 'decision', 'making', 'procedures', 'highlights', 'importance', 'decision', 'theory', 'automated', 'systems', 'need', 'decision', 'procedures', 'explainable', 'involved', 'traditional', 'realist', 'accounts', 'explanation', 'explanation', 'relation', 'holds', 'hold', 'eternally', 'explanans', 'explanandum', 'adequate', 'account', 'notion', 'explanation', 'required', 'artificial', 'decision', 'procedures', 'offer', 'alternative', 'account', 'explanation', 'context', 'automated', 'decision', 'making', 'makes', 'explanation', 'epistemic', 'phenomenon', 'dependent', 'context', 'account', 'explanation', 'better', 'accounts', 'talk', 'explanations', 'derived', 'concepts', 'explanatory', 'power', 'allows', 'differentiate', 'reasons', 'causes', 'hand', 'need', 'epistemic', 'aspect', 'explanations', 'aspect', 'theoretical', 'backdrop', 'review', 'existing', 'approaches', 'explanation', 'artificial', 'intelligence', 'machine', 'learning', 'suggest', 'desiderata', 'truly', 'explainable', 'decision', 'systems', 'fulfill', 'good', 'constructing', 'post', 'decisions', 'especially', 'clearly', 'exclusively', 'intuitive', 'spontaneous', 'unconscious', 'decisions', 'generally', 'count', 'adequate', 'explanations']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.39|x3: 0.00|x4: 0.00|x5: 0.13|x6: 0.27|x7: 0.00|x8: 0.25|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 6, 8, 12, 13, 16]</t>
-  </si>
-  <si>
-    <t>['live', 'paradox', 'systems', 'artificial', 'intelligence', 'match', 'surpass', 'human', 'level', 'performance', 'domains', 'leveraging', 'rapid', 'advances', 'technologies', 'driving', 'soaring', 'stock', 'prices', 'measured', 'productivity', 'growth', 'declined', 'past', 'decade', 'income', 'stagnated', 'late', 'majority', 'americans', 'potential', 'explanations', 'clash', 'expectations', 'statistics', 'false', 'hopes', 'mismeasurement', 'redistribution', 'implementation', 'lags', 'argue', 'lags', 'biggest', 'contributor', 'paradox', 'impressive', 'capabilities', 'particularly', 'based', 'machine', 'learning', 'diffused', 'widely', 'importantly', 'like', 'general', 'purpose', 'technologies', 'effects', 'realized', 'waves', 'complementary', 'innovations', 'developed', 'implemented', 'required', 'adjustment', 'costs', 'organizational', 'changes', 'skills', 'modeled', 'kind', 'intangible', 'capital', 'portion', 'value', 'intangible', 'capital', 'reflected', 'market', 'value', 'firms', 'going', 'forward', 'national', 'statistics', 'fail', 'measure', 'benefits', 'technologies', 'wrong', 'sign']</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>x1: 0.12|x2: 0.17|x3: 0.14|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.34|x8: 0.22|x9: 0.23|x10: 0.39|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['summarize', 'framework', 'study', 'implications', 'automation', 'demand', 'labor', 'wages', 'employment', 'task', 'based', 'framework', 'emphasizes', 'displacement', 'effect', 'automation', 'creates', 'machines', 'replace', 'labor', 'tasks', 'perform', 'displacement', 'effect', 'tends', 'reduce', 'demand', 'labor', 'wages', 'counteracted', 'productivity', 'effect', 'resulting', 'cost', 'savings', 'generated', 'automation', 'increase', 'demand', 'labor', 'automated', 'tasks', 'productivity', 'effect', 'complemented', 'additional', 'capital', 'accumulation', 'deepening', 'automation', 'improvements', 'existing', 'machinery', 'increase', 'demand', 'labor', 'countervailing', 'effects', 'incomplete', 'strong', 'automation', 'creases', 'output', 'worker', 'wages', 'reduce', 'labor', 'national', 'income', 'powerful', 'countervailing', 'force', 'automation', 'creation', 'labor', 'intensive', 'tasks', 'reinstates', 'labor', 'activities', 'tends', 'increase', 'labor', 'counterbalance', 'impact', 'automation', 'framework', 'highlights', 'constraints', 'imperfections', 'slow', 'adjustment', 'economy', 'labor', 'market', 'automation', 'weaken', 'resulting', 'productivity', 'gains', 'transformation', 'mismatch', 'skill', 'requirements', 'technologies', 'possibility', 'automation', 'introduced', 'excessive', 'rate', 'possibly', 'expense', 'productivity', 'enhancing', 'technologies']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.54|x3: 0.29|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.36|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.32|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['combination', 'availability', 'large', 'amounts', 'finegrained', 'human', 'behavioral', 'advances', 'machine', 'learning', 'presiding', 'growing', 'reliance', 'algorithms', 'address', 'complex', 'societal', 'problems', 'algorithmic', 'decision', 'making', 'processes', 'lead', 'objective', 'potentially', 'fairer', 'decisions', 'humans', 'influenced', 'greed', 'prejudice', 'fatigue', 'hunger', 'algorithmic', 'decision', 'making', 'criticized', 'potential', 'enhance', 'discrimination', 'information', 'power', 'asymmetry', 'opacity', 'paper', 'provide', 'overview', 'available', 'technical', 'solutions', 'enhance', 'fairness', 'accountability', 'transparency', 'algorithmic', 'decision', 'making', 'highlight', 'criticality', 'urgency', 'engage', 'multi', 'disciplinary', 'teams', 'researchers', 'practitioners', 'policy', 'makers', 'citizens', 'develop', 'deploy', 'evaluate', 'world', 'algorithmic', 'decision', 'making', 'processes', 'designed', 'maximize', 'fairness', 'transparency', 'open', 'algortihms', 'opal', 'project', 'step']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.38|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.42|x9: 0.45|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.16|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 8, 9, 12, 16]</t>
-  </si>
-  <si>
-    <t>['examine', 'susceptible', 'jobs', 'computerisation', 'assess', 'begin', 'implementing', 'novel', 'methodology', 'estimate', 'probability', 'computerisation', 'detailed', 'occupations', 'gaussian', 'process', 'classifier', 'based', 'estimates', 'examine', 'expected', 'impacts', 'future', 'computerisation', 'labour', 'market', 'outcomes', 'primary', 'objective', 'analysing', 'number', 'jobs', 'risk', 'relationship', 'occupation', 'probability', 'computerisation', 'wages', 'educational', 'attainment', 'according', 'estimates', 'percent', 'employment', 'risk', 'provide', 'evidence', 'wages', 'educational', 'attainment', 'exhibit', 'strong', 'negative', 'relationship', 'occupation', 'probability', 'computerisation']</t>
-  </si>
-  <si>
-    <t>x1: 0.25|x2: 0.25|x3: 0.28|x4: 0.44|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.41|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 9, 13]</t>
-  </si>
-  <si>
-    <t>['paper', 'presents', 'comprehensive', 'review', 'studies', 'employ', 'operational', 'research', 'artificial', 'intelligence', 'techniques', 'assessment', 'bank', 'performance', 'discuss', 'numerous', 'applications', 'envelopment', 'analysis', 'widely', 'applied', 'technique', 'field', 'discuss', 'applications', 'techniques', 'neural', 'networks', 'support', 'vector', 'machines', 'multicriteria', 'decision', 'recent', 'years', 'bank', 'failure', 'prediction', 'studies', 'assessment', 'bank']</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.32|x7: 0.28|x8: 0.13|x9: 0.17|x10: 0.32|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.29|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[5, 6, 7, 10, 14, 16]</t>
-  </si>
-  <si>
-    <t>['reliable', 'water', 'level', 'forecasting', 'reservoir', 'inflow', 'essential', 'reservoir', 'operation', 'objective', 'paper', 'develop', 'apply', 'hybrid', 'models', 'daily', 'water', 'level', 'forecasting', 'investigate', 'accuracy', 'hybrid', 'models', 'wavelet', 'based', 'artificial', 'neural', 'network', 'wann', 'wavelet', 'based', 'adaptive', 'neuro', 'fuzzy', 'inference', 'wanfis', 'wavelet', 'decomposition', 'employed', 'decompose', 'input', 'time', 'series', 'approximation', 'components', 'decomposed', 'time', 'series', 'inputs', 'artificial', 'neural', 'networks', 'adaptive', 'neuro', 'fuzzy', 'inference', 'anfis', 'wann', 'wanfis', 'models', 'respectively', 'based', 'statistical', 'performance', 'indexes', 'wann', 'wanfis', 'models', 'produce', 'better', 'efficiency', 'anfis', 'models', 'wanfis', 'yields', 'best', 'performance', 'models', 'wavelet', 'decomposition', 'improves', 'accuracy', 'anfis', 'study', 'evaluates', 'accuracy', 'wann', 'wanfis', 'models', 'different', 'mother', 'wavelets', 'including', 'daubechies', 'symmlet', 'coiflet', 'wavelets', 'model', 'performance', 'dependent', 'input', 'sets', 'mother', 'wavelets', 'wavelet', 'decomposition', 'mother', 'wavelet', 'improve', 'efficiency', 'anfis', 'models', 'results', 'obtained', 'study', 'indicate', 'conjunction', 'wavelet', 'decomposition', 'artificial', 'intelligence', 'models', 'useful', 'tool', 'accurate', 'forecasting', 'daily', 'water', 'level', 'yield', 'better', 'efficiency', 'conventional', 'forecasting', 'models']</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.34|x7: 0.27|x8: 0.21|x9: 0.26|x10: 0.32|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.11|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['electricity', 'important', 'asset', 'influences', 'economy', 'political', 'social', 'security', 'country', 'reliable', 'accurate', 'planning', 'prediction', 'electricity', 'demand', 'country', 'vital', 'paper', 'electricity', 'demand', 'ontario', 'province', 'canada', 'modeled', 'adaptive', 'neuro', 'fuzzy', 'inference', 'anfis', 'neuro', 'fuzzy', 'structure', 'defined', 'artificial', 'neural', 'network', 'trained', 'experimental', 'parameters', 'fuzzy', 'inference', 'inputs', 'model', 'include', 'number', 'employment', 'gross', 'domestic', 'product', 'population', 'dwelling', 'count', 'meteorological', 'parameters', 'related', 'annual', 'weather', 'temperature', 'collected', 'screened', 'statistical', 'methods', 'based', 'neuro', 'fuzzy', 'model', 'electricity', 'demand', 'built', 'electricity', 'demand', 'sensitive', 'employment']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.28|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.31|x8: 0.18|x9: 0.24|x10: 0.36|x11: 0.00|x12: 0.00|x13: 0.37|x14: 0.00|x15: 0.26|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 7, 9, 10, 13, 15]</t>
-  </si>
-  <si>
-    <t>['cities', 'regions', 'twentieth', 'century', 'radical', 'turn', 'taking', 'place', 'information', 'communication', 'technologies', 'converging', 'innovation', 'regional', 'economies', 'innovative', 'clusters', 'agglomerations', 'intelligent', 'cities', 'orientation', 'creation', 'environments', 'improve', 'cognitive', 'skills', 'ability', 'learn', 'foresee', 'innovate', 'paper', 'discusses', 'driving', 'forces', 'sustaining', 'rise', 'intelligent', 'cities', 'globalization', 'innovation', 'clusters', 'networks', 'open', 'innovation', 'based', 'collaborative', 'environments', 'look', 'movements', 'shaping', 'local', 'initiatives', 'world', 'european', 'living', 'labs', 'applications', 'developed', 'large', 'companies', 'like', 'cisco', 'paper', 'focuses', 'planning', 'challenges', 'building', 'intelligent', 'cities', 'interactive', 'systems', 'innovation', 'discuss', 'problem', 'integration', 'physical', 'institutional', 'digital', 'dimensions', 'intelligent', 'cities', 'bridges', 'connect', 'spatialities']</t>
-  </si>
-  <si>
-    <t>[9, 11]</t>
-  </si>
-  <si>
-    <t>x1: 0.15|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.41|x9: 0.51|x10: 0.00|x11: 0.35|x12: 0.23|x13: 0.21|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.51]</t>
-  </si>
-  <si>
-    <t>[8, 9, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['problem', 'statement', 'recent', 'commercial', 'residential', 'development', 'substantially', 'impacted', 'fluxes', 'quality', 'water', 'recharge', 'aquifers', 'discharges', 'streams', 'lakes', 'wetlands', 'ultimately', 'recycled', 'potable', 'contaminant', 'sources', 'varied', 'scope', 'composition', 'issues', 'urban', 'water', 'sustainability', 'public', 'health', 'concern', 'levels', 'economic', 'development', 'worldwide', 'require', 'cheap', 'innovative', 'environmental', 'sensing', 'capabilities', 'interactive', 'monitoring', 'networks', 'tailored', 'distributed', 'water', 'treatment', 'technologies', 'address', 'need', 'roundtable', 'organized', 'explore', 'potential', 'role', 'advances', 'biotechnology', 'bioengineering', 'developing', 'causative', 'relationships', 'spatial', 'temporal', 'changes', 'urbanization', 'patterns', 'groundwater', 'surface', 'water', 'quality', 'parameters', 'address', 'aspects', 'socioeconomic', 'constraints', 'implementing', 'sustainable', 'exploitation', 'water', 'resources', 'workshop', 'outcomes', 'interactive', 'framework', 'quantitative', 'analysis', 'coupling', 'human', 'natural', 'systems', 'requires', 'integrating', 'information', 'derived', 'online', 'offline', 'point', 'measurements', 'geographic', 'information', 'systems', 'based', 'remote', 'sensing', 'imagery', 'analysis', 'groundwater']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.23|x5: 0.14|x6: 0.57|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.33|x12: 0.22|x13: 0.35|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 6, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['chapter', 'presents', 'methodology', 'maintenance', 'optimization', 'heterogeneous', 'infrastructure', 'systems', 'systems', 'composed', 'multiple', 'facilities', 'different', 'characteristics', 'environments', 'materials', 'deterioration', 'processes', 'present', 'stage', 'approach', 'step', 'optimal', 'near', 'optimal', 'maintenance', 'policies', 'facility', 'inputs', 'level', 'optimization', 'second', 'step', 'problem', 'formulated', 'constrained', 'combinatorial', 'optimization', 'problem', 'best', 'combination', 'facility', 'level', 'optimal', 'near', 'optimal', 'solutions', 'identified', 'evolutionary', 'algorithm', 'adopted', 'solve', 'combinatorial', 'optimization', 'problem', 'performance', 'evaluated', 'hypothetical', 'pavement', 'sections', 'near', 'optimal', 'solution', 'difference', 'optimal', 'solution', 'obtained', 'cases', 'numerical', 'experiments', 'potential', 'proposed', 'algorithm', 'solve', 'maintenance', 'optimization', 'problem', 'realistic', 'heterogeneous', 'systems']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.64|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.19|x7: 0.00|x8: 0.19|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.41|x13: 0.00|x14: 0.43|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.64]</t>
-  </si>
-  <si>
-    <t>[2, 12, 14]</t>
-  </si>
-  <si>
-    <t>['impact', 'industrial', 'digital', 'information', 'revolutions', 'undoubtedly', 'substantial', 'practically', 'aspects', 'society', 'life', 'firms', 'employment', 'forthcoming', 'revolution', 'produce', 'similar', 'farreaching', 'effects', 'examining', 'analogous', 'inventions', 'industrial', 'digital', 'revolutions', 'article', 'claims', 'target', 'bring', 'extensive', 'changes', 'affect', 'aspects', 'society', 'life', 'addition', 'impact', 'firms', 'employment', 'considerable', 'resulting', 'richly', 'interconnected', 'organizations', 'decision', 'making', 'based', 'analysis', 'exploitation', 'intensified', 'global', 'competition', 'firms', 'capable', 'buying', 'good', 'obtaining', 'services', 'world', 'internet', 'exploiting', 'unlimited', 'additional', 'benefits', 'open', 'widespread', 'usage', 'inventions', 'paper', 'concludes', 'significant', 'competitive', 'advantages', 'continue', 'accrue', 'utilizing', 'internet', 'widely', 'willing', 'entrepreneurial', 'risks', 'order', 'turn', 'innovative', 'worldwide', 'commercial', 'success', 'stories', 'greatest', 'challenge', 'facing', 'societies', 'firms', 'utilising', 'benefits', 'availing', 'technologies', 'providing', 'vast', 'opportunities', 'immense', 'productivity', 'improvements', 'avoiding', 'dangers', 'disadvantages', 'terms', 'unemployment', 'greater', 'wealth', 'inequalities']</t>
-  </si>
-  <si>
-    <t>[10, 11]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.13|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.37|x9: 0.40|x10: 0.12|x11: 0.00|x12: 0.23|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[8, 9, 12, 14]</t>
-  </si>
-  <si>
-    <t>['market', 'abuse', 'attracted', 'attention', 'financial', 'regulators', 'world', 'difficult', 'fully', 'prevent', 'reasons', 'lack', 'thoroughly', 'studies', 'market', 'abuse', 'strategies', 'corresponding', 'effective', 'market', 'abuse', 'approaches', 'paper', 'strategies', 'reported', 'price', 'manipulation', 'cases', 'analysed', 'related', 'empirical', 'studies', 'transformation', 'defined', 'convert', 'time', 'varying', 'financial', 'trading', 'time', 'series', 'machine', 'learning', 'algorithms', 'easily', 'applied', 'detection', 'price', 'manipulation', 'evaluation', 'experiments', 'conducted', 'stocks', 'nasdaq', 'promising', 'improved', 'performance', 'effectively', 'detecting', 'manipulation', 'cases']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.42|x3: 0.38|x4: 0.18|x5: 0.19|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.13|x10: 0.00|x11: 0.13|x12: 0.00|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.18|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 14]</t>
-  </si>
-  <si>
-    <t>['society', 'increasingly', 'relying', 'driven', 'predictive', 'models', 'automated', 'decision', 'making', 'design', 'nature', 'noisiness', 'observational', 'models', 'systematically', 'disadvantage', 'belonging', 'certain', 'categories', 'groups', 'instead', 'relying', 'solely', 'individual', 'merits', 'happen', 'computing', 'process', 'fair', 'intentioned', 'mining', 'studies', 'predictive', 'models', 'free', 'discrimination', 'historical', 'built', 'biased', 'incomplete', 'contain', 'past', 'discriminatory', 'decisions', 'discrimination', 'aware', 'mining', 'emerging', 'research', 'discipline', 'firm', 'consensus', 'measure', 'performance', 'algorithms', 'goal', 'survey', 'review', 'discrimination', 'measures', 'analytically', 'computationally', 'analyze', 'performance', 'highlight', 'implications', 'measure', 'measures', 'disciplines', 'measuring', 'discrimination', 'potentially', 'suitable', 'purpose', 'survey', 'primarily', 'intended', 'researchers', 'mining', 'machine', 'learning', 'step', 'producing', 'unifying', 'view', 'performance', 'criteria', 'developing', 'algorithms', 'discriminatory', 'predictive', 'modeling', 'addition', 'practitioners', 'policy', 'makers', 'study', 'diagnosing', 'potential', 'discrimination', 'predictive', 'models']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.14|x3: 0.00|x4: 0.24|x5: 0.20|x6: 0.00|x7: 0.17|x8: 0.22|x9: 0.22|x10: 0.20|x11: 0.00|x12: 0.16|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.29]</t>
-  </si>
-  <si>
-    <t>[4, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['background', 'increasing', 'discriminatory', 'challenges', 'facing', 'artificial', 'intelligence', 'applications', 'paper', 'examines', 'requirements', 'needed', 'comply', 'european', 'discrimination', 'prevent', 'discrimination', 'automated', 'online', 'advertising', 'business', 'paper', 'explains', 'circumstance', 'automated', 'targeting', 'advertisements', 'direct', 'indirect', 'discrimination', 'paper', 'concludes', 'technical', 'recommendations', 'dismantle', 'dangers', 'automated', 'advertising', 'options', 'like', 'influencing', 'processing', 'altering', 'algorithmic', 'models', 'evaluated', 'paper', 'examines', 'possibilities', 'techniques', 'like', 'mining', 'machine', 'learning', 'actively', 'battle', 'direct', 'indirect', 'discrimination', 'european', 'discrimination', 'directives', 'prohibit', 'direct', 'indirect', 'discrimination', 'field', 'employment', 'grounds', 'race', 'ethnic', 'origin', 'sexual', 'orientation', 'religious', 'belief', 'disability', 'legal', 'framework']</t>
-  </si>
-  <si>
-    <t>x1: 0.23|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.19|x8: 0.32|x9: 0.29|x10: 0.22|x11: 0.00|x12: 0.23|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.30|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 5, 8, 9, 10, 12, 16]</t>
-  </si>
-  <si>
-    <t>['long', 'cartographic', 'tradition', 'describing', 'cities', 'focus', 'characteristics', 'residents', 'review', 'history', 'type', 'urban', 'social', 'analysis', 'highlights', 'persistent', 'challenges', 'paper', 'existing', 'geodemographic', 'approaches', 'extended', 'coupling', 'kohonen', 'self', 'organizing', 'algorithm', 'mining', 'technique', 'geographic', 'information', 'systems', 'approach', 'allows', 'construction', 'linked', 'maps', 'social', 'attribute', 'geographic', 'space', 'novel', 'type', 'geodemographic', 'classification', 'allows', 'hierarchical', 'groupings', 'exploration', 'relationship', 'social', 'similarity', 'geographic', 'proximity', 'allows', 'filter', 'complex', 'demographic', 'datasets', 'capable', 'highlighting', 'general', 'social', 'patterns', 'retaining', 'fundamental', 'social', 'fingerprints', 'city', 'dataset', 'describing', 'attributes', 'census', 'tracts', 'york', 'city', 'analyzed', 'illustrate', 'technique', 'pairs', 'social', 'geographic', 'maps', 'formally', 'compared', 'simple', 'pattern', 'metrics', 'analysis', 'york', 'city', 'calls', 'question', 'assumptions', 'functional', 'spatial', 'relationships', 'underlie', 'modeling', 'statistical', 'techniques']</t>
-  </si>
-  <si>
-    <t>x1: 0.51|x2: 0.34|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.14|x10: 0.00|x11: 0.25|x12: 0.23|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 11, 12, 14]</t>
-  </si>
-  <si>
-    <t>['present', 'aidr', 'artificial', 'intelligence', 'disaster', 'response', 'platform', 'designed', 'perform', 'automatic', 'classification', 'crisis', 'related', 'microblog', 'communications', 'aidr', 'enables', 'humans', 'machines', 'work', 'apply', 'human', 'intelligence', 'large', 'scale', 'speed', 'objective', 'aidr', 'classify', 'messages', 'post', 'disasters', 'user', 'defined', 'categories', 'information', 'needs', 'damage', 'purpose', 'continuously', 'ingests', 'twitter', 'processes', 'machine', 'learning', 'classification', 'techniques', 'leverages', 'human', 'participation', 'crowdsourcing', 'time', 'aidr', 'successfully', 'tested', 'classify', 'informative', 'informative', 'tweets', 'posted', 'pakistan', 'earthquake', 'overall', 'achieved', 'classification', 'quality', 'measured', 'aidr', 'available', 'http', 'aidr', 'qcri']</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>x1: 0.42|x2: 0.00|x3: 0.00|x4: 0.12|x5: 0.22|x6: 0.00|x7: 0.14|x8: 0.24|x9: 0.20|x10: 0.16|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 5, 8, 12, 16]</t>
-  </si>
-  <si>
-    <t>['paper', 'presents', 'results', 'attempt', 'perform', 'modeling', 'concentration', 'urban', 'area', 'vicinity', 'copper', 'smelter', 'serbia', 'anfis', 'methodological', 'approach', 'obtained', 'model', 'develop', 'prediction', 'tool', 'calculate', 'potential', 'concentration', 'prescribed', 'limitation', 'based', 'input', 'parameters', 'predictors', 'technogenic', 'meteorological', 'input', 'parameters', 'considered', 'accordingly', 'dependence', 'concentration', 'modeled', 'function', 'wind', 'speed', 'wind', 'direction', 'temperature', 'humidity', 'sulfur', 'emitted', 'process', 'sulfidic', 'copper', 'concentration', 'treatment']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.13|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.32|x8: 0.28|x9: 0.38|x10: 0.38|x11: 0.13|x12: 0.00|x13: 0.38|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['study', 'presents', 'basic', 'concepts', 'applications', 'artificial', 'intelligence', 'development', 'intelligent', 'transport', 'systems', 'smart', 'cities', 'india', 'growing', 'urbanization', 'government', 'realized', 'need', 'developing', 'smart', 'cities', 'cope', 'challenges', 'urban', 'living', 'magnets', 'investment', 'india', 'transport', 'smart', 'cities', 'accessible', 'safe', 'environmentally', 'friendly', 'faster', 'comfortable', 'affordable', 'compromising', 'future', 'needs', 'indian', 'cities', 'largely', 'lacks', 'intelligent', 'transport', 'india', 'problems', 'inefficient', 'public', 'transport', 'severe', 'congestion', 'increasing', 'incidence', 'road', 'accidents', 'inadequate', 'parking', 'spaces', 'rapidly', 'increasing', 'energy', 'cost', 'development', 'intelligent', 'transportation', 'essential', 'smart', 'cities', 'concerns', 'environmental', 'economic', 'social', 'equity', 'artificial', 'intelligence', 'technology', 'resolve', 'issues', 'urgent', 'need', 'adopt', 'artificial', 'intelligence', 'development', 'intelligent', 'transport', 'better', 'understand', 'control', 'operations', 'smart', 'cities', 'main', 'objective', 'study', 'present', 'basic', 'concepts', 'artificial', 'intelligence', 'applications', 'development', 'intelligent', 'transport', 'smart', 'cities', 'india', 'study', 'concludes', 'artificial', 'intelligence', 'needs', 'adopted', 'develop', 'smart', 'public', 'transport', 'intelligent', 'traffic', 'management', 'control', 'smart', 'traveller', 'information', 'smart', 'parking', 'management', 'safe', 'mobility', 'emergency', 'smart', 'cities', 'expected', 'study', 'pave', 'development', 'intelligent', 'transport', 'smart', 'cities', 'india']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.25|x8: 0.24|x9: 0.32|x10: 0.30|x11: 0.56|x12: 0.19|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[7, 8, 9, 10, 11]</t>
-  </si>
-  <si>
-    <t>['license', 'plate', 'recognition', 'divided', 'following', 'steps', 'preprocessing', 'plate', 'region', 'extraction', 'plate', 'region', 'thresholding', 'character', 'segmentation', 'character', 'recognition', 'post', 'processing', 'step', 'combination', 'color', 'shape', 'information', 'plate', 'satisfactory', 'extraction', 'result', 'achieved', 'step', 'channel', 'selected', 'threshold', 'computed', 'finally', 'region', 'thresholded', 'step', 'character', 'segmented', 'vertical', 'horizontal', 'direction', 'tentative', 'optimizations', 'applied', 'step', 'euclidean', 'distance', 'based', 'template', 'matching', 'confusing', 'characters', 'special', 'processing', 'necessary', 'step', 'validity', 'checked', 'machine', 'manual', 'experiment', 'performed', 'program', 'based', 'aforementioned', 'algorithms', 'indicates', 'based', 'color', 'image', 'processing', 'quick', 'accurate']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.00|x5: 0.14|x6: 0.21|x7: 0.00|x8: 0.36|x9: 0.30|x10: 0.12|x11: 0.00|x12: 0.34|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.36]</t>
-  </si>
-  <si>
-    <t>[6, 8, 9, 12, 16]</t>
-  </si>
-  <si>
-    <t>['nonlinear', 'artificial', 'intelligence', 'ensemble', 'prediction', 'naiep', 'model', 'developed', 'predicting', 'typhoon', 'based', 'multiple', 'neural', 'networks', 'expected', 'output', 'evolutionary', 'genetic', 'algorithm', 'model', 'validated', 'short', 'range', 'forecasts', 'typhoon', 'south', 'china', 'results', 'naiep', 'model', 'clearly', 'better', 'climatology', 'persistence', 'cliper', 'model', 'forecasts', 'typhoon', 'identical', 'predictors', 'sample', 'cases', 'predictions', 'genetic', 'neural', 'network', 'ensemble', 'prediction', 'gnnep', 'model', 'compared', 'single', 'prediction', 'model', 'proven', 'theoretically', 'accurate', 'computation', 'analysis', 'generalization', 'capacity', 'gnnep', 'demonstrate', 'prediction', 'ensemble', 'model', 'integrates', 'predictions', 'optimized', 'ensemble', 'members', 'generalization', 'capacity', 'ensemble', 'prediction', 'model', 'enhanced', 'model', 'better', 'addresses', 'overfitting', 'problem', 'generally', 'exists', 'traditional', 'neural', 'network', 'approach', 'practical', 'weather', 'prediction']</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.72|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.34|x8: 0.17|x9: 0.23|x10: 0.40|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 7, 9, 10]</t>
-  </si>
-  <si>
-    <t>['automatic', 'video', 'analysis', 'urban', 'surveillance', 'cameras', 'fast', 'emerging', 'field', 'based', 'vision', 'techniques', 'present', 'comprehensive', 'review', 'state', 'vision', 'traffic', 'video', 'critical', 'analysis', 'outlook', 'future', 'research', 'directions', 'field', 'increasing', 'relevance', 'intelligent', 'transport', 'systems', 'itss', 'decreasing', 'hardware', 'cost', 'increasing', 'deployment', 'cameras', 'opened', 'wide', 'application', 'field', 'video', 'analytics', 'monitoring', 'objectives', 'congestion', 'traffic', 'rule', 'violation', 'vehicle', 'interaction', 'targeted', 'cameras', 'typically', 'originally', 'installed', 'human', 'operators', 'systems', 'detection', 'classification', 'vehicles', 'highways', 'successfully', 'classical', 'visual', 'surveillance', 'techniques', 'background', 'estimation', 'motion', 'tracking', 'time', 'urban', 'domain', 'challenging', 'respect', 'traffic', 'density', 'camera', 'angles', 'lead', 'degree', 'occlusion', 'variety', 'road', 'users', 'methods', 'object', 'categorization', 'modeling', 'inspired', 'advanced', 'techniques', 'tackle', 'challenges', 'commonly', 'benchmark', 'challenge', 'makes', 'direct', 'comparison', 'proposed', 'algorithms', 'difficult', 'addition', 'evaluation', 'challenging', 'weather', 'conditions', 'rain', 'darkness', 'desirable', 'rarely', 'performed', 'future', 'work', 'directed', 'robust', 'combined', 'detectors', 'classifiers', 'road', 'users', 'focus', 'realistic', 'conditions', 'evaluation']</t>
-  </si>
-  <si>
-    <t>x1: 0.22|x2: 0.00|x3: 0.40|x4: 0.00|x5: 0.28|x6: 0.28|x7: 0.14|x8: 0.00|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 6, 13, 16]</t>
-  </si>
-  <si>
-    <t>['losses', 'matter', 'captured', 'statistics', 'dollar', 'value', 'engineers', 'chipping', 'away', 'staggering', 'numbers', 'long', 'time', 'bags', 'seat', 'belts', 'save', 'tens', 'thousands', 'supercomputers', 'designers', 'create', 'frames', 'bodies', 'protect', 'inside', 'absorbing', 'energy', 'crash', 'possible', 'result', 'number', 'fatalities', 'miles', 'vehicle', 'travel', 'decreased', 'ultimate', 'solution', 'save', 'lives', 'limbs', 'money', 'cars', 'smashing', 'place', 'exactly', 'engineers', 'united', 'states', 'europe', 'japan', 'trying', 'applying', 'advanced', 'microprocessors', 'radars', 'speed', 'signal', 'processing', 'chips', 'algorithms', 'programs', 'mark', 'face', 'automotive', 'industry', 'safety', 'systems', 'kick', 'accident', 'occurs', 'attempting', 'minimize', 'injury', 'damage', 'ones', 'prevent', 'collisions', 'altogether', 'collision', 'avoidance', 'features', 'road', 'pricey', 'adaptive', 'cruise', 'control', 'options', 'group', 'luxury', 'cars', 'years', 'systems']</t>
-  </si>
-  <si>
-    <t>x1: 0.15|x2: 0.16|x3: 0.29|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.36|x9: 0.48|x10: 0.00|x11: 0.26|x12: 0.12|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 8, 9, 11]</t>
-  </si>
-  <si>
-    <t>['harmful', 'algal', 'blooms', 'considered', 'environmental', 'problem', 'nowadays', 'occur', 'coastal', 'waters', 'parts', 'world', 'cause', 'acute', 'ecological', 'damage', 'ensuing', 'economic', 'losses', 'fish', 'kills', 'shellfish', 'poisoning', 'public', 'health', 'threats', 'posed', 'toxic', 'blooms', 'recently', 'driven', 'models', 'including', 'machine', 'learning', 'techniques', 'employed', 'mimic', 'dynamics', 'algal', 'blooms', 'important', 'steps', 'application', 'technique', 'selection', 'significant', 'model', 'input', 'variables', 'present', 'paper', 'extensively', 'techniques', 'artificial', 'neural', 'networks', 'genetic', 'programming', 'selecting', 'significant', 'input', 'variables', 'efficacy', 'techniques', 'demonstrated', 'test', 'problem', 'known', 'dependence', 'applied', 'world', 'study', 'water', 'quality', 'tolo', 'harbour', 'hong', 'kong', 'techniques', 'overcome', 'limitations', 'currently', 'techniques', 'input', 'variable', 'selection', 'review', 'presented', 'interpretation', 'weights', 'trained', 'evolved', 'equations', 'demonstrate', 'ability', 'identify', 'ecologically', 'significant', 'variables', 'precisely', 'significant', 'variables', 'suggested', 'techniques', 'indicate', 'chlorophyll', 'chla', 'significant', 'input', 'predicting', 'algal', 'blooms', 'suggesting', 'auto', 'regressive', 'nature', 'persistence', 'algal', 'bloom', 'dynamics', 'related', 'long', 'flushing', 'time', 'semi', 'enclosed', 'coastal', 'waters', 'study', 'confirms', 'previous', 'understanding', 'algal', 'blooms', 'coastal', 'waters', 'hong', 'kong', 'occur', 'life', 'cycle', 'order', 'weeks']</t>
-  </si>
-  <si>
-    <t>x1: 0.40|x2: 0.21|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.63|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.40|x15: 0.00|x16: 0.18|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['forest', 'fires', 'importantly', 'influence', 'environment', 'lives', 'ability', 'accurately', 'predicting', 'area', 'involved', 'forest', 'event', 'help', 'optimizing', 'management', 'efforts', 'given', 'complexity', 'task', 'powerful', 'computational', 'tools', 'needed', 'predicting', 'area', 'burned', 'forest', 'purpose', 'study', 'develop', 'intelligent', 'based', 'genetic', 'programming', 'prediction', 'burned', 'areas', 'related', 'forest', 'analysis', 'meteorological', 'geometric', 'semantic', 'genetic', 'programming', 'based', 'recently', 'defined', 'geometric', 'semantic', 'genetic', 'operators', 'genetic', 'programming', 'experimental', 'results', 'achieved', 'database', 'forest', 'events', 'showed', 'appropriateness', 'proposed', 'prediction', 'burned', 'areas', 'particular', 'results', 'obtained', 'geometric', 'semantic', 'genetic', 'programming', 'significantly', 'better', 'produced', 'standard', 'genetic', 'programming', 'state', 'machine', 'learning', 'methods', 'training', 'sample', 'study', 'suggests', 'deeper', 'investigation', 'genetic', 'programming', 'field', 'forest', 'fires', 'prediction', 'productive', 'giere', 'investigaciones', 'profundas', 'programacion', 'genetica', 'campo', 'prediccion', 'incendios', 'forestales', 'pueden', 'productivas']</t>
-  </si>
-  <si>
-    <t>x1: 0.23|x2: 0.43|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.17|x15: 0.91|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.91]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 15]</t>
-  </si>
-  <si>
-    <t>['pedestrians', 'vulnerable', 'traffic', 'participants', 'motion', 'prediction', 'utmost', 'importance', 'intelligent', 'transportation', 'systems', 'predicting', 'motions', 'pedestrians', 'especially', 'hard', 'structured', 'environments', 'inertia', 'compared', 'road', 'vehicles', 'account', 'uncertainty', 'present', 'approach', 'probabilistic', 'prediction', 'pedestrian', 'motion', 'markov', 'chains', 'contrast', 'previous', 'work', 'consider', 'motion', 'models', 'constraints', 'semantic', 'goals', 'explicitly', 'adapt', 'prediction', 'based', 'crash', 'probabilities', 'traffic', 'participants', 'approach', 'works', 'situation', 'typically', 'challenging', 'pure', 'machine', 'learning', 'techniques', 'learn', 'behaviors', 'particular', 'road', 'section', 'consequently', 'struggle', 'different', 'road', 'section', 'usefulness', 'combining', 'aforementioned', 'aspects', 'single', 'approach', 'demonstrated', 'evaluation', 'recordings', 'pedestrians']</t>
-  </si>
-  <si>
-    <t>x1: 0.38|x2: 0.00|x3: 0.37|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.40|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.30|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['recent', 'advances', 'field', 'artificial', 'intelligence', 'increasing', 'number', 'decision', 'making', 'tasks', 'delegated', 'software', 'systems', 'requirement', 'success', 'adoption', 'systems', 'users', 'trust', 'choices', 'fully', 'automated', 'decisions', 'achieve', 'explanation', 'facilities', 'widely', 'investigated', 'means', 'establishing', 'trust', 'systems', 'early', 'years', 'expert', 'systems', 'today', 'increasingly', 'sophisticated', 'machine', 'learning', 'algorithms', 'challenges', 'context', 'explanations', 'accountability', 'trust', 'systems', 'constantly', 'arise', 'work', 'systematically', 'review', 'literature', 'explanations', 'advice', 'giving', 'systems', 'family', 'systems', 'includes', 'recommender', 'systems', 'successful', 'classes', 'advicegiving', 'software', 'practice', 'investigate', 'purposes', 'explanations', 'generated', 'presented', 'users', 'evaluated', 'result', 'derive', 'novel', 'comprehensive', 'taxonomy', 'aspects', 'considered', 'designing', 'explanation', 'facilities', 'current', 'future', 'decision', 'support', 'systems', 'taxonomy', 'includes', 'variety', 'different', 'facets', 'explanation', 'objective', 'responsiveness', 'content', 'presentation', 'identified', 'challenges', 'remain', 'unaddressed', 'example', 'related', 'fine', 'grained', 'issues', 'associated', 'presentation', 'explanations', 'explanation', 'facilities', 'evaluated']</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.36|x3: 0.00|x4: 0.31|x5: 0.16|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.22|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 4, 8, 12, 13, 16]</t>
-  </si>
-  <si>
-    <t>['rapid', 'progress', 'machine', 'learning', 'artificial', 'intelligence', 'brought', 'increasing', 'attention', 'potential', 'impacts', 'technologies', 'society', 'paper', 'discuss', 'potential', 'impact', 'problem', 'accidents', 'machine', 'learning', 'systems', 'defined', 'unintended', 'harmful', 'behavior', 'emerge', 'poor', 'design', 'world', 'systems', 'present', 'list', 'practical', 'research', 'problems', 'related', 'accident', 'risk', 'categorized', 'according', 'problem', 'originates', 'having', 'wrong', 'objective', 'function', 'avoiding', 'effects', 'avoiding', 'reward', 'hacking', 'objective', 'function', 'expensive', 'evaluate', 'frequently', 'scalable', 'supervision', 'undesirable', 'behavior', 'learning', 'process', 'safe', 'exploration', 'distributional', 'shift', 'review', 'previous', 'work', 'areas', 'suggesting', 'research', 'directions', 'focus', 'relevance', 'cutting', 'edge', 'systems', 'finally', 'consider', 'level', 'question', 'think', 'productively', 'safety', 'forward', 'looking', 'applications']</t>
-  </si>
-  <si>
-    <t>x1: 0.20|x2: 0.00|x3: 0.00|x4: 0.16|x5: 0.00|x6: 0.00|x7: 0.15|x8: 0.24|x9: 0.29|x10: 0.17|x11: 0.14|x12: 0.15|x13: 0.12|x14: 0.27|x15: 0.00|x16: 0.12|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 8, 9, 14]</t>
-  </si>
-  <si>
-    <t>['current', 'globalization', 'faced', 'challenge', 'meet', 'continuously', 'growing', 'worldwide', 'demand', 'capital', 'consumer', 'goods', 'simultaneously', 'ensuring', 'sustainable', 'evolvement', 'human', 'existence', 'social', 'environmental', 'economic', 'dimensions', 'order', 'cope', 'challenge', 'industrial', 'value', 'creation', 'geared', 'sustainability', 'currently', 'industrial', 'value', 'creation', 'early', 'industrialized', 'countries', 'shaped', 'development', 'fourth', 'stage', 'called', 'industry', 'development', 'provides', 'immense', 'opportunities', 'realization', 'sustainable', 'manufacturing', 'paper', 'present', 'state', 'review', 'industry', 'based', 'recent', 'developments', 'research', 'practice', 'subsequently', 'overview', 'different', 'opportunities', 'sustainable', 'manufacturing', 'industry', 'presented', 'retrofitting', 'manufacturing', 'equipment', 'specific', 'opportunity', 'sustainable', 'manufacturing', 'industry', 'exemplarily', 'outlined']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.13|x6: 0.00|x7: 0.15|x8: 0.41|x9: 0.49|x10: 0.18|x11: 0.15|x12: 0.19|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[8, 9, 14]</t>
-  </si>
-  <si>
-    <t>['climate', 'impact', 'studies', 'hydrology', 'rely', 'climate', 'change', 'information', 'fine', 'spatial', 'resolution', 'general', 'circulation', 'models', 'gcms', 'advanced', 'tools', 'estimating', 'future', 'climate', 'change', 'scenarios', 'operate', 'coarse', 'scale', 'output', 'downscaled', 'obtain', 'information', 'relevant', 'hydrologic', 'studies', 'paper', 'support', 'vector', 'machine', 'approach', 'proposed', 'statistical', 'downscaling', 'precipitation', 'monthly', 'time', 'scale', 'effectiveness', 'approach', 'illustrated', 'application', 'meteorological', 'divisions', 'msds', 'india', 'climate', 'variables', 'affecting', 'spatio', 'temporal', 'variation', 'precipitation', 'india', 'identified', 'following', 'pertaining', 'identified', 'climate', 'variables', 'predictors', 'classified', 'cluster', 'analysis', 'groups', 'representing', 'seasons', 'based', 'downscaling', 'model', 'developed', 'season', 'significant', 'rainfall', 'principal', 'components', 'extracted', 'predictors', 'input', 'contemporaneous', 'precipitation', 'observed', 'output', 'proposed', 'shown', 'superior', 'conventional', 'downscaling', 'multi', 'layer', 'propagation', 'artificial', 'neural', 'networks', 'subsequently', 'based', 'applied', 'future', 'climate', 'predictions', 'second', 'generation', 'coupled', 'global', 'climate', 'model', 'cgcm', 'obtain', 'future', 'projections', 'precipitation', 'msds', 'results', 'analyzed', 'assess', 'impact', 'climate', 'change', 'precipitation', 'india', 'shown', 'svms', 'provide', 'promising', 'alternative', 'conventional', 'artificial', 'neural', 'networks', 'statistical', 'downscaling', 'suitable', 'conducting', 'climate', 'impact', 'studies']</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.42|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.27|x10: 0.15|x11: 0.00|x12: 0.00|x13: 0.75|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.75]</t>
-  </si>
-  <si>
-    <t>[2, 8, 9, 13]</t>
-  </si>
-  <si>
-    <t>['fully', 'automated', 'identification', 'possible', 'spills', 'present', 'synthetic', 'aperture', 'radar', 'satellite', 'images', 'based', 'artificial', 'intelligence', 'fuzzy', 'logic', 'developed', 'spills', 'recognized', 'experts', 'dark', 'patterns', 'characteristic', 'shape', 'particular', 'context', 'analyzes', 'satellite', 'images', 'assigns', 'probability', 'dark', 'image', 'shape', 'spill', 'output', 'consists', 'images', 'tables', 'providing', 'user', 'relevant', 'information', 'decision', 'making', 'study', 'area', 'aegean', 'greece', 'responded', 'satisfactorily', 'images', 'processed', 'complete', 'algorithmic', 'procedure', 'coded', 'visual', 'stand', 'dynamic', 'link', 'library', 'linked', 'sort', 'application', 'variant', 'windows', 'operating']</t>
-  </si>
-  <si>
-    <t>[14]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.16|x3: 0.21|x4: 0.11|x5: 0.22|x6: 0.12|x7: 0.00|x8: 0.34|x9: 0.35|x10: 0.00|x11: 0.00|x12: 0.18|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['understanding', 'specific', 'relationships', 'ecological', 'socioeconomic', 'conditions', 'marine', 'tenure', 'contribute', 'successful', 'functioning', 'self', 'governance', 'institutions', 'common', 'pool', 'resources', 'complex', 'factors', 'influencing', 'fishing', 'activities', 'coastal', 'communities', 'implementation', 'customary', 'marine', 'tenure', 'waters', 'represented', 'bayesian', 'belief', 'network', 'model', 'developed', 'bayesian', 'belief', 'network', 'model', 'includes', 'links', 'factors', 'fishing', 'communities', 'islands', 'indonesia', 'based', 'indepth', 'local', 'surveys', 'results', 'showed', 'cumulative', 'impacts', 'multiple', 'factors', 'social', 'economic', 'environmental', 'outcomes', 'larger', 'impact', 'single', 'source', 'implies', 'management', 'policy', 'intervention', 'effective', 'addressing', 'multiple', 'factors', 'simultaneously', 'local', 'community', 'perception', 'fish', 'stock', 'abundance', 'trends', 'single', 'important', 'factor', 'influencing', 'social', 'economic', 'environmental', 'outcomes', 'community', 'based', 'management', 'frequency', 'outsiders', 'sighted', 'territorial', 'waters', 'strongly', 'negatively', 'linked', 'weak', 'strong', 'implementation', 'customary', 'tenure', 'sasi', 'occurrence', 'intervillage', 'intravillage', 'conflict', 'ecological', 'variables', 'drive', 'conflicts', 'illustrates', 'close', 'connection', 'ecological', 'social', 'outcomes', 'importance', 'considering', 'social', 'ecological', 'systems']</t>
-  </si>
-  <si>
-    <t>x1: 0.26|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.37|x14: 0.43|x15: 0.00|x16: 0.27|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 5, 13, 14, 16]</t>
-  </si>
-  <si>
-    <t>['wallis', 'alofi', 'futuna', 'islands', 'central', 'pacific', 'ocean', 'characterized', 'different', 'reef', 'geomorphologies', 'following', 'request', 'local', 'environment', 'service', 'developed', 'indicative', 'conservation', 'plan', 'island', 'objectives', 'representing', 'extent', 'coral', 'reef', 'habitat', 'areas', 'keeping', 'subsistence', 'fishing', 'grounds', 'open', 'extraction', 'objective', 'ambitious', 'current', 'convention', 'biological', 'diversity', 'aichi', 'targets', 'objectives', 'achieved', 'simultaneously', 'large', 'compromises', 'needed', 'size', 'islands', 'dependence', 'local', 'communities', 'coral', 'reef', 'resources', 'fishery', 'objective', 'significantly', 'limited', 'extent', 'habitats', 'available', 'conservation', 'problem', 'exacerbated', 'conservation', 'plan', 'uses', 'larger', 'conservation', 'units', 'complex', 'habitat', 'typologies', 'results', 'indicate', 'international', 'conservation', 'guidelines', 'carefully', 'adapted', 'pacific', 'islands', 'incentives', 'feasible', 'necessary', 'reductions', 'available', 'fishing', 'grounds', 'probably', 'needed']</t>
-  </si>
-  <si>
-    <t>x1: 0.21|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.20|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.22|x14: 0.41|x15: 0.59|x16: 0.14|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.59]</t>
-  </si>
-  <si>
-    <t>[1, 12, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['competition', 'marine', 'space', 'recognized', 'challenge', 'implementation', 'activities', 'emerging', 'blue', 'growth', 'initiatives', 'amplify', 'competition', 'marine', 'spatial', 'planning', 'framework', 'requires', 'decision', 'makers', 'analyse', 'spatially', 'explicit', 'environmental', 'socio', 'economic', 'determine', 'user', 'conflicts', 'emerge', 'consider', 'potential', 'management', 'scenarios', 'present', 'research', 'spatially', 'explicit', 'bayesian', 'belief', 'network', 'applied', 'purpose', 'developed', 'analyse', 'potential', 'reallocation', 'artisanal', 'fishing', 'effort', 'alternative', 'sites', 'introduction', 'area', 'offshore', 'aquaculture', 'site', 'basque', 'continental', 'shelf', 'constructed', 'model', 'combined', 'discrete', 'operational', 'fisheries', 'continuous', 'environmental', 'expert', 'judgment', 'produce', 'fishing', 'activity', 'suitability', 'maps', 'different', 'metiers', 'longlines', 'nets', 'traps', 'effort', 'reallocation', 'scenarios', 'metier', 'best', 'alternative', 'fishing', 'locations', 'identified', 'based', 'environmental', 'suitability', 'past', 'revenue', 'past', 'fishing', 'presence', 'closure', 'lesser', 'effect', 'longline', 'activity', 'displacing', 'local', 'fishing', 'effort', 'respectively', 'comparatively', 'local', 'effort', 'traps', 'took', 'place', 'closed', 'grounds', 'alternative', 'sites', 'identified', 'nets', 'greatest', 'number', 'alternative', 'fishing', 'grounds', 'surrounding', 'aquaculture', 'site', 'present', 'research', 'demonstrates', 'bbns', 'support', 'spatially', 'explicit', 'scenario', 'building', 'user', 'user', 'conflict', 'analysis', 'sustainable', 'successful', 'ecosystem', 'based', 'marine', 'spatial', 'planning']</t>
-  </si>
-  <si>
-    <t>x1: 0.16|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.23|x13: 0.23|x14: 0.66|x15: 0.15|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.66]</t>
-  </si>
-  <si>
-    <t>[6, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>['artificial', 'intelligence', 'techniques', 'neural', 'network', 'fuzzy', 'systems', 'applied', 'alternative', 'methods', 'determine', 'beach', 'litter', 'grading', 'based', 'litter', 'surveys', 'antalya', 'coastline', 'turkish', 'riviera', 'litter', 'measurements', 'categorized', 'assessed', 'artificial', 'intelligence', 'techniques', 'lead', 'litter', 'categorization', 'constructed', 'neural', 'network', 'satisfactorily', 'predicted', 'grading', 'antalya', 'beaches', 'litter', 'categories', 'based', 'number', 'litter', 'items', 'general', 'litter', 'category', 'concluded', 'neural', 'networks', 'speed', 'predictions', 'litter', 'items', 'beach', 'grading', 'characteristics', 'main', 'litter', 'category', 'field', 'studies', 'save', 'field', 'effort', 'fast', 'reliable', 'estimations', 'litter', 'categories', 'required', 'management', 'research', 'studies', 'beaches', 'especially', 'concerned', 'health', 'safety', 'economic', 'implications', 'main', 'advantages', 'fuzzy', 'systems', 'consider', 'linguistic', 'adjectival', 'definitions', 'result', 'additional', 'information', 'inherent', 'linguistic', 'comments', 'refinements', 'judgments', 'field', 'studies', 'incorporated', 'grading', 'systems']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.19|x3: 0.18|x4: 0.00|x5: 0.17|x6: 0.00|x7: 0.13|x8: 0.12|x9: 0.17|x10: 0.16|x11: 0.14|x12: 0.10|x13: 0.00|x14: 0.34|x15: 0.11|x16: 0.19|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['predicting', 'oceanic', 'processes', 'encountered', 'problematic', 'dynamic', 'coastal', 'waters', 'diverse', 'physical', 'chemical', 'biological', 'factors', 'interact', 'varied', 'rapidly', 'changing', 'combinations', 'defining', 'processes', 'requires', 'efficient', 'sampling', 'specific', 'water', 'masses', 'prompt', 'sample', 'return', 'subsequent', 'analyses', 'compound', 'challenge', 'motivated', 'efforts', 'develop', 'mobile', 'autonomous', 'process', 'sampling', 'maps', 'autonomous', 'underwater', 'vehicles', 'auvs', 'features', 'recognized', 'artificial', 'intelligence', 'integrates', 'sensor', 'estimate', 'probabilistic', 'states', 'adaptive', 'control', 'survey', 'navigation', 'triggering', 'targeted', 'water', 'samplers', 'demonstrate', 'utility', 'maps', 'focused', 'intermediate', 'nepheloid', 'layers', 'inls', 'episodic', 'transport', 'events', 'play', 'role', 'zooplankton', 'ecology', 'multiple', 'field', 'tests', 'monterey', 'california', 'maps', 'recognized', 'mapped', 'sampled', 'inls', 'invertebrate', 'larvae', 'contained', 'water', 'samples', 'subsequently', 'characterized', 'molecular', 'probes', 'developed', 'throughput', 'screening', 'preliminary', 'results', 'support', 'hypothesis', 'inls', 'function', 'vehicles', 'episodic', 'larval', 'transport', 'applying', 'maps', 'greater', 'coastal', 'ocean', 'observing', 'permitted', 'description', 'regional', 'oceanographic', 'dynamics', 'influenced', 'patterns', 'scales', 'larval', 'transport']</t>
-  </si>
-  <si>
-    <t>x1: 0.22|x2: 0.27|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.12|x8: 0.00|x9: 0.13|x10: 0.14|x11: 0.14|x12: 0.00|x13: 0.28|x14: 0.33|x15: 0.00|x16: 0.14|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 6, 13, 14]</t>
-  </si>
-  <si>
-    <t>['canada', 'pacific', 'coast', 'region', 'renewed', 'commitment', 'pursue', 'marine', 'spatial', 'planning', 'british', 'columbia', 'marine', 'conservation', 'analysis', 'bcmca', 'project', 'aimed', 'stage', 'designed', 'provide', 'resource', 'managers', 'scientists', 'decision', 'makers', 'stakeholders', 'resources', 'inform', 'coast', 'wide', 'integrated', 'marine', 'planning', 'management', 'initiatives', 'geographic', 'information', 'systems', 'decision', 'support', 'tool', 'marxan', 'develop', 'main', 'products', 'atlas', 'known', 'marine', 'ecological', 'values', 'human', 'uses', 'analyses', 'areas', 'conservation', 'value', 'human', 'value', 'biophysical', 'datasets', 'human', 'datasets', 'collated', 'refined', 'applicable', 'identified', 'ecological', 'expert', 'workshops', 'expert', 'review', 'physical', 'marine', 'classification', 'representation', 'guidance', 'human', 'working', 'group', 'ecological', 'richness', 'maps', 'marxan', 'results', 'importance', 'nearshore', 'continental', 'shelf', 'regions', 'richness', 'maps', 'categories', 'human', 'uses', 'shipping', 'transport', 'closely', 'linked', 'shoreline', 'continental', 'shelf', 'example', 'ecological', 'marxan', 'solution', 'identifying', 'areas', 'conservation', 'value', 'overlapped', 'human', 'sector', 'footprints', 'percentages', 'ranging', 'planning', 'units', 'selected', 'marxan', 'contain', 'commercial', 'fisheries', 'experience', 'bcmca', 'project', 'potential', 'provide', 'valuable', 'guidance', 'regions', 'seeking', 'jump', 'start', 'planning', 'processes', 'collating', 'spatial', 'information', 'carrying', 'exploratory', 'analyses']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.19|x6: 0.13|x7: 0.00|x8: 0.16|x9: 0.15|x10: 0.00|x11: 0.16|x12: 0.18|x13: 0.32|x14: 0.29|x15: 0.17|x16: 0.25|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[13, 14, 16]</t>
-  </si>
-  <si>
-    <t>['conservation', 'planning', 'research', 'influenced', 'conservation', 'actions', 'globally', 'decades', 'successful', 'implementation', 'systematic', 'conservation', 'plans', 'regions', 'customary', 'marine', 'tenure', 'exists', 'minimal', 'regions', 'local', 'community', 'knowledge', 'understanding', 'socioeconomic', 'realities', 'offer', 'best', 'spatially', 'explicit', 'information', 'analysis', 'required', 'socioeconomic', 'available', 'scales', 'relevant', 'conservation', 'planning', 'process', 'undertaken', 'kadavu', 'yaubula', 'management', 'support', 'team', 'team', 'researchers', 'university', 'south', 'pacific', 'local', 'communities', 'assess', 'systematic', 'conservation', 'planning', 'tools', 'effectively', 'applied', 'useful', 'customary', 'governance', 'context', 'study', 'fiji', 'participatory', 'approach', 'meeting', 'local', 'scale', 'conservation', 'fisheries', 'needs', 'spatial', 'conservation', 'planning', 'tool', 'marxan', 'zones', 'reconfigure', 'collection', 'locally', 'designed', 'marine', 'protected', 'areas', 'province', 'kadavu', 'order', 'achieve', 'broader', 'objectives', 'local', 'scale', 'value', 'tools', 'process', 'identifying', 'conceptualising', 'management', 'issues', 'working', 'communities', 'collate', 'participatory', 'techniques', 'engaging', 'communities', 'management', 'decision', 'making', 'output', 'tool', 'secondary', 'value', 'outcome', 'invaluable', 'developing', 'marine', 'protected', 'area', 'network', 'design', 'approaches', 'combine', 'traditional', 'knowledge', 'ecological', 'features', 'manner', 'appropriate', 'melanesian', 'context']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.20|x7: 0.00|x8: 0.24|x9: 0.27|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.46|x14: 0.39|x15: 0.25|x16: 0.19|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[6, 8, 9, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['environmental', 'economic', 'impacts', 'exotic', 'fungal', 'species', 'natural', 'plantation', 'forests', 'historically', 'catastrophic', 'recorded', 'surveillance', 'control', 'actions', 'challenging', 'costly', 'time', 'consuming', 'hazardous', 'remote', 'areas', 'prolonged', 'periods', 'testing', 'observation', 'site', 'based', 'tests', 'limitations', 'verify', 'rapid', 'proliferation', 'exotic', 'pathogens', 'deterioration', 'rates', 'hosts', 'recent', 'remote', 'sensing', 'approaches', 'offered', 'fast', 'broad', 'scale', 'affordable', 'surveys', 'additional', 'indicators', 'complement', 'ground', 'tests', 'paper', 'proposes', 'framework', 'consolidates', 'site', 'based', 'insights', 'remote', 'sensing', 'capabilities', 'detect', 'segment', 'deteriorations', 'fungal', 'pathogens', 'natural', 'plantation', 'forests', 'approach', 'illustrated', 'experimentation', 'myrtle', 'rust', 'austropuccinia', 'psidii', 'paperbark', 'trees', 'melaleuca', 'quinquenervia', 'south', 'wales', 'australia', 'method', 'integrates', 'unmanned', 'aerial', 'vehicles', 'uavs', 'hyperspectral', 'image', 'sensors', 'processing', 'algorithms', 'machine', 'learning', 'imagery', 'acquired', 'headwall', 'nano', 'hyperspec', 'camera', 'orthorectified', 'headwall', 'spectralview', 'processed', 'python', 'programming', 'language', 'extreme', 'gradient', 'boosting', 'xgboost', 'geospatial', 'abstraction', 'library', 'gdal', 'scikit', 'learn', 'libraries', 'samples', 'extracted', 'labelled', 'classes', 'classes', 'deterioration', 'status', 'classes', 'background', 'objects', 'insights', 'reveal', 'individual', 'detection', 'rates', 'healthy', 'trees', 'deteriorated', 'trees', 'global', 'multiclass', 'detection', 'rate', 'methodology', 'versatile', 'applied', 'additional', 'datasets', 'taken', 'different', 'image', 'sensors', 'processing', 'large', 'datasets', 'freeware', 'tools']</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>x1: 0.25|x2: 0.14|x3: 0.34|x4: 0.26|x5: 0.18|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.28|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.18|x14: 0.00|x15: 0.14|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 8, 9]</t>
-  </si>
-  <si>
-    <t>['conservation', 'planning', 'integral', 'strategic', 'effective', 'operations', 'conservation', 'organizations', 'drawing', 'biological', 'sciences', 'conservation', 'planning', 'historically', 'limited', 'social', 'offer', 'approach', 'integrating', 'social', 'conservation', 'planning', 'captures', 'places', 'context', 'spatial', 'patterns', 'trends', 'human', 'needs', 'capacities', 'hierarchical', 'approach', 'provides', 'nested', 'framework', 'characterizing', 'mapping', 'social', 'domains', 'economic', 'health', 'political', 'empowerment', 'education', 'culture', 'domains', 'multiple', 'attributes', 'attribute', 'characterized', 'indicators', 'existing', 'novel', 'display', 'spatial', 'temporal', 'heterogeneity', 'social', 'conservation', 'scientists', 'planners', 'decision', 'makers', 'measure', 'benchmark', 'integrate', 'conservation', 'planning', 'processes', 'selecting', 'indicators', 'integrating', 'conservation', 'planning', 'iterative', 'participatory', 'process', 'tailored', 'local', 'context', 'planning', 'goals', 'social', 'complement', 'biophysical', 'threat', 'oriented', 'social', 'conservation', 'planning', 'processes', 'inform', 'decisions', 'conserve', 'biodiversity', 'provide', 'structure', 'exploring', 'socioecological', 'relationships', 'foster', 'adaptive', 'management', 'building', 'existing', 'conservation', 'planning', 'methods', 'insights', 'multiple', 'disciplines', 'approach', 'putting', 'readily', 'merge', 'current', 'planning', 'practices', 'facilitate', 'rigorous', 'decision', 'making']</t>
-  </si>
-  <si>
-    <t>x1: 0.48|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.73|x14: 0.00|x15: 0.39|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.73]</t>
-  </si>
-  <si>
-    <t>[1, 9, 13, 15]</t>
-  </si>
-  <si>
-    <t>['ecoacoustic', 'monitoring', 'proved', 'viable', 'approach', 'capture', 'ecological', 'related', 'animal', 'communities', 'experts', 'manually', 'annotate', 'audio', 'samples', 'analysis', 'large', 'datasets', 'significantly', 'facilitated', 'automatic', 'pattern', 'recognition', 'methods', 'unsupervised', 'learning', 'methods', 'require', 'labelled', 'particularly', 'suited', 'analyse', 'poorly', 'documented', 'habitats', 'tropical', 'environments', 'propose', 'method', 'named', 'multiresolution', 'analysis', 'acoustic', 'diversity', 'maad', 'automate', 'detection', 'relevant', 'structure', 'audio', 'maad', 'designed', 'decompose', 'acoustic', 'community', 'elementary', 'components', 'soundtypes', 'based', 'time', 'frequency', 'attributes', 'short', 'time', 'fourier', 'transform', 'detect', 'regions', 'rois', 'time', 'frequency', 'domain', 'characterised', 'rois', 'estimating', 'median', 'frequency', 'running', 'wavelet', 'analysis', 'multiple', 'scales', 'angles', 'finally', 'grouped', 'rois', 'model', 'based', 'subspace', 'clustering', 'technique', 'rois', 'automatically', 'annotated', 'clustered', 'soundtypes', 'test', 'performance', 'automatic', 'method', 'applied', 'maad', 'distinct', 'tropical', 'environments', 'french', 'guiana', 'lowland', 'rainforest', 'rock', 'savanna', 'compared', 'manual', 'automatic', 'annotations', 'adjusted', 'rand', 'similarity', 'manual', 'automated', 'partitions', 'consistent', 'indicating', 'clusters', 'intelligible', 'analysis', 'weight', 'features', 'estimated', 'clustering', 'process', 'revealed', 'important', 'information', 'structure', 'acoustic', 'communities', 'particular', 'median', 'frequency', 'strongest', 'effect', 'modelling', 'clusters', 'classification', 'performance', 'suggesting', 'role', 'community', 'organisation', 'number', 'clusters', 'maad', 'regarded', 'estimation', 'soundtype', 'richness', 'given', 'environment', 'maad', 'comprehensive', 'promising', 'method', 'automatically', 'analyse', 'passive', 'acoustic', 'recordings', 'combining', 'maad', 'manual', 'analysis', 'maximally', 'exploit', 'strengths', 'human', 'reasoning', 'algorithms', 'composition', 'acoustic', 'community', 'estimated', 'accurately', 'quickly', 'large', 'scale']</t>
-  </si>
-  <si>
-    <t>x1: 0.33|x2: 0.23|x3: 0.15|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.29|x9: 0.33|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['extensive', 'research', 'ecosystem', 'services', 'mapped', 'survey', 'based', 'biophysical', 'approaches', 'comparative', 'mapping', 'public', 'values', 'quantified', 'models', 'lacking', 'paper', 'mapped', 'cold', 'spots', 'perceived', 'modeled', 'ecosystem', 'services', 'synthesizing', 'results', 'social', 'values', 'mapping', 'study', 'residents', 'living', 'near', 'pike', 'isabel', 'national', 'forest', 'located', 'southern', 'rocky', 'mountains', 'corresponding', 'biophysically', 'modeled', 'ecosystem', 'services', 'social', 'value', 'maps', 'developed', 'social', 'values', 'ecosystem', 'services', 'tool', 'providing', 'statistically', 'modeled', 'continuous', 'value', 'surfaces', 'value', 'types', 'including', 'aesthetic', 'biodiversity', 'life', 'sustaining', 'values', 'biophysically', 'modeled', 'maps', 'carbon', 'sequestration', 'storage', 'scenic', 'viewsheds', 'sediment', 'regulation', 'water', 'yield', 'generated', 'artificial', 'intelligence', 'ecosystem', 'services', 'tool', 'hotspots', 'perceived', 'modeled', 'services', 'located', 'wilderness', 'areas', 'additionally', 'regression', 'analysis', 'evaluate', 'spatial', 'relationships', 'perceived', 'biodiversity', 'cultural', 'ecosystem', 'services', 'corresponding', 'biophysical', 'model', 'outputs', 'goal', 'determine', 'publicly', 'valued', 'locations', 'aesthetic', 'biodiversity', 'life', 'sustaining', 'values', 'relate', 'meaningfully', 'results', 'corresponding', 'biophysical', 'ecosystem', 'service', 'models', 'weak', 'relationships', 'perceived', 'biophysically', 'modeled', 'services', 'indicating', 'public', 'perception', 'ecosystem', 'service', 'provisioning', 'regions', 'limited', 'believe', 'biophysical', 'social', 'approaches', 'ecosystem', 'service', 'mapping', 'serve', 'methodological', 'complements', 'advance', 'ecosystem', 'services', 'based', 'resource', 'management', 'benefitting', 'resource', 'managers', 'showing', 'potential', 'locations', 'synergy', 'conflict', 'areas', 'supplying', 'ecosystem', 'services', 'valued', 'public']</t>
-  </si>
-  <si>
-    <t>x1: 0.14|x2: 0.18|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.35|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.20|x12: 0.21|x13: 0.00|x14: 0.29|x15: 0.48|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[6, 12, 14, 15]</t>
-  </si>
-  <si>
-    <t>['effective', 'sustainable', 'forest', 'management', 'broad', 'areas', 'needs', 'consistent', 'country', 'wide', 'forest', 'inventory', 'stand', 'level', 'inventory', 'appropriate', 'unit', 'local', 'regional', 'forest', 'management', 'south', 'korea', 'currently', 'produces', 'forest', 'type', 'contains', 'categorical', 'parameters', 'stand', 'crucial', 'forest', 'attribute', 'understanding', 'forest', 'ecosystems', 'currently', 'missing', 'included', 'future', 'forest', 'type', 'maps', 'estimation', 'forest', 'stand', 'challenging', 'south', 'korea', 'stands', 'exist', 'irregular', 'patches', 'highly', 'rugged', 'terrain', 'study', 'proposed', 'stand', 'estimation', 'models', 'suitable', 'rugged', 'terrain', 'highly', 'mixed', 'tree', 'species', 'arithmetic', 'mean', 'target', 'variable', 'plot', 'level', 'estimation', 'models', 'developed', 'descriptive', 'statistics', 'airborne', 'light', 'detection', 'ranging', 'lidar', 'machine', 'learning', 'approaches', 'support', 'vector', 'regression', 'modified', 'regression', 'trees', 'random', 'forest', 'schemes', 'central', 'plot', 'based', 'scheme', 'stand', 'based', 'scheme', 'expanding', 'plot', 'level', 'stand', 'level', 'investigated', 'results', 'showed', 'varied', 'performance', 'metrics', 'coefficient', 'determination', 'root', 'mean', 'square', 'error', 'mean', 'bias', 'model', 'forest', 'estimation', 'plot', 'level', 'statistically', 'significant', 'difference', 'mean', 'plot', 'models', 'terms', 'estimated', 'heights', 'bias', 'values', 'stand', 'level', 'validation', 'based', 'tree', 'measurements', 'selected', 'stands', 'produced', 'varied', 'results', 'scheme', 'machine', 'learning', 'implies', 'additional', 'reference', 'thorough', 'stand', 'level', 'validation', 'identify', 'statistically', 'robust', 'approaches', 'future', 'nonetheless', 'research', 'findings', 'study', 'guide', 'estimating', 'stand', 'heights', 'forests', 'rugged', 'terrain', 'complex', 'composition', 'tree', 'species']</t>
-  </si>
-  <si>
-    <t>x1: 0.32|x2: 0.50|x3: 0.00|x4: 0.13|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.56|x16: 0.16|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 15]</t>
-  </si>
-  <si>
-    <t>['tropical', 'forest', 'condition', 'important', 'implications', 'biodiversity', 'climate', 'change', 'human', 'needs', 'structural', 'features', 'forests', 'serve', 'useful', 'indicators', 'forest', 'condition', 'potential', 'assessed', 'remotely', 'sensed', 'imagery', 'provide', 'quantitative', 'information', 'forest', 'ecosystems', 'temporal', 'spatial', 'resolutions', 'investigate', 'utility', 'remote', 'sensing', 'assessing', 'predicting', 'mapping', 'important', 'forest', 'structural', 'features', 'stem', 'density', 'basal', 'area', 'tropical', 'littoral', 'forests', 'southeastern', 'madagascar', 'analysed', 'relationships', 'basal', 'area', 'stem', 'density', 'measurements', 'normalised', 'difference', 'vegetation', 'ndvi', 'radiance', 'measurements', 'bands', 'landsat', 'enhanced', 'thematic', 'mapper', 'plus', 'strong', 'relationships', 'identified', 'individual', 'bands', 'field', 'based', 'measurements', 'basal', 'area', 'weak', 'insignificant', 'relationships', 'spectral', 'response', 'stem', 'density', 'measurements', 'ndvi', 'significantly', 'correlated', 'basal', 'area', 'strongly', 'significantly', 'correlated', 'stem', 'density', 'subset', 'represented', 'extreme', 'values', 'artificial', 'neural', 'network', 'predict', 'basal', 'area', 'radiance', 'values', 'bands', 'produce', 'predictive', 'basal', 'area', 'entire', 'forest', 'landscape', 'anns', 'produced', 'strong', 'significant', 'relationships', 'predicted', 'actual', 'measures', 'basal', 'area', 'jackknife', 'method', 'larger', 'predicted', 'basal', 'area', 'produced', 'assessed', 'relation', 'existing', 'forest', 'condition', 'derived', 'field', 'assessment', 'predictive', 'basal', 'area', 'provided', 'finer', 'stand', 'structural', 'heterogeneity', 'captured', 'known', 'climatic', 'influences', 'forest', 'structure', 'displayed', 'trends', 'basal', 'area', 'associated', 'degree', 'human', 'accessibility', 'findings', 'demonstrate', 'utility', 'anns', 'integrating', 'satellite', 'landsat', 'spectral', 'bands', 'limited', 'field', 'survey', 'assess', 'patterns', 'basal', 'area', 'landscape', 'scale']</t>
-  </si>
-  <si>
-    <t>x1: 0.18|x2: 0.00|x3: 0.26|x4: 0.13|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.13|x15: 0.80|x16: 0.15|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.80]</t>
-  </si>
-  <si>
-    <t>[3, 13, 15]</t>
-  </si>
-  <si>
-    <t>['marxan', 'widely', 'conservation', 'planning', 'software', 'world', 'designed', 'solving', 'complex', 'conservation', 'planning', 'problems', 'landscapes', 'seascapes', 'paper', 'substantial', 'extension', 'marxan', 'called', 'marxan', 'zones', 'decision', 'support', 'tool', 'provides', 'landuse', 'zoning', 'options', 'geographical', 'regions', 'biodiversity', 'conservation', 'functions', 'designed', 'enhance', 'original', 'marxan', 'software', 'expand', 'utility', 'decision', 'support', 'tool', 'major', 'element', 'decision', 'problem', 'allowing', 'parcel', 'land', 'allocated', 'specific', 'zone', 'reserved', 'unreserved', 'zone', 'option', 'actions', 'objectives', 'constraints', 'flexibility', 'define', 'contribution', 'zone', 'achieve', 'targets', 'specified', 'features', 'species', 'habitats', 'objective', 'minimize', 'cost', 'implementing', 'zoning', 'plan', 'ensuring', 'variety', 'conservation', 'land', 'objectives', 'achieved', 'outline', 'capabilities', 'limitations', 'additional', 'requirements', 'software', 'perform', 'comparison', 'original', 'version', 'marxan', 'feature', 'number', 'studies', 'demonstrate', 'functionality', 'software', 'highlight', 'flexibility', 'address', 'range', 'complex', 'spatial', 'planning', 'problems', 'studies', 'demonstrate', 'design', 'multiple', 'marine', 'parks', 'western', 'australia', 'california', 'zoning', 'forest', 'east', 'kalimantan']</t>
-  </si>
-  <si>
-    <t>x1: 0.15|x2: 0.23|x3: 0.00|x4: 0.17|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.35|x14: 0.13|x15: 0.43|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 12, 13, 15]</t>
-  </si>
-  <si>
-    <t>['despite', 'extensive', 'research', 'demonstrating', 'benefits', 'applying', 'cost', 'effective', 'conservation', 'techniques', 'optimization', 'large', 'remains', 'evidence', 'research', 'actions', 'professions', 'design', 'implement', 'conservation', 'programs', 'study', 'examines', 'international', 'survey', 'conservation', 'professionals', 'familiar', 'cost', 'effective', 'conservation', 'techniques', 'primary', 'results', 'study', 'replicate', 'previous', 'results', 'smaller', 'sample', 'agricultural', 'preservation', 'professionals', 'vast', 'majority', 'survey', 'respondents', 'viewed', 'cost', 'effectiveness', 'virtue', 'ultimately', 'consider', 'important', 'program', 'design', 'criteria', 'results', 'reinforce', 'idea', 'advocates', 'cost', 'effective', 'conservation', 'need', 'address', 'concerns', 'fairness', 'transparency', 'remedy', 'gaps', 'knowledge', 'expertise', 'professionals', 'involved', 'finally', 'lack', 'incentive', 'conservation', 'professionals', 'change', 'practices', 'challenge', 'calls', 'public', 'pressure', 'encouragement', 'experimentation', 'evidence', 'based', 'policy', 'improve', 'cost', 'effectiveness', 'conservation']</t>
-  </si>
-  <si>
-    <t>x1: 0.24|x2: 0.23|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.15|x10: 0.00|x11: 0.13|x12: 0.00|x13: 0.15|x14: 0.25|x15: 0.22|x16: 0.29|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>['surveying', 'threatened', 'invasive', 'species', 'obtain', 'accurate', 'population', 'estimates', 'important', 'challenging', 'task', 'requires', 'considerable', 'investment', 'time', 'resources', 'estimates', 'existing', 'ground', 'based', 'monitoring', 'techniques', 'camera', 'traps', 'surveys', 'performed', 'foot', 'known', 'resource', 'intensive', 'potentially', 'inaccurate', 'imprecise', 'difficult', 'validate', 'recent', 'developments', 'unmanned', 'aerial', 'vehicles', 'artificial', 'intelligence', 'miniaturized', 'thermal', 'imaging', 'systems', 'represent', 'opportunity', 'wildlife', 'experts', 'inexpensively', 'survey', 'relatively', 'large', 'areas', 'presented', 'paper', 'includes', 'thermal', 'image', 'acquisition', 'video', 'processing', 'pipeline', 'perform', 'object', 'detection', 'classification', 'tracking', 'wildlife', 'forest', 'open', 'areas', 'tested', 'thermal', 'video', 'ground', 'based', 'test', 'flight', 'footage', 'able', 'detect', 'target', 'wildlife', 'located', 'surveyed', 'area', 'flexible', 'user', 'readily', 'define', 'types', 'objects', 'classify', 'object', 'characteristics', 'considered', 'classification']</t>
-  </si>
-  <si>
-    <t>x1: 0.30|x2: 0.15|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.51|x16: 0.35|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 5, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>['numbers', 'distribution', 'free', 'ranging', 'giant', 'panda', 'essential', 'formulation', 'effective', 'conservation', 'strategies', 'ideal', 'method', 'identify', 'individuals', 'species', 'traditional', 'bite', 'size', 'method', 'bamboo', 'fragments', 'feces', 'lacks', 'accuracy', 'modern', 'based', 'estimation', 'expensive', 'demands', 'fresh', 'samples', 'lack', 'identifiable', 'individual', 'features', 'panda', 'pelage', 'apparent', 'sexual', 'dimorphism', 'impede', 'reliable', 'estimation', 'camera', 'trap', 'images', 'propose', 'innovative', 'invasive', 'technique', 'identify', 'species', 'footprint', 'identification', 'technique', 'based', 'pairwise', 'comparison', 'trails', 'unbroken', 'series', 'footprints', 'discriminant', 'analysis', 'ward', 'clustering', 'method', 'collected', 'footprints', 'captive', 'animals', 'train', 'algorithm', 'animals', 'model', 'validation', 'accuracy', 'individual', 'identification', 'individuals', 'footprints', 'fewer', 'footprints', 'trail', 'accuracy', 'discrimination', 'single', 'footprint', 'trails', 'cost', 'effective', 'method', 'provides', 'promising', 'future', 'monitoring', 'wild', 'panda', 'populations', 'understanding', 'dynamics', 'especially', 'useful', 'monitoring', 'reintroduced', 'animals', 'detachment', 'collars', 'collection', 'protocol', 'straightforward', 'accessible', 'citizen', 'scientists', 'conservation', 'professionals', 'alike']</t>
-  </si>
-  <si>
-    <t>x1: 0.15|x2: 0.32|x3: 0.00|x4: 0.13|x5: 0.12|x6: 0.00|x7: 0.11|x8: 0.13|x9: 0.12|x10: 0.13|x11: 0.12|x12: 0.16|x13: 0.16|x14: 0.00|x15: 0.21|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 15]</t>
-  </si>
-  <si>
-    <t>['increasing', 'number', 'surveillance', 'cameras', 'indoor', 'outdoor', 'locations', 'grown', 'demand', 'intelligent', 'detects', 'abnormal', 'events', 'human', 'action', 'recognition', 'highly', 'reached', 'topic', 'vision', 'abnormal', 'behavior', 'detection', 'lately', 'attracting', 'research', 'attention', 'systems', 'proposed', 'order', 'ensure', 'human', 'safety', 'paper', 'interested', 'study', 'main', 'steps', 'composing', 'video', 'surveillance', 'behavior', 'representation', 'behavior', 'modeling', 'techniques', 'related', 'feature', 'extraction', 'description', 'behavior', 'representation', 'reviewed', 'classification', 'methods', 'frameworks', 'behavior', 'modeling', 'provided', 'available', 'datasets', 'metrics', 'performance', 'evaluation', 'presented', 'finally', 'examples', 'existing', 'video', 'surveillance', 'systems', 'world', 'described']</t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>x1: 0.36|x2: 0.00|x3: 0.20|x4: 0.15|x5: 0.18|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.14|x10: 0.00|x11: 0.25|x12: 0.20|x13: 0.00|x14: 0.21|x15: 0.00|x16: 0.17|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 11, 14]</t>
-  </si>
-  <si>
-    <t>['visual', 'surveillance', 'dynamic', 'scenes', 'especially', 'humans', 'vehicles', 'currently', 'active', 'research', 'topics', 'vision', 'wide', 'spectrum', 'promising', 'applications', 'including', 'access', 'control', 'special', 'areas', 'human', 'identification', 'distance', 'crowd', 'flux', 'statistics', 'congestion', 'analysis', 'detection', 'anomalous', 'behaviors', 'interactive', 'surveillance', 'multiple', 'cameras', 'general', 'processing', 'framework', 'visual', 'surveillance', 'dynamic', 'scenes', 'includes', 'following', 'stages', 'modeling', 'environments', 'detection', 'motion', 'classification', 'moving', 'objects', 'tracking', 'understanding', 'description', 'behaviors', 'human', 'identification', 'fusion', 'multiple', 'cameras', 'review', 'recent', 'developments', 'general', 'strategies', 'stages', 'finally', 'analyze', 'possible', 'research', 'directions', 'occlusion', 'handling', 'combination', 'twoand', 'dimensional', 'tracking', 'combination', 'motion', 'analysis', 'biometrics', 'anomaly', 'detection', 'behavior', 'prediction', 'content', 'based', 'retrieval', 'surveillance', 'videos', 'behavior', 'understanding', 'natural', 'language', 'description', 'fusion', 'information', 'multiple', 'sensors', 'remote', 'surveillance']</t>
-  </si>
-  <si>
-    <t>x1: 0.24|x2: 0.17|x3: 0.14|x4: 0.21|x5: 0.19|x6: 0.20|x7: 0.00|x8: 0.24|x9: 0.28|x10: 0.00|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.16|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.28]</t>
-  </si>
-  <si>
-    <t>['games', 'improve', 'social', 'awareness', 'letting', 'experience', 'difficult', 'social', 'situations', 'learn', 'experiences', 'assert', 'moving', 'strict', 'realism', 'social', 'simulations', 'offer', 'techniques', 'role', 'play', 'offer', 'possibilities', 'feedback', 'reflection', 'discuss', 'design', 'games', 'interpersonal', 'skills', 'training', 'domain', 'enforcement', 'games', 'feature', 'intelligent', 'virtual', 'agents', 'trainees', 'interact', 'different', 'scenarios', 'improve', 'social', 'awareness', 'interacting', 'virtual', 'agents', 'trainees', 'experience', 'behaviour', 'influences', 'course', 'intervention', 'outcomes', 'discuss', 'intend', 'improve', 'learning', 'experience', 'games', 'including', 'meta', 'techniques', 'role', 'play', 'close', 'describing', 'current', 'future', 'implementations', 'games']</t>
-  </si>
-  <si>
-    <t>x1: 0.40|x2: 0.42|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.15|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.17|x14: 0.23|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 14]</t>
-  </si>
-  <si>
-    <t>['paper', 'envisions', 'future', 'autonomous', 'agents', 'foster', 'support', 'social', 'behavior', 'hybrid', 'society', 'humans', 'machines', 'social', 'behavior', 'occurs', 'agents', 'perform', 'costly', 'actions', 'benefit', 'acts', 'helping', 'voluntarily', 'donating', 'charity', 'providing', 'informations', 'sharing', 'resources', 'forms', 'social', 'behavior', 'discuss', 'questions', 'challenge', 'purely', 'utilitarian', 'view', 'human', 'decision', 'making', 'contextualize', 'role', 'hybrid', 'societies', 'conditions', 'mechanisms', 'lead', 'societies', 'agents', 'humans', 'social', 'engineer', 'autonomous', 'entities', 'agents', 'robots', 'lead', 'altruistic', 'cooperative', 'behaviors', 'hybrid', 'society', 'propose', 'social', 'simulations', 'game', 'theory', 'population', 'dynamics', 'studies', 'virtual', 'environments', 'robots', 'agents', 'humans', 'interact', 'research', 'constitute', 'basis', 'establishing', 'foundations', 'field', 'social', 'computing', 'aiming', 'understanding', 'predicting', 'promoting', 'sociality', 'humans', 'artificial', 'agents', 'multiagent', 'systems']</t>
-  </si>
-  <si>
-    <t>x1: 0.15|x2: 0.53|x3: 0.00|x4: 0.14|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.18|x10: 0.00|x11: 0.14|x12: 0.00|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.29|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 14, 16]</t>
-  </si>
-  <si>
-    <t>['decade', 'scientific', 'research', 'unmanned', 'aerial', 'vehicless', 'uavs', 'spectacularly', 'design', 'multiple', 'types', 'aerial', 'platforms', 'major', 'challenge', 'today', 'development', 'autonomously', 'operating', 'aerial', 'agents', 'capable', 'completing', 'missions', 'independently', 'human', 'interaction', 'extent', 'visual', 'sensing', 'techniques', 'integrated', 'control', 'pipeline', 'uavs', 'order', 'enhance', 'navigation', 'guidance', 'skills', 'article', 'present', 'comprehensive', 'literature', 'review', 'vision', 'based', 'applications', 'uavs', 'focusing', 'mainly', 'current', 'developments', 'trends', 'applications', 'sorted', 'different', 'categories', 'according', 'research', 'topics', 'research', 'groups', 'specifically', 'vision', 'based', 'position', 'attitude', 'control', 'pose', 'estimation', 'mapping', 'obstacle', 'detection', 'target', 'tracking', 'identified', 'components', 'autonomous', 'agents', 'aerial', 'platforms', 'reach', 'greater', 'level', 'autonomy', 'integrating', 'technologies', 'onboard', 'additionally', 'article', 'concept', 'fusion', 'multiple', 'sensors', 'highlighted', 'overview', 'challenges', 'kanellakis']</t>
-  </si>
-  <si>
-    <t>x1: 0.29|x2: 0.39|x3: 0.00|x4: 0.14|x5: 0.28|x6: 0.21|x7: 0.00|x8: 0.16|x9: 0.17|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 6, 16]</t>
-  </si>
-  <si>
-    <t>['drones', 'increasingly', 'purposes', 'recording', 'footage', 'inaccessible', 'areas', 'delivering', 'packages', 'rise', 'drone', 'usage', 'introduces', 'privacy', 'security', 'concerns', 'flying', 'boundaries', 'drones', 'collect', 'public', 'private', 'spaces', 'stored', 'disseminated', 'commercial', 'personal', 'drone', 'regulations', 'focusing', 'privacy', 'security', 'fairly', 'minimal', 'united', 'states', 'inform', 'privacy', 'security', 'guidelines', 'drone', 'design', 'regulation', 'need', 'understand', 'users', 'perceptions', 'drones', 'privacy', 'security', 'paper', 'laboratory', 'study', 'participants', 'interacted', 'model', 'drone', 'elicit', 'user', 'perceptions', 'privacy', 'security', 'issues', 'drones', 'present', 'results', 'discuss', 'implications', 'work', 'recommendations', 'improve', 'drone', 'design', 'regulations', 'enhance', 'individual', 'privacy', 'security']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.23|x3: 0.00|x4: 0.14|x5: 0.26|x6: 0.19|x7: 0.12|x8: 0.13|x9: 0.18|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.00|x15: 0.14|x16: 0.30|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 5, 16]</t>
-  </si>
-  <si>
-    <t>['automated', 'driving', 'fundamentally', 'change', 'road', 'transportation', 'improve', 'quality', 'life', 'present', 'role', 'humans', 'automated', 'vehicles', 'clearly', 'established', 'interviews', 'conducted', 'expert', 'researchers', 'field', 'human', 'factors', 'automated', 'driving', 'identify', 'commonalities', 'distinctive', 'perspectives', 'challenges', 'development', 'experts', 'indicated', 'level', 'inform', 'driver', 'capabilities', 'operational', 'status', 'ensure', 'safety', 'changing', 'automated', 'manual', 'modes', 'research', 'particularly', 'address', 'interactions', 'human', 'drivers', 'vulnerable', 'road', 'users', 'additionally', 'driver', 'training', 'programs', 'modified', 'ensure', 'humans', 'capable', 'finally', 'reflection', 'interviews', 'provided', 'showing', 'discordance', 'interviewees', 'statementswhich', 'appear', 'long', 'history', 'work', 'human', 'factors', 'research', 'rapid', 'development', 'automation', 'technology', 'expect', 'perspective', 'instrumental', 'stakeholders', 'involved', 'development', 'instructive', 'parties']</t>
-  </si>
-  <si>
-    <t>x1: 0.23|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.37|x9: 0.39|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.28|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 8, 9, 12, 13, 16]</t>
-  </si>
-  <si>
-    <t>['background', 'aids', 'worrying', 'public', 'health', 'issue', 'china', 'lacks', 'timely', 'effective', 'surveillance', 'diffusion', 'adoption', 'internet', 'aggregated', 'internet', 'search', 'engines', 'contain', 'users', 'information', 'concern', 'reality', 'health', 'status', 'provide', 'opportunity', 'aids', 'surveillance', 'paper', 'uses', 'search', 'engine', 'monitor', 'forecast', 'aids', 'china', 'methods', 'machine', 'learning', 'method', 'artificial', 'neural', 'networks', 'anns', 'forecast', 'aids', 'incidences', 'deaths', 'search', 'trend', 'related', 'aids', 'largest', 'chinese', 'search', 'engine', 'baiducom', 'collected', 'selected', 'input', 'variables', 'anns', 'officially', 'reported', 'actual', 'aids', 'incidences', 'deaths', 'output', 'variable', 'criteria', 'mean', 'absolute', 'percentage', 'error', 'root', 'mean', 'squared', 'percentage', 'error', 'agreement', 'test', 'forecasting', 'performance', 'method', 'results', 'based', 'monthly', 'time', 'series', 'january', 'june', 'article', 'finds', 'criteria', 'method', 'lead', 'satisfactory', 'forecasting', 'aids', 'incidences', 'deaths', 'regardless', 'change', 'number', 'search', 'queries', 'conclusions', 'despite', 'inability', 'selfdetect', 'aids', 'online', 'searching', 'internetbased', 'adopted', 'timely', 'costeffective', 'complement', 'traditional', 'aids', 'surveillance']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.20|x3: 0.48|x4: 0.00|x5: 0.16|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.17|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['introduction', 'artificial', 'intelligence', 'branch', 'science', 'capable', 'analysing', 'complex', 'medical', 'potential', 'exploit', 'meaningful', 'relationship', 'diagnosis', 'treatment', 'predicting', 'outcome', 'clinical', 'scenarios', 'methods', 'medline', 'internet', 'searches', 'carried', 'keywords', 'artificial', 'intelligence', 'neural', 'networks', 'references', 'obtained', 'articles', 'overview', 'different', 'artificial', 'intelligent', 'techniques', 'presented', 'paper', 'review', 'important', 'clinical', 'applications', 'results', 'proficiency', 'artificial', 'intelligent', 'techniques', 'explored', 'field', 'medicine', 'artificial', 'neural', 'network', 'commonly', 'analytical', 'tool', 'whilst', 'artificial', 'intelligent', 'techniques', 'fuzzy', 'expert', 'systems', 'evolutionary', 'computation', 'hybrid', 'intelligent', 'systems', 'different', 'clinical', 'settings', 'discussion', 'artificial', 'intelligence', 'techniques', 'potential', 'applied', 'field', 'medicine', 'need', 'clinical', 'trials', 'appropriately', 'designed', 'emergent', 'techniques', 'application', 'clinical', 'setting']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.19|x8: 0.35|x9: 0.41|x10: 0.23|x11: 0.00|x12: 0.15|x13: 0.28|x14: 0.12|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 8, 9, 10, 13]</t>
-  </si>
-  <si>
-    <t>['objectives', 'introduce', 'summarize', 'current', 'research', 'field', 'public', 'health', 'epidemiology', 'informatics', 'methods', 'literature', 'concerning', 'public', 'health', 'epidemiology', 'informatics', 'searched', 'pubmed', 'science', 'returned', 'references', 'reviewed', 'section', 'editors', 'select', 'candidate', 'best', 'papers', 'papers', 'peerreviewed', 'external', 'reviewers', 'provide', 'editorial', 'team', 'enlightened', 'vision', 'select', 'best', 'papers', 'results', 'references', 'retrieved', 'pubmed', 'science', 'finally', 'selected', 'best', 'papers', 'analyzes', 'relationship', 'disease', 'social', 'mass', 'media', 'public', 'emotions', 'understand', 'public', 'overreaction', 'leading', 'noticeable', 'reduction', 'social', 'economic', 'activities', 'context', 'nationwide', 'outbreak', 'middle', 'east', 'respiratory', 'syndrome', 'mers', 'korea', 'second', 'paper', 'concerns', 'methodology', 'deidentify', 'patient', 'notes', 'electronic', 'health', 'records', 'based', 'artificial', 'neural', 'networks', 'outperformed', 'existing', 'methods', 'conclusions', 'surveillance', 'productive', 'topic', 'public', 'health', 'informatics', 'important', 'topics', 'public', 'health', 'appearing', 'example', 'artificial', 'intelligence', 'approaches', 'increasing']</t>
-  </si>
-  <si>
-    <t>x1: 0.21|x2: 0.00|x3: 0.53|x4: 0.00|x5: 0.15|x6: 0.13|x7: 0.00|x8: 0.15|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.27|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 14, 16]</t>
-  </si>
-  <si>
-    <t>['optical', 'microscope', 'widely', 'tools', 'diagnosing', 'infectious', 'diseases', 'developing', 'world', 'reliance', 'trained', 'microscopists', 'field', 'microscopy', 'suffers', 'poor', 'sensitivity', 'specificity', 'reproducibility', 'goal', 'work', 'called', 'autoscope', 'lowcost', 'automated', 'digital', 'microscope', 'coupled', 'vision', 'classification', 'algorithms', 'accurately', 'diagnose', 'variety', 'infectious', 'diseases', 'targeting', 'usecases', 'developing', 'world', 'initial', 'target', 'malaria', 'difficulty', 'task', 'manual', 'microscopy', 'currently', 'central', 'highly', 'imperfect', 'tool', 'malaria', 'work', 'field', 'addition', 'diagnosis', 'algorithm', 'performs', 'species', 'identification', 'quantitation', 'parasite', 'load', 'parameters', 'critical', 'field', 'applications', 'effectively', 'rapid', 'diagnostic', 'tests', 'rdts']</t>
-  </si>
-  <si>
-    <t>x1: 0.16|x2: 0.00|x3: 0.56|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.24|x8: 0.00|x9: 0.00|x10: 0.29|x11: 0.00|x12: 0.25|x13: 0.15|x14: 0.00|x15: 0.15|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 4, 7, 10, 12]</t>
-  </si>
-  <si>
-    <t>['background', 'study', 'validate', 'fetal', 'medicine', 'foundation', 'multiple', 'logistic', 'regression', 'algorithm', 'prediction', 'risk', 'preeclampsia', 'australian', 'population', 'model', 'predicts', 'risk', 'population', 'rate', 'preeclampsia', 'variety', 'demographic', 'factors', 'mean', 'maternal', 'arterial', 'blood', 'pressure', 'uterine', 'artery', 'plasma', 'protein', 'pappa', 'shown', 'predict', 'earlyonset', 'preeclampsia', 'delivery', 'prior', 'weeks', 'women', 'falsepositive', 'rate', 'methods', 'women', 'attended', 'trimester', 'screening', 'royal', 'prince', 'alfred', 'hospital', 'body', 'mass', 'assessed', 'addition', 'factors', 'traditionally', 'assess', 'aneuploidy', 'including', 'pappa', 'delivery', 'risks', 'earlyonset', 'delivery', 'prior', 'weeks', 'preeclampsia', 'late', 'preeclampsia', 'gestational', 'hypertension', 'calculated', 'risk', 'algorithm', 'results', 'women', 'screened', 'delivered', 'locally', 'women', 'perform', 'preeclampsia', 'screening', 'available', 'included', 'women', 'live', 'risks', 'early', 'preeclampsia', 'calculated', 'women', 'delivered', 'weeks', 'early', 'preeclampsia', 'prevalence', 'early', 'preeclampsia', 'pregnancies', 'risks', 'generated', 'maternal', 'history', 'pappa', 'detected', 'early', 'preeclampsia', 'falsepositive', 'rate', 'respectively', 'conclusions', 'study', 'shows', 'early', 'preeclampsia', 'algorithm', 'effective', 'australian', 'population']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.35|x3: 0.69|x4: 0.13|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.15|x12: 0.00|x13: 0.29|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 13, 16]</t>
-  </si>
-  <si>
-    <t>['identifying', 'robust', 'survival', 'subgroups', 'hepatocellular', 'carcinoma', 'significantly', 'improve', 'patient', 'care', 'currently', 'endeavor', 'integrating', 'multiomics', 'explicitly', 'predict', 'survival', 'multiple', 'patient', 'cohorts', 'lacking', 'present', 'deep', 'learning', 'based', 'model', 'robustly', 'differentiates', 'survival', 'subpopulations', 'patients', 'cohorts', 'build', 'based', 'model', 'patients', 'rnaseq', 'mirnaseq', 'methylation', 'tcga', 'predicts', 'prognosis', 'good', 'alternative', 'model', 'genomics', 'clinical', 'considered', 'based', 'model', 'provides', 'optimal', 'subgroups', 'patients', 'significant', 'survival', 'differences', 'good', 'model', 'fitness', 'cindex', 'aggressive', 'subtype', 'associated', 'frequent', 'inactivation', 'mutations', 'higher', 'expression', 'stemness', 'markers', 'epcam', 'tumor', 'marker', 'birc', 'activated', 'signaling', 'pathways', 'validated', 'multiomics', 'model', 'external', 'datasets', 'omics', 'types', 'lirijp', 'cohort', 'cindex', 'cohort', 'cindex', 'chinese', 'cohort', 'cindex', 'etabm', 'cohort', 'cindex', 'hawaiian', 'cohort', 'cindex', 'study', 'employ', 'deep', 'learning', 'identify', 'multiomics', 'features', 'linked', 'differential', 'survival', 'patients', 'given', 'robustness', 'multiple', 'cohorts', 'expect', 'workflow', 'useful', 'predicting', 'prognosis', 'prediction']</t>
-  </si>
-  <si>
-    <t>x1: 0.21|x2: 0.11|x3: 0.00|x4: 0.31|x5: 0.00|x6: 0.52|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.20|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.19|x15: 0.12|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.52]</t>
-  </si>
-  <si>
-    <t>[1, 4, 6]</t>
-  </si>
-  <si>
-    <t>['present', 'method', 'predicting', 'preterm', 'infant', 'inhospital', 'mortality', 'bayesian', 'gaussian', 'process', 'classification', 'combined', 'features', 'extracted', 'sensor', 'measurements', 'hours', 'care', 'weight', 'infants', 'weight', 'standard', 'clinical', 'features', 'calculated', 'arrival', 'neonatal', 'intensive', 'care', 'unit', 'time', 'periods', 'hours', 'evaluated', 'achieved', 'classification', 'result', 'area', 'receiver', 'operating', 'characteristic', 'curve', 'excess', 'results', 'achieved', 'clinical', 'standard', 'snapii', 'snappeii', 'scores']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.22|x3: 0.40|x4: 0.00|x5: 0.23|x6: 0.00|x7: 0.11|x8: 0.22|x9: 0.16|x10: 0.13|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 8, 12, 16]</t>
-  </si>
-  <si>
-    <t>['common', 'barrier', 'healthcare', 'psychiatric', 'conditions', 'stigma', 'associated', 'disorders', 'perceived', 'stigma', 'prevents', 'reporting', 'symptoms', 'stigma', 'particularly', 'pervasive', 'problem', 'military', 'service', 'members', 'preventing', 'reporting', 'symptoms', 'combatrelated', 'conditions', 'like', 'posttraumatic', 'disorder', 'ptsd', 'research', 'shows', 'reporting', 'service', 'members', 'anonymous', 'assessments', 'example', 'service', 'members', 'report', 'symptoms', 'ptsd', 'anonymously', 'answer', 'postdeployment', 'health', 'assessment', 'pdha', 'symptom', 'checklist', 'compared', 'official', 'pdha', 'identifiable', 'linked', 'military', 'records', 'investigate', 'factors', 'influence', 'reporting', 'psychological', 'symptoms', 'service', 'members', 'transformative', 'technology', 'automated', 'virtual', 'humans', 'interview', 'symptoms', 'virtual', 'human', 'interviewers', 'allow', 'simultaneous', 'techniques', 'eliciting', 'disclosure', 'incompatible', 'afford', 'anonymity', 'building', 'rapport', 'examined', 'virtual', 'human', 'interviewers', 'increase', 'disclosure', 'mental', 'health', 'symptoms', 'activeduty', 'service', 'members', 'returned', 'yearlong', 'deployment', 'afghanistan', 'service', 'members', 'reported', 'symptoms', 'conversation', 'virtual', 'human', 'interviewer', 'official', 'pdha', 'reported', 'virtual', 'human', 'interviewer', 'anonymized', 'pdha', 'second', 'larger', 'sample', 'activeduty', 'service', 'members', 'similar', 'effect', 'approached', 'statistical', 'significance', 'respondents', 'studies', 'shared', 'virtual', 'human', 'interviewers', 'anonymized', 'pdhaeven', 'conditions', 'control', 'stigma', 'ramifications', 'service', 'members', 'military', 'recordsvirtual', 'human', 'interviewers', 'build', 'rapport', 'provide', 'superior', 'option', 'encourage', 'reporting']</t>
-  </si>
-  <si>
-    <t>x1: 0.33|x2: 0.41|x3: 0.20|x4: 0.00|x5: 0.14|x6: 0.38|x7: 0.00|x8: 0.15|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 6, 16]</t>
-  </si>
-  <si>
-    <t>['contribution', 'provides', 'review', 'fundamental', 'goals', 'development', 'future', 'perspectives', 'driver', 'assistance', 'systems', 'mobility', 'fundamental', 'desire', 'mankind', 'virtually', 'society', 'strives', 'safe', 'efficient', 'mobility', 'ecological', 'economic', 'costs', 'technical', 'implementation', 'significantly', 'differs', 'societies', 'depending', 'culture', 'degree', 'potential', 'evolutionary', 'roadmap', 'driver', 'assistance', 'systems', 'discussed', 'emerging', 'systems', 'based', 'proprioceptive', 'sensors', 'review', 'progress', 'incented', 'exteroceptive', 'sensors', 'radar', 'video', 'lidar', 'ultimate', 'goal', 'automated', 'cooperative', 'traffic', 'remains', 'vision', 'future', 'intermediate', 'steps', 'realized', 'systems', 'mitigate', 'avoid', 'collisions', 'selected', 'driving', 'situations', 'research', 'extends', 'stateoftheart', 'automated', 'driving', 'urban', 'traffic', 'cooperative', 'driving', 'addressing', 'communication', 'collaboration', 'different', 'vehicles', 'cooperative', 'vehicle', 'operation', 'driver', 'machine', 'intelligence', 'steps', 'considered', 'important', 'interim', 'period', 'reliable', 'unsupervised', 'automated', 'driving', 'conceivable', 'traffic', 'situations', 'available', 'prospective', 'evolution', 'driver', 'assistance', 'systems', 'stimulated', 'technological', 'societal', 'market', 'trends', 'paper', 'closes', 'view', 'current', 'research', 'fields']</t>
-  </si>
-  <si>
-    <t>[11, 3]</t>
-  </si>
-  <si>
-    <t>x1: 0.42|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.21|x8: 0.37|x9: 0.43|x10: 0.24|x11: 0.00|x12: 0.18|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['discussion', 'womens', 'access', 'digital', 'information', 'communication', 'technologies', 'developing', 'countries', 'inconclusive', 'claim', 'women', 'technophobic', 'better', 'users', 'digital', 'tools', 'argue', 'women', 'embrace', 'digital', 'communication', 'article', 'puts', 'question', 'empirical', 'test', 'analyze', 'sets', 'latin', 'american', 'african', 'countries', 'believed', 'extensive', 'empirical', 'study', 'field', 'results', 'surprisingly', 'consistent', 'revealing', 'reason', 'fewer', 'women', 'access', 'direct', 'result', 'unfavorable', 'conditions', 'respect', 'employment', 'education', 'income', 'controlling', 'variables', 'women', 'turn', 'active', 'users', 'digital', 'tools', 'turns', 'alleged', 'digital', 'gender', 'divide', 'opportunity', 'given', 'womens', 'affinity', 'given', 'digital', 'technologies', 'tools', 'improve', 'living', 'conditions', 'represent', 'concrete', 'tangible', 'opportunity', 'tackle', 'longstanding', 'challenges', 'gender', 'inequalities', 'developing', 'countries', 'including', 'access', 'employment', 'income', 'education', 'health', 'services']</t>
-  </si>
-  <si>
-    <t>x1: 0.20|x2: 0.00|x3: 0.00|x4: 0.65|x5: 0.12|x6: 0.13|x7: 0.14|x8: 0.17|x9: 0.22|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.65]</t>
-  </si>
-  <si>
-    <t>[4, 9]</t>
-  </si>
-  <si>
-    <t>['intelligent', 'tutoring', 'systems', 'programs', 'model', 'learners', 'psychological', 'states', 'provide', 'individualized', 'instruction', 'developed', 'diverse', 'subject', 'areas', 'algebra', 'medicine', 'reading', 'help', 'learners', 'acquire', 'domainspecific', 'cognitive', 'metacognitive', 'knowledge', 'metaanalysis', 'conducted', 'research', 'compared', 'outcomes', 'students', 'learning', 'learning', 'nonits', 'learning', 'environments', 'metaanalysis', 'examined', 'effect', 'sizes', 'varied', 'type', 'type', 'comparison', 'treatment', 'received', 'learners', 'type', 'learning', 'outcome', 'knowledge', 'learned', 'procedural', 'declarative', 'factors', 'search', 'major', 'bibliographic', 'databases', 'effect', 'sizes', 'involving', 'participants', 'extracted', 'analyzed', 'associated', 'greater', 'achievement', 'comparison', 'teacherled', 'largegroup', 'instruction', 'nonits', 'computerbased', 'instruction', 'textbooks', 'workbooks', 'significant', 'difference', 'learning', 'learning', 'individualized', 'human', 'tutoring', 'smallgroup', 'instruction', 'significant', 'positive', 'mean', 'effect', 'sizes', 'regardless', 'principal', 'means', 'instruction', 'supplement', 'teacherled', 'instruction', 'integral', 'component', 'teacherled', 'instruction', 'homework', 'significant', 'positive', 'effect', 'sizes', 'levels', 'education', 'subject', 'domains', 'evaluated', 'provided', 'feedback', 'modeled', 'student', 'misconceptions', 'claim', 'relatively', 'effective', 'tools', 'learning', 'consistent', 'analysis', 'potential', 'publication', 'bias']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.44|x3: 0.00|x4: 1.02|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 1.02]</t>
-  </si>
-  <si>
-    <t>['long', 'research', 'tradition', 'focused', 'information', 'communication', 'technology', 'development', 'explore', 'role', 'artificial', 'intelligence', 'start', 'technical', 'review', 'characteristic', 'traits', 'deep', 'learning', 'technologies', 'leads', 'natural', 'metaphors', 'international', 'development', 'based', 'empirical', 'evidence', 'studies', 'derive', 'characteristics', 'align', 'technological', 'traits', 'isolation', 'presents', 'plethora', 'opportunities', 'contribute', 'international', 'development', 'especially', 'attainment', 'sustainable', 'development', 'goals', 'sdgs', 'combination', 'create', 'clear', 'tension', 'looming', 'threat', 'hegemonic', 'intelligence', 'indoctrination', 'pushed', 'global', 'economies', 'scale', 'potential', 'promise', 'honor', 'celebrate', 'local', 'diversity', 'help', 'flexible', 'designs', 'conclude', 'achieved', 'active', 'public', 'policy', 'dialogue', 'international', 'level', 'effort', 'national', 'levels', 'especially', 'developing', 'countries', 'study', 'provides', 'terminology', 'concepts', 'identify', 'frame', 'arising', 'discussions']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.30|x3: 0.00|x4: 0.54|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.13|x10: 0.13|x11: 0.00|x12: 0.00|x13: 0.29|x14: 0.35|x15: 0.25|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 4, 13, 14, 15]</t>
-  </si>
-  <si>
-    <t>['protecting', 'worlds', 'freshwater', 'resources', 'requires', 'diagnosing', 'threats', 'broad', 'range', 'scales', 'fromglobal', 'local', 'present', 'worldwide', 'synthesis', 'jointly', 'consider', 'human', 'biodiversity', 'perspectives', 'water', 'security', 'spatial', 'framework', 'quantifies', 'multiple', 'stressors', 'accounts', 'downstream', 'impacts', 'nearly', 'worlds', 'population', 'exposed', 'levels', 'threat', 'water', 'security', 'massive', 'investment', 'water', 'technology', 'enables', 'rich', 'nations', 'offset', 'stressor', 'levels', 'remedying', 'underlying', 'causes', 'wealthy', 'nations', 'remain', 'vulnerable', 'similar', 'lack', 'precautionary', 'investment', 'jeopardizes', 'biodiversity', 'habitats', 'associated', 'continental', 'discharge', 'classified', 'moderately', 'highly', 'threatened', 'cumulative', 'threat', 'framework', 'offers', 'tool', 'prioritizing', 'policy', 'management', 'responses', 'crisis', 'underscores', 'necessity', 'limiting', 'threats', 'source', 'instead', 'costly', 'remediation', 'symptoms', 'order', 'assure', 'global', 'water', 'security', 'humans', 'freshwater', 'biodiversity']</t>
-  </si>
-  <si>
-    <t>x1: 0.16|x2: 0.46|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.38|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.17|x12: 0.00|x13: 0.47|x14: 0.10|x15: 0.25|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 6, 13, 15]</t>
-  </si>
-  <si>
-    <t>['storytelling', 'negative', 'connotations', 'science', 'narrative', 'formats', 'communication', 'disregarded', 'communicating', 'science', 'nonexpert', 'audiences', 'narratives', 'offer', 'comprehension', 'engagement', 'nonexperts', 'science', 'information', 'mass', 'media', 'content', 'biased', 'narrative', 'formats', 'narratives', 'intrinsically', 'persuasive', 'offers', 'science', 'communicators', 'tactics', 'persuading', 'resistant', 'audiences', 'raises', 'ethical', 'considerations', 'future', 'intersections', 'narrative', 'research', 'ongoing', 'discussions', 'science', 'communication', 'introduced']</t>
-  </si>
-  <si>
-    <t>x1: 0.22|x2: 0.00|x3: 0.19|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.16|x8: 0.15|x9: 0.20|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.63|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 13, 14]</t>
-  </si>
-  <si>
-    <t>['reliable', 'economic', 'livelihoods', 'remain', 'scarce', 'developing', 'world', 'hampering', 'efforts', 'study', 'outcomes', 'design', 'policies', 'improve', 'demonstrate', 'accurate', 'inexpensive', 'scalable', 'method', 'estimating', 'consumption', 'expenditure', 'asset', 'wealth', 'highresolution', 'satellite', 'imagery', 'survey', 'satellite', 'african', 'uganda', 'malawi', 'rwandawe', 'convolutional', 'neural', 'network', 'trained', 'identify', 'image', 'features', 'explain', 'variation', 'locallevel', 'economic', 'outcomes', 'method', 'requires', 'publicly', 'available', 'transform', 'efforts', 'track', 'target', 'poverty', 'developing', 'countries', 'demonstrates', 'powerful', 'machine', 'learning', 'techniques', 'applied', 'setting', 'limited', 'training', 'suggesting', 'broad', 'potential', 'application', 'scientific', 'domains']</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>x1: 0.34|x2: 0.00|x3: 0.17|x4: 0.60|x5: 0.00|x6: 0.00|x7: 0.18|x8: 0.23|x9: 0.28|x10: 0.21|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 4, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['todays', 'standard', 'tablet', 'devices', 'possesses', 'equivalent', 'processing', 'power', 'desktop', 'computers', 'nasa', 'space', 'shuttle', 'programme', 'storing', 'cost', 'today', 'costs', 'approximately', 'human', 'genome', 'sequenced', 'took', 'decade', 'cost', 'today', 'genome', 'sequenced', 'hours', 'thousand', 'dollars', 'appeared', 'apple', 'founder', 'steve', 'jobs', 'enabled', 'outside', 'developers', 'create', 'applications', 'iphone', 'today', 'decade', 'later', 'economy', 'worth', 'trillion', 'revenue', 'global', 'pharmaceutical', 'market', 'whatsapp', 'created', 'sends', 'messages', 'news', 'celebrity', 'gossip', 'quality', 'travels', 'fast', 'globally', 'forum', 'termed', 'period', 'accelerating', 'innovation', 'science', 'technology', 'transformative', 'change', 'technology', 'capabilities', 'combined', 'merging', 'digital', 'physical', 'biological', 'realms', 'impact', 'society', 'fourth', 'industrial', 'revolution', 'transforming', 'social', 'networks', 'scientific', 'research', 'radically', 'reshaping', 'agenda', 'industries', 'governments', 'international', 'community', 'fourth', 'industrial', 'revolution', 'reshaping', 'healthcare', 'mobility', 'education', 'systems', 'worldwide', 'reshape', 'environmental', 'community', 'related', 'institutions', 'work', 'scientists', 'tell', 'facing', 'urgent', 'global', 'environmental', 'challenges', 'despite', 'international', 'environmental', 'agreements', 'established', 'environmental', 'professionals', 'aware', 'complacent', 'policybased', 'institutional', 'approaches', 'worked', 'years', 'necessary', 'longer', 'appear', 'sufficient', 'manage', 'growing', 'environmental', 'challenges', 'goals', 'targets', 'sound', 'ability', 'deliver', 'environmental', 'outcomes', 'required', 'needs', 'augmented', 'result', 'increasing', 'great', 'potential', 'exploring', 'science', 'technology', 'innovations', 'driving', 'fourth', 'industrial', 'revolution', 'applied', 'improving', 'environmental', 'natural', 'resource', 'management', 'arrangements', 'includes', 'technology', 'systems', 'innovations', 'able', 'imagine', 'technology', 'starting', 'transform', 'look', 'health', 'surely', 'harnessed', 'help', 'transform', 'look', 'environment', 'example', 'wearable', 'tech', 'measuring', 'persons', 'heart', 'rate', 'quality', 'breathe', 'growing', 'realization', 'rapid', 'advances', 'science', 'technology', 'unintended', 'negative', 'consequences', 'nature', 'need', 'recognized', 'avoided', 'technology', 'comes', 'need', 'improved', 'agile', 'governance', 'fourth', 'industrial', 'revolution', 'fully', 'sustainable', 'industrial', 'revolution', 'effective', 'enabling', 'environment', 'approaches', 'help', 'governments', 'create', 'smart', 'safeguards', 'protocols', 'policies', 'effective', 'oversight', 'recourse', 'mechanisms', 'needs', 'place', 'avoid', 'unintended', 'consequences', 'ensure', 'society', 'nature', 'benefit', 'revolution', 'example', 'wearable', 'sensors', 'measure', 'quality', 'breathe', 'control', 'access', 'collected', 'governments', 'civil', 'society', 'industry', 'important', 'roles', 'play', 'help', 'answer', 'questions', 'develop', 'principles', 'usage', 'guidelines', 'means', 'bringing', 'stakeholders', 'codevelop', 'ways', 'science', 'technology', 'developments', 'needed', 'need', 'help', 'better', 'understand', 'manage', 'nature', 'environment', 'avoid', 'creating', 'negative', 'unforeseen', 'outcomes', 'focus', 'developing', 'policy', 'principles', 'alongside', 'interact', 'acceleration', 'programmes', 'promote', 'innovation', 'wider', 'deployment', 'science', 'technology', 'environmental', 'management', 'heart', 'challenge', 'practical', 'terms', 'environmental', 'sector', 'helped', 'harness', 'science', 'technology', 'revolution', 'reshaping', 'wider', 'economy', 'society', 'current', 'arrangements', 'enhanced', 'better', 'manage', 'environmental', 'systems', 'sustain', 'planet', 'earth', 'given', 'increasing', 'pressure', 'nature', 'faces', 'human', 'activity', 'time', 'policy', 'principles', 'protocols', 'developed', 'environmental', 'sector', 'risks', 'technologies', 'individuals', 'society', 'environment', 'minimized', 'opportunities', 'maximized']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.00|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.25|x9: 0.27|x10: 0.13|x11: 0.17|x12: 0.21|x13: 0.00|x14: 0.48|x15: 0.00|x16: 0.19|x17: 0.00</t>
-  </si>
-  <si>
-    <t>['robots', 'technologies', 'tasks', 'previously', 'performed', 'labor', 'increasing', 'concern', 'future', 'jobs', 'wages', 'analyze', 'effect', 'increase', 'industrial', 'robot', 'usage', 'local', 'labor', 'markets', 'model', 'robots', 'compete', 'human', 'labor', 'production', 'different', 'tasks', 'robots', 'reduce', 'employment', 'wages', 'local', 'labor', 'market', 'effects', 'robots', 'estimated', 'regressing', 'change', 'employment', 'wages', 'exposure', 'robots', 'local', 'labor', 'marketdefined', 'national', 'penetration', 'robots', 'industry', 'local', 'distribution', 'employment', 'industries', 'approach', 'estimate', 'large', 'robust', 'negative', 'effects', 'robots', 'employment', 'wages', 'commuting', 'zones', 'bolster', 'evidence', 'showing', 'commuting', 'zones', 'exposed', 'robots', 'post', 'exhibit', 'differential', 'trends', 'impact', 'robots', 'distinct', 'impact', 'imports', 'china', 'mexico', 'decline', 'routine', 'jobs', 'offshoring', 'types', 'capital', 'capital', 'stock', 'fact', 'exposure', 'robots', 'weakly', 'correlated', 'variables', 'according', 'estimates', 'robot', 'thousand', 'workers', 'reduces', 'employment', 'population', 'ratio', 'percentage', 'points', 'wages', 'percent']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.64|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.13|x7: 0.21|x8: 0.27|x9: 0.35|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['time', 'finally', 'come', 'artificial', 'intelligence', 'periods', 'hype', 'followed', 'winters', 'past', 'years', 'today', 'announcements', 'technical', 'breakthroughs', 'enabling', 'superhuman', 'performance', 'machines', 'follow', 'rapid', 'succession', 'powers', 'realworld', 'applications', 'ranging', 'facial', 'recognition', 'language', 'translators', 'assistants', 'like', 'siri', 'alexa', 'barely', 'notice', 'consumer', 'applications', 'companies', 'sectors', 'increasingly', 'harnessing', 'power', 'operations', 'embracing', 'promises', 'considerable', 'benefits', 'businesses', 'economies', 'contributions', 'productivity', 'growth', 'innovation', 'adopters', 'starting', 'reap', 'benefits', 'adoption', 'relatively', 'early', 'stage', 'uneven', 'readiness', 'varies', 'widely', 'companies', 'sectors', 'countries', 'time', 'impact', 'work', 'profound', 'occupations', 'demand', 'skills', 'decline', 'grow', 'change', 'work', 'alongside', 'everevolving', 'increasingly', 'capable', 'machines', 'scenarios', 'developed', 'suggest', 'jobs', 'created', 'lost', 'automation', 'transition', 'disruptive', 'occupations', 'skill', 'requirements', 'shift', 'significantly', 'potential', 'contribute', 'tackling', 'pressing', 'societal', 'challenges', 'healthcare', 'climate', 'change', 'humanitarian', 'crises', 'introduce', 'exacerbate', 'social', 'challenges', 'misuse', 'challenges', 'related', 'bias', 'privacy', 'cybersecurity', 'given', 'economic', 'benefits', 'policy', 'makers', 'business', 'leaders', 'embrace', 'place', 'measures', 'facilitate', 'adoption', 'soften', 'disruptive', 'transitions', 'accompany', 'place', 'focus', 'responsible', 'briefing', 'note', 'draws', 'ongoing', 'research', 'mckinsey', 'global', 'institute', 'technologies', 'uses', 'limitations', 'impact', 'concludes', 'issues', 'policy', 'makers', 'business', 'leaders', 'need', 'address', 'list', 'main', 'sources', 'note', 'suggestions', 'reading', 'appear']</t>
-  </si>
-  <si>
-    <t>[12, 8]</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.15|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.32|x9: 0.36|x10: 0.20|x11: 0.00|x12: 0.17|x13: 0.28|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[8, 9, 10, 13]</t>
-  </si>
-  <si>
-    <t>['recent', 'years', 'revival', 'concerns', 'automation', 'digitalisation', 'result', 'jobless', 'future', 'debate', 'fuelled', 'studies', 'europe', 'arguing', 'substantial', 'jobs', 'risk', 'computerisation', 'studies', 'follow', 'occupationbased', 'approach', 'proposed', 'frey', 'osborne', 'assume', 'occupations', 'single', 'jobtasks', 'automated', 'technology', 'argue', 'lead', 'overestimation', 'automatibility', 'occupations', 'labelled', 'highrisk', 'occupations', 'contain', 'substantial', 'tasks', 'hard', 'automate', 'paper', 'serves', 'purposes', 'firstly', 'estimate', 'automatibility', 'jobs', 'oecd', 'countries', 'based', 'taskbased', 'approach', 'contrast', 'studies', 'account', 'heterogeneity', 'workers', 'tasks', 'occupations', 'overall', 'oecd', 'countries', 'jobs', 'automatable', 'threat', 'technological', 'advances', 'pronounced', 'compared', 'occupationbased', 'approach', 'heterogeneities', 'oecd', 'countries', 'instance', 'automatable', 'jobs', 'korea', 'corresponding', 'austria', 'differences', 'countries', 'reflect', 'general', 'differences', 'workplace', 'organisation', 'differences', 'previous', 'investments', 'automation', 'technologies', 'differences', 'education', 'workers', 'countries', 'second', 'purpose', 'paper', 'critically', 'reflect', 'recent', 'studies', 'generate', 'figures', 'risk', 'computerisation', 'provide', 'comprehensive', 'discussion', 'possible', 'adjustment', 'processes', 'firms', 'workers', 'automation', 'digitalisation', 'particular', 'argue', 'estimated', 'jobs', 'risk', 'equated', 'actual', 'expected', 'employment', 'losses', 'technological', 'advances', 'reasons', 'utilisation', 'technologies', 'slow', 'process', 'economic', 'legal', 'societal', 'hurdles', 'technological', 'substitution', 'place', 'expected', 'second', 'technologies', 'introduced', 'workers', 'adjust', 'changing', 'technological', 'endowments', 'switching', 'tasks', 'preventing', 'technological', 'unemployment', 'technological', 'change', 'generates', 'additional', 'jobs', 'demand', 'technologies', 'higher', 'competitiveness', 'main', 'conclusion', 'paper', 'automation', 'digitalisation', 'unlikely', 'destroy', 'large', 'numbers', 'jobs', 'qualified', 'workers', 'bear', 'brunt', 'adjustment', 'costs', 'automatibility', 'jobs', 'higher', 'compared', 'highly', 'qualified', 'workers', 'challenge', 'future', 'lies', 'coping', 'rising', 'inequality', 'ensuring', 'sufficient', 'retraining', 'especially', 'qualified', 'workers']</t>
-  </si>
-  <si>
-    <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.14|x7: 0.00|x8: 0.51|x9: 0.65|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['cellular', 'networks', 'assumed', 'enabler', 'infrastructure', 'provider', 'industry', 'offering', 'variety', 'services', 'diverse', 'requirements', 'standardization', 'cellular', 'networks', 'expedited', 'implies', 'candidate', 'technologies', 'adopted', 'worthwhile', 'provide', 'insight', 'candidate', 'techniques', 'examine', 'design', 'philosophy', 'article', 'highlight', 'fundamental', 'features', 'revolutionary', 'techniques', 'emerges', 'initial', 'intelligence', 'nearly', 'important', 'aspect', 'cellular', 'networks', 'including', 'radio', 'resource', 'management', 'mobility', 'management', 'service', 'provisioning', 'management', 'faced', 'complicated', 'configuration', 'issues', 'blossoming', 'service', 'requirements', 'insufficient', 'cellular', 'networks', 'lacks', 'complete', 'functionalities', 'introduce', 'fundamental', 'concepts', 'discuss', 'relationship', 'candidate', 'techniques', 'cellular', 'networks', 'specifically', 'highlight', 'opportunities', 'challenges', 'exploit', 'achieve', 'intelligent', 'networks', 'demonstrate', 'effectiveness', 'manage', 'orchestrate', 'cellular', 'network', 'resources', 'envision', 'aiempowered', 'cellular', 'networks', 'acclaimed', 'enabler', 'reality']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.17|x6: 0.30|x7: 0.00|x8: 0.47|x9: 0.57|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[6, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['agenda', 'enthusiastic', 'great', 'potential', 'accelerating', 'human', 'progress', 'brought', 'information', 'communications', 'technology', 'global', 'time', 'acknowledges', 'dark', 'innovation', 'challenges', 'cybersecurity', 'threats', 'risks', 'jobs', 'privacy', 'unleashed', 'artificial', 'intelligence', 'military', 'related', 'cyber', 'operations', 'cyberattacks', 'climate', 'change', 'increasing', 'inequalities', 'power', 'concentration', 'challenges', 'solved', 'countries', 'acting', 'isolation', 'urgently', 'require', 'strengthened', 'multilateralism', 'time', 'major', 'technological', 'shift', 'necessary', 'implement', 'global', 'transition', 'required', 'agenda', 'resilient', 'economic', 'social', 'development', 'models', 'technology', 'exists', 'strategies', 'needed', 'generalize', 'global', 'level']</t>
-  </si>
-  <si>
-    <t>[11, 9]</t>
-  </si>
-  <si>
-    <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.20|x8: 0.40|x9: 0.55|x10: 0.24|x11: 0.00|x12: 0.00|x13: 0.28|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.55]</t>
-  </si>
-  <si>
-    <t>['advocates', 'algorithmic', 'techniques', 'like', 'mining', 'argue', 'techniques', 'eliminate', 'human', 'biases', 'decisionmaking', 'process', 'algorithm', 'good', 'works', 'frequently', 'imperfect', 'ways', 'allow', 'algorithms', 'inherit', 'prejudices', 'prior', 'decision', 'makers', 'cases', 'simply', 'reflect', 'widespread', 'biases', 'persist', 'society', 'large', 'mining', 'discover', 'surprisingly', 'useful', 'regularities', 'preexisting', 'patterns', 'exclusion', 'inequality', 'unthinking', 'reliance', 'mining', 'deny', 'historically', 'disadvantaged', 'vulnerable', 'groups', 'participation', 'society', 'worse', 'resulting', 'discrimination', 'unintentional', 'emergent', 'property', 'algorithms', 'conscious', 'choice', 'programmers', 'unusually', 'hard', 'identify', 'source', 'problem', 'explain', 'court']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.27|x3: 0.23|x4: 0.28|x5: 0.27|x6: 0.12|x7: 0.00|x8: 0.27|x9: 0.31|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['globalization', 'created', 'opportunities', 'difficult', 'problems', 'community', 'psychologists', 'economic', 'changes', 'created', 'jobs', 'different', 'areas', 'world', 'promoted', 'emergence', 'sharing', 'economy', 'fostered', 'huge', 'disparities', 'countries', 'political', 'changes', 'polarization', 'growth', 'nationalist', 'populist', 'parties', 'amplify', 'divisiveness', 'transformation', 'notion', 'citizenship', 'identity', 'technological', 'changes', 'brought', 'artificial', 'intelligence', 'revolution', 'opens', 'opportunities', 'dangers', 'prospects', 'diffusion', 'social', 'networks', 'able', 'promoting', 'political', 'participation', 'increasing', 'political', 'polarization', 'finally', 'aims', 'community', 'psychologists', 'pursue', 'help', 'develop', 'opportunities', 'reduce', 'problems', 'emerge', 'changes', 'discussed']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.44|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.26|x10: 0.00|x11: 0.11|x12: 0.13|x13: 0.22|x14: 0.22|x15: 0.00|x16: 0.25|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[4, 8, 9, 13, 14, 16]</t>
-  </si>
-  <si>
-    <t>['advances', 'artificial', 'intelligence', 'robotics', 'leading', 'industrial', 'revolution', 'paper', 'presents', 'model', 'necessary', 'features', 'analyze', 'implications', 'inequality', 'output', 'assumptions', 'robot', 'capital', 'distinct', 'traditional', 'capital', 'degree', 'human', 'labor', 'capitalists', 'skilled', 'workers', 'save', 'analyze', 'range', 'variants', 'reflect', 'widely', 'different', 'views', 'automation', 'transform', 'labor', 'market', 'main', 'results', 'surprisingly', 'robust', 'automation', 'good', 'growth', 'equality', 'benchmark', 'model', 'wages', 'fall', 'short', 'eventually', 'rise', 'eventually', 'easily', 'generations']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.26|x3: 0.36|x4: 0.18|x5: 0.00|x6: 0.00|x7: 0.37|x8: 0.00|x9: 0.00|x10: 0.43|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 7, 10, 13]</t>
-  </si>
-  <si>
-    <t>['study', 'presents', 'applications', 'artificial', 'intelligence', 'development', 'sustainable', 'transport', 'systems', 'smart', 'cities', 'india', 'huge', 'demand', 'supply', 'public', 'transport', 'urban', 'cities', 'india', 'rapid', 'urbanization', 'india', 'realize', 'importance', 'developing', 'smart', 'cities', 'improve', 'quality', 'life', 'captivate', 'foreign', 'investment', 'build', 'superior', 'quality', 'infrastructure', 'india', 'majority', 'indian', 'cities', 'facing', 'problem', 'congestion', 'safety', 'inadequate', 'public', 'transport', 'facilities', 'inappropriate', 'information', 'inadequate', 'parking', 'spaces', 'environmental', 'pollution', 'sustainable', 'transport', 'eliminate', 'problems', 'providing', 'safer', 'faster', 'comfortable', 'efficient', 'environment', 'friendly', 'help', 'development', 'smart', 'cities', 'implementation', 'intelligent', 'transport', 'urgent', 'need', 'develop', 'intelligent', 'transport', 'indian', 'cities', 'play', 'role', 'development', 'sustainable', 'transport', 'main', 'requirement', 'adopt', 'artificial', 'intelligence', 'development', 'smart', 'cities', 'india', 'main', 'objective', 'article', 'present', 'major', 'application', 'intelligent', 'transport', 'development', 'sustainable', 'transport', 'smart', 'cities', 'study', 'implementation', 'intelligent', 'transport', 'development', 'sustainable', 'transport', 'smart', 'cities', 'india']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.00|x7: 0.17|x8: 0.23|x9: 0.31|x10: 0.20|x11: 0.69|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['ecologists', 'variety', 'tools', 'collecting', 'analyzing', 'relatively', 'tools', 'facilitate', 'ecological', 'reasoning', 'time', 'simulation', 'models', 'basic', 'means', 'organizing', 'ecological', 'knowledge', 'rapidly', 'processed', 'technologies', 'computerbased', 'manipulation', 'knowledge', 'developed', 'artificial', 'intelligence', 'areas', 'ecological', 'science', 'technology', 'prove', 'important', 'include', 'modelling', 'simulation', 'integration', 'qualitative', 'quantitative', 'knowledge', 'theoretical', 'development', 'natural', 'resource', 'management', 'researchers', 'managers', 'basic', 'applied', 'ecology', 'affected', 'developments', 'aiderived', 'technologies', 'added', 'ecological', 'toolkit']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.21|x6: 0.00|x7: 0.14|x8: 0.24|x9: 0.33|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.14|x14: 0.37|x15: 0.00|x16: 0.24|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[5, 8, 9, 14, 16]</t>
-  </si>
-  <si>
-    <t>['machine', 'learning', 'algorithms', 'tremendously', 'power', 'recent', 'years', 'fully', 'utilized', 'ecology', 'sustainable', 'resource', 'management', 'domains', 'wildlife', 'reserve', 'design', 'forest', 'management', 'invasive', 'species', 'spread', 'thing', 'domains', 'common', 'contain', 'dynamics', 'characterized', 'spatially', 'spreading', 'process', 'requires', 'parameters', 'precisely', 'model', 'dynamics', 'spread', 'rates', 'directional', 'biases', 'elements', 'spreading', 'present', 'related', 'work', 'artificial', 'intelligence', 'machine', 'learning', 'sustainability', 'domains', 'including', 'forest', 'wildfire', 'prediction', 'introduce', 'novel', 'approach', 'learning', 'domains', 'reinforcement', 'learning', 'agent', 'cell', 'landscape', 'actions', 'location', 'point', 'time', 'includes', 'spreading', 'north', 'south', 'east', 'west', 'spreading', 'approach', 'inverts', 'usual', 'setup', 'dynamics', 'corresponding', 'markov', 'decision', 'process', 'known', 'function', 'immed', 'iate', 'wildfire', 'spread', 'learn', 'agent', 'policy', 'predictive', 'model', 'dynamics', 'complex', 'spatial', 'process', 'rewards', 'provided', 'correctly', 'classifying', 'cells', 'compared', 'satellite', 'related', 'examine', 'behavior', 'algorithms', 'problem', 'value', 'iteration', 'policy', 'iteration', 'qlearning', 'monte', 'carlo', 'tree', 'search', 'asynchronous', 'advantage', 'actorcritic', 'compare', 'gaussian', 'processbased', 'supervised', 'learning', 'approach', 'discuss', 'relation', 'approach', 'manually', 'constructed', 'stateoftheart', 'methods', 'forest', 'wildfire', 'modeling', 'validate', 'approach', 'satellite', 'image', 'massive', 'wildfire', 'events', 'northern', 'alberta', 'canada', 'fort', 'mcmurray', 'richardson', 'results', 'learn', 'predictive', 'agentbased', 'policies', 'models', 'spatial', 'dynamics', 'readily', 'available', 'satellite', 'images', 'methods', 'additional', 'advantages', 'terms']</t>
-  </si>
-  <si>
-    <t>x1: 0.29|x2: 0.00|x3: 0.00|x4: 0.39|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.26|x10: 0.00|x11: 0.18|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.26|x16: 0.18|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 4, 8, 9, 13, 15]</t>
-  </si>
-  <si>
-    <t>['ability', 'systems', 'transform', 'vast', 'amounts', 'complex', 'ambiguous', 'information', 'insight', 'potential', 'reveal', 'longheld', 'secrets', 'help', 'solve', 'worlds', 'enduring', 'problems', 'like', 'powerful', 'technologies', 'great', 'care', 'taken', 'development', 'deployment', 'reap', 'societal', 'benefits', 'systems', 'need', 'trust', 'sure', 'follow', 'ethical', 'principles', 'moral', 'values', 'professional', 'codes', 'social', 'norms', 'humans', 'follow', 'scenario', 'research', 'educational', 'efforts', 'carefully', 'designed', 'regulations', 'place', 'achieve', 'goal', 'international', 'business', 'machines', 'corporation', 'actively', 'engaged', 'internally', 'collaborators', 'competitors', 'global', 'discussions', 'ethical', 'beneficial', 'possible', 'society']</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.39|x3: 0.00|x4: 0.00|x5: 0.19|x6: 0.00|x7: 0.13|x8: 0.23|x9: 0.19|x10: 0.16|x11: 0.00|x12: 0.27|x13: 0.00|x14: 0.12|x15: 0.00|x16: 0.19|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 8, 12]</t>
-  </si>
-  <si>
-    <t>['recent', 'years', 'witnessed', 'exponential', 'growth', 'automation', 'power', 'decisions', 'impact', 'lives', 'societies', 'bring', 'potential', 'benefits', 'reducing', 'human', 'bias', 'speeding', 'decisionmaking', 'fraught', 'risk', 'increasing', 'machine', 'bias', 'rendering', 'decisionmaking', 'opaque', 'remote', 'consideration', 'fairness', 'accountability', 'transparency', 'processes', 'fundamental', 'omidyar', 'networks', 'governance', 'citizen', 'engagement', 'initiative', 'started', 'funding', 'advocating', 'open', 'following', 'snowden', 'revelations', 'summer', 'included', 'privacy', 'surveillance', 'reform', 'efforts', 'realizing', 'openness', 'privacy', 'closely', 'related', 'focused', 'helping', 'develop', 'framework', 'governing', 'collection', 'access', 'storage', 'usage', 'rights', 'recently', 'started', 'looking', 'impact', 'releases', 'light', 'processing', 'power', 'access', 'decisions', 'government', 'corporate', 'sector', 'actors', 'increasingly', 'automated', 'governments', 'algorithms', 'screen', 'immigrants', 'allocate', 'social', 'services', 'vital', 'know', 'interrogate', 'hold', 'systems', 'accountable', 'main', 'increase', 'individuals', 'control', 'agency', 'decisions', 'impact', 'lives', 'ultimately', 'societies', 'believe', 'accountability', 'transparency', 'agenda', 'benefit', 'better', 'understanding', 'ultimately', 'scrutinizing', 'automated', 'decisionmaking', 'explore', 'questions', 'partnered', 'upturn', 'landscape', 'public', 'scrutiny', 'automated', 'decisionmaking', 'terms', 'civil', 'society', 'nascent', 'sector', 'laws', 'regulations', 'place', 'help', 'regulate', 'study', 'developed', 'clear', 'pave', 'textured', 'practical', 'understanding', 'algorithmic', 'transparency', 'omidyar', 'network', 'explore', 'issues', 'companion', 'paper', 'released', 'later', 'hope', 'report', 'help', 'civil', 'society', 'actors', 'consider', 'gain', 'empowering', 'public', 'audiences', 'effectively', 'scrutinize', 'understand', 'help', 'govern', 'automated', 'decisions', 'hope', 'start', 'laying', 'policy', 'framework', 'governance', 'adding', 'growing', 'rich', 'literature', 'social', 'economic', 'impact', 'decisions', 'finally', 'hope', 'reports', 'findings', 'analysis', 'help', 'inform', 'funders', 'decisions', 'important', 'growing', 'field']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.19|x3: 0.00|x4: 0.14|x5: 0.16|x6: 0.00|x7: 0.00|x8: 0.26|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.28|x14: 0.21|x15: 0.00|x16: 0.29|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[8, 9, 12, 13, 14, 16]</t>
-  </si>
-  <si>
-    <t>['protected', 'areas', 'effective', 'tool', 'reducing', 'biodiversity', 'loss', 'current', 'legislation', 'distinguishes', 'types', 'marine', 'protected', 'areas', 'allowing', 'different', 'levels', 'resource', 'extraction', 'theory', 'spatial', 'conservation', 'planning', 'focused', 'identifying', 'notake', 'reserves', 'current', 'approaches', 'zoning', 'multiple', 'types', 'protected', 'areas', 'result', 'suboptimal', 'plans', 'terms', 'protecting', 'biodiversity', 'minimizing', 'negative', 'socioeconomic', 'impacts', 'overcame', 'limitations', 'application', 'multizone', 'planning', 'tool', 'marxan', 'zones', 'design', 'network', 'types', 'protected', 'areas', 'context', 'californias', 'marine', 'life', 'protection', 'produced', 'zoning', 'configuration', 'entails', 'mean', 'value', 'losses', 'fishery', 'compromising', 'conservation', 'goals', 'spatial', 'numerical', 'optimization', 'tool', 'allows', 'multiple', 'zones', 'outperforms', 'tool', 'identify', 'zone', 'marine', 'reserves', 'ways', 'overall', 'impact', 'fishing', 'industry', 'reduced', 'second', 'equitable', 'impact', 'different', 'fishing', 'sectors', 'achieved', 'finally', 'examined', 'tradeoffs', 'representing', 'biodiversity', 'features', 'impacting', 'fisheries', 'approach', 'applicable', 'marine', 'terrestrial', 'conservation', 'planning', 'delivers', 'ecosystembased', 'management', 'outcome', 'balances', 'conservation', 'industry', 'objectives']</t>
-  </si>
-  <si>
-    <t>x1: 0.17|x2: 0.24|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.00|x8: 0.15|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.13|x14: 0.41|x15: 0.59|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 14, 15]</t>
-  </si>
-  <si>
-    <t>['national', 'oceanic', 'atmospheric', 'administrations', 'noaa', 'integrated', 'coral', 'observing', 'network', 'icon', 'operational', 'works', 'closely', 'government', 'international', 'environmental', 'partners', 'involved', 'coral', 'reef', 'research', 'icon', 'program', 'pioneered', 'artificial', 'intelligence', 'techniques', 'assess', 'near', 'realtime', 'streams', 'environment', 'sensor', 'networks', 'seakeys', 'network', 'florida', 'keys', 'australia', 'institute', 'marine', 'science', 'weather', 'network', 'noaas', 'coral', 'reef', 'ecosystem', 'division', 'network', 'pacific', 'integrated', 'coral', 'observing', 'network', 'icon', 'stations', 'caribbean', 'innovative', 'approach', 'coral', 'monitoring', 'station', 'deployments', 'icon', 'program', 'recently', 'pioneered', 'techniques', 'near', 'realtime', 'integration', 'satellite', 'situ', 'radar', 'sources', 'purposes', 'ecological', 'forecasting', 'events', 'coral', 'bleaching', 'coral', 'spawning', 'upwelling', 'marine', 'behavioral', 'physical', 'oceanographic', 'events', 'icon', 'program', 'ushered', 'pulseamplitude', 'modulating', 'fluorometry', 'measure', 'near', 'realtime', 'physiological', 'recording', 'response', 'environmental', 'coral', 'bleaching', 'providing', 'better', 'ecological', 'forecasting', 'capabilities', 'artificial', 'intelligence', 'integrative', 'techniques', 'herewith', 'techniques', 'report', 'coral', 'calcification', 'instrumentation', 'augmenting', 'icon', 'network', 'sensor', 'array']</t>
-  </si>
-  <si>
-    <t>x1: 0.13|x2: 0.11|x3: 0.00|x4: 0.00|x5: 0.14|x6: 0.21|x7: 0.00|x8: 0.17|x9: 0.23|x10: 0.00|x11: 0.20|x12: 0.15|x13: 0.11|x14: 0.39|x15: 0.00|x16: 0.17|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[6, 9, 11, 14]</t>
-  </si>
-  <si>
-    <t>['marine', 'cabled', 'allow', 'nondestructive', 'sampling', 'species', 'frequencies', 'durations', 'attained', 'lack', 'appropriate', 'methods', 'automatically', 'process', 'video', 'imagery', 'limits', 'technology', 'purposes', 'ecosystem', 'monitoring', 'automation', 'prerequisite', 'deal', 'huge', 'quantities', 'video', 'footage', 'captured', 'cameras', 'transform', 'devices', 'true', 'autonomous', 'sensors', 'study', 'developed', 'novel', 'methodology', 'based', 'genetic', 'programming', 'contentbased', 'image', 'analysis', 'capture', 'temporal', 'dynamics', 'fish', 'abundance', 'processed', 'images', 'acquired', 'challenging', 'realworld', 'coastal', 'scenario', 'obseaemso', 'testingsite', 'images', 'collected', 'frequency', 'continuously', 'years', 'night', 'highly', 'variable', 'environmental', 'conditions', 'allowed', 'test', 'effectiveness', 'approach', 'changing', 'light', 'radiation', 'water', 'turbidity', 'background', 'confusion', 'biofouling', 'growth', 'camera', 'housing', 'automated', 'recognition', 'results', 'highly', 'correlated', 'manual', 'counts', 'highly', 'reliable', 'track', 'fish', 'variations', 'different', 'hourly', 'daily', 'monthly', 'time', 'scales', 'addition', 'methodology', 'easily', 'transferred', 'cabled']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.16|x3: 0.20|x4: 0.11|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.22|x9: 0.24|x10: 0.00|x11: 0.14|x12: 0.16|x13: 0.00|x14: 0.28|x15: 0.19|x16: 0.13|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 8, 9, 14]</t>
-  </si>
-  <si>
-    <t>['having', 'accurate', 'detailed', 'uptodate', 'information', 'location', 'behavior', 'animals', 'wild', 'improve', 'ability', 'study', 'conserve', 'ecosystems', 'investigate', 'ability', 'automatically', 'accurately', 'inexpensively', 'collect', 'help', 'catalyze', 'transformation', 'fields', 'ecology', 'wildlife', 'biology', 'zoology', 'conservation', 'biology', 'animal', 'behavior', 'sciences', 'motionsensor', 'camera', 'traps', 'enable', 'collecting', 'wildlife', 'pictures', 'inexpensively', 'unobtrusively', 'frequently', 'extracting', 'information', 'pictures', 'remains', 'expensive', 'timeconsuming', 'manual', 'task', 'demonstrate', 'information', 'automatically', 'extracted', 'deep', 'learning', 'cuttingedge', 'type', 'artificial', 'intelligence', 'train', 'deep', 'convolutional', 'neural', 'networks', 'identify', 'count', 'behaviors', 'species', 'millionimage', 'snapshot', 'serengeti', 'dataset', 'deep', 'neural', 'networks', 'automatically', 'identify', 'animals', 'accuracy', 'expect', 'number', 'improve', 'rapidly', 'years', 'come', 'importantly', 'classifies', 'images', 'confident', 'automate', 'animal', 'identification', 'performing', 'accuracy', 'crowdsourced', 'teams', 'human', 'volunteers', 'saving', 'human', 'labeling', 'effort', 'millionimage', 'dataset', 'efficiency', 'gains', 'highlight', 'importance', 'deep', 'neural', 'networks', 'automate', 'extraction', 'cameratrap', 'images', 'reducing', 'roadblock', 'widely', 'technology', 'results', 'suggest', 'deep', 'learning', 'enable', 'inexpensive', 'unobtrusive', 'highvolume', 'realtime', 'collection', 'wealth', 'information', 'vast', 'numbers', 'animals', 'wild']</t>
-  </si>
-  <si>
-    <t>x1: 0.21|x2: 0.25|x3: 0.00|x4: 0.42|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.33|x13: 0.00|x14: 0.20|x15: 0.23|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 8, 12, 14, 15]</t>
-  </si>
-  <si>
-    <t>['species', 'ecosystems', 'worldwide', 'continue', 'decline', 'disappear', 'spite', 'decades', 'investment', 'conservation', 'efforts', 'systematic', 'conservation', 'planning', 'field', 'study', 'designed', 'improve', 'conservation', 'programs', 'identifying', 'land', 'configurations', 'protected', 'efficiently', 'sustain', 'biodiversity', 'despite', 'contributing', 'species', 'persistence', 'landscapes', 'criticized', 'replacing', 'sitebased', 'conservation', 'plans', 'consider', 'social', 'context', 'contrast', 'land', 'science', 'emerging', 'field', 'explores', 'process', 'landuse', 'landcover', 'change', 'integrates', 'social', 'systems', 'processes', 'conservation', 'analyses', 'suggest', 'incorporating', 'insights', 'social', 'processes', 'livelihood', 'adaptation', 'agricultural', 'intensification', 'enhance', 'legitimacy', 'conservation', 'plans', 'reducing', 'conservation', 'planning', 'implementation', 'represents', 'necessary', 'step', 'reinvent', 'decisionsupport', 'tool', 'helps', 'reconcile', 'longstanding', 'divide', 'landscapelevel', 'species', 'conservation', 'social', 'needs']</t>
-  </si>
-  <si>
-    <t>x1: 0.22|x2: 0.29|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.61|x14: 0.00|x15: 0.89|x16: 0.00|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[0.00, 0.12, 0.89]</t>
-  </si>
-  <si>
-    <t>[1, 2, 13, 15]</t>
-  </si>
-  <si>
-    <t>['identifying', 'boundary', 'species', 'niche', 'observational', 'environmental', 'common', 'problem', 'ecology', 'conservation', 'biology', 'variety', 'techniques', 'developed', 'applied', 'model', 'niches', 'predict', 'distributions', 'examine', 'performance', 'pattern', 'recognition', 'methods', 'ecological', 'niche', 'models', 'enms', 'particularly', 'oneclass', 'pattern', 'recognition', 'flexible', 'seldom', 'methodology', 'modeling', 'ecological', 'niches', 'distributions', 'presenceonly', 'development', 'oneclass', 'methods', 'perform', 'comparably', 'twoclass', 'methods', 'presenceabsence', 'remove', 'modeling', 'decisions', 'sampling', 'pseudoabsences', 'background', 'points', 'absence', 'points', 'unavailable', 'studied', 'methods', 'oneclass', 'classification', 'methods', 'twoclass', 'classification', 'common', 'primarily', 'pattern', 'recognition', 'common', 'species', 'distribution', 'ecological', 'niche', 'modeling', 'mountain', 'plant', 'species', 'presenceabsence', 'available', 'assessed', 'accuracy', 'standard', 'metrics', 'compared', 'tradeoffs', 'omission', 'commission', 'errors', 'classification', 'groups', 'effects', 'prevalence', 'spatial', 'autocorrelation', 'accuracy', 'oneclass', 'models', 'presenceonly', 'comparable', 'twoclass', 'models', 'presenceabsence', 'performance', 'evaluated', 'measure', 'weighting', 'omission', 'commission', 'errors', 'equally', 'oneclass', 'models', 'superior', 'reducing', 'omission', 'errors', 'yielding', 'higher', 'sensitivity', 'twoclasses', 'models', 'superior', 'reducing', 'commission', 'errors', 'yielding', 'higher', 'specificity', 'methods', 'spatial', 'autocorrelation', 'influential', 'prevalence', 'results', 'differ', 'previous', 'efforts', 'evaluate', 'alternative', 'modelling', 'approaches', 'build', 'particularly', 'noteworthy', 'exhaustively', 'sampled', 'populations', 'minimizing', 'false', 'absence', 'records', 'accurate', 'transferable', 'models', 'species', 'ecological', 'niches', 'distributions', 'needed', 'advance', 'ecological', 'research', 'crucial', 'effective', 'environmental', 'planning', 'conservation', 'approaches', 'studied', 'good', 'potential', 'future', 'modeling', 'studies', 'study', 'provides', 'introduction', 'promising', 'methods', 'ecological', 'modeling', 'inherited', 'pattern', 'recognition', 'discipline']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.00|x3: 0.26|x4: 0.23|x5: 0.23|x6: 0.00|x7: 0.19|x8: 0.00|x9: 0.00|x10: 0.23|x11: 0.00|x12: 0.00|x13: 0.33|x14: 0.00|x15: 0.22|x16: 0.32|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 10, 13, 15, 16]</t>
-  </si>
-  <si>
-    <t>['apply', 'recently', 'developed', 'spatial', 'biosurveillance', 'techniques', 'enforcement', 'domain', 'goal', 'helping', 'local', 'police', 'departments', 'rapidly', 'detect', 'respond', 'better', 'predict', 'prevent', 'emerging', 'spatial', 'patterns', 'crime', 'background', 'geographic', 'surveillance', 'techniques', 'increasingly', 'important', 'enforcement', 'crime', 'prevention', 'methods', 'mapping', 'crime', 'automatically', 'detecting', 'crime', 'spots', 'electronic', 'reports', 'situational', 'awareness', 'enabled', 'rapid', 'police', 'response', 'emerging', 'crime', 'areas', 'additionally', 'recent', 'work', 'crime', 'forecasting', 'enabled', 'enforcement', 'officials', 'predict', 'prevent', 'rises', 'crime', 'variety', 'leading', 'indicator', 'current', 'crime', 'detection', 'forecasting', 'methods', 'require', 'coarse', 'aggregation', 'cases', 'month', 'square', 'mile', 'computational', 'considerations', 'relatively', 'number', 'crimes', 'limitations', 'reduce', 'spatial', 'temporal', 'precision', 'departments', 'pinpoint', 'clusters', 'crime', 'ability', 'rapidly', 'respond', 'clusters', 'propose', 'spatial', 'scan', 'statistic', 'methods', 'originally', 'developed', 'biosurveillance', 'domain', 'finer', 'aggregation', 'efficiently', 'search', 'emerging', 'spacetime', 'clusters', 'varying', 'size', 'duration', 'methods', 'detection', 'clusters', 'violent', 'crime', 'prediction', 'clusters', 'detecting', 'clusters', 'leading', 'indicator', 'crimes']</t>
-  </si>
-  <si>
-    <t>x1: 0.00|x2: 0.23|x3: 0.37|x4: 0.00|x5: 0.36|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.29|x10: 0.00|x11: 0.12|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.40|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 8, 9, 16]</t>
-  </si>
-  <si>
-    <t>['bullying', 'widespread', 'european', 'schools', 'despite', 'multiple', 'intervention', 'strategies', 'having', 'proposed', 'years', 'present', 'study', 'investigates', 'effects', 'novel', 'virtual', 'learning', 'strategy', 'fearnot', 'tackle', 'bullying', 'german', 'samples', 'approach', 'intended', 'primarily', 'victims', 'increase', 'coping', 'skills', 'heighten', 'empathy', 'defence', 'victims', 'noninvolved', 'bystanders', 'paper', 'focuses', 'defender', 'role', 'applying', 'quantitative', 'qualitative', 'methodology', 'present', 'study', 'fearnot', 'helped', 'noninvolved', 'children', 'defenders', 'german', 'subsample', 'effect', 'subsample', 'german', 'defenders', 'children', 'initially', 'uninvolved', 'nominated', 'defenders', 'peers', 'intervention', 'period', 'significantly', 'popular', 'baseline', 'cognitive', 'empathy', 'theory', 'mind', 'virtual', 'victims', 'compared', 'permanently', 'noninvolved', 'pupils', 'gender', 'interacts', 'defender', 'effects', 'affective', 'empathy', 'emotional', 'contagion', 'particularly', 'associated', 'defender', 'status', 'girls', 'findings', 'discussed', 'relation', 'previous', 'research', 'antibullying', 'intervention', 'strategies', 'cultural', 'differences', 'bullying', 'prevalence', 'rates', 'intervention', 'outcomes']</t>
-  </si>
-  <si>
-    <t>x1: 0.37|x2: 0.35|x3: 0.00|x4: 0.37|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.31|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5, 13, 16]</t>
-  </si>
-  <si>
-    <t>['understanding', 'video', 'events', 'translation', 'lowlevel', 'content', 'video', 'sequences', 'level', 'semantic', 'concepts', 'research', 'topic', 'received', 'recent', 'years', 'important', 'applications', 'work', 'include', 'smart', 'surveillance', 'systems', 'semantic', 'video', 'database', 'indexing', 'teractive', 'systems', 'technology', 'applied', 'video', 'domains', 'including', 'airport', 'terminal', 'parking', 'trac', 'subway', 'stations', 'aerial', 'surveillance', 'sign', 'language', 'work', 'survey', 'main', 'components', 'event', 'understanding', 'process', 'abstraction', 'event', 'modeling', 'abstraction', 'process', 'molding', 'informative', 'units', 'input', 'event', 'model', 'event', 'modeling', 'devoted', 'describing', 'events', 'formally', 'enabling', 'recognition', 'events', 'occur', 'video', 'sequence', 'event', 'modeling', 'decomposed', 'categories', 'pattern', 'recognition', 'methods', 'state', 'event', 'models', 'semantic', 'event', 'models', 'survey', 'discuss', 'proposed', 'taxonomy', 'literature', 'unifying', 'terminology', 'discuss', 'popular', 'abstraction', 'schemes', 'motion', 'history', 'images', 'event', 'modeling', 'formalisms', 'hidden', 'markov', 'model', 'video', 'event', 'understanding', 'extensive', 'examples', 'literature', 'finally', 'consider', 'applica', 'tion', 'domain', 'video', 'event', 'understanding', 'light', 'proposed', 'taxonomy', 'propose', 'future', 'directions', 'research']</t>
-  </si>
-  <si>
-    <t>x1: 0.36|x2: 0.00|x3: 0.72|x4: 0.27|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.27|x17: 0.00</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 5, 16]</t>
+    <t>['identifying', 'boundary', 'specie', 'niche', 'observational', 'environmental', 'common', 'problem', 'ecology', 'conservation', 'biology', 'variety', 'technique', 'developed', 'applied', 'model', 'niche', 'predict', 'distribution', 'examine', 'performance', 'pattern', 'recognition', 'method', 'ecological', 'niche', 'model', 'enms', 'particularly', 'oneclass', 'pattern', 'recognition', 'flexible', 'seldom', 'methodology', 'modeling', 'ecological', 'niche', 'distribution', 'presenceonly', 'development', 'oneclass', 'method', 'perform', 'comparably', 'twoclass', 'method', 'presenceabsence', 'remove', 'modeling', 'decision', 'sampling', 'pseudoabsences', 'background', 'point', 'absence', 'point', 'unavailable', 'studied', 'method', 'oneclass', 'classification', 'method', 'twoclass', 'classification', 'common', 'primarily', 'pattern', 'recognition', 'common', 'specie', 'distribution', 'ecological', 'niche', 'modeling', 'mountain', 'plant', 'specie', 'presenceabsence', 'available', 'assessed', 'accuracy', 'standard', 'metric', 'compared', 'tradeoff', 'omission', 'commission', 'error', 'classification', 'group', 'effect', 'prevalence', 'spatial', 'autocorrelation', 'accuracy', 'oneclass', 'model', 'presenceonly', 'comparable', 'twoclass', 'model', 'presenceabsence', 'performance', 'evaluated', 'measure', 'weighting', 'omission', 'commission', 'error', 'equally', 'oneclass', 'model', 'superior', 'reducing', 'omission', 'error', 'yielding', 'higher', 'sensitivity', 'twoclasses', 'model', 'superior', 'reducing', 'commission', 'error', 'yielding', 'higher', 'specificity', 'method', 'spatial', 'autocorrelation', 'influential', 'prevalence', 'result', 'differ', 'previous', 'effort', 'evaluate', 'alternative', 'modelling', 'approach', 'build', 'particularly', 'noteworthy', 'exhaustively', 'sampled', 'population', 'minimizing', 'false', 'absence', 'record', 'accurate', 'transferable', 'model', 'specie', 'ecological', 'niche', 'distribution', 'needed', 'advance', 'ecological', 'research', 'crucial', 'effective', 'environmental', 'planning', 'conservation', 'approach', 'studied', 'good', 'potential', 'future', 'modeling', 'study', 'study', 'provides', 'introduction', 'promising', 'method', 'ecological', 'modeling', 'inherited', 'pattern', 'recognition', 'discipline']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.00|x6: 0.10|x7: 0.00|x8: 0.15|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.40|x13: 0.00|x14: 0.24|x15: 0.17|x16: 0.21|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[12, 14, 16]</t>
+  </si>
+  <si>
+    <t>['apply', 'recently', 'developed', 'spatial', 'biosurveillance', 'technique', 'enforcement', 'domain', 'goal', 'helping', 'local', 'police', 'department', 'rapidly', 'detect', 'respond', 'better', 'predict', 'prevent', 'emerging', 'spatial', 'pattern', 'crime', 'background', 'geographic', 'surveillance', 'technique', 'increasingly', 'important', 'enforcement', 'crime', 'prevention', 'method', 'mapping', 'crime', 'automatically', 'detecting', 'crime', 'spot', 'electronic', 'report', 'situational', 'awareness', 'enabled', 'rapid', 'police', 'response', 'emerging', 'crime', 'area', 'additionally', 'recent', 'work', 'crime', 'forecasting', 'enabled', 'enforcement', 'official', 'predict', 'prevent', 'rise', 'crime', 'variety', 'leading', 'indicator', 'current', 'crime', 'detection', 'forecasting', 'method', 'require', 'coarse', 'aggregation', 'month', 'square', 'mile', 'computational', 'consideration', 'relatively', 'number', 'crime', 'limitation', 'reduce', 'spatial', 'temporal', 'precision', 'department', 'pinpoint', 'cluster', 'crime', 'ability', 'rapidly', 'respond', 'cluster', 'propose', 'spatial', 'scan', 'statistic', 'method', 'originally', 'developed', 'biosurveillance', 'domain', 'finer', 'aggregation', 'efficiently', 'search', 'emerging', 'spacetime', 'cluster', 'varying', 'size', 'duration', 'method', 'detection', 'cluster', 'violent', 'crime', 'prediction', 'cluster', 'detecting', 'cluster', 'leading', 'indicator', 'crime']</t>
+  </si>
+  <si>
+    <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.22|x10: 0.00|x11: 0.09|x12: 0.36|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.40|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[3, 9, 12, 16]</t>
+  </si>
+  <si>
+    <t>['bullying', 'widespread', 'european', 'school', 'despite', 'multiple', 'intervention', 'strategy', 'having', 'proposed', 'present', 'study', 'investigates', 'effect', 'novel', 'virtual', 'learning', 'strategy', 'fearnot', 'tackle', 'bullying', 'german', 'sample', 'approach', 'intended', 'primarily', 'victim', 'increase', 'coping', 'skill', 'heighten', 'empathy', 'defence', 'victim', 'noninvolved', 'bystander', 'paper', 'focus', 'defender', 'role', 'applying', 'quantitative', 'qualitative', 'methodology', 'present', 'study', 'fearnot', 'helped', 'noninvolved', 'child', 'defender', 'german', 'subsample', 'effect', 'subsample', 'german', 'defender', 'child', 'initially', 'uninvolved', 'nominated', 'defender', 'peer', 'intervention', 'period', 'significantly', 'popular', 'baseline', 'cognitive', 'empathy', 'theory', 'mind', 'virtual', 'victim', 'compared', 'permanently', 'noninvolved', 'pupil', 'gender', 'interacts', 'defender', 'effect', 'affective', 'empathy', 'emotional', 'contagion', 'particularly', 'associated', 'defender', 'status', 'girl', 'finding', 'discussed', 'relation', 'previous', 'research', 'antibullying', 'intervention', 'strategy', 'cultural', 'difference', 'bullying', 'prevalence', 'rate', 'intervention', 'outcome']</t>
+  </si>
+  <si>
+    <t>x1: 0.16|x2: 0.00|x3: 0.20|x4: 0.28|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.11|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.29|x14: 0.00|x15: 0.00|x16: 0.34|x17: 0.00</t>
+  </si>
+  <si>
+    <t>[4, 13, 16]</t>
+  </si>
+  <si>
+    <t>['understanding', 'video', 'event', 'translation', 'lowlevel', 'content', 'video', 'sequence', 'level', 'semantic', 'concept', 'research', 'topic', 'received', 'recent', 'important', 'application', 'work', 'include', 'smart', 'surveillance', 'semantic', 'video', 'database', 'indexing', 'teractive', 'technology', 'applied', 'video', 'domain', 'including', 'airport', 'terminal', 'parking', 'trac', 'subway', 'station', 'aerial', 'surveillance', 'sign', 'language', 'work', 'survey', 'main', 'component', 'event', 'understanding', 'process', 'abstraction', 'event', 'modeling', 'abstraction', 'process', 'molding', 'informative', 'unit', 'input', 'event', 'model', 'event', 'modeling', 'devoted', 'describing', 'event', 'formally', 'enabling', 'recognition', 'event', 'occur', 'video', 'sequence', 'event', 'modeling', 'decomposed', 'category', 'pattern', 'recognition', 'method', 'state', 'event', 'model', 'semantic', 'event', 'model', 'survey', 'discus', 'proposed', 'taxonomy', 'literature', 'unifying', 'terminology', 'discus', 'popular', 'abstraction', 'scheme', 'motion', 'history', 'image', 'event', 'modeling', 'formalism', 'hidden', 'markov', 'model', 'video', 'event', 'understanding', 'extensive', 'example', 'literature', 'finally', 'consider', 'applica', 'tion', 'domain', 'video', 'event', 'understanding', 'light', 'proposed', 'taxonomy', 'propose', 'future', 'direction', 'research']</t>
+  </si>
+  <si>
+    <t>x1: 0.46|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +1960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2136,10 +2018,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,16 +2070,16 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2205,22 +2087,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -2234,28 +2116,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2263,22 +2145,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -2292,28 +2174,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2321,22 +2203,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -2350,28 +2232,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2379,19 +2261,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -2411,7 +2293,7 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -2426,10 +2308,10 @@
         <v>52</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,7 +2322,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -2452,13 +2334,13 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,28 +2348,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,22 +2377,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -2524,22 +2406,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -2553,22 +2435,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -2582,22 +2464,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -2611,22 +2493,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2640,28 +2522,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2669,22 +2551,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
         <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -2698,22 +2580,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2727,28 +2609,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2756,22 +2638,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2785,22 +2667,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>102</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -2814,28 +2696,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
         <v>103</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" t="s">
-        <v>106</v>
-      </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2843,28 +2725,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
-      </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2872,28 +2754,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>111</v>
       </c>
-      <c r="G28" t="s">
-        <v>112</v>
-      </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2901,22 +2783,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
         <v>114</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>115</v>
-      </c>
-      <c r="G29" t="s">
-        <v>116</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -2930,22 +2812,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
         <v>118</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" t="s">
-        <v>119</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -2959,22 +2841,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>121</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>122</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -2988,22 +2870,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
         <v>124</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -3017,28 +2899,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>128</v>
       </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>129</v>
-      </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,22 +2928,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
         <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>132</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -3075,22 +2957,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
         <v>133</v>
       </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
         <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" t="s">
-        <v>136</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -3104,22 +2986,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>137</v>
       </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" t="s">
-        <v>139</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -3133,22 +3015,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
         <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" t="s">
-        <v>143</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3162,22 +3044,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
         <v>144</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -3191,22 +3073,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
         <v>147</v>
       </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>148</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" t="s">
-        <v>150</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -3220,22 +3102,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
         <v>151</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" t="s">
-        <v>154</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -3249,22 +3131,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -3278,22 +3160,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -3307,22 +3189,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -3336,22 +3218,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -3365,22 +3247,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -3394,22 +3276,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -3423,28 +3305,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,22 +3334,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -3481,28 +3363,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,22 +3392,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -3539,22 +3421,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
         <v>186</v>
-      </c>
-      <c r="D51" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" t="s">
-        <v>193</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -3568,22 +3450,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -3597,22 +3479,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -3626,22 +3508,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -3655,22 +3537,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -3684,22 +3566,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -3713,22 +3595,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G57" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -3742,28 +3624,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,28 +3653,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3800,22 +3682,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -3829,28 +3711,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" t="s">
         <v>218</v>
       </c>
-      <c r="D61" t="s">
-        <v>226</v>
-      </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3858,22 +3740,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -3887,22 +3769,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -3916,22 +3798,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -3945,22 +3827,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3974,22 +3856,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -4003,22 +3885,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -4032,22 +3914,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -4061,28 +3943,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4090,22 +3972,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -4119,28 +4001,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D71" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4148,22 +4030,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="G72" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -4177,28 +4059,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4206,28 +4088,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C74" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="G74" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4235,25 +4117,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -4264,22 +4146,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" t="s">
         <v>269</v>
-      </c>
-      <c r="D76" t="s">
-        <v>275</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" t="s">
-        <v>169</v>
-      </c>
-      <c r="G76" t="s">
-        <v>276</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -4293,22 +4175,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -4322,22 +4204,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -4351,28 +4233,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="G79" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4380,28 +4262,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4409,22 +4291,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="G81" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -4438,22 +4320,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C82" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -4467,22 +4349,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -4496,22 +4378,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C84" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -4525,22 +4407,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="G85" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -4554,28 +4436,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,22 +4465,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="G87" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -4612,22 +4494,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -4641,22 +4523,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G89" t="s">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -4670,22 +4552,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="G90" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -4699,22 +4581,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D91" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="G91" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -4728,22 +4610,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D92" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>331</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -4757,22 +4639,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="G93" t="s">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4786,22 +4668,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>338</v>
+        <v>64</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -4815,28 +4697,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C95" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,22 +4726,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D96" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -4873,22 +4755,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>346</v>
+        <v>162</v>
       </c>
       <c r="G97" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -4902,22 +4784,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C98" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D98" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>350</v>
+        <v>144</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -4931,28 +4813,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D99" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="G99" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4960,22 +4842,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="G100" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -4989,28 +4871,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D101" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>59</v>
+        <v>345</v>
       </c>
       <c r="G101" t="s">
-        <v>360</v>
+        <v>141</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,22 +4900,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C102" t="s">
-        <v>362</v>
+        <v>253</v>
       </c>
       <c r="D102" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="G102" t="s">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -5047,22 +4929,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -5076,22 +4958,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="G104" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -5105,22 +4987,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>375</v>
+        <v>110</v>
       </c>
       <c r="G105" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -5134,22 +5016,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C106" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D106" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>379</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -5163,22 +5045,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="G107" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
@@ -5192,22 +5074,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C108" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="G108" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
@@ -5221,22 +5103,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
         <v>367</v>
       </c>
-      <c r="D109" t="s">
-        <v>387</v>
-      </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G109" t="s">
-        <v>388</v>
+        <v>52</v>
       </c>
       <c r="H109" t="b">
         <v>1</v>
@@ -5250,22 +5132,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D110" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
@@ -5279,22 +5161,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C111" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D111" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="G111" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -5308,22 +5190,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D112" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>398</v>
+        <v>96</v>
       </c>
       <c r="G112" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -5337,22 +5219,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D113" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="G113" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -5366,22 +5248,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C114" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="G114" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5395,22 +5277,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="G115" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
@@ -5424,22 +5306,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C116" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D116" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="G116" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5453,22 +5335,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C117" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D117" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -5482,22 +5364,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" t="s">
         <v>393</v>
       </c>
-      <c r="D118" t="s">
-        <v>416</v>
-      </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="G118" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -5511,22 +5393,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D119" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -5540,28 +5422,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C120" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D120" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G120" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="H120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5569,28 +5451,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C121" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D121" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="H121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,28 +5480,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D122" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>430</v>
+        <v>147</v>
       </c>
       <c r="G122" t="s">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="H122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5627,22 +5509,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C123" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G123" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5656,22 +5538,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C124" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D124" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G124" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -5685,28 +5567,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="C125" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D125" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5714,28 +5596,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D126" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>442</v>
+        <v>52</v>
       </c>
       <c r="H126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5743,22 +5625,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="G127" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -5772,22 +5654,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s">
-        <v>65</v>
+        <v>423</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
@@ -5801,22 +5683,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>426</v>
       </c>
       <c r="G129" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
@@ -5830,22 +5712,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
@@ -5859,22 +5741,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="C131" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D131" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -5888,22 +5770,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G132" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -5917,22 +5799,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G133" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -5946,22 +5828,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D134" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
@@ -5975,28 +5857,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D135" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>469</v>
+        <v>131</v>
       </c>
       <c r="H135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6004,13 +5886,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="D136" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -6019,7 +5901,7 @@
         <v>55</v>
       </c>
       <c r="G136" t="s">
-        <v>473</v>
+        <v>277</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -6033,28 +5915,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="C137" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D137" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>476</v>
+        <v>51</v>
       </c>
       <c r="G137" t="s">
-        <v>477</v>
+        <v>100</v>
       </c>
       <c r="H137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6062,22 +5944,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D138" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>480</v>
+        <v>172</v>
       </c>
       <c r="G138" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
@@ -6091,22 +5973,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="G139" t="s">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -6120,22 +6002,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="C140" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D140" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G140" t="s">
-        <v>486</v>
+        <v>356</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6149,28 +6031,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D141" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="G141" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="H141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6178,22 +6060,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="C142" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D142" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G142" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -6207,22 +6089,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="C143" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D143" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
@@ -6236,22 +6118,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D144" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="G144" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
@@ -6265,22 +6147,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="C145" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="D145" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="G145" t="s">
-        <v>502</v>
+        <v>77</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
@@ -6294,22 +6176,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D146" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>476</v>
+        <v>73</v>
       </c>
       <c r="G146" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -6323,22 +6205,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C147" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D147" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="G147" t="s">
-        <v>508</v>
+        <v>97</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
@@ -6352,22 +6234,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="C148" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D148" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>512</v>
+        <v>252</v>
       </c>
       <c r="G148" t="s">
-        <v>213</v>
+        <v>480</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -6381,22 +6263,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="C149" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D149" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="G149" t="s">
-        <v>515</v>
+        <v>232</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -6410,22 +6292,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="C150" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D150" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="G150" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
@@ -6439,28 +6321,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="C151" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D151" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G151" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="H151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,22 +6350,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D152" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
+        <v>345</v>
       </c>
       <c r="G152" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -6497,22 +6379,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D153" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>153</v>
+        <v>345</v>
       </c>
       <c r="G153" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -6526,22 +6408,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="C154" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D154" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G154" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -6555,28 +6437,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="C155" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D155" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="H155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6584,28 +6466,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="C156" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D156" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="G156" t="s">
-        <v>536</v>
+        <v>209</v>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6613,22 +6495,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="C157" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D157" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
       <c r="G157" t="s">
-        <v>539</v>
+        <v>388</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -6642,22 +6524,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D158" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
+        <v>504</v>
       </c>
       <c r="G158" t="s">
-        <v>542</v>
+        <v>382</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
@@ -6671,22 +6553,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="C159" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="D159" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>430</v>
+        <v>208</v>
       </c>
       <c r="G159" t="s">
-        <v>545</v>
+        <v>209</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -6700,22 +6582,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="C160" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D160" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="G160" t="s">
-        <v>548</v>
+        <v>394</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
@@ -6729,22 +6611,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C161" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D161" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="G161" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -6758,28 +6640,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D162" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="G162" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="H162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -6787,22 +6669,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="C163" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D163" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="G163" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
@@ -6816,22 +6698,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="C164" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D164" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="H164" t="b">
         <v>1</v>
@@ -6845,28 +6727,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="C165" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D165" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
